--- a/IndicatorsTests/Test Data/History.xlsx
+++ b/IndicatorsTests/Test Data/History.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\IndicatorsTests\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE2540-07E3-480E-875D-4A8766DB883F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D997E7A-9BB3-47D2-8B8E-CB25214A6784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,71 +666,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -820,6 +756,29 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -963,6 +922,29 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -981,6 +963,25 @@
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -995,44 +996,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:I503" totalsRowShown="0" headerRowDxfId="2" dataDxfId="21" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:I503" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="19" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="17">
       <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="18" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="17" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="11" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7FBF0C4-2D87-4ACD-AFCE-78C17C20496F}" name="testdata_other" displayName="testdata_other" ref="A1:I503" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7FBF0C4-2D87-4ACD-AFCE-78C17C20496F}" name="testdata_other" displayName="testdata_other" ref="A1:I503" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{09F434F8-2762-4D53-B864-EE5CF712A65F}" name="Index" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{A79861BC-7745-462A-AA04-8C5B139445DD}" name="symbol" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C0EC46FE-692D-4F84-8E53-54D506FC6C52}" name="code" dataDxfId="11">
+    <tableColumn id="9" xr3:uid="{09F434F8-2762-4D53-B864-EE5CF712A65F}" name="Index" dataDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{A79861BC-7745-462A-AA04-8C5B139445DD}" name="symbol" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C0EC46FE-692D-4F84-8E53-54D506FC6C52}" name="code" dataDxfId="6">
       <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52C8A72C-9901-43D4-9EFB-6A7DEF9803C8}" name="date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{ED60DC4C-9D5F-404C-AF5B-D2AB3454BFDC}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{6F343C4B-558B-40DD-BDBE-8AC1E73A8A09}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{76ACC189-A0C4-41BE-AC4B-E7974CA91250}" name="low" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{064878FE-D3D5-41CB-B806-B4DB1749F21C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{60410A30-408D-4E18-82F8-E1B6AC44D798}" name="volume" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{52C8A72C-9901-43D4-9EFB-6A7DEF9803C8}" name="date" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{ED60DC4C-9D5F-404C-AF5B-D2AB3454BFDC}" name="open" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{6F343C4B-558B-40DD-BDBE-8AC1E73A8A09}" name="high" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{76ACC189-A0C4-41BE-AC4B-E7974CA91250}" name="low" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{064878FE-D3D5-41CB-B806-B4DB1749F21C}" name="close" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{60410A30-408D-4E18-82F8-E1B6AC44D798}" name="volume" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/IndicatorsTests/Test Data/History.xlsx
+++ b/IndicatorsTests/Test Data/History.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\IndicatorsTests\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D997E7A-9BB3-47D2-8B8E-CB25214A6784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97CCCAE-5582-467E-AE97-BD89B4F134A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27360" yWindow="1440" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HistoryData" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -655,6 +656,14 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -753,9 +762,6 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -919,9 +925,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -997,43 +1000,43 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:I503" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <sortState ref="B2:I503">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="Index" dataDxfId="19" dataCellStyle="Currency"/>
     <tableColumn id="1" xr3:uid="{DD54CCF5-B894-464C-82C5-1C75A48942B7}" name="symbol" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="17">
-      <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{4C01765B-A5DE-46C8-AA90-F736AC067C2C}" name="code" dataDxfId="1">
+      <calculatedColumnFormula>"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="12" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="15" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="12" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7FBF0C4-2D87-4ACD-AFCE-78C17C20496F}" name="testdata_other" displayName="testdata_other" ref="A1:I503" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <sortState ref="B2:I503">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7FBF0C4-2D87-4ACD-AFCE-78C17C20496F}" name="testdata_other" displayName="testdata_other" ref="A1:I503" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Currency" dataCellStyle="Currency">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I503">
     <sortCondition ref="D2"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{09F434F8-2762-4D53-B864-EE5CF712A65F}" name="Index" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{A79861BC-7745-462A-AA04-8C5B139445DD}" name="symbol" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{C0EC46FE-692D-4F84-8E53-54D506FC6C52}" name="code" dataDxfId="6">
-      <calculatedColumnFormula>"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{09F434F8-2762-4D53-B864-EE5CF712A65F}" name="Index" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{A79861BC-7745-462A-AA04-8C5B139445DD}" name="symbol" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{C0EC46FE-692D-4F84-8E53-54D506FC6C52}" name="code" dataDxfId="0">
+      <calculatedColumnFormula>"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{52C8A72C-9901-43D4-9EFB-6A7DEF9803C8}" name="date" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{ED60DC4C-9D5F-404C-AF5B-D2AB3454BFDC}" name="open" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{6F343C4B-558B-40DD-BDBE-8AC1E73A8A09}" name="high" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{76ACC189-A0C4-41BE-AC4B-E7974CA91250}" name="low" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{064878FE-D3D5-41CB-B806-B4DB1749F21C}" name="close" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{60410A30-408D-4E18-82F8-E1B6AC44D798}" name="volume" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{52C8A72C-9901-43D4-9EFB-6A7DEF9803C8}" name="date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{ED60DC4C-9D5F-404C-AF5B-D2AB3454BFDC}" name="open" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{6F343C4B-558B-40DD-BDBE-8AC1E73A8A09}" name="high" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{76ACC189-A0C4-41BE-AC4B-E7974CA91250}" name="low" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{064878FE-D3D5-41CB-B806-B4DB1749F21C}" name="close" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{60410A30-408D-4E18-82F8-E1B6AC44D798}" name="volume" dataDxfId="2" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1338,15 +1341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="157.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
     <col min="5" max="8" width="10.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
@@ -1389,8 +1390,8 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f t="shared" ref="C2:C65" si="0">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-01-03"), Open=(decimal)212.61, High=(decimal)213.35, Low=(decimal)211.52, Close=(decimal)212.8, Volume = (long)96708880 },</v>
+        <f t="shared" ref="C2:C65" si="0">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-03","yyyy-MM-dd",cultureProvider), Open=212.61m, High=213.35m, Low=211.52m, Close=212.8m, Volume = (long)96708880 },</v>
       </c>
       <c r="D2" s="3">
         <v>42738</v>
@@ -1420,7 +1421,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-04"), Open=(decimal)213.16, High=(decimal)214.22, Low=(decimal)213.15, Close=(decimal)214.06, Volume = (long)83348752 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-04","yyyy-MM-dd",cultureProvider), Open=213.16m, High=214.22m, Low=213.15m, Close=214.06m, Volume = (long)83348752 },</v>
       </c>
       <c r="D3" s="3">
         <v>42739</v>
@@ -1450,7 +1451,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-05"), Open=(decimal)213.77, High=(decimal)214.06, Low=(decimal)213.02, Close=(decimal)213.89, Volume = (long)82961968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-05","yyyy-MM-dd",cultureProvider), Open=213.77m, High=214.06m, Low=213.02m, Close=213.89m, Volume = (long)82961968 },</v>
       </c>
       <c r="D4" s="3">
         <v>42740</v>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-06"), Open=(decimal)214.02, High=(decimal)215.17, Low=(decimal)213.42, Close=(decimal)214.66, Volume = (long)75744152 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-06","yyyy-MM-dd",cultureProvider), Open=214.02m, High=215.17m, Low=213.42m, Close=214.66m, Volume = (long)75744152 },</v>
       </c>
       <c r="D5" s="3">
         <v>42741</v>
@@ -1510,7 +1511,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-09"), Open=(decimal)214.38, High=(decimal)214.53, Low=(decimal)213.91, Close=(decimal)213.95, Volume = (long)49684316 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-09","yyyy-MM-dd",cultureProvider), Open=214.38m, High=214.53m, Low=213.91m, Close=213.95m, Volume = (long)49684316 },</v>
       </c>
       <c r="D6" s="3">
         <v>42744</v>
@@ -1540,7 +1541,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-10"), Open=(decimal)213.97, High=(decimal)214.89, Low=(decimal)213.52, Close=(decimal)213.95, Volume = (long)67500792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-10","yyyy-MM-dd",cultureProvider), Open=213.97m, High=214.89m, Low=213.52m, Close=213.95m, Volume = (long)67500792 },</v>
       </c>
       <c r="D7" s="3">
         <v>42745</v>
@@ -1570,7 +1571,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-11"), Open=(decimal)213.86, High=(decimal)214.55, Low=(decimal)213.13, Close=(decimal)214.55, Volume = (long)79014928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-11","yyyy-MM-dd",cultureProvider), Open=213.86m, High=214.55m, Low=213.13m, Close=214.55m, Volume = (long)79014928 },</v>
       </c>
       <c r="D8" s="3">
         <v>42746</v>
@@ -1600,7 +1601,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-12"), Open=(decimal)213.99, High=(decimal)214.22, Low=(decimal)212.53, Close=(decimal)214.02, Volume = (long)76329760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-12","yyyy-MM-dd",cultureProvider), Open=213.99m, High=214.22m, Low=212.53m, Close=214.02m, Volume = (long)76329760 },</v>
       </c>
       <c r="D9" s="3">
         <v>42747</v>
@@ -1630,7 +1631,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-13"), Open=(decimal)214.21, High=(decimal)214.84, Low=(decimal)214.17, Close=(decimal)214.51, Volume = (long)66385084 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-13","yyyy-MM-dd",cultureProvider), Open=214.21m, High=214.84m, Low=214.17m, Close=214.51m, Volume = (long)66385084 },</v>
       </c>
       <c r="D10" s="3">
         <v>42748</v>
@@ -1660,7 +1661,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-17"), Open=(decimal)213.81, High=(decimal)214.25, Low=(decimal)213.33, Close=(decimal)213.75, Volume = (long)64821664 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-17","yyyy-MM-dd",cultureProvider), Open=213.81m, High=214.25m, Low=213.33m, Close=213.75m, Volume = (long)64821664 },</v>
       </c>
       <c r="D11" s="3">
         <v>42752</v>
@@ -1690,7 +1691,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-18"), Open=(decimal)214.02, High=(decimal)214.27, Low=(decimal)213.42, Close=(decimal)214.22, Volume = (long)57997156 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-18","yyyy-MM-dd",cultureProvider), Open=214.02m, High=214.27m, Low=213.42m, Close=214.22m, Volume = (long)57997156 },</v>
       </c>
       <c r="D12" s="3">
         <v>42753</v>
@@ -1720,7 +1721,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-19"), Open=(decimal)214.31, High=(decimal)214.46, Low=(decimal)212.96, Close=(decimal)213.43, Volume = (long)70503512 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-19","yyyy-MM-dd",cultureProvider), Open=214.31m, High=214.46m, Low=212.96m, Close=213.43m, Volume = (long)70503512 },</v>
       </c>
       <c r="D13" s="3">
         <v>42754</v>
@@ -1750,7 +1751,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-20"), Open=(decimal)214.18, High=(decimal)214.75, Low=(decimal)213.49, Close=(decimal)214.21, Volume = (long)136721344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-20","yyyy-MM-dd",cultureProvider), Open=214.18m, High=214.75m, Low=213.49m, Close=214.21m, Volume = (long)136721344 },</v>
       </c>
       <c r="D14" s="3">
         <v>42755</v>
@@ -1780,7 +1781,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-23"), Open=(decimal)213.85, High=(decimal)214.28, Low=(decimal)212.83, Close=(decimal)213.66, Volume = (long)79450624 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-23","yyyy-MM-dd",cultureProvider), Open=213.85m, High=214.28m, Low=212.83m, Close=213.66m, Volume = (long)79450624 },</v>
       </c>
       <c r="D15" s="3">
         <v>42758</v>
@@ -1810,7 +1811,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-24"), Open=(decimal)213.89, High=(decimal)215.48, Low=(decimal)213.77, Close=(decimal)215.03, Volume = (long)101142584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-24","yyyy-MM-dd",cultureProvider), Open=213.89m, High=215.48m, Low=213.77m, Close=215.03m, Volume = (long)101142584 },</v>
       </c>
       <c r="D16" s="3">
         <v>42759</v>
@@ -1840,7 +1841,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-25"), Open=(decimal)216.07, High=(decimal)216.89, Low=(decimal)215.89, Close=(decimal)216.89, Volume = (long)89374928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-25","yyyy-MM-dd",cultureProvider), Open=216.07m, High=216.89m, Low=215.89m, Close=216.89m, Volume = (long)89374928 },</v>
       </c>
       <c r="D17" s="3">
         <v>42760</v>
@@ -1870,7 +1871,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-26"), Open=(decimal)216.73, High=(decimal)217.02, Low=(decimal)216.36, Close=(decimal)216.66, Volume = (long)63477304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-26","yyyy-MM-dd",cultureProvider), Open=216.73m, High=217.02m, Low=216.36m, Close=216.66m, Volume = (long)63477304 },</v>
       </c>
       <c r="D18" s="3">
         <v>42761</v>
@@ -1900,7 +1901,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-27"), Open=(decimal)216.75, High=(decimal)216.91, Low=(decimal)216.12, Close=(decimal)216.32, Volume = (long)63202528 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-27","yyyy-MM-dd",cultureProvider), Open=216.75m, High=216.91m, Low=216.12m, Close=216.32m, Volume = (long)63202528 },</v>
       </c>
       <c r="D19" s="3">
         <v>42762</v>
@@ -1930,7 +1931,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-30"), Open=(decimal)215.57, High=(decimal)215.59, Low=(decimal)213.9, Close=(decimal)214.98, Volume = (long)84399624 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-30","yyyy-MM-dd",cultureProvider), Open=215.57m, High=215.59m, Low=213.9m, Close=214.98m, Volume = (long)84399624 },</v>
       </c>
       <c r="D20" s="3">
         <v>42765</v>
@@ -1960,7 +1961,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-31"), Open=(decimal)214.44, High=(decimal)215.03, Low=(decimal)213.82, Close=(decimal)214.96, Volume = (long)80317680 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-31","yyyy-MM-dd",cultureProvider), Open=214.44m, High=215.03m, Low=213.82m, Close=214.96m, Volume = (long)80317680 },</v>
       </c>
       <c r="D21" s="3">
         <v>42766</v>
@@ -1990,7 +1991,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-01"), Open=(decimal)215.65, High=(decimal)215.96, Low=(decimal)214.4, Close=(decimal)215.05, Volume = (long)83743792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-01","yyyy-MM-dd",cultureProvider), Open=215.65m, High=215.96m, Low=214.4m, Close=215.05m, Volume = (long)83743792 },</v>
       </c>
       <c r="D22" s="3">
         <v>42767</v>
@@ -2020,7 +2021,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-02"), Open=(decimal)214.65, High=(decimal)215.5, Low=(decimal)214.29, Close=(decimal)215.19, Volume = (long)73730552 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-02","yyyy-MM-dd",cultureProvider), Open=214.65m, High=215.5m, Low=214.29m, Close=215.19m, Volume = (long)73730552 },</v>
       </c>
       <c r="D23" s="3">
         <v>42768</v>
@@ -2050,7 +2051,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-03"), Open=(decimal)216.18, High=(decimal)216.87, Low=(decimal)215.84, Close=(decimal)216.67, Volume = (long)85273832 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-03","yyyy-MM-dd",cultureProvider), Open=216.18m, High=216.87m, Low=215.84m, Close=216.67m, Volume = (long)85273832 },</v>
       </c>
       <c r="D24" s="3">
         <v>42769</v>
@@ -2080,7 +2081,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-06"), Open=(decimal)216.23, High=(decimal)216.66, Low=(decimal)215.92, Close=(decimal)216.28, Volume = (long)61169192 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-06","yyyy-MM-dd",cultureProvider), Open=216.23m, High=216.66m, Low=215.92m, Close=216.28m, Volume = (long)61169192 },</v>
       </c>
       <c r="D25" s="3">
         <v>42772</v>
@@ -2110,7 +2111,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-07"), Open=(decimal)216.71, High=(decimal)216.97, Low=(decimal)216.09, Close=(decimal)216.29, Volume = (long)61318484 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-07","yyyy-MM-dd",cultureProvider), Open=216.71m, High=216.97m, Low=216.09m, Close=216.29m, Volume = (long)61318484 },</v>
       </c>
       <c r="D26" s="3">
         <v>42773</v>
@@ -2140,7 +2141,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-08"), Open=(decimal)215.98, High=(decimal)216.72, Low=(decimal)215.7, Close=(decimal)216.58, Volume = (long)54581376 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-08","yyyy-MM-dd",cultureProvider), Open=215.98m, High=216.72m, Low=215.7m, Close=216.58m, Volume = (long)54581376 },</v>
       </c>
       <c r="D27" s="3">
         <v>42774</v>
@@ -2170,7 +2171,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-09"), Open=(decimal)216.88, High=(decimal)218.19, Low=(decimal)216.84, Close=(decimal)217.86, Volume = (long)69811760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-09","yyyy-MM-dd",cultureProvider), Open=216.88m, High=218.19m, Low=216.84m, Close=217.86m, Volume = (long)69811760 },</v>
       </c>
       <c r="D28" s="3">
         <v>42775</v>
@@ -2200,7 +2201,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-10"), Open=(decimal)218.24, High=(decimal)218.97, Low=(decimal)217.88, Close=(decimal)218.72, Volume = (long)69875952 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-10","yyyy-MM-dd",cultureProvider), Open=218.24m, High=218.97m, Low=217.88m, Close=218.72m, Volume = (long)69875952 },</v>
       </c>
       <c r="D29" s="3">
         <v>42776</v>
@@ -2230,7 +2231,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-13"), Open=(decimal)219.26, High=(decimal)220.19, Low=(decimal)219.23, Close=(decimal)219.91, Volume = (long)58408632 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-13","yyyy-MM-dd",cultureProvider), Open=219.26m, High=220.19m, Low=219.23m, Close=219.91m, Volume = (long)58408632 },</v>
       </c>
       <c r="D30" s="3">
         <v>42779</v>
@@ -2260,7 +2261,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-14"), Open=(decimal)219.71, High=(decimal)220.8, Low=(decimal)219.33, Close=(decimal)220.79, Volume = (long)75266840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-14","yyyy-MM-dd",cultureProvider), Open=219.71m, High=220.8m, Low=219.33m, Close=220.79m, Volume = (long)75266840 },</v>
       </c>
       <c r="D31" s="3">
         <v>42780</v>
@@ -2290,7 +2291,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-15"), Open=(decimal)220.55, High=(decimal)222.15, Low=(decimal)220.5, Close=(decimal)221.94, Volume = (long)91860344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-15","yyyy-MM-dd",cultureProvider), Open=220.55m, High=222.15m, Low=220.5m, Close=221.94m, Volume = (long)91860344 },</v>
       </c>
       <c r="D32" s="3">
         <v>42781</v>
@@ -2320,7 +2321,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-16"), Open=(decimal)221.98, High=(decimal)222.16, Low=(decimal)220.93, Close=(decimal)221.75, Volume = (long)89676304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-16","yyyy-MM-dd",cultureProvider), Open=221.98m, High=222.16m, Low=220.93m, Close=221.75m, Volume = (long)89676304 },</v>
       </c>
       <c r="D33" s="3">
         <v>42782</v>
@@ -2350,7 +2351,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-17"), Open=(decimal)221.03, High=(decimal)222.1, Low=(decimal)221.01, Close=(decimal)222.1, Volume = (long)81718352 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-17","yyyy-MM-dd",cultureProvider), Open=221.03m, High=222.1m, Low=221.01m, Close=222.1m, Volume = (long)81718352 },</v>
       </c>
       <c r="D34" s="3">
         <v>42783</v>
@@ -2380,7 +2381,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-21"), Open=(decimal)222.51, High=(decimal)223.62, Low=(decimal)222.5, Close=(decimal)223.43, Volume = (long)94146880 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-21","yyyy-MM-dd",cultureProvider), Open=222.51m, High=223.62m, Low=222.5m, Close=223.43m, Volume = (long)94146880 },</v>
       </c>
       <c r="D35" s="3">
         <v>42787</v>
@@ -2410,7 +2411,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-22"), Open=(decimal)222.98, High=(decimal)223.47, Low=(decimal)222.8, Close=(decimal)223.23, Volume = (long)65747160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-22","yyyy-MM-dd",cultureProvider), Open=222.98m, High=223.47m, Low=222.8m, Close=223.23m, Volume = (long)65747160 },</v>
       </c>
       <c r="D36" s="3">
         <v>42788</v>
@@ -2440,7 +2441,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-23"), Open=(decimal)223.79, High=(decimal)223.81, Low=(decimal)222.55, Close=(decimal)223.38, Volume = (long)78978816 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-23","yyyy-MM-dd",cultureProvider), Open=223.79m, High=223.81m, Low=222.55m, Close=223.38m, Volume = (long)78978816 },</v>
       </c>
       <c r="D37" s="3">
         <v>42789</v>
@@ -2470,7 +2471,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-24"), Open=(decimal)222.45, High=(decimal)223.71, Low=(decimal)222.41, Close=(decimal)223.66, Volume = (long)87198608 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-24","yyyy-MM-dd",cultureProvider), Open=222.45m, High=223.71m, Low=222.41m, Close=223.66m, Volume = (long)87198608 },</v>
       </c>
       <c r="D38" s="3">
         <v>42790</v>
@@ -2500,7 +2501,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-27"), Open=(decimal)223.57, High=(decimal)224.2, Low=(decimal)223.29, Close=(decimal)224.01, Volume = (long)59819992 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-27","yyyy-MM-dd",cultureProvider), Open=223.57m, High=224.2m, Low=223.29m, Close=224.01m, Volume = (long)59819992 },</v>
       </c>
       <c r="D39" s="3">
         <v>42793</v>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-28"), Open=(decimal)223.6, High=(decimal)223.86, Low=(decimal)222.98, Close=(decimal)223.41, Volume = (long)102631472 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-28","yyyy-MM-dd",cultureProvider), Open=223.6m, High=223.86m, Low=222.98m, Close=223.41m, Volume = (long)102631472 },</v>
       </c>
       <c r="D40" s="3">
         <v>42794</v>
@@ -2560,7 +2561,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-01"), Open=(decimal)225.22, High=(decimal)227.04, Low=(decimal)225.2, Close=(decimal)226.53, Volume = (long)157879712 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-01","yyyy-MM-dd",cultureProvider), Open=225.22m, High=227.04m, Low=225.2m, Close=226.53m, Volume = (long)157879712 },</v>
       </c>
       <c r="D41" s="3">
         <v>42795</v>
@@ -2590,7 +2591,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-02"), Open=(decimal)226.33, High=(decimal)226.34, Low=(decimal)225.05, Close=(decimal)225.11, Volume = (long)74353376 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-02","yyyy-MM-dd",cultureProvider), Open=226.33m, High=226.34m, Low=225.05m, Close=225.11m, Volume = (long)74353376 },</v>
       </c>
       <c r="D42" s="3">
         <v>42796</v>
@@ -2620,7 +2621,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-03"), Open=(decimal)225.01, High=(decimal)225.43, Low=(decimal)224.6, Close=(decimal)225.25, Volume = (long)86767480 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-03","yyyy-MM-dd",cultureProvider), Open=225.01m, High=225.43m, Low=224.6m, Close=225.25m, Volume = (long)86767480 },</v>
       </c>
       <c r="D43" s="3">
         <v>42797</v>
@@ -2650,7 +2651,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-06"), Open=(decimal)224.38, High=(decimal)224.97, Low=(decimal)223.92, Close=(decimal)224.58, Volume = (long)58630368 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-06","yyyy-MM-dd",cultureProvider), Open=224.38m, High=224.97m, Low=223.92m, Close=224.58m, Volume = (long)58630368 },</v>
       </c>
       <c r="D44" s="3">
         <v>42800</v>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-07"), Open=(decimal)224.25, High=(decimal)224.64, Low=(decimal)223.68, Close=(decimal)223.91, Volume = (long)68910464 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-07","yyyy-MM-dd",cultureProvider), Open=224.25m, High=224.64m, Low=223.68m, Close=223.91m, Volume = (long)68910464 },</v>
       </c>
       <c r="D45" s="3">
         <v>42801</v>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-08"), Open=(decimal)224.23, High=(decimal)224.51, Low=(decimal)223.34, Close=(decimal)223.49, Volume = (long)82739456 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-08","yyyy-MM-dd",cultureProvider), Open=224.23m, High=224.51m, Low=223.34m, Close=223.49m, Volume = (long)82739456 },</v>
       </c>
       <c r="D46" s="3">
         <v>42802</v>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-09"), Open=(decimal)223.62, High=(decimal)224.13, Low=(decimal)222.72, Close=(decimal)223.78, Volume = (long)95986360 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-09","yyyy-MM-dd",cultureProvider), Open=223.62m, High=224.13m, Low=222.72m, Close=223.78m, Volume = (long)95986360 },</v>
       </c>
       <c r="D47" s="3">
         <v>42803</v>
@@ -2770,7 +2771,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-10"), Open=(decimal)224.82, High=(decimal)224.87, Low=(decimal)223.52, Close=(decimal)224.56, Volume = (long)86785840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-10","yyyy-MM-dd",cultureProvider), Open=224.82m, High=224.87m, Low=223.52m, Close=224.56m, Volume = (long)86785840 },</v>
       </c>
       <c r="D48" s="3">
         <v>42804</v>
@@ -2800,7 +2801,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-13"), Open=(decimal)224.49, High=(decimal)224.72, Low=(decimal)224.13, Close=(decimal)224.67, Volume = (long)60604724 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-13","yyyy-MM-dd",cultureProvider), Open=224.49m, High=224.72m, Low=224.13m, Close=224.67m, Volume = (long)60604724 },</v>
       </c>
       <c r="D49" s="3">
         <v>42807</v>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-14"), Open=(decimal)224.08, High=(decimal)224.13, Low=(decimal)223.14, Close=(decimal)223.81, Volume = (long)63382108 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-14","yyyy-MM-dd",cultureProvider), Open=224.08m, High=224.13m, Low=223.14m, Close=223.81m, Volume = (long)63382108 },</v>
       </c>
       <c r="D50" s="3">
         <v>42808</v>
@@ -2860,7 +2861,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-15"), Open=(decimal)224.44, High=(decimal)226.21, Low=(decimal)224.18, Close=(decimal)225.75, Volume = (long)101699816 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-15","yyyy-MM-dd",cultureProvider), Open=224.44m, High=226.21m, Low=224.18m, Close=225.75m, Volume = (long)101699816 },</v>
       </c>
       <c r="D51" s="3">
         <v>42809</v>
@@ -2890,7 +2891,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-16"), Open=(decimal)225.9, High=(decimal)225.99, Low=(decimal)224.95, Close=(decimal)225.31, Volume = (long)82924856 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-16","yyyy-MM-dd",cultureProvider), Open=225.9m, High=225.99m, Low=224.95m, Close=225.31m, Volume = (long)82924856 },</v>
       </c>
       <c r="D52" s="3">
         <v>42810</v>
@@ -2920,7 +2921,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-17"), Open=(decimal)225.59, High=(decimal)225.8, Low=(decimal)224.91, Close=(decimal)224.91, Volume = (long)93798120 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-17","yyyy-MM-dd",cultureProvider), Open=225.59m, High=225.8m, Low=224.91m, Close=224.91m, Volume = (long)93798120 },</v>
       </c>
       <c r="D53" s="3">
         <v>42811</v>
@@ -2950,7 +2951,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-20"), Open=(decimal)224.91, High=(decimal)225.22, Low=(decimal)224.24, Close=(decimal)224.66, Volume = (long)55368008 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-20","yyyy-MM-dd",cultureProvider), Open=224.91m, High=225.22m, Low=224.24m, Close=224.66m, Volume = (long)55368008 },</v>
       </c>
       <c r="D54" s="3">
         <v>42814</v>
@@ -2980,7 +2981,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-21"), Open=(decimal)225.33, High=(decimal)225.46, Low=(decimal)221.64, Close=(decimal)221.78, Volume = (long)138912016 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-21","yyyy-MM-dd",cultureProvider), Open=225.33m, High=225.46m, Low=221.64m, Close=221.78m, Volume = (long)138912016 },</v>
       </c>
       <c r="D55" s="3">
         <v>42815</v>
@@ -3010,7 +3011,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-22"), Open=(decimal)221.82, High=(decimal)222.61, Low=(decimal)221.13, Close=(decimal)222.3, Volume = (long)102826864 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-22","yyyy-MM-dd",cultureProvider), Open=221.82m, High=222.61m, Low=221.13m, Close=222.3m, Volume = (long)102826864 },</v>
       </c>
       <c r="D56" s="3">
         <v>42816</v>
@@ -3040,7 +3041,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-23"), Open=(decimal)222.04, High=(decimal)223.31, Low=(decimal)221.66, Close=(decimal)222.06, Volume = (long)105821032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-23","yyyy-MM-dd",cultureProvider), Open=222.04m, High=223.31m, Low=221.66m, Close=222.06m, Volume = (long)105821032 },</v>
       </c>
       <c r="D57" s="3">
         <v>42817</v>
@@ -3070,7 +3071,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-24"), Open=(decimal)222.4, High=(decimal)223.02, Low=(decimal)221.05, Close=(decimal)221.9, Volume = (long)118567344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-24","yyyy-MM-dd",cultureProvider), Open=222.4m, High=223.02m, Low=221.05m, Close=221.9m, Volume = (long)118567344 },</v>
       </c>
       <c r="D58" s="3">
         <v>42818</v>
@@ -3100,7 +3101,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-27"), Open=(decimal)220.07, High=(decimal)221.96, Low=(decimal)219.77, Close=(decimal)221.67, Volume = (long)92167056 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-27","yyyy-MM-dd",cultureProvider), Open=220.07m, High=221.96m, Low=219.77m, Close=221.67m, Volume = (long)92167056 },</v>
       </c>
       <c r="D59" s="3">
         <v>42821</v>
@@ -3130,7 +3131,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-28"), Open=(decimal)221.34, High=(decimal)223.75, Low=(decimal)221.22, Close=(decimal)223.29, Volume = (long)98521432 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-28","yyyy-MM-dd",cultureProvider), Open=221.34m, High=223.75m, Low=221.22m, Close=223.29m, Volume = (long)98521432 },</v>
       </c>
       <c r="D60" s="3">
         <v>42822</v>
@@ -3160,7 +3161,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-29"), Open=(decimal)222.97, High=(decimal)223.75, Low=(decimal)222.72, Close=(decimal)223.5, Volume = (long)65288636 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-29","yyyy-MM-dd",cultureProvider), Open=222.97m, High=223.75m, Low=222.72m, Close=223.5m, Volume = (long)65288636 },</v>
       </c>
       <c r="D61" s="3">
         <v>42823</v>
@@ -3190,7 +3191,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-30"), Open=(decimal)223.43, High=(decimal)224.43, Low=(decimal)223.24, Close=(decimal)224.21, Volume = (long)59795288 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-30","yyyy-MM-dd",cultureProvider), Open=223.43m, High=224.43m, Low=223.24m, Close=224.21m, Volume = (long)59795288 },</v>
       </c>
       <c r="D62" s="3">
         <v>42824</v>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-31"), Open=(decimal)223.84, High=(decimal)224.42, Low=(decimal)223.63, Close=(decimal)223.69, Volume = (long)77706304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-31","yyyy-MM-dd",cultureProvider), Open=223.84m, High=224.42m, Low=223.63m, Close=223.69m, Volume = (long)77706304 },</v>
       </c>
       <c r="D63" s="3">
         <v>42825</v>
@@ -3250,7 +3251,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-03"), Open=(decimal)223.74, High=(decimal)223.96, Low=(decimal)221.95, Close=(decimal)223.3, Volume = (long)90156280 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-03","yyyy-MM-dd",cultureProvider), Open=223.74m, High=223.96m, Low=221.95m, Close=223.3m, Volume = (long)90156280 },</v>
       </c>
       <c r="D64" s="3">
         <v>42828</v>
@@ -3280,7 +3281,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-04"), Open=(decimal)222.98, High=(decimal)223.53, Low=(decimal)222.56, Close=(decimal)223.44, Volume = (long)59508952 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-04","yyyy-MM-dd",cultureProvider), Open=222.98m, High=223.53m, Low=222.56m, Close=223.44m, Volume = (long)59508952 },</v>
       </c>
       <c r="D65" s="3">
         <v>42829</v>
@@ -3309,8 +3310,8 @@
         <v>7</v>
       </c>
       <c r="C66" s="5" t="str">
-        <f t="shared" ref="C66:C129" si="1">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D66,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E66&amp;", High=(decimal)"&amp;F66&amp;", Low=(decimal)"&amp;G66&amp;", Close=(decimal)"&amp;H66&amp;", Volume = (long)"&amp;I66&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-04-05"), Open=(decimal)224.18, High=(decimal)225.25, Low=(decimal)222.55, Close=(decimal)222.78, Volume = (long)114663488 },</v>
+        <f t="shared" ref="C66:C129" si="1">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D66,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E66&amp;"m, High="&amp;F66&amp;"m, Low="&amp;G66&amp;"m, Close="&amp;H66&amp;"m, Volume = (long)"&amp;I66&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-05","yyyy-MM-dd",cultureProvider), Open=224.18m, High=225.25m, Low=222.55m, Close=222.78m, Volume = (long)114663488 },</v>
       </c>
       <c r="D66" s="3">
         <v>42830</v>
@@ -3340,7 +3341,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-06"), Open=(decimal)222.93, High=(decimal)223.97, Low=(decimal)222.44, Close=(decimal)223.4, Volume = (long)72861232 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-06","yyyy-MM-dd",cultureProvider), Open=222.93m, High=223.97m, Low=222.44m, Close=223.4m, Volume = (long)72861232 },</v>
       </c>
       <c r="D67" s="3">
         <v>42831</v>
@@ -3370,7 +3371,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-07"), Open=(decimal)223.13, High=(decimal)223.93, Low=(decimal)222.64, Close=(decimal)223.17, Volume = (long)78422128 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-07","yyyy-MM-dd",cultureProvider), Open=223.13m, High=223.93m, Low=222.64m, Close=223.17m, Volume = (long)78422128 },</v>
       </c>
       <c r="D68" s="3">
         <v>42832</v>
@@ -3400,7 +3401,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-10"), Open=(decimal)223.33, High=(decimal)224.18, Low=(decimal)222.73, Close=(decimal)223.31, Volume = (long)71258848 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-10","yyyy-MM-dd",cultureProvider), Open=223.33m, High=224.18m, Low=222.73m, Close=223.31m, Volume = (long)71258848 },</v>
       </c>
       <c r="D69" s="3">
         <v>42835</v>
@@ -3430,7 +3431,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-11"), Open=(decimal)222.89, High=(decimal)223.15, Low=(decimal)221.41, Close=(decimal)223.04, Volume = (long)92789720 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-11","yyyy-MM-dd",cultureProvider), Open=222.89m, High=223.15m, Low=221.41m, Close=223.04m, Volume = (long)92789720 },</v>
       </c>
       <c r="D70" s="3">
         <v>42836</v>
@@ -3460,7 +3461,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-12"), Open=(decimal)222.74, High=(decimal)222.95, Low=(decimal)221.82, Close=(decimal)222.06, Volume = (long)86275816 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-12","yyyy-MM-dd",cultureProvider), Open=222.74m, High=222.95m, Low=221.82m, Close=222.06m, Volume = (long)86275816 },</v>
       </c>
       <c r="D71" s="3">
         <v>42837</v>
@@ -3490,7 +3491,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-13"), Open=(decimal)221.69, High=(decimal)222.5, Low=(decimal)220.62, Close=(decimal)220.62, Volume = (long)97885392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-13","yyyy-MM-dd",cultureProvider), Open=221.69m, High=222.5m, Low=220.62m, Close=220.62m, Volume = (long)97885392 },</v>
       </c>
       <c r="D72" s="3">
         <v>42838</v>
@@ -3520,7 +3521,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-17"), Open=(decimal)221.19, High=(decimal)222.58, Low=(decimal)220.97, Close=(decimal)222.58, Volume = (long)72091488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-17","yyyy-MM-dd",cultureProvider), Open=221.19m, High=222.58m, Low=220.97m, Close=222.58m, Volume = (long)72091488 },</v>
       </c>
       <c r="D73" s="3">
         <v>42842</v>
@@ -3550,7 +3551,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-18"), Open=(decimal)221.77, High=(decimal)222.5, Low=(decimal)221.16, Close=(decimal)221.91, Volume = (long)87710560 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-18","yyyy-MM-dd",cultureProvider), Open=221.77m, High=222.5m, Low=221.16m, Close=221.91m, Volume = (long)87710560 },</v>
       </c>
       <c r="D74" s="3">
         <v>42843</v>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-19"), Open=(decimal)222.53, High=(decimal)222.94, Low=(decimal)221.26, Close=(decimal)221.5, Volume = (long)72401856 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-19","yyyy-MM-dd",cultureProvider), Open=222.53m, High=222.94m, Low=221.26m, Close=221.5m, Volume = (long)72401856 },</v>
       </c>
       <c r="D75" s="3">
         <v>42844</v>
@@ -3610,7 +3611,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-20"), Open=(decimal)222.18, High=(decimal)223.79, Low=(decimal)221.83, Close=(decimal)223.31, Volume = (long)97560568 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-20","yyyy-MM-dd",cultureProvider), Open=222.18m, High=223.79m, Low=221.83m, Close=223.31m, Volume = (long)97560568 },</v>
       </c>
       <c r="D76" s="3">
         <v>42845</v>
@@ -3640,7 +3641,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-21"), Open=(decimal)223.22, High=(decimal)223.28, Low=(decimal)222.16, Close=(decimal)222.6, Volume = (long)116338368 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-21","yyyy-MM-dd",cultureProvider), Open=223.22m, High=223.28m, Low=222.16m, Close=222.6m, Volume = (long)116338368 },</v>
       </c>
       <c r="D77" s="3">
         <v>42846</v>
@@ -3670,7 +3671,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-24"), Open=(decimal)225.05, High=(decimal)225.27, Low=(decimal)222.57, Close=(decimal)225.04, Volume = (long)125633672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-24","yyyy-MM-dd",cultureProvider), Open=225.05m, High=225.27m, Low=222.57m, Close=225.04m, Volume = (long)125633672 },</v>
       </c>
       <c r="D78" s="3">
         <v>42849</v>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-25"), Open=(decimal)225.75, High=(decimal)226.73, Low=(decimal)225.65, Close=(decimal)226.35, Volume = (long)80831256 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-25","yyyy-MM-dd",cultureProvider), Open=225.75m, High=226.73m, Low=225.65m, Close=226.35m, Volume = (long)80831256 },</v>
       </c>
       <c r="D79" s="3">
         <v>42850</v>
@@ -3730,7 +3731,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-26"), Open=(decimal)226.31, High=(decimal)227.28, Low=(decimal)226.16, Close=(decimal)226.21, Volume = (long)89266768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-26","yyyy-MM-dd",cultureProvider), Open=226.31m, High=227.28m, Low=226.16m, Close=226.21m, Volume = (long)89266768 },</v>
       </c>
       <c r="D80" s="3">
         <v>42851</v>
@@ -3760,7 +3761,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-27"), Open=(decimal)226.56, High=(decimal)226.73, Low=(decimal)225.81, Close=(decimal)226.4, Volume = (long)60503960 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-27","yyyy-MM-dd",cultureProvider), Open=226.56m, High=226.73m, Low=225.81m, Close=226.4m, Volume = (long)60503960 },</v>
       </c>
       <c r="D81" s="3">
         <v>42852</v>
@@ -3790,7 +3791,7 @@
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-28"), Open=(decimal)226.68, High=(decimal)226.71, Low=(decimal)225.76, Close=(decimal)225.91, Volume = (long)66956400 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-28","yyyy-MM-dd",cultureProvider), Open=226.68m, High=226.71m, Low=225.76m, Close=225.91m, Volume = (long)66956400 },</v>
       </c>
       <c r="D82" s="3">
         <v>42853</v>
@@ -3820,7 +3821,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-01"), Open=(decimal)226.48, High=(decimal)226.94, Low=(decimal)226.02, Close=(decimal)226.48, Volume = (long)70486576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-01","yyyy-MM-dd",cultureProvider), Open=226.48m, High=226.94m, Low=226.02m, Close=226.48m, Volume = (long)70486576 },</v>
       </c>
       <c r="D83" s="3">
         <v>42856</v>
@@ -3850,7 +3851,7 @@
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-02"), Open=(decimal)226.63, High=(decimal)226.76, Low=(decimal)226.12, Close=(decimal)226.56, Volume = (long)60467504 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-02","yyyy-MM-dd",cultureProvider), Open=226.63m, High=226.76m, Low=226.12m, Close=226.56m, Volume = (long)60467504 },</v>
       </c>
       <c r="D84" s="3">
         <v>42857</v>
@@ -3880,7 +3881,7 @@
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-03"), Open=(decimal)226.11, High=(decimal)226.66, Low=(decimal)225.55, Close=(decimal)226.29, Volume = (long)77078864 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-03","yyyy-MM-dd",cultureProvider), Open=226.11m, High=226.66m, Low=225.55m, Close=226.29m, Volume = (long)77078864 },</v>
       </c>
       <c r="D85" s="3">
         <v>42858</v>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-04"), Open=(decimal)226.62, High=(decimal)226.71, Low=(decimal)225.62, Close=(decimal)226.55, Volume = (long)64774736 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-04","yyyy-MM-dd",cultureProvider), Open=226.62m, High=226.71m, Low=225.62m, Close=226.55m, Volume = (long)64774736 },</v>
       </c>
       <c r="D86" s="3">
         <v>42859</v>
@@ -3940,7 +3941,7 @@
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-05"), Open=(decimal)226.96, High=(decimal)227.46, Low=(decimal)226.48, Close=(decimal)227.44, Volume = (long)65342296 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-05","yyyy-MM-dd",cultureProvider), Open=226.96m, High=227.46m, Low=226.48m, Close=227.44m, Volume = (long)65342296 },</v>
       </c>
       <c r="D87" s="3">
         <v>42860</v>
@@ -3970,7 +3971,7 @@
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-08"), Open=(decimal)227.49, High=(decimal)227.65, Low=(decimal)226.94, Close=(decimal)227.41, Volume = (long)50993060 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-08","yyyy-MM-dd",cultureProvider), Open=227.49m, High=227.65m, Low=226.94m, Close=227.41m, Volume = (long)50993060 },</v>
       </c>
       <c r="D88" s="3">
         <v>42863</v>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-09"), Open=(decimal)227.69, High=(decimal)227.91, Low=(decimal)226.82, Close=(decimal)227.2, Volume = (long)54130976 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-09","yyyy-MM-dd",cultureProvider), Open=227.69m, High=227.91m, Low=226.82m, Close=227.2m, Volume = (long)54130976 },</v>
       </c>
       <c r="D89" s="3">
         <v>42864</v>
@@ -4030,7 +4031,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-10"), Open=(decimal)227.15, High=(decimal)227.61, Low=(decimal)226.92, Close=(decimal)227.61, Volume = (long)57219496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-10","yyyy-MM-dd",cultureProvider), Open=227.15m, High=227.61m, Low=226.92m, Close=227.61m, Volume = (long)57219496 },</v>
       </c>
       <c r="D90" s="3">
         <v>42865</v>
@@ -4060,7 +4061,7 @@
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-11"), Open=(decimal)227.11, High=(decimal)227.32, Low=(decimal)225.95, Close=(decimal)227.14, Volume = (long)65718612 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-11","yyyy-MM-dd",cultureProvider), Open=227.11m, High=227.32m, Low=225.95m, Close=227.14m, Volume = (long)65718612 },</v>
       </c>
       <c r="D91" s="3">
         <v>42866</v>
@@ -4090,7 +4091,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-12"), Open=(decimal)226.87, High=(decimal)227.19, Low=(decimal)226.47, Close=(decimal)226.76, Volume = (long)56817892 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-12","yyyy-MM-dd",cultureProvider), Open=226.87m, High=227.19m, Low=226.47m, Close=226.76m, Volume = (long)56817892 },</v>
       </c>
       <c r="D92" s="3">
         <v>42867</v>
@@ -4120,7 +4121,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-15"), Open=(decimal)227.23, High=(decimal)228.15, Low=(decimal)227.21, Close=(decimal)228.01, Volume = (long)65255528 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-15","yyyy-MM-dd",cultureProvider), Open=227.23m, High=228.15m, Low=227.21m, Close=228.01m, Volume = (long)65255528 },</v>
       </c>
       <c r="D93" s="3">
         <v>42870</v>
@@ -4150,7 +4151,7 @@
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-16"), Open=(decimal)228.34, High=(decimal)228.36, Low=(decimal)227.38, Close=(decimal)227.8, Volume = (long)54003024 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-16","yyyy-MM-dd",cultureProvider), Open=228.34m, High=228.36m, Low=227.38m, Close=227.8m, Volume = (long)54003024 },</v>
       </c>
       <c r="D94" s="3">
         <v>42871</v>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-17"), Open=(decimal)225.93, High=(decimal)226.44, Low=(decimal)223.7, Close=(decimal)223.76, Volume = (long)181451968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-17","yyyy-MM-dd",cultureProvider), Open=225.93m, High=226.44m, Low=223.7m, Close=223.76m, Volume = (long)181451968 },</v>
       </c>
       <c r="D95" s="3">
         <v>42872</v>
@@ -4210,7 +4211,7 @@
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-18"), Open=(decimal)223.68, High=(decimal)225.59, Low=(decimal)223.39, Close=(decimal)224.66, Volume = (long)112816072 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-18","yyyy-MM-dd",cultureProvider), Open=223.68m, High=225.59m, Low=223.39m, Close=224.66m, Volume = (long)112816072 },</v>
       </c>
       <c r="D96" s="3">
         <v>42873</v>
@@ -4240,7 +4241,7 @@
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-19"), Open=(decimal)225.2, High=(decimal)226.86, Low=(decimal)225.14, Close=(decimal)226.12, Volume = (long)121208928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-19","yyyy-MM-dd",cultureProvider), Open=225.2m, High=226.86m, Low=225.14m, Close=226.12m, Volume = (long)121208928 },</v>
       </c>
       <c r="D97" s="3">
         <v>42874</v>
@@ -4270,7 +4271,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-22"), Open=(decimal)226.68, High=(decimal)227.45, Low=(decimal)226.61, Close=(decimal)227.27, Volume = (long)64298244 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-22","yyyy-MM-dd",cultureProvider), Open=226.68m, High=227.45m, Low=226.61m, Close=227.27m, Volume = (long)64298244 },</v>
       </c>
       <c r="D98" s="3">
         <v>42877</v>
@@ -4300,7 +4301,7 @@
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-23"), Open=(decimal)227.68, High=(decimal)227.96, Low=(decimal)227.26, Close=(decimal)227.78, Volume = (long)50946640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-23","yyyy-MM-dd",cultureProvider), Open=227.68m, High=227.96m, Low=227.26m, Close=227.78m, Volume = (long)50946640 },</v>
       </c>
       <c r="D99" s="3">
         <v>42878</v>
@@ -4330,7 +4331,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-24"), Open=(decimal)228.03, High=(decimal)228.42, Low=(decimal)227.66, Close=(decimal)228.31, Volume = (long)51831288 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-24","yyyy-MM-dd",cultureProvider), Open=228.03m, High=228.42m, Low=227.66m, Close=228.31m, Volume = (long)51831288 },</v>
       </c>
       <c r="D100" s="3">
         <v>42879</v>
@@ -4360,7 +4361,7 @@
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-25"), Open=(decimal)228.87, High=(decimal)229.7, Low=(decimal)228.64, Close=(decimal)229.4, Volume = (long)67524256 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-25","yyyy-MM-dd",cultureProvider), Open=228.87m, High=229.7m, Low=228.64m, Close=229.4m, Volume = (long)67524256 },</v>
       </c>
       <c r="D101" s="3">
         <v>42880</v>
@@ -4390,7 +4391,7 @@
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-26"), Open=(decimal)229.19, High=(decimal)229.53, Low=(decimal)229.1, Close=(decimal)229.35, Volume = (long)49142620 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-26","yyyy-MM-dd",cultureProvider), Open=229.19m, High=229.53m, Low=229.1m, Close=229.35m, Volume = (long)49142620 },</v>
       </c>
       <c r="D102" s="3">
         <v>42881</v>
@@ -4420,7 +4421,7 @@
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-30"), Open=(decimal)229, High=(decimal)229.43, Low=(decimal)228.83, Close=(decimal)229.15, Volume = (long)37098796 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-30","yyyy-MM-dd",cultureProvider), Open=229m, High=229.43m, Low=228.83m, Close=229.15m, Volume = (long)37098796 },</v>
       </c>
       <c r="D103" s="3">
         <v>42885</v>
@@ -4450,7 +4451,7 @@
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-31"), Open=(decimal)229.47, High=(decimal)229.51, Low=(decimal)228.34, Close=(decimal)229.09, Volume = (long)96742576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-31","yyyy-MM-dd",cultureProvider), Open=229.47m, High=229.51m, Low=228.34m, Close=229.09m, Volume = (long)96742576 },</v>
       </c>
       <c r="D104" s="3">
         <v>42886</v>
@@ -4480,7 +4481,7 @@
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-01"), Open=(decimal)229.6, High=(decimal)230.94, Low=(decimal)229.28, Close=(decimal)230.92, Volume = (long)72678144 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-01","yyyy-MM-dd",cultureProvider), Open=229.6m, High=230.94m, Low=229.28m, Close=230.92m, Volume = (long)72678144 },</v>
       </c>
       <c r="D105" s="3">
         <v>42887</v>
@@ -4510,7 +4511,7 @@
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-02"), Open=(decimal)230.97, High=(decimal)231.86, Low=(decimal)230.65, Close=(decimal)231.69, Volume = (long)93444032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-02","yyyy-MM-dd",cultureProvider), Open=230.97m, High=231.86m, Low=230.65m, Close=231.69m, Volume = (long)93444032 },</v>
       </c>
       <c r="D106" s="3">
         <v>42888</v>
@@ -4540,7 +4541,7 @@
       </c>
       <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-05"), Open=(decimal)231.5, High=(decimal)231.81, Low=(decimal)231.3, Close=(decimal)231.51, Volume = (long)47107480 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-05","yyyy-MM-dd",cultureProvider), Open=231.5m, High=231.81m, Low=231.3m, Close=231.51m, Volume = (long)47107480 },</v>
       </c>
       <c r="D107" s="3">
         <v>42891</v>
@@ -4570,7 +4571,7 @@
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-06"), Open=(decimal)230.9, High=(decimal)231.51, Low=(decimal)230.69, Close=(decimal)230.77, Volume = (long)53089976 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-06","yyyy-MM-dd",cultureProvider), Open=230.9m, High=231.51m, Low=230.69m, Close=230.77m, Volume = (long)53089976 },</v>
       </c>
       <c r="D108" s="3">
         <v>42892</v>
@@ -4600,7 +4601,7 @@
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-07"), Open=(decimal)231.14, High=(decimal)231.45, Low=(decimal)230.41, Close=(decimal)231.2, Volume = (long)57061952 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-07","yyyy-MM-dd",cultureProvider), Open=231.14m, High=231.45m, Low=230.41m, Close=231.2m, Volume = (long)57061952 },</v>
       </c>
       <c r="D109" s="3">
         <v>42893</v>
@@ -4630,7 +4631,7 @@
       </c>
       <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-08"), Open=(decimal)231.31, High=(decimal)231.84, Low=(decimal)230.74, Close=(decimal)231.32, Volume = (long)69504536 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-08","yyyy-MM-dd",cultureProvider), Open=231.31m, High=231.84m, Low=230.74m, Close=231.32m, Volume = (long)69504536 },</v>
       </c>
       <c r="D110" s="3">
         <v>42894</v>
@@ -4660,7 +4661,7 @@
       </c>
       <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-09"), Open=(decimal)231.61, High=(decimal)232.48, Low=(decimal)229.58, Close=(decimal)230.96, Volume = (long)139383184 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-09","yyyy-MM-dd",cultureProvider), Open=231.61m, High=232.48m, Low=229.58m, Close=230.96m, Volume = (long)139383184 },</v>
       </c>
       <c r="D111" s="3">
         <v>42895</v>
@@ -4690,7 +4691,7 @@
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-12"), Open=(decimal)230.7, High=(decimal)230.97, Low=(decimal)229.99, Close=(decimal)230.92, Volume = (long)90748160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-12","yyyy-MM-dd",cultureProvider), Open=230.7m, High=230.97m, Low=229.99m, Close=230.92m, Volume = (long)90748160 },</v>
       </c>
       <c r="D112" s="3">
         <v>42898</v>
@@ -4720,7 +4721,7 @@
       </c>
       <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-13"), Open=(decimal)231.51, High=(decimal)232.1, Low=(decimal)231.13, Close=(decimal)232.05, Volume = (long)63303744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-13","yyyy-MM-dd",cultureProvider), Open=231.51m, High=232.1m, Low=231.13m, Close=232.05m, Volume = (long)63303744 },</v>
       </c>
       <c r="D113" s="3">
         <v>42899</v>
@@ -4750,7 +4751,7 @@
       </c>
       <c r="C114" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-14"), Open=(decimal)232.34, High=(decimal)232.35, Low=(decimal)230.85, Close=(decimal)231.75, Volume = (long)82837904 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-14","yyyy-MM-dd",cultureProvider), Open=232.34m, High=232.35m, Low=230.85m, Close=231.75m, Volume = (long)82837904 },</v>
       </c>
       <c r="D114" s="3">
         <v>42900</v>
@@ -4780,7 +4781,7 @@
       </c>
       <c r="C115" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-15"), Open=(decimal)230.27, High=(decimal)231.44, Low=(decimal)229.97, Close=(decimal)231.31, Volume = (long)70046440 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-15","yyyy-MM-dd",cultureProvider), Open=230.27m, High=231.44m, Low=229.97m, Close=231.31m, Volume = (long)70046440 },</v>
       </c>
       <c r="D115" s="3">
         <v>42901</v>
@@ -4810,7 +4811,7 @@
       </c>
       <c r="C116" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-16"), Open=(decimal)231.48, High=(decimal)231.54, Low=(decimal)230.4, Close=(decimal)231.36, Volume = (long)88676880 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-16","yyyy-MM-dd",cultureProvider), Open=231.48m, High=231.54m, Low=230.4m, Close=231.36m, Volume = (long)88676880 },</v>
       </c>
       <c r="D116" s="3">
         <v>42902</v>
@@ -4840,7 +4841,7 @@
       </c>
       <c r="C117" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-19"), Open=(decimal)232.26, High=(decimal)233.35, Low=(decimal)232.16, Close=(decimal)233.28, Volume = (long)68299992 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-19","yyyy-MM-dd",cultureProvider), Open=232.26m, High=233.35m, Low=232.16m, Close=233.28m, Volume = (long)68299992 },</v>
       </c>
       <c r="D117" s="3">
         <v>42905</v>
@@ -4870,7 +4871,7 @@
       </c>
       <c r="C118" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-20"), Open=(decimal)232.89, High=(decimal)232.9, Low=(decimal)231.69, Close=(decimal)231.71, Volume = (long)59681776 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-20","yyyy-MM-dd",cultureProvider), Open=232.89m, High=232.9m, Low=231.69m, Close=231.71m, Volume = (long)59681776 },</v>
       </c>
       <c r="D118" s="3">
         <v>42906</v>
@@ -4900,7 +4901,7 @@
       </c>
       <c r="C119" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-21"), Open=(decimal)232.1, High=(decimal)232.26, Low=(decimal)231.14, Close=(decimal)231.65, Volume = (long)58707680 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-21","yyyy-MM-dd",cultureProvider), Open=232.1m, High=232.26m, Low=231.14m, Close=231.65m, Volume = (long)58707680 },</v>
       </c>
       <c r="D119" s="3">
         <v>42907</v>
@@ -4930,7 +4931,7 @@
       </c>
       <c r="C120" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-22"), Open=(decimal)231.66, High=(decimal)232.21, Low=(decimal)231.36, Close=(decimal)231.55, Volume = (long)46301224 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-22","yyyy-MM-dd",cultureProvider), Open=231.66m, High=232.21m, Low=231.36m, Close=231.55m, Volume = (long)46301224 },</v>
       </c>
       <c r="D120" s="3">
         <v>42908</v>
@@ -4960,7 +4961,7 @@
       </c>
       <c r="C121" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-23"), Open=(decimal)231.61, High=(decimal)232.19, Low=(decimal)231.19, Close=(decimal)231.82, Volume = (long)70253848 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-23","yyyy-MM-dd",cultureProvider), Open=231.61m, High=232.19m, Low=231.19m, Close=231.82m, Volume = (long)70253848 },</v>
       </c>
       <c r="D121" s="3">
         <v>42909</v>
@@ -4990,7 +4991,7 @@
       </c>
       <c r="C122" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-26"), Open=(decimal)232.56, High=(decimal)233.02, Low=(decimal)231.74, Close=(decimal)231.98, Volume = (long)59465848 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-26","yyyy-MM-dd",cultureProvider), Open=232.56m, High=233.02m, Low=231.74m, Close=231.98m, Volume = (long)59465848 },</v>
       </c>
       <c r="D122" s="3">
         <v>42912</v>
@@ -5020,7 +5021,7 @@
       </c>
       <c r="C123" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-27"), Open=(decimal)231.74, High=(decimal)232.06, Low=(decimal)230.09, Close=(decimal)230.11, Volume = (long)86259016 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-27","yyyy-MM-dd",cultureProvider), Open=231.74m, High=232.06m, Low=230.09m, Close=230.11m, Volume = (long)86259016 },</v>
       </c>
       <c r="D123" s="3">
         <v>42913</v>
@@ -5050,7 +5051,7 @@
       </c>
       <c r="C124" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-28"), Open=(decimal)231.22, High=(decimal)232.38, Low=(decimal)230.97, Close=(decimal)232.17, Volume = (long)73458688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-28","yyyy-MM-dd",cultureProvider), Open=231.22m, High=232.38m, Low=230.97m, Close=232.17m, Volume = (long)73458688 },</v>
       </c>
       <c r="D124" s="3">
         <v>42914</v>
@@ -5080,7 +5081,7 @@
       </c>
       <c r="C125" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-29"), Open=(decimal)232.33, High=(decimal)232.39, Low=(decimal)228.8, Close=(decimal)230.13, Volume = (long)112165824 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-29","yyyy-MM-dd",cultureProvider), Open=232.33m, High=232.39m, Low=228.8m, Close=230.13m, Volume = (long)112165824 },</v>
       </c>
       <c r="D125" s="3">
         <v>42915</v>
@@ -5110,7 +5111,7 @@
       </c>
       <c r="C126" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-30"), Open=(decimal)231.01, High=(decimal)231.42, Low=(decimal)230.34, Close=(decimal)230.56, Volume = (long)91055080 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-30","yyyy-MM-dd",cultureProvider), Open=231.01m, High=231.42m, Low=230.34m, Close=230.56m, Volume = (long)91055080 },</v>
       </c>
       <c r="D126" s="3">
         <v>42916</v>
@@ -5140,7 +5141,7 @@
       </c>
       <c r="C127" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-03"), Open=(decimal)231.59, High=(decimal)232.06, Low=(decimal)230.95, Close=(decimal)230.95, Volume = (long)41063396 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-03","yyyy-MM-dd",cultureProvider), Open=231.59m, High=232.06m, Low=230.95m, Close=230.95m, Volume = (long)41063396 },</v>
       </c>
       <c r="D127" s="3">
         <v>42919</v>
@@ -5170,7 +5171,7 @@
       </c>
       <c r="C128" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-05"), Open=(decimal)231.35, High=(decimal)231.71, Low=(decimal)230.46, Close=(decimal)231.48, Volume = (long)57082112 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-05","yyyy-MM-dd",cultureProvider), Open=231.35m, High=231.71m, Low=230.46m, Close=231.48m, Volume = (long)57082112 },</v>
       </c>
       <c r="D128" s="3">
         <v>42921</v>
@@ -5200,7 +5201,7 @@
       </c>
       <c r="C129" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-06"), Open=(decimal)230.64, High=(decimal)230.77, Low=(decimal)229.16, Close=(decimal)229.36, Volume = (long)69339864 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-06","yyyy-MM-dd",cultureProvider), Open=230.64m, High=230.77m, Low=229.16m, Close=229.36m, Volume = (long)69339864 },</v>
       </c>
       <c r="D129" s="3">
         <v>42922</v>
@@ -5229,8 +5230,8 @@
         <v>7</v>
       </c>
       <c r="C130" s="5" t="str">
-        <f t="shared" ref="C130:C193" si="2">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D130,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E130&amp;", High=(decimal)"&amp;F130&amp;", Low=(decimal)"&amp;G130&amp;", Close=(decimal)"&amp;H130&amp;", Volume = (long)"&amp;I130&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-07-07"), Open=(decimal)229.99, High=(decimal)231.01, Low=(decimal)229.38, Close=(decimal)230.85, Volume = (long)60799664 },</v>
+        <f t="shared" ref="C130:C193" si="2">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D130,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E130&amp;"m, High="&amp;F130&amp;"m, Low="&amp;G130&amp;"m, Close="&amp;H130&amp;"m, Volume = (long)"&amp;I130&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-07","yyyy-MM-dd",cultureProvider), Open=229.99m, High=231.01m, Low=229.38m, Close=230.85m, Volume = (long)60799664 },</v>
       </c>
       <c r="D130" s="3">
         <v>42923</v>
@@ -5260,7 +5261,7 @@
       </c>
       <c r="C131" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-10"), Open=(decimal)230.7, High=(decimal)231.51, Low=(decimal)230.52, Close=(decimal)231.1, Volume = (long)38451396 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-10","yyyy-MM-dd",cultureProvider), Open=230.7m, High=231.51m, Low=230.52m, Close=231.1m, Volume = (long)38451396 },</v>
       </c>
       <c r="D131" s="3">
         <v>42926</v>
@@ -5290,7 +5291,7 @@
       </c>
       <c r="C132" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-11"), Open=(decimal)230.9, High=(decimal)231.27, Low=(decimal)229.65, Close=(decimal)230.93, Volume = (long)52810484 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-11","yyyy-MM-dd",cultureProvider), Open=230.9m, High=231.27m, Low=229.65m, Close=230.93m, Volume = (long)52810484 },</v>
       </c>
       <c r="D132" s="3">
         <v>42927</v>
@@ -5320,7 +5321,7 @@
       </c>
       <c r="C133" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-12"), Open=(decimal)231.99, High=(decimal)232.84, Low=(decimal)231.99, Close=(decimal)232.66, Volume = (long)62517696 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-12","yyyy-MM-dd",cultureProvider), Open=231.99m, High=232.84m, Low=231.99m, Close=232.66m, Volume = (long)62517696 },</v>
       </c>
       <c r="D133" s="3">
         <v>42928</v>
@@ -5350,7 +5351,7 @@
       </c>
       <c r="C134" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-13"), Open=(decimal)232.67, High=(decimal)233.18, Low=(decimal)232.42, Close=(decimal)233.05, Volume = (long)41396728 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-13","yyyy-MM-dd",cultureProvider), Open=232.67m, High=233.18m, Low=232.42m, Close=233.05m, Volume = (long)41396728 },</v>
       </c>
       <c r="D134" s="3">
         <v>42929</v>
@@ -5380,7 +5381,7 @@
       </c>
       <c r="C135" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-14"), Open=(decimal)233.06, High=(decimal)234.53, Low=(decimal)232.95, Close=(decimal)234.14, Volume = (long)63201796 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-14","yyyy-MM-dd",cultureProvider), Open=233.06m, High=234.53m, Low=232.95m, Close=234.14m, Volume = (long)63201796 },</v>
       </c>
       <c r="D135" s="3">
         <v>42930</v>
@@ -5410,7 +5411,7 @@
       </c>
       <c r="C136" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-17"), Open=(decimal)234.05, High=(decimal)234.47, Low=(decimal)233.92, Close=(decimal)234.11, Volume = (long)35167316 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-17","yyyy-MM-dd",cultureProvider), Open=234.05m, High=234.47m, Low=233.92m, Close=234.11m, Volume = (long)35167316 },</v>
       </c>
       <c r="D136" s="3">
         <v>42933</v>
@@ -5440,7 +5441,7 @@
       </c>
       <c r="C137" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-18"), Open=(decimal)233.66, High=(decimal)234.29, Low=(decimal)233.29, Close=(decimal)234.24, Volume = (long)44827112 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-18","yyyy-MM-dd",cultureProvider), Open=233.66m, High=234.29m, Low=233.29m, Close=234.24m, Volume = (long)44827112 },</v>
       </c>
       <c r="D137" s="3">
         <v>42934</v>
@@ -5470,7 +5471,7 @@
       </c>
       <c r="C138" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-19"), Open=(decimal)234.58, High=(decimal)235.51, Low=(decimal)234.57, Close=(decimal)235.5, Volume = (long)53523280 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-19","yyyy-MM-dd",cultureProvider), Open=234.58m, High=235.51m, Low=234.57m, Close=235.5m, Volume = (long)53523280 },</v>
       </c>
       <c r="D138" s="3">
         <v>42935</v>
@@ -5500,7 +5501,7 @@
       </c>
       <c r="C139" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-20"), Open=(decimal)235.78, High=(decimal)235.91, Low=(decimal)235.01, Close=(decimal)235.61, Volume = (long)49434036 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-20","yyyy-MM-dd",cultureProvider), Open=235.78m, High=235.91m, Low=235.01m, Close=235.61m, Volume = (long)49434036 },</v>
       </c>
       <c r="D139" s="3">
         <v>42936</v>
@@ -5530,7 +5531,7 @@
       </c>
       <c r="C140" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-21"), Open=(decimal)234.98, High=(decimal)235.43, Low=(decimal)234.73, Close=(decimal)235.4, Volume = (long)93037592 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-21","yyyy-MM-dd",cultureProvider), Open=234.98m, High=235.43m, Low=234.73m, Close=235.4m, Volume = (long)93037592 },</v>
       </c>
       <c r="D140" s="3">
         <v>42937</v>
@@ -5560,7 +5561,7 @@
       </c>
       <c r="C141" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-24"), Open=(decimal)235.31, High=(decimal)235.49, Low=(decimal)234.83, Close=(decimal)235.34, Volume = (long)48896096 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-24","yyyy-MM-dd",cultureProvider), Open=235.31m, High=235.49m, Low=234.83m, Close=235.34m, Volume = (long)48896096 },</v>
       </c>
       <c r="D141" s="3">
         <v>42940</v>
@@ -5590,7 +5591,7 @@
       </c>
       <c r="C142" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-25"), Open=(decimal)236.16, High=(decimal)236.28, Low=(decimal)235.67, Close=(decimal)235.91, Volume = (long)57593908 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-25","yyyy-MM-dd",cultureProvider), Open=236.16m, High=236.28m, Low=235.67m, Close=235.91m, Volume = (long)57593908 },</v>
       </c>
       <c r="D142" s="3">
         <v>42941</v>
@@ -5620,7 +5621,7 @@
       </c>
       <c r="C143" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-26"), Open=(decimal)236.23, High=(decimal)236.27, Low=(decimal)235.64, Close=(decimal)235.92, Volume = (long)49895744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-26","yyyy-MM-dd",cultureProvider), Open=236.23m, High=236.27m, Low=235.64m, Close=235.92m, Volume = (long)49895744 },</v>
       </c>
       <c r="D143" s="3">
         <v>42942</v>
@@ -5650,7 +5651,7 @@
       </c>
       <c r="C144" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-27"), Open=(decimal)236.43, High=(decimal)236.47, Low=(decimal)234.26, Close=(decimal)235.7, Volume = (long)74217968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-27","yyyy-MM-dd",cultureProvider), Open=236.43m, High=236.47m, Low=234.26m, Close=235.7m, Volume = (long)74217968 },</v>
       </c>
       <c r="D144" s="3">
         <v>42943</v>
@@ -5680,7 +5681,7 @@
       </c>
       <c r="C145" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-28"), Open=(decimal)235.18, High=(decimal)235.57, Low=(decimal)234.68, Close=(decimal)235.43, Volume = (long)52531244 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-28","yyyy-MM-dd",cultureProvider), Open=235.18m, High=235.57m, Low=234.68m, Close=235.43m, Volume = (long)52531244 },</v>
       </c>
       <c r="D145" s="3">
         <v>42944</v>
@@ -5710,7 +5711,7 @@
       </c>
       <c r="C146" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-31"), Open=(decimal)235.87, High=(decimal)235.97, Low=(decimal)235.07, Close=(decimal)235.29, Volume = (long)69049712 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-31","yyyy-MM-dd",cultureProvider), Open=235.87m, High=235.97m, Low=235.07m, Close=235.29m, Volume = (long)69049712 },</v>
       </c>
       <c r="D146" s="3">
         <v>42947</v>
@@ -5740,7 +5741,7 @@
       </c>
       <c r="C147" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-01"), Open=(decimal)235.95, High=(decimal)235.99, Low=(decimal)235.24, Close=(decimal)235.82, Volume = (long)57735292 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-01","yyyy-MM-dd",cultureProvider), Open=235.95m, High=235.99m, Low=235.24m, Close=235.82m, Volume = (long)57735292 },</v>
       </c>
       <c r="D147" s="3">
         <v>42948</v>
@@ -5770,7 +5771,7 @@
       </c>
       <c r="C148" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-02"), Open=(decimal)235.96, High=(decimal)236.09, Low=(decimal)234.91, Close=(decimal)235.93, Volume = (long)49513776 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-02","yyyy-MM-dd",cultureProvider), Open=235.96m, High=236.09m, Low=234.91m, Close=235.93m, Volume = (long)49513776 },</v>
       </c>
       <c r="D148" s="3">
         <v>42949</v>
@@ -5800,7 +5801,7 @@
       </c>
       <c r="C149" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-03"), Open=(decimal)235.81, High=(decimal)235.84, Low=(decimal)235.17, Close=(decimal)235.48, Volume = (long)42848608 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-03","yyyy-MM-dd",cultureProvider), Open=235.81m, High=235.84m, Low=235.17m, Close=235.48m, Volume = (long)42848608 },</v>
       </c>
       <c r="D149" s="3">
         <v>42950</v>
@@ -5830,7 +5831,7 @@
       </c>
       <c r="C150" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-04"), Open=(decimal)236.01, High=(decimal)236.27, Low=(decimal)235.49, Close=(decimal)235.9, Volume = (long)63127488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-04","yyyy-MM-dd",cultureProvider), Open=236.01m, High=236.27m, Low=235.49m, Close=235.9m, Volume = (long)63127488 },</v>
       </c>
       <c r="D150" s="3">
         <v>42951</v>
@@ -5860,7 +5861,7 @@
       </c>
       <c r="C151" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-07"), Open=(decimal)235.98, High=(decimal)236.34, Low=(decimal)235.87, Close=(decimal)236.34, Volume = (long)33555464 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-07","yyyy-MM-dd",cultureProvider), Open=235.98m, High=236.34m, Low=235.87m, Close=236.34m, Volume = (long)33555464 },</v>
       </c>
       <c r="D151" s="3">
         <v>42954</v>
@@ -5890,7 +5891,7 @@
       </c>
       <c r="C152" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-08"), Open=(decimal)236, High=(decimal)237.33, Low=(decimal)235.35, Close=(decimal)235.76, Volume = (long)64729500 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-08","yyyy-MM-dd",cultureProvider), Open=236m, High=237.33m, Low=235.35m, Close=235.76m, Volume = (long)64729500 },</v>
       </c>
       <c r="D152" s="3">
         <v>42955</v>
@@ -5920,7 +5921,7 @@
       </c>
       <c r="C153" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-09"), Open=(decimal)235.01, High=(decimal)235.81, Low=(decimal)234.62, Close=(decimal)235.75, Volume = (long)65687312 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-09","yyyy-MM-dd",cultureProvider), Open=235.01m, High=235.81m, Low=234.62m, Close=235.75m, Volume = (long)65687312 },</v>
       </c>
       <c r="D153" s="3">
         <v>42956</v>
@@ -5950,7 +5951,7 @@
       </c>
       <c r="C154" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-10"), Open=(decimal)234.84, High=(decimal)234.98, Low=(decimal)232.37, Close=(decimal)232.42, Volume = (long)126355448 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-10","yyyy-MM-dd",cultureProvider), Open=234.84m, High=234.98m, Low=232.37m, Close=232.42m, Volume = (long)126355448 },</v>
       </c>
       <c r="D154" s="3">
         <v>42957</v>
@@ -5980,7 +5981,7 @@
       </c>
       <c r="C155" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-11"), Open=(decimal)232.67, High=(decimal)233.42, Low=(decimal)232.41, Close=(decimal)232.77, Volume = (long)78521472 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-11","yyyy-MM-dd",cultureProvider), Open=232.67m, High=233.42m, Low=232.41m, Close=232.77m, Volume = (long)78521472 },</v>
       </c>
       <c r="D155" s="3">
         <v>42958</v>
@@ -6010,7 +6011,7 @@
       </c>
       <c r="C156" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-14"), Open=(decimal)234.17, High=(decimal)235.31, Low=(decimal)234.13, Close=(decimal)235.07, Volume = (long)76866480 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-14","yyyy-MM-dd",cultureProvider), Open=234.17m, High=235.31m, Low=234.13m, Close=235.07m, Volume = (long)76866480 },</v>
       </c>
       <c r="D156" s="3">
         <v>42961</v>
@@ -6040,7 +6041,7 @@
       </c>
       <c r="C157" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-15"), Open=(decimal)235.49, High=(decimal)235.51, Low=(decimal)234.71, Close=(decimal)235.05, Volume = (long)57937020 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-15","yyyy-MM-dd",cultureProvider), Open=235.49m, High=235.51m, Low=234.71m, Close=235.05m, Volume = (long)57937020 },</v>
       </c>
       <c r="D157" s="3">
         <v>42962</v>
@@ -6070,7 +6071,7 @@
       </c>
       <c r="C158" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-16"), Open=(decimal)235.62, High=(decimal)236.06, Low=(decimal)234.99, Close=(decimal)235.46, Volume = (long)59481648 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-16","yyyy-MM-dd",cultureProvider), Open=235.62m, High=236.06m, Low=234.99m, Close=235.46m, Volume = (long)59481648 },</v>
       </c>
       <c r="D158" s="3">
         <v>42963</v>
@@ -6100,7 +6101,7 @@
       </c>
       <c r="C159" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-17"), Open=(decimal)234.79, High=(decimal)235.13, Low=(decimal)231.79, Close=(decimal)231.79, Volume = (long)134757072 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-17","yyyy-MM-dd",cultureProvider), Open=234.79m, High=235.13m, Low=231.79m, Close=231.79m, Volume = (long)134757072 },</v>
       </c>
       <c r="D159" s="3">
         <v>42964</v>
@@ -6130,7 +6131,7 @@
       </c>
       <c r="C160" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-18"), Open=(decimal)231.6, High=(decimal)232.83, Low=(decimal)230.94, Close=(decimal)231.42, Volume = (long)143417408 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-18","yyyy-MM-dd",cultureProvider), Open=231.6m, High=232.83m, Low=230.94m, Close=231.42m, Volume = (long)143417408 },</v>
       </c>
       <c r="D160" s="3">
         <v>42965</v>
@@ -6160,7 +6161,7 @@
       </c>
       <c r="C161" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-21"), Open=(decimal)231.36, High=(decimal)231.89, Low=(decimal)230.58, Close=(decimal)231.6, Volume = (long)68662792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-21","yyyy-MM-dd",cultureProvider), Open=231.36m, High=231.89m, Low=230.58m, Close=231.6m, Volume = (long)68662792 },</v>
       </c>
       <c r="D161" s="3">
         <v>42968</v>
@@ -6190,7 +6191,7 @@
       </c>
       <c r="C162" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-22"), Open=(decimal)232.24, High=(decimal)234.2, Low=(decimal)232.22, Close=(decimal)234.03, Volume = (long)66219544 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-22","yyyy-MM-dd",cultureProvider), Open=232.24m, High=234.2m, Low=232.22m, Close=234.03m, Volume = (long)66219544 },</v>
       </c>
       <c r="D162" s="3">
         <v>42969</v>
@@ -6220,7 +6221,7 @@
       </c>
       <c r="C163" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-23"), Open=(decimal)232.97, High=(decimal)233.65, Low=(decimal)232.81, Close=(decimal)233.19, Volume = (long)52652352 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-23","yyyy-MM-dd",cultureProvider), Open=232.97m, High=233.65m, Low=232.81m, Close=233.19m, Volume = (long)52652352 },</v>
       </c>
       <c r="D163" s="3">
         <v>42970</v>
@@ -6250,7 +6251,7 @@
       </c>
       <c r="C164" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-24"), Open=(decimal)233.61, High=(decimal)233.78, Low=(decimal)232.41, Close=(decimal)232.64, Volume = (long)53216420 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-24","yyyy-MM-dd",cultureProvider), Open=233.61m, High=233.78m, Low=232.41m, Close=232.64m, Volume = (long)53216420 },</v>
       </c>
       <c r="D164" s="3">
         <v>42971</v>
@@ -6280,7 +6281,7 @@
       </c>
       <c r="C165" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-25"), Open=(decimal)233.51, High=(decimal)234.19, Low=(decimal)233.02, Close=(decimal)233.19, Volume = (long)67589040 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-25","yyyy-MM-dd",cultureProvider), Open=233.51m, High=234.19m, Low=233.02m, Close=233.19m, Volume = (long)67589040 },</v>
       </c>
       <c r="D165" s="3">
         <v>42972</v>
@@ -6310,7 +6311,7 @@
       </c>
       <c r="C166" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-28"), Open=(decimal)233.77, High=(decimal)233.8, Low=(decimal)232.74, Close=(decimal)233.2, Volume = (long)42544052 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-28","yyyy-MM-dd",cultureProvider), Open=233.77m, High=233.8m, Low=232.74m, Close=233.2m, Volume = (long)42544052 },</v>
       </c>
       <c r="D166" s="3">
         <v>42975</v>
@@ -6340,7 +6341,7 @@
       </c>
       <c r="C167" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-29"), Open=(decimal)231.76, High=(decimal)233.75, Low=(decimal)231.63, Close=(decimal)233.46, Volume = (long)53629680 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-29","yyyy-MM-dd",cultureProvider), Open=231.76m, High=233.75m, Low=231.63m, Close=233.46m, Volume = (long)53629680 },</v>
       </c>
       <c r="D167" s="3">
         <v>42976</v>
@@ -6370,7 +6371,7 @@
       </c>
       <c r="C168" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-30"), Open=(decimal)233.44, High=(decimal)234.87, Low=(decimal)233.24, Close=(decimal)234.57, Volume = (long)65056144 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-30","yyyy-MM-dd",cultureProvider), Open=233.44m, High=234.87m, Low=233.24m, Close=234.57m, Volume = (long)65056144 },</v>
       </c>
       <c r="D168" s="3">
         <v>42977</v>
@@ -6400,7 +6401,7 @@
       </c>
       <c r="C169" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-31"), Open=(decimal)235.25, High=(decimal)236.25, Low=(decimal)234.61, Close=(decimal)235.98, Volume = (long)108866560 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-31","yyyy-MM-dd",cultureProvider), Open=235.25m, High=236.25m, Low=234.61m, Close=235.98m, Volume = (long)108866560 },</v>
       </c>
       <c r="D169" s="3">
         <v>42978</v>
@@ -6430,7 +6431,7 @@
       </c>
       <c r="C170" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-01"), Open=(decimal)236.39, High=(decimal)236.78, Low=(decimal)236.15, Close=(decimal)236.31, Volume = (long)65031164 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-01","yyyy-MM-dd",cultureProvider), Open=236.39m, High=236.78m, Low=236.15m, Close=236.31m, Volume = (long)65031164 },</v>
       </c>
       <c r="D170" s="3">
         <v>42979</v>
@@ -6460,7 +6461,7 @@
       </c>
       <c r="C171" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-05"), Open=(decimal)235.76, High=(decimal)236.01, Low=(decimal)233.56, Close=(decimal)234.62, Volume = (long)95856440 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-05","yyyy-MM-dd",cultureProvider), Open=235.76m, High=236.01m, Low=233.56m, Close=234.62m, Volume = (long)95856440 },</v>
       </c>
       <c r="D171" s="3">
         <v>42983</v>
@@ -6490,7 +6491,7 @@
       </c>
       <c r="C172" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-06"), Open=(decimal)235.36, High=(decimal)235.78, Low=(decimal)234.78, Close=(decimal)235.42, Volume = (long)60741564 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-06","yyyy-MM-dd",cultureProvider), Open=235.36m, High=235.78m, Low=234.78m, Close=235.42m, Volume = (long)60741564 },</v>
       </c>
       <c r="D172" s="3">
         <v>42984</v>
@@ -6520,7 +6521,7 @@
       </c>
       <c r="C173" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-07"), Open=(decimal)235.75, High=(decimal)235.77, Low=(decimal)234.94, Close=(decimal)235.39, Volume = (long)60865172 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-07","yyyy-MM-dd",cultureProvider), Open=235.75m, High=235.77m, Low=234.94m, Close=235.39m, Volume = (long)60865172 },</v>
       </c>
       <c r="D173" s="3">
         <v>42985</v>
@@ -6550,7 +6551,7 @@
       </c>
       <c r="C174" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-08"), Open=(decimal)235.07, High=(decimal)235.62, Low=(decimal)234.85, Close=(decimal)235.11, Volume = (long)66946052 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-08","yyyy-MM-dd",cultureProvider), Open=235.07m, High=235.62m, Low=234.85m, Close=235.11m, Volume = (long)66946052 },</v>
       </c>
       <c r="D174" s="3">
         <v>42986</v>
@@ -6580,7 +6581,7 @@
       </c>
       <c r="C175" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-11"), Open=(decimal)236.51, High=(decimal)237.71, Low=(decimal)236.49, Close=(decimal)237.62, Volume = (long)74845424 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-11","yyyy-MM-dd",cultureProvider), Open=236.51m, High=237.71m, Low=236.49m, Close=237.62m, Volume = (long)74845424 },</v>
       </c>
       <c r="D175" s="3">
         <v>42989</v>
@@ -6610,7 +6611,7 @@
       </c>
       <c r="C176" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-12"), Open=(decimal)238.02, High=(decimal)238.46, Low=(decimal)237.82, Close=(decimal)238.42, Volume = (long)59670932 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-12","yyyy-MM-dd",cultureProvider), Open=238.02m, High=238.46m, Low=237.82m, Close=238.42m, Volume = (long)59670932 },</v>
       </c>
       <c r="D176" s="3">
         <v>42990</v>
@@ -6640,7 +6641,7 @@
       </c>
       <c r="C177" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-13"), Open=(decimal)238.11, High=(decimal)238.57, Low=(decimal)237.98, Close=(decimal)238.54, Volume = (long)62116640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-13","yyyy-MM-dd",cultureProvider), Open=238.11m, High=238.57m, Low=237.98m, Close=238.54m, Volume = (long)62116640 },</v>
       </c>
       <c r="D177" s="3">
         <v>42991</v>
@@ -6670,7 +6671,7 @@
       </c>
       <c r="C178" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-14"), Open=(decimal)238.18, High=(decimal)238.68, Low=(decimal)237.99, Close=(decimal)238.46, Volume = (long)100101416 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-14","yyyy-MM-dd",cultureProvider), Open=238.18m, High=238.68m, Low=237.99m, Close=238.46m, Volume = (long)100101416 },</v>
       </c>
       <c r="D178" s="3">
         <v>42992</v>
@@ -6700,7 +6701,7 @@
       </c>
       <c r="C179" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-15"), Open=(decimal)238.3, High=(decimal)238.88, Low=(decimal)238.19, Close=(decimal)238.78, Volume = (long)99592680 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-15","yyyy-MM-dd",cultureProvider), Open=238.3m, High=238.88m, Low=238.19m, Close=238.78m, Volume = (long)99592680 },</v>
       </c>
       <c r="D179" s="3">
         <v>42993</v>
@@ -6730,7 +6731,7 @@
       </c>
       <c r="C180" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-18"), Open=(decimal)239.18, High=(decimal)239.67, Low=(decimal)238.87, Close=(decimal)239.29, Volume = (long)48250824 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-18","yyyy-MM-dd",cultureProvider), Open=239.18m, High=239.67m, Low=238.87m, Close=239.29m, Volume = (long)48250824 },</v>
       </c>
       <c r="D180" s="3">
         <v>42996</v>
@@ -6760,7 +6761,7 @@
       </c>
       <c r="C181" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-19"), Open=(decimal)239.56, High=(decimal)239.62, Low=(decimal)239.17, Close=(decimal)239.53, Volume = (long)49161788 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-19","yyyy-MM-dd",cultureProvider), Open=239.56m, High=239.62m, Low=239.17m, Close=239.53m, Volume = (long)49161788 },</v>
       </c>
       <c r="D181" s="3">
         <v>42997</v>
@@ -6790,7 +6791,7 @@
       </c>
       <c r="C182" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-20"), Open=(decimal)239.62, High=(decimal)239.74, Low=(decimal)238.52, Close=(decimal)239.61, Volume = (long)62171164 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-20","yyyy-MM-dd",cultureProvider), Open=239.62m, High=239.74m, Low=238.52m, Close=239.61m, Volume = (long)62171164 },</v>
       </c>
       <c r="D182" s="3">
         <v>42998</v>
@@ -6820,7 +6821,7 @@
       </c>
       <c r="C183" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-21"), Open=(decimal)239.44, High=(decimal)239.54, Low=(decimal)238.78, Close=(decimal)238.97, Volume = (long)50313136 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-21","yyyy-MM-dd",cultureProvider), Open=239.44m, High=239.54m, Low=238.78m, Close=238.97m, Volume = (long)50313136 },</v>
       </c>
       <c r="D183" s="3">
         <v>42999</v>
@@ -6850,7 +6851,7 @@
       </c>
       <c r="C184" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-22"), Open=(decimal)238.65, High=(decimal)239.2, Low=(decimal)238.62, Close=(decimal)239.02, Volume = (long)53446664 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-22","yyyy-MM-dd",cultureProvider), Open=238.65m, High=239.2m, Low=238.62m, Close=239.02m, Volume = (long)53446664 },</v>
       </c>
       <c r="D184" s="3">
         <v>43000</v>
@@ -6880,7 +6881,7 @@
       </c>
       <c r="C185" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-25"), Open=(decimal)238.74, High=(decimal)239.13, Low=(decimal)237.72, Close=(decimal)238.53, Volume = (long)59552032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-25","yyyy-MM-dd",cultureProvider), Open=238.74m, High=239.13m, Low=237.72m, Close=238.53m, Volume = (long)59552032 },</v>
       </c>
       <c r="D185" s="3">
         <v>43003</v>
@@ -6910,7 +6911,7 @@
       </c>
       <c r="C186" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-26"), Open=(decimal)239, High=(decimal)239.27, Low=(decimal)238.41, Close=(decimal)238.68, Volume = (long)56439616 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-26","yyyy-MM-dd",cultureProvider), Open=239m, High=239.27m, Low=238.41m, Close=238.68m, Volume = (long)56439616 },</v>
       </c>
       <c r="D186" s="3">
         <v>43004</v>
@@ -6940,7 +6941,7 @@
       </c>
       <c r="C187" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-27"), Open=(decimal)239.44, High=(decimal)240.03, Low=(decimal)238.47, Close=(decimal)239.6, Volume = (long)84532616 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-27","yyyy-MM-dd",cultureProvider), Open=239.44m, High=240.03m, Low=238.47m, Close=239.6m, Volume = (long)84532616 },</v>
       </c>
       <c r="D187" s="3">
         <v>43005</v>
@@ -6970,7 +6971,7 @@
       </c>
       <c r="C188" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-28"), Open=(decimal)239.3, High=(decimal)239.98, Low=(decimal)239.2, Close=(decimal)239.89, Volume = (long)46730936 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-28","yyyy-MM-dd",cultureProvider), Open=239.3m, High=239.98m, Low=239.2m, Close=239.89m, Volume = (long)46730936 },</v>
       </c>
       <c r="D188" s="3">
         <v>43006</v>
@@ -7000,7 +7001,7 @@
       </c>
       <c r="C189" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-29"), Open=(decimal)239.88, High=(decimal)240.82, Low=(decimal)239.68, Close=(decimal)240.74, Volume = (long)89308704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-29","yyyy-MM-dd",cultureProvider), Open=239.88m, High=240.82m, Low=239.68m, Close=240.74m, Volume = (long)89308704 },</v>
       </c>
       <c r="D189" s="3">
         <v>43007</v>
@@ -7030,7 +7031,7 @@
       </c>
       <c r="C190" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-02"), Open=(decimal)240.98, High=(decimal)241.78, Low=(decimal)240.8, Close=(decimal)241.78, Volume = (long)61596044 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-02","yyyy-MM-dd",cultureProvider), Open=240.98m, High=241.78m, Low=240.8m, Close=241.78m, Volume = (long)61596044 },</v>
       </c>
       <c r="D190" s="3">
         <v>43010</v>
@@ -7060,7 +7061,7 @@
       </c>
       <c r="C191" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-03"), Open=(decimal)241.91, High=(decimal)242.33, Low=(decimal)241.69, Close=(decimal)242.3, Volume = (long)69722704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-03","yyyy-MM-dd",cultureProvider), Open=241.91m, High=242.33m, Low=241.69m, Close=242.3m, Volume = (long)69722704 },</v>
       </c>
       <c r="D191" s="3">
         <v>43011</v>
@@ -7090,7 +7091,7 @@
       </c>
       <c r="C192" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-04"), Open=(decimal)242.13, High=(decimal)242.85, Low=(decimal)242.01, Close=(decimal)242.58, Volume = (long)58392872 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-04","yyyy-MM-dd",cultureProvider), Open=242.13m, High=242.85m, Low=242.01m, Close=242.58m, Volume = (long)58392872 },</v>
       </c>
       <c r="D192" s="3">
         <v>43012</v>
@@ -7120,7 +7121,7 @@
       </c>
       <c r="C193" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-05"), Open=(decimal)242.95, High=(decimal)244.04, Low=(decimal)242.62, Close=(decimal)244.02, Volume = (long)66291980 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-05","yyyy-MM-dd",cultureProvider), Open=242.95m, High=244.04m, Low=242.62m, Close=244.02m, Volume = (long)66291980 },</v>
       </c>
       <c r="D193" s="3">
         <v>43013</v>
@@ -7149,8 +7150,8 @@
         <v>7</v>
       </c>
       <c r="C194" s="5" t="str">
-        <f t="shared" ref="C194:C257" si="3">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D194,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E194&amp;", High=(decimal)"&amp;F194&amp;", Low=(decimal)"&amp;G194&amp;", Close=(decimal)"&amp;H194&amp;", Volume = (long)"&amp;I194&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-10-06"), Open=(decimal)243.53, High=(decimal)244.06, Low=(decimal)243.25, Close=(decimal)243.74, Volume = (long)84161696 },</v>
+        <f t="shared" ref="C194:C257" si="3">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D194,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E194&amp;"m, High="&amp;F194&amp;"m, Low="&amp;G194&amp;"m, Close="&amp;H194&amp;"m, Volume = (long)"&amp;I194&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-06","yyyy-MM-dd",cultureProvider), Open=243.53m, High=244.06m, Low=243.25m, Close=243.74m, Volume = (long)84161696 },</v>
       </c>
       <c r="D194" s="3">
         <v>43014</v>
@@ -7180,7 +7181,7 @@
       </c>
       <c r="C195" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-09"), Open=(decimal)243.99, High=(decimal)244.06, Low=(decimal)243.05, Close=(decimal)243.34, Volume = (long)37363944 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-09","yyyy-MM-dd",cultureProvider), Open=243.99m, High=244.06m, Low=243.05m, Close=243.34m, Volume = (long)37363944 },</v>
       </c>
       <c r="D195" s="3">
         <v>43017</v>
@@ -7210,7 +7211,7 @@
       </c>
       <c r="C196" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-10"), Open=(decimal)243.96, High=(decimal)244.4, Low=(decimal)243.37, Close=(decimal)243.98, Volume = (long)44934412 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-10","yyyy-MM-dd",cultureProvider), Open=243.96m, High=244.4m, Low=243.37m, Close=243.98m, Volume = (long)44934412 },</v>
       </c>
       <c r="D196" s="3">
         <v>43018</v>
@@ -7240,7 +7241,7 @@
       </c>
       <c r="C197" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-11"), Open=(decimal)243.88, High=(decimal)244.37, Low=(decimal)243.7, Close=(decimal)244.37, Volume = (long)49752644 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-11","yyyy-MM-dd",cultureProvider), Open=243.88m, High=244.37m, Low=243.7m, Close=244.37m, Volume = (long)49752644 },</v>
       </c>
       <c r="D197" s="3">
         <v>43019</v>
@@ -7270,7 +7271,7 @@
       </c>
       <c r="C198" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-12"), Open=(decimal)244.02, High=(decimal)244.41, Low=(decimal)243.74, Close=(decimal)244, Volume = (long)49116908 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-12","yyyy-MM-dd",cultureProvider), Open=244.02m, High=244.41m, Low=243.74m, Close=244m, Volume = (long)49116908 },</v>
       </c>
       <c r="D198" s="3">
         <v>43020</v>
@@ -7300,7 +7301,7 @@
       </c>
       <c r="C199" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-13"), Open=(decimal)244.48, High=(decimal)244.61, Low=(decimal)244, Close=(decimal)244.3, Volume = (long)57189416 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-13","yyyy-MM-dd",cultureProvider), Open=244.48m, High=244.61m, Low=244m, Close=244.3m, Volume = (long)57189416 },</v>
       </c>
       <c r="D199" s="3">
         <v>43021</v>
@@ -7330,7 +7331,7 @@
       </c>
       <c r="C200" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-16"), Open=(decimal)244.55, High=(decimal)244.84, Low=(decimal)244.18, Close=(decimal)244.63, Volume = (long)39887916 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-16","yyyy-MM-dd",cultureProvider), Open=244.55m, High=244.84m, Low=244.18m, Close=244.63m, Volume = (long)39887916 },</v>
       </c>
       <c r="D200" s="3">
         <v>43024</v>
@@ -7360,7 +7361,7 @@
       </c>
       <c r="C201" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-17"), Open=(decimal)244.57, High=(decimal)244.85, Low=(decimal)244.33, Close=(decimal)244.8, Volume = (long)32936836 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-17","yyyy-MM-dd",cultureProvider), Open=244.57m, High=244.85m, Low=244.33m, Close=244.8m, Volume = (long)32936836 },</v>
       </c>
       <c r="D201" s="3">
         <v>43025</v>
@@ -7390,7 +7391,7 @@
       </c>
       <c r="C202" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-18"), Open=(decimal)245.21, High=(decimal)245.26, Low=(decimal)244.83, Close=(decimal)245.04, Volume = (long)42670820 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-18","yyyy-MM-dd",cultureProvider), Open=245.21m, High=245.26m, Low=244.83m, Close=245.04m, Volume = (long)42670820 },</v>
       </c>
       <c r="D202" s="3">
         <v>43026</v>
@@ -7420,7 +7421,7 @@
       </c>
       <c r="C203" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-19"), Open=(decimal)244.18, High=(decimal)245.14, Low=(decimal)243.72, Close=(decimal)245.1, Volume = (long)64602432 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-19","yyyy-MM-dd",cultureProvider), Open=244.18m, High=245.14m, Low=243.72m, Close=245.1m, Volume = (long)64602432 },</v>
       </c>
       <c r="D203" s="3">
         <v>43027</v>
@@ -7450,7 +7451,7 @@
       </c>
       <c r="C204" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-20"), Open=(decimal)245.98, High=(decimal)246.4, Low=(decimal)245.09, Close=(decimal)246.37, Volume = (long)93063952 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-20","yyyy-MM-dd",cultureProvider), Open=245.98m, High=246.4m, Low=245.09m, Close=246.37m, Volume = (long)93063952 },</v>
       </c>
       <c r="D204" s="3">
         <v>43028</v>
@@ -7480,7 +7481,7 @@
       </c>
       <c r="C205" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-23"), Open=(decimal)246.72, High=(decimal)246.75, Low=(decimal)245.33, Close=(decimal)245.41, Volume = (long)66701640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-23","yyyy-MM-dd",cultureProvider), Open=246.72m, High=246.75m, Low=245.33m, Close=245.41m, Volume = (long)66701640 },</v>
       </c>
       <c r="D205" s="3">
         <v>43031</v>
@@ -7510,7 +7511,7 @@
       </c>
       <c r="C206" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-24"), Open=(decimal)245.88, High=(decimal)246.1, Low=(decimal)245.45, Close=(decimal)245.84, Volume = (long)69853928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-24","yyyy-MM-dd",cultureProvider), Open=245.88m, High=246.1m, Low=245.45m, Close=245.84m, Volume = (long)69853928 },</v>
       </c>
       <c r="D206" s="3">
         <v>43032</v>
@@ -7540,7 +7541,7 @@
       </c>
       <c r="C207" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-25"), Open=(decimal)245.48, High=(decimal)245.6, Low=(decimal)243.39, Close=(decimal)244.63, Volume = (long)108236672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-25","yyyy-MM-dd",cultureProvider), Open=245.48m, High=245.6m, Low=243.39m, Close=244.63m, Volume = (long)108236672 },</v>
       </c>
       <c r="D207" s="3">
         <v>43033</v>
@@ -7570,7 +7571,7 @@
       </c>
       <c r="C208" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-26"), Open=(decimal)245.3, High=(decimal)245.59, Low=(decimal)244.81, Close=(decimal)244.94, Volume = (long)72840760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-26","yyyy-MM-dd",cultureProvider), Open=245.3m, High=245.59m, Low=244.81m, Close=244.94m, Volume = (long)72840760 },</v>
       </c>
       <c r="D208" s="3">
         <v>43034</v>
@@ -7600,7 +7601,7 @@
       </c>
       <c r="C209" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-27"), Open=(decimal)245.76, High=(decimal)247.12, Low=(decimal)244.95, Close=(decimal)246.94, Volume = (long)89292576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-27","yyyy-MM-dd",cultureProvider), Open=245.76m, High=247.12m, Low=244.95m, Close=246.94m, Volume = (long)89292576 },</v>
       </c>
       <c r="D209" s="3">
         <v>43035</v>
@@ -7630,7 +7631,7 @@
       </c>
       <c r="C210" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-30"), Open=(decimal)246.33, High=(decimal)246.84, Low=(decimal)245.7, Close=(decimal)246.02, Volume = (long)56652224 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-30","yyyy-MM-dd",cultureProvider), Open=246.33m, High=246.84m, Low=245.7m, Close=246.02m, Volume = (long)56652224 },</v>
       </c>
       <c r="D210" s="3">
         <v>43038</v>
@@ -7660,7 +7661,7 @@
       </c>
       <c r="C211" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-31"), Open=(decimal)246.44, High=(decimal)246.69, Low=(decimal)246.08, Close=(decimal)246.41, Volume = (long)62933720 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-31","yyyy-MM-dd",cultureProvider), Open=246.44m, High=246.69m, Low=246.08m, Close=246.41m, Volume = (long)62933720 },</v>
       </c>
       <c r="D211" s="3">
         <v>43039</v>
@@ -7690,7 +7691,7 @@
       </c>
       <c r="C212" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-01"), Open=(decimal)247.26, High=(decimal)247.63, Low=(decimal)246.33, Close=(decimal)246.73, Volume = (long)56565660 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-01","yyyy-MM-dd",cultureProvider), Open=247.26m, High=247.63m, Low=246.33m, Close=246.73m, Volume = (long)56565660 },</v>
       </c>
       <c r="D212" s="3">
         <v>43040</v>
@@ -7720,7 +7721,7 @@
       </c>
       <c r="C213" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-02"), Open=(decimal)246.66, High=(decimal)246.98, Low=(decimal)245.49, Close=(decimal)246.83, Volume = (long)58910404 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-02","yyyy-MM-dd",cultureProvider), Open=246.66m, High=246.98m, Low=245.49m, Close=246.83m, Volume = (long)58910404 },</v>
       </c>
       <c r="D213" s="3">
         <v>43041</v>
@@ -7750,7 +7751,7 @@
       </c>
       <c r="C214" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-03"), Open=(decimal)247, High=(decimal)247.7, Low=(decimal)246.55, Close=(decimal)247.65, Volume = (long)62187496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-03","yyyy-MM-dd",cultureProvider), Open=247m, High=247.7m, Low=246.55m, Close=247.65m, Volume = (long)62187496 },</v>
       </c>
       <c r="D214" s="3">
         <v>43042</v>
@@ -7780,7 +7781,7 @@
       </c>
       <c r="C215" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-06"), Open=(decimal)247.51, High=(decimal)248.18, Low=(decimal)247.43, Close=(decimal)248.04, Volume = (long)51817160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-06","yyyy-MM-dd",cultureProvider), Open=247.51m, High=248.18m, Low=247.43m, Close=248.04m, Volume = (long)51817160 },</v>
       </c>
       <c r="D215" s="3">
         <v>43045</v>
@@ -7810,7 +7811,7 @@
       </c>
       <c r="C216" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-07"), Open=(decimal)248.15, High=(decimal)248.52, Low=(decimal)247.31, Close=(decimal)247.86, Volume = (long)60008920 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-07","yyyy-MM-dd",cultureProvider), Open=248.15m, High=248.52m, Low=247.31m, Close=247.86m, Volume = (long)60008920 },</v>
       </c>
       <c r="D216" s="3">
         <v>43046</v>
@@ -7840,7 +7841,7 @@
       </c>
       <c r="C217" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-08"), Open=(decimal)247.67, High=(decimal)248.39, Low=(decimal)247.37, Close=(decimal)248.29, Volume = (long)52669760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-08","yyyy-MM-dd",cultureProvider), Open=247.67m, High=248.39m, Low=247.37m, Close=248.29m, Volume = (long)52669760 },</v>
       </c>
       <c r="D217" s="3">
         <v>43047</v>
@@ -7870,7 +7871,7 @@
       </c>
       <c r="C218" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-09"), Open=(decimal)246.96, High=(decimal)247.6, Low=(decimal)245.65, Close=(decimal)247.39, Volume = (long)99230672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-09","yyyy-MM-dd",cultureProvider), Open=246.96m, High=247.6m, Low=245.65m, Close=247.39m, Volume = (long)99230672 },</v>
       </c>
       <c r="D218" s="3">
         <v>43048</v>
@@ -7900,7 +7901,7 @@
       </c>
       <c r="C219" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-10"), Open=(decimal)246.96, High=(decimal)247.5, Low=(decimal)246.62, Close=(decimal)247.31, Volume = (long)62599644 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-10","yyyy-MM-dd",cultureProvider), Open=246.96m, High=247.5m, Low=246.62m, Close=247.31m, Volume = (long)62599644 },</v>
       </c>
       <c r="D219" s="3">
         <v>43049</v>
@@ -7930,7 +7931,7 @@
       </c>
       <c r="C220" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-13"), Open=(decimal)246.56, High=(decimal)247.79, Low=(decimal)246.52, Close=(decimal)247.54, Volume = (long)52418324 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-13","yyyy-MM-dd",cultureProvider), Open=246.56m, High=247.79m, Low=246.52m, Close=247.54m, Volume = (long)52418324 },</v>
       </c>
       <c r="D220" s="3">
         <v>43052</v>
@@ -7960,7 +7961,7 @@
       </c>
       <c r="C221" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-14"), Open=(decimal)246.66, High=(decimal)247.08, Low=(decimal)245.8, Close=(decimal)246.96, Volume = (long)63988136 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-14","yyyy-MM-dd",cultureProvider), Open=246.66m, High=247.08m, Low=245.8m, Close=246.96m, Volume = (long)63988136 },</v>
       </c>
       <c r="D221" s="3">
         <v>43053</v>
@@ -7990,7 +7991,7 @@
       </c>
       <c r="C222" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-15"), Open=(decimal)245.9, High=(decimal)246.48, Low=(decimal)244.95, Close=(decimal)245.73, Volume = (long)84334432 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-15","yyyy-MM-dd",cultureProvider), Open=245.9m, High=246.48m, Low=244.95m, Close=245.73m, Volume = (long)84334432 },</v>
       </c>
       <c r="D222" s="3">
         <v>43054</v>
@@ -8020,7 +8021,7 @@
       </c>
       <c r="C223" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-16"), Open=(decimal)246.76, High=(decimal)248.22, Low=(decimal)246.72, Close=(decimal)247.82, Volume = (long)70731712 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-16","yyyy-MM-dd",cultureProvider), Open=246.76m, High=248.22m, Low=246.72m, Close=247.82m, Volume = (long)70731712 },</v>
       </c>
       <c r="D223" s="3">
         <v>43055</v>
@@ -8050,7 +8051,7 @@
       </c>
       <c r="C224" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-17"), Open=(decimal)247.43, High=(decimal)247.79, Low=(decimal)247, Close=(decimal)247.09, Volume = (long)79059392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-17","yyyy-MM-dd",cultureProvider), Open=247.43m, High=247.79m, Low=247m, Close=247.09m, Volume = (long)79059392 },</v>
       </c>
       <c r="D224" s="3">
         <v>43056</v>
@@ -8080,7 +8081,7 @@
       </c>
       <c r="C225" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-20"), Open=(decimal)247.36, High=(decimal)247.73, Low=(decimal)247.09, Close=(decimal)247.51, Volume = (long)50171324 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-20","yyyy-MM-dd",cultureProvider), Open=247.36m, High=247.73m, Low=247.09m, Close=247.51m, Volume = (long)50171324 },</v>
       </c>
       <c r="D225" s="3">
         <v>43059</v>
@@ -8110,7 +8111,7 @@
       </c>
       <c r="C226" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-21"), Open=(decimal)248.35, High=(decimal)249.33, Low=(decimal)247.47, Close=(decimal)249.13, Volume = (long)72192504 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-21","yyyy-MM-dd",cultureProvider), Open=248.35m, High=249.33m, Low=247.47m, Close=249.13m, Volume = (long)72192504 },</v>
       </c>
       <c r="D226" s="3">
         <v>43060</v>
@@ -8140,7 +8141,7 @@
       </c>
       <c r="C227" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-22"), Open=(decimal)249.14, High=(decimal)249.28, Low=(decimal)248.73, Close=(decimal)248.91, Volume = (long)46996584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-22","yyyy-MM-dd",cultureProvider), Open=249.14m, High=249.28m, Low=248.73m, Close=248.91m, Volume = (long)46996584 },</v>
       </c>
       <c r="D227" s="3">
         <v>43061</v>
@@ -8170,7 +8171,7 @@
       </c>
       <c r="C228" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-24"), Open=(decimal)249.45, High=(decimal)249.6, Low=(decimal)249.29, Close=(decimal)249.48, Volume = (long)29070892 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-24","yyyy-MM-dd",cultureProvider), Open=249.45m, High=249.6m, Low=249.29m, Close=249.48m, Volume = (long)29070892 },</v>
       </c>
       <c r="D228" s="3">
         <v>43063</v>
@@ -8200,7 +8201,7 @@
       </c>
       <c r="C229" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-27"), Open=(decimal)249.53, High=(decimal)249.86, Low=(decimal)249.14, Close=(decimal)249.36, Volume = (long)54553804 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-27","yyyy-MM-dd",cultureProvider), Open=249.53m, High=249.86m, Low=249.14m, Close=249.36m, Volume = (long)54553804 },</v>
       </c>
       <c r="D229" s="3">
         <v>43066</v>
@@ -8230,7 +8231,7 @@
       </c>
       <c r="C230" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-28"), Open=(decimal)249.87, High=(decimal)251.92, Low=(decimal)249.77, Close=(decimal)251.89, Volume = (long)103286312 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-28","yyyy-MM-dd",cultureProvider), Open=249.87m, High=251.92m, Low=249.77m, Close=251.89m, Volume = (long)103286312 },</v>
       </c>
       <c r="D230" s="3">
         <v>43067</v>
@@ -8260,7 +8261,7 @@
       </c>
       <c r="C231" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-29"), Open=(decimal)252.03, High=(decimal)252.62, Low=(decimal)251.25, Close=(decimal)251.74, Volume = (long)80891176 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-29","yyyy-MM-dd",cultureProvider), Open=252.03m, High=252.62m, Low=251.25m, Close=251.74m, Volume = (long)80891176 },</v>
       </c>
       <c r="D231" s="3">
         <v>43068</v>
@@ -8290,7 +8291,7 @@
       </c>
       <c r="C232" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-30"), Open=(decimal)252.74, High=(decimal)254.94, Low=(decimal)252.66, Close=(decimal)253.94, Volume = (long)133469840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-30","yyyy-MM-dd",cultureProvider), Open=252.74m, High=254.94m, Low=252.66m, Close=253.94m, Volume = (long)133469840 },</v>
       </c>
       <c r="D232" s="3">
         <v>43069</v>
@@ -8320,7 +8321,7 @@
       </c>
       <c r="C233" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-01"), Open=(decimal)253.7, High=(decimal)254.23, Low=(decimal)249.87, Close=(decimal)253.41, Volume = (long)171557392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-01","yyyy-MM-dd",cultureProvider), Open=253.7m, High=254.23m, Low=249.87m, Close=253.41m, Volume = (long)171557392 },</v>
       </c>
       <c r="D233" s="3">
         <v>43070</v>
@@ -8350,7 +8351,7 @@
       </c>
       <c r="C234" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-04"), Open=(decimal)255.19, High=(decimal)255.65, Low=(decimal)253.05, Close=(decimal)253.11, Volume = (long)98140184 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-04","yyyy-MM-dd",cultureProvider), Open=255.19m, High=255.65m, Low=253.05m, Close=253.11m, Volume = (long)98140184 },</v>
       </c>
       <c r="D234" s="3">
         <v>43073</v>
@@ -8380,7 +8381,7 @@
       </c>
       <c r="C235" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-05"), Open=(decimal)253.38, High=(decimal)254.07, Low=(decimal)252.05, Close=(decimal)252.2, Volume = (long)81394656 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-05","yyyy-MM-dd",cultureProvider), Open=253.38m, High=254.07m, Low=252.05m, Close=252.2m, Volume = (long)81394656 },</v>
       </c>
       <c r="D235" s="3">
         <v>43074</v>
@@ -8410,7 +8411,7 @@
       </c>
       <c r="C236" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-06"), Open=(decimal)251.89, High=(decimal)252.71, Low=(decimal)251.74, Close=(decimal)252.24, Volume = (long)79207304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-06","yyyy-MM-dd",cultureProvider), Open=251.89m, High=252.71m, Low=251.74m, Close=252.24m, Volume = (long)79207304 },</v>
       </c>
       <c r="D236" s="3">
         <v>43075</v>
@@ -8440,7 +8441,7 @@
       </c>
       <c r="C237" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-07"), Open=(decimal)252.1, High=(decimal)253.38, Low=(decimal)251.96, Close=(decimal)253.04, Volume = (long)80584848 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-07","yyyy-MM-dd",cultureProvider), Open=252.1m, High=253.38m, Low=251.96m, Close=253.04m, Volume = (long)80584848 },</v>
       </c>
       <c r="D237" s="3">
         <v>43076</v>
@@ -8470,7 +8471,7 @@
       </c>
       <c r="C238" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-08"), Open=(decimal)253.92, High=(decimal)254.43, Low=(decimal)253, Close=(decimal)254.42, Volume = (long)79901608 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-08","yyyy-MM-dd",cultureProvider), Open=253.92m, High=254.43m, Low=253m, Close=254.42m, Volume = (long)79901608 },</v>
       </c>
       <c r="D238" s="3">
         <v>43077</v>
@@ -8500,7 +8501,7 @@
       </c>
       <c r="C239" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-11"), Open=(decimal)254.49, High=(decimal)255.25, Low=(decimal)254.39, Close=(decimal)255.19, Volume = (long)86699232 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-11","yyyy-MM-dd",cultureProvider), Open=254.49m, High=255.25m, Low=254.39m, Close=255.19m, Volume = (long)86699232 },</v>
       </c>
       <c r="D239" s="3">
         <v>43080</v>
@@ -8530,7 +8531,7 @@
       </c>
       <c r="C240" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-12"), Open=(decimal)255.43, High=(decimal)256.15, Low=(decimal)255.22, Close=(decimal)255.64, Volume = (long)88909792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-12","yyyy-MM-dd",cultureProvider), Open=255.43m, High=256.15m, Low=255.22m, Close=255.64m, Volume = (long)88909792 },</v>
       </c>
       <c r="D240" s="3">
         <v>43081</v>
@@ -8560,7 +8561,7 @@
       </c>
       <c r="C241" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-13"), Open=(decimal)255.9, High=(decimal)256.38, Low=(decimal)255.51, Close=(decimal)255.61, Volume = (long)107391488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-13","yyyy-MM-dd",cultureProvider), Open=255.9m, High=256.38m, Low=255.51m, Close=255.61m, Volume = (long)107391488 },</v>
       </c>
       <c r="D241" s="3">
         <v>43082</v>
@@ -8590,7 +8591,7 @@
       </c>
       <c r="C242" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-14"), Open=(decimal)255.93, High=(decimal)256.06, Low=(decimal)254.51, Close=(decimal)254.56, Volume = (long)105055176 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-14","yyyy-MM-dd",cultureProvider), Open=255.93m, High=256.06m, Low=254.51m, Close=254.56m, Volume = (long)105055176 },</v>
       </c>
       <c r="D242" s="3">
         <v>43083</v>
@@ -8620,7 +8621,7 @@
       </c>
       <c r="C243" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-15"), Open=(decimal)255.66, High=(decimal)257.19, Low=(decimal)255.6, Close=(decimal)256.68, Volume = (long)150146832 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-15","yyyy-MM-dd",cultureProvider), Open=255.66m, High=257.19m, Low=255.6m, Close=256.68m, Volume = (long)150146832 },</v>
       </c>
       <c r="D243" s="3">
         <v>43084</v>
@@ -8650,7 +8651,7 @@
       </c>
       <c r="C244" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-18"), Open=(decimal)258.21, High=(decimal)258.7, Low=(decimal)258.1, Close=(decimal)258.31, Volume = (long)86856320 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-18","yyyy-MM-dd",cultureProvider), Open=258.21m, High=258.7m, Low=258.1m, Close=258.31m, Volume = (long)86856320 },</v>
       </c>
       <c r="D244" s="3">
         <v>43087</v>
@@ -8680,7 +8681,7 @@
       </c>
       <c r="C245" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-19"), Open=(decimal)258.58, High=(decimal)258.63, Low=(decimal)257.24, Close=(decimal)257.32, Volume = (long)85536976 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-19","yyyy-MM-dd",cultureProvider), Open=258.58m, High=258.63m, Low=257.24m, Close=257.32m, Volume = (long)85536976 },</v>
       </c>
       <c r="D245" s="3">
         <v>43088</v>
@@ -8710,7 +8711,7 @@
       </c>
       <c r="C246" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-20"), Open=(decimal)258.38, High=(decimal)258.44, Low=(decimal)256.86, Close=(decimal)257.18, Volume = (long)79690000 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-20","yyyy-MM-dd",cultureProvider), Open=258.38m, High=258.44m, Low=256.86m, Close=257.18m, Volume = (long)79690000 },</v>
       </c>
       <c r="D246" s="3">
         <v>43089</v>
@@ -8740,7 +8741,7 @@
       </c>
       <c r="C247" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-21"), Open=(decimal)257.87, High=(decimal)258.49, Low=(decimal)257.44, Close=(decimal)257.71, Volume = (long)69598728 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-21","yyyy-MM-dd",cultureProvider), Open=257.87m, High=258.49m, Low=257.44m, Close=257.71m, Volume = (long)69598728 },</v>
       </c>
       <c r="D247" s="3">
         <v>43090</v>
@@ -8770,7 +8771,7 @@
       </c>
       <c r="C248" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-22"), Open=(decimal)257.73, High=(decimal)257.77, Low=(decimal)257.06, Close=(decimal)257.65, Volume = (long)81734768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-22","yyyy-MM-dd",cultureProvider), Open=257.73m, High=257.77m, Low=257.06m, Close=257.65m, Volume = (long)81734768 },</v>
       </c>
       <c r="D248" s="3">
         <v>43091</v>
@@ -8800,7 +8801,7 @@
       </c>
       <c r="C249" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-26"), Open=(decimal)257.2, High=(decimal)257.58, Low=(decimal)257.04, Close=(decimal)257.34, Volume = (long)46976656 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-26","yyyy-MM-dd",cultureProvider), Open=257.2m, High=257.58m, Low=257.04m, Close=257.34m, Volume = (long)46976656 },</v>
       </c>
       <c r="D249" s="3">
         <v>43095</v>
@@ -8830,7 +8831,7 @@
       </c>
       <c r="C250" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-27"), Open=(decimal)257.52, High=(decimal)257.86, Low=(decimal)257.16, Close=(decimal)257.46, Volume = (long)59962032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-27","yyyy-MM-dd",cultureProvider), Open=257.52m, High=257.86m, Low=257.16m, Close=257.46m, Volume = (long)59962032 },</v>
       </c>
       <c r="D250" s="3">
         <v>43096</v>
@@ -8860,7 +8861,7 @@
       </c>
       <c r="C251" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-28"), Open=(decimal)258.01, High=(decimal)258.04, Low=(decimal)257.59, Close=(decimal)257.99, Volume = (long)46843448 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-28","yyyy-MM-dd",cultureProvider), Open=258.01m, High=258.04m, Low=257.59m, Close=257.99m, Volume = (long)46843448 },</v>
       </c>
       <c r="D251" s="3">
         <v>43097</v>
@@ -8890,7 +8891,7 @@
       </c>
       <c r="C252" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-29"), Open=(decimal)258.63, High=(decimal)258.65, Low=(decimal)256.81, Close=(decimal)257.02, Volume = (long)99683152 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-29","yyyy-MM-dd",cultureProvider), Open=258.63m, High=258.65m, Low=256.81m, Close=257.02m, Volume = (long)99683152 },</v>
       </c>
       <c r="D252" s="3">
         <v>43098</v>
@@ -8920,7 +8921,7 @@
       </c>
       <c r="C253" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-02"), Open=(decimal)257.96, High=(decimal)258.9, Low=(decimal)257.54, Close=(decimal)258.86, Volume = (long)89973440 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-02","yyyy-MM-dd",cultureProvider), Open=257.96m, High=258.9m, Low=257.54m, Close=258.86m, Volume = (long)89973440 },</v>
       </c>
       <c r="D253" s="3">
         <v>43102</v>
@@ -8950,7 +8951,7 @@
       </c>
       <c r="C254" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-03"), Open=(decimal)259.04, High=(decimal)260.66, Low=(decimal)259.04, Close=(decimal)260.5, Volume = (long)93518840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-03","yyyy-MM-dd",cultureProvider), Open=259.04m, High=260.66m, Low=259.04m, Close=260.5m, Volume = (long)93518840 },</v>
       </c>
       <c r="D254" s="3">
         <v>43103</v>
@@ -8980,7 +8981,7 @@
       </c>
       <c r="C255" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-04"), Open=(decimal)261.2, High=(decimal)262.12, Low=(decimal)260.57, Close=(decimal)261.59, Volume = (long)83723648 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-04","yyyy-MM-dd",cultureProvider), Open=261.2m, High=262.12m, Low=260.57m, Close=261.59m, Volume = (long)83723648 },</v>
       </c>
       <c r="D255" s="3">
         <v>43104</v>
@@ -9010,7 +9011,7 @@
       </c>
       <c r="C256" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-05"), Open=(decimal)262.46, High=(decimal)263.47, Low=(decimal)261.92, Close=(decimal)263.34, Volume = (long)86721784 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-05","yyyy-MM-dd",cultureProvider), Open=262.46m, High=263.47m, Low=261.92m, Close=263.34m, Volume = (long)86721784 },</v>
       </c>
       <c r="D256" s="3">
         <v>43105</v>
@@ -9040,7 +9041,7 @@
       </c>
       <c r="C257" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-08"), Open=(decimal)263.23, High=(decimal)263.99, Low=(decimal)262.91, Close=(decimal)263.82, Volume = (long)59513708 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-08","yyyy-MM-dd",cultureProvider), Open=263.23m, High=263.99m, Low=262.91m, Close=263.82m, Volume = (long)59513708 },</v>
       </c>
       <c r="D257" s="3">
         <v>43108</v>
@@ -9069,8 +9070,8 @@
         <v>7</v>
       </c>
       <c r="C258" s="5" t="str">
-        <f t="shared" ref="C258:C321" si="4">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D258,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E258&amp;", High=(decimal)"&amp;F258&amp;", Low=(decimal)"&amp;G258&amp;", Close=(decimal)"&amp;H258&amp;", Volume = (long)"&amp;I258&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-01-09"), Open=(decimal)264.28, High=(decimal)265.1, Low=(decimal)263.97, Close=(decimal)264.42, Volume = (long)59445976 },</v>
+        <f t="shared" ref="C258:C321" si="4">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D258,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E258&amp;"m, High="&amp;F258&amp;"m, Low="&amp;G258&amp;"m, Close="&amp;H258&amp;"m, Volume = (long)"&amp;I258&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-09","yyyy-MM-dd",cultureProvider), Open=264.28m, High=265.1m, Low=263.97m, Close=264.42m, Volume = (long)59445976 },</v>
       </c>
       <c r="D258" s="3">
         <v>43109</v>
@@ -9100,7 +9101,7 @@
       </c>
       <c r="C259" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-10"), Open=(decimal)263.59, High=(decimal)264.3, Low=(decimal)262.86, Close=(decimal)264.01, Volume = (long)72238032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-10","yyyy-MM-dd",cultureProvider), Open=263.59m, High=264.3m, Low=262.86m, Close=264.01m, Volume = (long)72238032 },</v>
       </c>
       <c r="D259" s="3">
         <v>43110</v>
@@ -9130,7 +9131,7 @@
       </c>
       <c r="C260" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-11"), Open=(decimal)264.62, High=(decimal)265.94, Low=(decimal)264.44, Close=(decimal)265.94, Volume = (long)64749016 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-11","yyyy-MM-dd",cultureProvider), Open=264.62m, High=265.94m, Low=264.44m, Close=265.94m, Volume = (long)64749016 },</v>
       </c>
       <c r="D260" s="3">
         <v>43111</v>
@@ -9160,7 +9161,7 @@
       </c>
       <c r="C261" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-12"), Open=(decimal)266.23, High=(decimal)267.86, Low=(decimal)265.9, Close=(decimal)267.67, Volume = (long)94293048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-12","yyyy-MM-dd",cultureProvider), Open=266.23m, High=267.86m, Low=265.9m, Close=267.67m, Volume = (long)94293048 },</v>
       </c>
       <c r="D261" s="3">
         <v>43112</v>
@@ -9190,7 +9191,7 @@
       </c>
       <c r="C262" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-16"), Open=(decimal)269.05, High=(decimal)269.76, Low=(decimal)266, Close=(decimal)266.76, Volume = (long)110634704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-16","yyyy-MM-dd",cultureProvider), Open=269.05m, High=269.76m, Low=266m, Close=266.76m, Volume = (long)110634704 },</v>
       </c>
       <c r="D262" s="3">
         <v>43116</v>
@@ -9220,7 +9221,7 @@
       </c>
       <c r="C263" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-17"), Open=(decimal)267.78, High=(decimal)269.72, Low=(decimal)266.76, Close=(decimal)269.3, Volume = (long)117595008 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-17","yyyy-MM-dd",cultureProvider), Open=267.78m, High=269.72m, Low=266.76m, Close=269.3m, Volume = (long)117595008 },</v>
       </c>
       <c r="D263" s="3">
         <v>43117</v>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="C264" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-18"), Open=(decimal)269.17, High=(decimal)269.64, Low=(decimal)268.31, Close=(decimal)268.85, Volume = (long)104584464 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-18","yyyy-MM-dd",cultureProvider), Open=269.17m, High=269.64m, Low=268.31m, Close=268.85m, Volume = (long)104584464 },</v>
       </c>
       <c r="D264" s="3">
         <v>43118</v>
@@ -9280,7 +9281,7 @@
       </c>
       <c r="C265" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-19"), Open=(decimal)269.48, High=(decimal)270.07, Low=(decimal)268.85, Close=(decimal)270.07, Volume = (long)146315344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-19","yyyy-MM-dd",cultureProvider), Open=269.48m, High=270.07m, Low=268.85m, Close=270.07m, Volume = (long)146315344 },</v>
       </c>
       <c r="D265" s="3">
         <v>43119</v>
@@ -9310,7 +9311,7 @@
       </c>
       <c r="C266" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-22"), Open=(decimal)269.84, High=(decimal)272.27, Low=(decimal)269.78, Close=(decimal)272.27, Volume = (long)94818768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-22","yyyy-MM-dd",cultureProvider), Open=269.84m, High=272.27m, Low=269.78m, Close=272.27m, Volume = (long)94818768 },</v>
       </c>
       <c r="D266" s="3">
         <v>43122</v>
@@ -9340,7 +9341,7 @@
       </c>
       <c r="C267" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-23"), Open=(decimal)272.31, High=(decimal)273.16, Low=(decimal)271.96, Close=(decimal)272.84, Volume = (long)100801672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-23","yyyy-MM-dd",cultureProvider), Open=272.31m, High=273.16m, Low=271.96m, Close=272.84m, Volume = (long)100801672 },</v>
       </c>
       <c r="D267" s="3">
         <v>43123</v>
@@ -9370,7 +9371,7 @@
       </c>
       <c r="C268" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-24"), Open=(decimal)273.55, High=(decimal)274.2, Low=(decimal)271.45, Close=(decimal)272.74, Volume = (long)139977680 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-24","yyyy-MM-dd",cultureProvider), Open=273.55m, High=274.2m, Low=271.45m, Close=272.74m, Volume = (long)139977680 },</v>
       </c>
       <c r="D268" s="3">
         <v>43124</v>
@@ -9400,7 +9401,7 @@
       </c>
       <c r="C269" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-25"), Open=(decimal)273.68, High=(decimal)273.79, Low=(decimal)271.99, Close=(decimal)272.85, Volume = (long)87825816 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-25","yyyy-MM-dd",cultureProvider), Open=273.68m, High=273.79m, Low=271.99m, Close=272.85m, Volume = (long)87825816 },</v>
       </c>
       <c r="D269" s="3">
         <v>43125</v>
@@ -9430,7 +9431,7 @@
       </c>
       <c r="C270" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-26"), Open=(decimal)273.77, High=(decimal)276.06, Low=(decimal)273.49, Close=(decimal)276.01, Volume = (long)111868160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-26","yyyy-MM-dd",cultureProvider), Open=273.77m, High=276.06m, Low=273.49m, Close=276.01m, Volume = (long)111868160 },</v>
       </c>
       <c r="D270" s="3">
         <v>43126</v>
@@ -9460,7 +9461,7 @@
       </c>
       <c r="C271" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-29"), Open=(decimal)275.39, High=(decimal)275.87, Low=(decimal)274.01, Close=(decimal)274.18, Volume = (long)93568600 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-29","yyyy-MM-dd",cultureProvider), Open=275.39m, High=275.87m, Low=274.01m, Close=274.18m, Volume = (long)93568600 },</v>
       </c>
       <c r="D271" s="3">
         <v>43129</v>
@@ -9490,7 +9491,7 @@
       </c>
       <c r="C272" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-30"), Open=(decimal)272.18, High=(decimal)274.24, Low=(decimal)270.85, Close=(decimal)271.37, Volume = (long)136842368 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-30","yyyy-MM-dd",cultureProvider), Open=272.18m, High=274.24m, Low=270.85m, Close=271.37m, Volume = (long)136842368 },</v>
       </c>
       <c r="D272" s="3">
         <v>43130</v>
@@ -9520,7 +9521,7 @@
       </c>
       <c r="C273" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-31"), Open=(decimal)272.3, High=(decimal)272.85, Low=(decimal)270.33, Close=(decimal)271.51, Volume = (long)123502168 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-31","yyyy-MM-dd",cultureProvider), Open=272.3m, High=272.85m, Low=270.33m, Close=271.51m, Volume = (long)123502168 },</v>
       </c>
       <c r="D273" s="3">
         <v>43131</v>
@@ -9550,7 +9551,7 @@
       </c>
       <c r="C274" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-01"), Open=(decimal)270.71, High=(decimal)272.62, Low=(decimal)270.33, Close=(decimal)271.2, Volume = (long)93552120 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-01","yyyy-MM-dd",cultureProvider), Open=270.71m, High=272.62m, Low=270.33m, Close=271.2m, Volume = (long)93552120 },</v>
       </c>
       <c r="D274" s="3">
         <v>43132</v>
@@ -9580,7 +9581,7 @@
       </c>
       <c r="C275" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-02"), Open=(decimal)269.75, High=(decimal)269.9, Low=(decimal)265.25, Close=(decimal)265.29, Volume = (long)179804944 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-02","yyyy-MM-dd",cultureProvider), Open=269.75m, High=269.9m, Low=265.25m, Close=265.29m, Volume = (long)179804944 },</v>
       </c>
       <c r="D275" s="3">
         <v>43133</v>
@@ -9610,7 +9611,7 @@
       </c>
       <c r="C276" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-05"), Open=(decimal)263.37, High=(decimal)265.68, Low=(decimal)253.6, Close=(decimal)254.2, Volume = (long)305963968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-05","yyyy-MM-dd",cultureProvider), Open=263.37m, High=265.68m, Low=253.6m, Close=254.2m, Volume = (long)305963968 },</v>
       </c>
       <c r="D276" s="3">
         <v>43136</v>
@@ -9640,7 +9641,7 @@
       </c>
       <c r="C277" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-06"), Open=(decimal)250.35, High=(decimal)259.76, Low=(decimal)249.16, Close=(decimal)259.21, Volume = (long)368619296 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-06","yyyy-MM-dd",cultureProvider), Open=250.35m, High=259.76m, Low=249.16m, Close=259.21m, Volume = (long)368619296 },</v>
       </c>
       <c r="D277" s="3">
         <v>43137</v>
@@ -9670,7 +9671,7 @@
       </c>
       <c r="C278" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-07"), Open=(decimal)258.6, High=(decimal)262.32, Low=(decimal)257.71, Close=(decimal)257.8, Volume = (long)173784240 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-07","yyyy-MM-dd",cultureProvider), Open=258.6m, High=262.32m, Low=257.71m, Close=257.8m, Volume = (long)173784240 },</v>
       </c>
       <c r="D278" s="3">
         <v>43138</v>
@@ -9700,7 +9701,7 @@
       </c>
       <c r="C279" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-08"), Open=(decimal)258.13, High=(decimal)258.28, Low=(decimal)248.09, Close=(decimal)248.13, Volume = (long)255885040 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-08","yyyy-MM-dd",cultureProvider), Open=258.13m, High=258.28m, Low=248.09m, Close=248.13m, Volume = (long)255885040 },</v>
       </c>
       <c r="D279" s="3">
         <v>43139</v>
@@ -9730,7 +9731,7 @@
       </c>
       <c r="C280" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-09"), Open=(decimal)251.18, High=(decimal)253.89, Low=(decimal)243.59, Close=(decimal)251.86, Volume = (long)294421856 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-09","yyyy-MM-dd",cultureProvider), Open=251.18m, High=253.89m, Low=243.59m, Close=251.86m, Volume = (long)294421856 },</v>
       </c>
       <c r="D280" s="3">
         <v>43140</v>
@@ -9760,7 +9761,7 @@
       </c>
       <c r="C281" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-12"), Open=(decimal)254.1, High=(decimal)257.16, Low=(decimal)252.02, Close=(decimal)255.56, Volume = (long)149239040 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-12","yyyy-MM-dd",cultureProvider), Open=254.1m, High=257.16m, Low=252.02m, Close=255.56m, Volume = (long)149239040 },</v>
       </c>
       <c r="D281" s="3">
         <v>43143</v>
@@ -9790,7 +9791,7 @@
       </c>
       <c r="C282" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-13"), Open=(decimal)254.24, High=(decimal)256.79, Low=(decimal)253.6, Close=(decimal)256.19, Volume = (long)84333360 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-13","yyyy-MM-dd",cultureProvider), Open=254.24m, High=256.79m, Low=253.6m, Close=256.19m, Volume = (long)84333360 },</v>
       </c>
       <c r="D282" s="3">
         <v>43144</v>
@@ -9820,7 +9821,7 @@
       </c>
       <c r="C283" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-14"), Open=(decimal)254.56, High=(decimal)260.04, Low=(decimal)254.55, Close=(decimal)259.65, Volume = (long)125358160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-14","yyyy-MM-dd",cultureProvider), Open=254.56m, High=260.04m, Low=254.55m, Close=259.65m, Volume = (long)125358160 },</v>
       </c>
       <c r="D283" s="3">
         <v>43145</v>
@@ -9850,7 +9851,7 @@
       </c>
       <c r="C284" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-15"), Open=(decimal)261.56, High=(decimal)262.97, Low=(decimal)258.86, Close=(decimal)262.96, Volume = (long)115457688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-15","yyyy-MM-dd",cultureProvider), Open=261.56m, High=262.97m, Low=258.86m, Close=262.96m, Volume = (long)115457688 },</v>
       </c>
       <c r="D284" s="3">
         <v>43146</v>
@@ -9880,7 +9881,7 @@
       </c>
       <c r="C285" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-16"), Open=(decimal)262.28, High=(decimal)265.17, Low=(decimal)262.23, Close=(decimal)263.04, Volume = (long)166561968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-16","yyyy-MM-dd",cultureProvider), Open=262.28m, High=265.17m, Low=262.23m, Close=263.04m, Volume = (long)166561968 },</v>
       </c>
       <c r="D285" s="3">
         <v>43147</v>
@@ -9910,7 +9911,7 @@
       </c>
       <c r="C286" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-20"), Open=(decimal)262, High=(decimal)263.58, Low=(decimal)260.53, Close=(decimal)261.39, Volume = (long)89676400 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-20","yyyy-MM-dd",cultureProvider), Open=262m, High=263.58m, Low=260.53m, Close=261.39m, Volume = (long)89676400 },</v>
       </c>
       <c r="D286" s="3">
         <v>43151</v>
@@ -9940,7 +9941,7 @@
       </c>
       <c r="C287" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-21"), Open=(decimal)261.87, High=(decimal)264.59, Low=(decimal)259.99, Close=(decimal)260.09, Volume = (long)102669592 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-21","yyyy-MM-dd",cultureProvider), Open=261.87m, High=264.59m, Low=259.99m, Close=260.09m, Volume = (long)102669592 },</v>
       </c>
       <c r="D287" s="3">
         <v>43152</v>
@@ -9970,7 +9971,7 @@
       </c>
       <c r="C288" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-22"), Open=(decimal)261.1, High=(decimal)262.98, Low=(decimal)259.7, Close=(decimal)260.43, Volume = (long)114742312 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-22","yyyy-MM-dd",cultureProvider), Open=261.1m, High=262.98m, Low=259.7m, Close=260.43m, Volume = (long)114742312 },</v>
       </c>
       <c r="D288" s="3">
         <v>43153</v>
@@ -10000,7 +10001,7 @@
       </c>
       <c r="C289" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-23"), Open=(decimal)261.77, High=(decimal)264.58, Low=(decimal)261.25, Close=(decimal)264.58, Volume = (long)96318072 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-23","yyyy-MM-dd",cultureProvider), Open=261.77m, High=264.58m, Low=261.25m, Close=264.58m, Volume = (long)96318072 },</v>
       </c>
       <c r="D289" s="3">
         <v>43154</v>
@@ -10030,7 +10031,7 @@
       </c>
       <c r="C290" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-26"), Open=(decimal)265.76, High=(decimal)267.76, Low=(decimal)265.11, Close=(decimal)267.65, Volume = (long)89802808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-26","yyyy-MM-dd",cultureProvider), Open=265.76m, High=267.76m, Low=265.11m, Close=267.65m, Volume = (long)89802808 },</v>
       </c>
       <c r="D290" s="3">
         <v>43157</v>
@@ -10060,7 +10061,7 @@
       </c>
       <c r="C291" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-27"), Open=(decimal)267.86, High=(decimal)268.63, Low=(decimal)264.24, Close=(decimal)264.31, Volume = (long)102893264 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-27","yyyy-MM-dd",cultureProvider), Open=267.86m, High=268.63m, Low=264.24m, Close=264.31m, Volume = (long)102893264 },</v>
       </c>
       <c r="D291" s="3">
         <v>43158</v>
@@ -10090,7 +10091,7 @@
       </c>
       <c r="C292" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-28"), Open=(decimal)265.51, High=(decimal)266.01, Low=(decimal)261.29, Close=(decimal)261.63, Volume = (long)126575120 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-28","yyyy-MM-dd",cultureProvider), Open=265.51m, High=266.01m, Low=261.29m, Close=261.63m, Volume = (long)126575120 },</v>
       </c>
       <c r="D292" s="3">
         <v>43159</v>
@@ -10120,7 +10121,7 @@
       </c>
       <c r="C293" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-01"), Open=(decimal)261.4, High=(decimal)263.1, Low=(decimal)256.19, Close=(decimal)257.83, Volume = (long)183626128 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-01","yyyy-MM-dd",cultureProvider), Open=261.4m, High=263.1m, Low=256.19m, Close=257.83m, Volume = (long)183626128 },</v>
       </c>
       <c r="D293" s="3">
         <v>43160</v>
@@ -10150,7 +10151,7 @@
       </c>
       <c r="C294" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-02"), Open=(decimal)256, High=(decimal)259.77, Low=(decimal)255.05, Close=(decimal)259.16, Volume = (long)144408144 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-02","yyyy-MM-dd",cultureProvider), Open=256m, High=259.77m, Low=255.05m, Close=259.16m, Volume = (long)144408144 },</v>
       </c>
       <c r="D294" s="3">
         <v>43161</v>
@@ -10180,7 +10181,7 @@
       </c>
       <c r="C295" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-05"), Open=(decimal)257.86, High=(decimal)262.83, Low=(decimal)257.74, Close=(decimal)262.15, Volume = (long)101032888 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-05","yyyy-MM-dd",cultureProvider), Open=257.86m, High=262.83m, Low=257.74m, Close=262.15m, Volume = (long)101032888 },</v>
       </c>
       <c r="D295" s="3">
         <v>43164</v>
@@ -10210,7 +10211,7 @@
       </c>
       <c r="C296" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-06"), Open=(decimal)263.22, High=(decimal)263.31, Low=(decimal)261.18, Close=(decimal)262.82, Volume = (long)82245904 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-06","yyyy-MM-dd",cultureProvider), Open=263.22m, High=263.31m, Low=261.18m, Close=262.82m, Volume = (long)82245904 },</v>
       </c>
       <c r="D296" s="3">
         <v>43165</v>
@@ -10240,7 +10241,7 @@
       </c>
       <c r="C297" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-07"), Open=(decimal)260.45, High=(decimal)263.11, Low=(decimal)260.24, Close=(decimal)262.72, Volume = (long)90396808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-07","yyyy-MM-dd",cultureProvider), Open=260.45m, High=263.11m, Low=260.24m, Close=262.72m, Volume = (long)90396808 },</v>
       </c>
       <c r="D297" s="3">
         <v>43166</v>
@@ -10270,7 +10271,7 @@
       </c>
       <c r="C298" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-08"), Open=(decimal)263.46, High=(decimal)264.13, Low=(decimal)262.37, Close=(decimal)263.99, Volume = (long)69462520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-08","yyyy-MM-dd",cultureProvider), Open=263.46m, High=264.13m, Low=262.37m, Close=263.99m, Volume = (long)69462520 },</v>
       </c>
       <c r="D298" s="3">
         <v>43167</v>
@@ -10300,7 +10301,7 @@
       </c>
       <c r="C299" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-09"), Open=(decimal)265.53, High=(decimal)268.59, Low=(decimal)265.19, Close=(decimal)268.59, Volume = (long)117975584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-09","yyyy-MM-dd",cultureProvider), Open=265.53m, High=268.59m, Low=265.19m, Close=268.59m, Volume = (long)117975584 },</v>
       </c>
       <c r="D299" s="3">
         <v>43168</v>
@@ -10330,7 +10331,7 @@
       </c>
       <c r="C300" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-12"), Open=(decimal)268.9, High=(decimal)269.59, Low=(decimal)267.83, Close=(decimal)268.25, Volume = (long)74678496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-12","yyyy-MM-dd",cultureProvider), Open=268.9m, High=269.59m, Low=267.83m, Close=268.25m, Volume = (long)74678496 },</v>
       </c>
       <c r="D300" s="3">
         <v>43171</v>
@@ -10360,7 +10361,7 @@
       </c>
       <c r="C301" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-13"), Open=(decimal)269.52, High=(decimal)270.07, Low=(decimal)265.85, Close=(decimal)266.52, Volume = (long)95490048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-13","yyyy-MM-dd",cultureProvider), Open=269.52m, High=270.07m, Low=265.85m, Close=266.52m, Volume = (long)95490048 },</v>
       </c>
       <c r="D301" s="3">
         <v>43172</v>
@@ -10390,7 +10391,7 @@
       </c>
       <c r="C302" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-14"), Open=(decimal)267.57, High=(decimal)267.77, Low=(decimal)264.54, Close=(decimal)265.15, Volume = (long)109949368 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-14","yyyy-MM-dd",cultureProvider), Open=267.57m, High=267.77m, Low=264.54m, Close=265.15m, Volume = (long)109949368 },</v>
       </c>
       <c r="D302" s="3">
         <v>43173</v>
@@ -10420,7 +10421,7 @@
       </c>
       <c r="C303" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-15"), Open=(decimal)265.71, High=(decimal)266.41, Low=(decimal)264.31, Close=(decimal)264.86, Volume = (long)86627344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-15","yyyy-MM-dd",cultureProvider), Open=265.71m, High=266.41m, Low=264.31m, Close=264.86m, Volume = (long)86627344 },</v>
       </c>
       <c r="D303" s="3">
         <v>43174</v>
@@ -10450,7 +10451,7 @@
       </c>
       <c r="C304" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-16"), Open=(decimal)265.44, High=(decimal)266.3, Low=(decimal)265.09, Close=(decimal)265.15, Volume = (long)103769888 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-16","yyyy-MM-dd",cultureProvider), Open=265.44m, High=266.3m, Low=265.09m, Close=265.15m, Volume = (long)103769888 },</v>
       </c>
       <c r="D304" s="3">
         <v>43175</v>
@@ -10480,7 +10481,7 @@
       </c>
       <c r="C305" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-19"), Open=(decimal)264.32, High=(decimal)265.34, Low=(decimal)259.75, Close=(decimal)261.56, Volume = (long)112937344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-19","yyyy-MM-dd",cultureProvider), Open=264.32m, High=265.34m, Low=259.75m, Close=261.56m, Volume = (long)112937344 },</v>
       </c>
       <c r="D305" s="3">
         <v>43178</v>
@@ -10510,7 +10511,7 @@
       </c>
       <c r="C306" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-20"), Open=(decimal)261.99, High=(decimal)262.7, Low=(decimal)261.26, Close=(decimal)262, Volume = (long)61797672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-20","yyyy-MM-dd",cultureProvider), Open=261.99m, High=262.7m, Low=261.26m, Close=262m, Volume = (long)61797672 },</v>
       </c>
       <c r="D306" s="3">
         <v>43179</v>
@@ -10540,7 +10541,7 @@
       </c>
       <c r="C307" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-21"), Open=(decimal)261.96, High=(decimal)264.25, Low=(decimal)261.27, Close=(decimal)261.5, Volume = (long)81397104 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-21","yyyy-MM-dd",cultureProvider), Open=261.96m, High=264.25m, Low=261.27m, Close=261.5m, Volume = (long)81397104 },</v>
       </c>
       <c r="D307" s="3">
         <v>43180</v>
@@ -10570,7 +10571,7 @@
       </c>
       <c r="C308" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-22"), Open=(decimal)259.06, High=(decimal)259.99, Low=(decimal)254.66, Close=(decimal)254.96, Volume = (long)153866192 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-22","yyyy-MM-dd",cultureProvider), Open=259.06m, High=259.99m, Low=254.66m, Close=254.96m, Volume = (long)153866192 },</v>
       </c>
       <c r="D308" s="3">
         <v>43181</v>
@@ -10600,7 +10601,7 @@
       </c>
       <c r="C309" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-23"), Open=(decimal)255.45, High=(decimal)256.27, Low=(decimal)249.32, Close=(decimal)249.53, Volume = (long)189801520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-23","yyyy-MM-dd",cultureProvider), Open=255.45m, High=256.27m, Low=249.32m, Close=249.53m, Volume = (long)189801520 },</v>
       </c>
       <c r="D309" s="3">
         <v>43182</v>
@@ -10630,7 +10631,7 @@
       </c>
       <c r="C310" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-26"), Open=(decimal)253.48, High=(decimal)256.67, Low=(decimal)250.84, Close=(decimal)256.36, Volume = (long)146803168 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-26","yyyy-MM-dd",cultureProvider), Open=253.48m, High=256.67m, Low=250.84m, Close=256.36m, Volume = (long)146803168 },</v>
       </c>
       <c r="D310" s="3">
         <v>43185</v>
@@ -10660,7 +10661,7 @@
       </c>
       <c r="C311" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-27"), Open=(decimal)257.38, High=(decimal)257.96, Low=(decimal)250.29, Close=(decimal)252, Volume = (long)134378272 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-27","yyyy-MM-dd",cultureProvider), Open=257.38m, High=257.96m, Low=250.29m, Close=252m, Volume = (long)134378272 },</v>
       </c>
       <c r="D311" s="3">
         <v>43186</v>
@@ -10690,7 +10691,7 @@
       </c>
       <c r="C312" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-28"), Open=(decimal)252.14, High=(decimal)253.97, Low=(decimal)250.04, Close=(decimal)251.25, Volume = (long)151452896 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-28","yyyy-MM-dd",cultureProvider), Open=252.14m, High=253.97m, Low=250.04m, Close=251.25m, Volume = (long)151452896 },</v>
       </c>
       <c r="D312" s="3">
         <v>43187</v>
@@ -10720,7 +10721,7 @@
       </c>
       <c r="C313" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-29"), Open=(decimal)252.5, High=(decimal)256.5, Low=(decimal)251.26, Close=(decimal)254.46, Volume = (long)128487112 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-29","yyyy-MM-dd",cultureProvider), Open=252.5m, High=256.5m, Low=251.26m, Close=254.46m, Volume = (long)128487112 },</v>
       </c>
       <c r="D313" s="3">
         <v>43188</v>
@@ -10750,7 +10751,7 @@
       </c>
       <c r="C314" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-02"), Open=(decimal)253.88, High=(decimal)254.44, Low=(decimal)246.26, Close=(decimal)248.97, Volume = (long)192647056 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-02","yyyy-MM-dd",cultureProvider), Open=253.88m, High=254.44m, Low=246.26m, Close=248.97m, Volume = (long)192647056 },</v>
       </c>
       <c r="D314" s="3">
         <v>43192</v>
@@ -10780,7 +10781,7 @@
       </c>
       <c r="C315" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-03"), Open=(decimal)250.32, High=(decimal)252.68, Low=(decimal)248.36, Close=(decimal)252.16, Volume = (long)124052768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-03","yyyy-MM-dd",cultureProvider), Open=250.32m, High=252.68m, Low=248.36m, Close=252.16m, Volume = (long)124052768 },</v>
       </c>
       <c r="D315" s="3">
         <v>43193</v>
@@ -10810,7 +10811,7 @@
       </c>
       <c r="C316" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-04"), Open=(decimal)248.27, High=(decimal)255.63, Low=(decimal)248.13, Close=(decimal)254.86, Volume = (long)127939576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-04","yyyy-MM-dd",cultureProvider), Open=248.27m, High=255.63m, Low=248.13m, Close=254.86m, Volume = (long)127939576 },</v>
       </c>
       <c r="D316" s="3">
         <v>43194</v>
@@ -10840,7 +10841,7 @@
       </c>
       <c r="C317" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-05"), Open=(decimal)256.78, High=(decimal)257.84, Low=(decimal)255.59, Close=(decimal)256.87, Volume = (long)85474776 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-05","yyyy-MM-dd",cultureProvider), Open=256.78m, High=257.84m, Low=255.59m, Close=256.87m, Volume = (long)85474776 },</v>
       </c>
       <c r="D317" s="3">
         <v>43195</v>
@@ -10870,7 +10871,7 @@
       </c>
       <c r="C318" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-06"), Open=(decimal)254.72, High=(decimal)256.36, Low=(decimal)249.48, Close=(decimal)251.14, Volume = (long)185650928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-06","yyyy-MM-dd",cultureProvider), Open=254.72m, High=256.36m, Low=249.48m, Close=251.14m, Volume = (long)185650928 },</v>
       </c>
       <c r="D318" s="3">
         <v>43196</v>
@@ -10900,7 +10901,7 @@
       </c>
       <c r="C319" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-09"), Open=(decimal)252.74, High=(decimal)256.1, Low=(decimal)251.35, Close=(decimal)252.38, Volume = (long)109043264 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-09","yyyy-MM-dd",cultureProvider), Open=252.74m, High=256.1m, Low=251.35m, Close=252.38m, Volume = (long)109043264 },</v>
       </c>
       <c r="D319" s="3">
         <v>43199</v>
@@ -10930,7 +10931,7 @@
       </c>
       <c r="C320" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-10"), Open=(decimal)255.54, High=(decimal)257.26, Low=(decimal)254.3, Close=(decimal)256.4, Volume = (long)109178536 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-10","yyyy-MM-dd",cultureProvider), Open=255.54m, High=257.26m, Low=254.3m, Close=256.4m, Volume = (long)109178536 },</v>
       </c>
       <c r="D320" s="3">
         <v>43200</v>
@@ -10960,7 +10961,7 @@
       </c>
       <c r="C321" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-11"), Open=(decimal)254.77, High=(decimal)256.87, Low=(decimal)254.69, Close=(decimal)255.05, Volume = (long)94252208 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-11","yyyy-MM-dd",cultureProvider), Open=254.77m, High=256.87m, Low=254.69m, Close=255.05m, Volume = (long)94252208 },</v>
       </c>
       <c r="D321" s="3">
         <v>43201</v>
@@ -10989,8 +10990,8 @@
         <v>7</v>
       </c>
       <c r="C322" s="5" t="str">
-        <f t="shared" ref="C322:C385" si="5">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D322,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E322&amp;", High=(decimal)"&amp;F322&amp;", Low=(decimal)"&amp;G322&amp;", Close=(decimal)"&amp;H322&amp;", Volume = (long)"&amp;I322&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-04-12"), Open=(decimal)256.5, High=(decimal)258.18, Low=(decimal)256.31, Close=(decimal)257.15, Volume = (long)71242736 },</v>
+        <f t="shared" ref="C322:C385" si="5">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D322,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E322&amp;"m, High="&amp;F322&amp;"m, Low="&amp;G322&amp;"m, Close="&amp;H322&amp;"m, Volume = (long)"&amp;I322&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-12","yyyy-MM-dd",cultureProvider), Open=256.5m, High=258.18m, Low=256.31m, Close=257.15m, Volume = (long)71242736 },</v>
       </c>
       <c r="D322" s="3">
         <v>43202</v>
@@ -11020,7 +11021,7 @@
       </c>
       <c r="C323" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-13"), Open=(decimal)258.58, High=(decimal)258.71, Low=(decimal)255.29, Close=(decimal)256.4, Volume = (long)87984192 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-13","yyyy-MM-dd",cultureProvider), Open=258.58m, High=258.71m, Low=255.29m, Close=256.4m, Volume = (long)87984192 },</v>
       </c>
       <c r="D323" s="3">
         <v>43203</v>
@@ -11050,7 +11051,7 @@
       </c>
       <c r="C324" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-16"), Open=(decimal)258.18, High=(decimal)259.34, Low=(decimal)257.29, Close=(decimal)258.5, Volume = (long)65570252 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-16","yyyy-MM-dd",cultureProvider), Open=258.18m, High=259.34m, Low=257.29m, Close=258.5m, Volume = (long)65570252 },</v>
       </c>
       <c r="D324" s="3">
         <v>43206</v>
@@ -11080,7 +11081,7 @@
       </c>
       <c r="C325" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-17"), Open=(decimal)260.44, High=(decimal)261.93, Low=(decimal)259.88, Close=(decimal)261.27, Volume = (long)66890592 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-17","yyyy-MM-dd",cultureProvider), Open=260.44m, High=261.93m, Low=259.88m, Close=261.27m, Volume = (long)66890592 },</v>
       </c>
       <c r="D325" s="3">
         <v>43207</v>
@@ -11110,7 +11111,7 @@
       </c>
       <c r="C326" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-18"), Open=(decimal)261.75, High=(decimal)262.34, Low=(decimal)260.96, Close=(decimal)261.46, Volume = (long)59260488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-18","yyyy-MM-dd",cultureProvider), Open=261.75m, High=262.34m, Low=260.96m, Close=261.46m, Volume = (long)59260488 },</v>
       </c>
       <c r="D326" s="3">
         <v>43208</v>
@@ -11140,7 +11141,7 @@
       </c>
       <c r="C327" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-19"), Open=(decimal)260.75, High=(decimal)260.97, Low=(decimal)258.88, Close=(decimal)260.01, Volume = (long)80307456 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-19","yyyy-MM-dd",cultureProvider), Open=260.75m, High=260.97m, Low=258.88m, Close=260.01m, Volume = (long)80307456 },</v>
       </c>
       <c r="D327" s="3">
         <v>43209</v>
@@ -11170,7 +11171,7 @@
       </c>
       <c r="C328" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-20"), Open=(decimal)259.93, High=(decimal)260.18, Low=(decimal)256.84, Close=(decimal)257.81, Volume = (long)103366016 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-20","yyyy-MM-dd",cultureProvider), Open=259.93m, High=260.18m, Low=256.84m, Close=257.81m, Volume = (long)103366016 },</v>
       </c>
       <c r="D328" s="3">
         <v>43210</v>
@@ -11200,7 +11201,7 @@
       </c>
       <c r="C329" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-23"), Open=(decimal)258.44, High=(decimal)259.04, Low=(decimal)256.59, Close=(decimal)257.77, Volume = (long)67796416 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-23","yyyy-MM-dd",cultureProvider), Open=258.44m, High=259.04m, Low=256.59m, Close=257.77m, Volume = (long)67796416 },</v>
       </c>
       <c r="D329" s="3">
         <v>43213</v>
@@ -11230,7 +11231,7 @@
       </c>
       <c r="C330" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-24"), Open=(decimal)258.89, High=(decimal)259.13, Low=(decimal)252.65, Close=(decimal)254.3, Volume = (long)116739904 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-24","yyyy-MM-dd",cultureProvider), Open=258.89m, High=259.13m, Low=252.65m, Close=254.3m, Volume = (long)116739904 },</v>
       </c>
       <c r="D330" s="3">
         <v>43214</v>
@@ -11260,7 +11261,7 @@
       </c>
       <c r="C331" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-25"), Open=(decimal)254.23, High=(decimal)255.41, Low=(decimal)252.24, Close=(decimal)254.93, Volume = (long)107386584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-25","yyyy-MM-dd",cultureProvider), Open=254.23m, High=255.41m, Low=252.24m, Close=254.93m, Volume = (long)107386584 },</v>
       </c>
       <c r="D331" s="3">
         <v>43215</v>
@@ -11290,7 +11291,7 @@
       </c>
       <c r="C332" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-26"), Open=(decimal)256.05, High=(decimal)258.42, Low=(decimal)255.56, Close=(decimal)257.52, Volume = (long)70044640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-26","yyyy-MM-dd",cultureProvider), Open=256.05m, High=258.42m, Low=255.56m, Close=257.52m, Volume = (long)70044640 },</v>
       </c>
       <c r="D332" s="3">
         <v>43216</v>
@@ -11320,7 +11321,7 @@
       </c>
       <c r="C333" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-27"), Open=(decimal)258.18, High=(decimal)258.51, Low=(decimal)256.73, Close=(decimal)257.76, Volume = (long)59001736 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-27","yyyy-MM-dd",cultureProvider), Open=258.18m, High=258.51m, Low=256.73m, Close=257.76m, Volume = (long)59001736 },</v>
       </c>
       <c r="D333" s="3">
         <v>43217</v>
@@ -11350,7 +11351,7 @@
       </c>
       <c r="C334" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-30"), Open=(decimal)258.44, High=(decimal)259.04, Low=(decimal)255.7, Close=(decimal)255.78, Volume = (long)84988424 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-30","yyyy-MM-dd",cultureProvider), Open=258.44m, High=259.04m, Low=255.7m, Close=255.78m, Volume = (long)84988424 },</v>
       </c>
       <c r="D334" s="3">
         <v>43220</v>
@@ -11380,7 +11381,7 @@
       </c>
       <c r="C335" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-01"), Open=(decimal)255.16, High=(decimal)256.35, Low=(decimal)253.46, Close=(decimal)256.23, Volume = (long)76737024 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-01","yyyy-MM-dd",cultureProvider), Open=255.16m, High=256.35m, Low=253.46m, Close=256.23m, Volume = (long)76737024 },</v>
       </c>
       <c r="D335" s="3">
         <v>43221</v>
@@ -11410,7 +11411,7 @@
       </c>
       <c r="C336" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-02"), Open=(decimal)256.02, High=(decimal)256.91, Low=(decimal)254.08, Close=(decimal)254.51, Volume = (long)89317992 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-02","yyyy-MM-dd",cultureProvider), Open=256.02m, High=256.91m, Low=254.08m, Close=254.51m, Volume = (long)89317992 },</v>
       </c>
       <c r="D336" s="3">
         <v>43222</v>
@@ -11440,7 +11441,7 @@
       </c>
       <c r="C337" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-03"), Open=(decimal)253.6, High=(decimal)254.66, Low=(decimal)250.5, Close=(decimal)253.95, Volume = (long)140965808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-03","yyyy-MM-dd",cultureProvider), Open=253.6m, High=254.66m, Low=250.5m, Close=253.95m, Volume = (long)140965808 },</v>
       </c>
       <c r="D337" s="3">
         <v>43223</v>
@@ -11470,7 +11471,7 @@
       </c>
       <c r="C338" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-04"), Open=(decimal)252.89, High=(decimal)257.98, Low=(decimal)252.53, Close=(decimal)257.24, Volume = (long)94336840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-04","yyyy-MM-dd",cultureProvider), Open=252.89m, High=257.98m, Low=252.53m, Close=257.24m, Volume = (long)94336840 },</v>
       </c>
       <c r="D338" s="3">
         <v>43224</v>
@@ -11500,7 +11501,7 @@
       </c>
       <c r="C339" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-07"), Open=(decimal)258.08, High=(decimal)259.17, Low=(decimal)257.32, Close=(decimal)258.11, Volume = (long)57193284 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-07","yyyy-MM-dd",cultureProvider), Open=258.08m, High=259.17m, Low=257.32m, Close=258.11m, Volume = (long)57193284 },</v>
       </c>
       <c r="D339" s="3">
         <v>43227</v>
@@ -11530,7 +11531,7 @@
       </c>
       <c r="C340" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-08"), Open=(decimal)257.7, High=(decimal)258.5, Low=(decimal)256.4, Close=(decimal)258.11, Volume = (long)69804000 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-08","yyyy-MM-dd",cultureProvider), Open=257.7m, High=258.5m, Low=256.4m, Close=258.11m, Volume = (long)69804000 },</v>
       </c>
       <c r="D340" s="3">
         <v>43228</v>
@@ -11560,7 +11561,7 @@
       </c>
       <c r="C341" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-09"), Open=(decimal)258.84, High=(decimal)260.95, Low=(decimal)258.27, Close=(decimal)260.6, Volume = (long)61703432 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-09","yyyy-MM-dd",cultureProvider), Open=258.84m, High=260.95m, Low=258.27m, Close=260.6m, Volume = (long)61703432 },</v>
       </c>
       <c r="D341" s="3">
         <v>43229</v>
@@ -11590,7 +11591,7 @@
       </c>
       <c r="C342" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-10"), Open=(decimal)261.41, High=(decimal)263.4, Low=(decimal)261.3, Close=(decimal)263.04, Volume = (long)74524544 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-10","yyyy-MM-dd",cultureProvider), Open=261.41m, High=263.4m, Low=261.3m, Close=263.04m, Volume = (long)74524544 },</v>
       </c>
       <c r="D342" s="3">
         <v>43230</v>
@@ -11620,7 +11621,7 @@
       </c>
       <c r="C343" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-11"), Open=(decimal)263.17, High=(decimal)264.13, Low=(decimal)262.61, Close=(decimal)263.84, Volume = (long)61915812 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-11","yyyy-MM-dd",cultureProvider), Open=263.17m, High=264.13m, Low=262.61m, Close=263.84m, Volume = (long)61915812 },</v>
       </c>
       <c r="D343" s="3">
         <v>43231</v>
@@ -11650,7 +11651,7 @@
       </c>
       <c r="C344" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-14"), Open=(decimal)264.31, High=(decimal)265.03, Low=(decimal)263.37, Close=(decimal)263.97, Volume = (long)56661420 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-14","yyyy-MM-dd",cultureProvider), Open=264.31m, High=265.03m, Low=263.37m, Close=263.97m, Volume = (long)56661420 },</v>
       </c>
       <c r="D344" s="3">
         <v>43234</v>
@@ -11680,7 +11681,7 @@
       </c>
       <c r="C345" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-15"), Open=(decimal)262.62, High=(decimal)262.64, Low=(decimal)261.11, Close=(decimal)262.15, Volume = (long)90007968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-15","yyyy-MM-dd",cultureProvider), Open=262.62m, High=262.64m, Low=261.11m, Close=262.15m, Volume = (long)90007968 },</v>
       </c>
       <c r="D345" s="3">
         <v>43235</v>
@@ -11710,7 +11711,7 @@
       </c>
       <c r="C346" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-16"), Open=(decimal)262.19, High=(decimal)263.75, Low=(decimal)262.16, Close=(decimal)263.25, Volume = (long)55784492 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-16","yyyy-MM-dd",cultureProvider), Open=262.19m, High=263.75m, Low=262.16m, Close=263.25m, Volume = (long)55784492 },</v>
       </c>
       <c r="D346" s="3">
         <v>43236</v>
@@ -11740,7 +11741,7 @@
       </c>
       <c r="C347" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-17"), Open=(decimal)262.96, High=(decimal)264.21, Low=(decimal)262.18, Close=(decimal)263.03, Volume = (long)58466824 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-17","yyyy-MM-dd",cultureProvider), Open=262.96m, High=264.21m, Low=262.18m, Close=263.03m, Volume = (long)58466824 },</v>
       </c>
       <c r="D347" s="3">
         <v>43237</v>
@@ -11770,7 +11771,7 @@
       </c>
       <c r="C348" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-18"), Open=(decimal)262.65, High=(decimal)263.05, Low=(decimal)261.98, Close=(decimal)262.37, Volume = (long)66565792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-18","yyyy-MM-dd",cultureProvider), Open=262.65m, High=263.05m, Low=261.98m, Close=262.37m, Volume = (long)66565792 },</v>
       </c>
       <c r="D348" s="3">
         <v>43238</v>
@@ -11800,7 +11801,7 @@
       </c>
       <c r="C349" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-21"), Open=(decimal)264, High=(decimal)264.93, Low=(decimal)262.39, Close=(decimal)264.34, Volume = (long)60007156 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-21","yyyy-MM-dd",cultureProvider), Open=264m, High=264.93m, Low=262.39m, Close=264.34m, Volume = (long)60007156 },</v>
       </c>
       <c r="D349" s="3">
         <v>43241</v>
@@ -11830,7 +11831,7 @@
       </c>
       <c r="C350" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-22"), Open=(decimal)264.91, High=(decimal)265.2, Low=(decimal)263.25, Close=(decimal)263.61, Volume = (long)54774884 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-22","yyyy-MM-dd",cultureProvider), Open=264.91m, High=265.2m, Low=263.25m, Close=263.61m, Volume = (long)54774884 },</v>
       </c>
       <c r="D350" s="3">
         <v>43242</v>
@@ -11860,7 +11861,7 @@
       </c>
       <c r="C351" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-23"), Open=(decimal)262.22, High=(decimal)264.36, Low=(decimal)262.04, Close=(decimal)264.33, Volume = (long)66903156 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-23","yyyy-MM-dd",cultureProvider), Open=262.22m, High=264.36m, Low=262.04m, Close=264.33m, Volume = (long)66903156 },</v>
       </c>
       <c r="D351" s="3">
         <v>43243</v>
@@ -11890,7 +11891,7 @@
       </c>
       <c r="C352" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-24"), Open=(decimal)263.9, High=(decimal)264.2, Low=(decimal)261.84, Close=(decimal)263.79, Volume = (long)78640328 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-24","yyyy-MM-dd",cultureProvider), Open=263.9m, High=264.2m, Low=261.84m, Close=263.79m, Volume = (long)78640328 },</v>
       </c>
       <c r="D352" s="3">
         <v>43244</v>
@@ -11920,7 +11921,7 @@
       </c>
       <c r="C353" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-25"), Open=(decimal)263.16, High=(decimal)263.85, Low=(decimal)262.61, Close=(decimal)263.16, Volume = (long)58299660 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-25","yyyy-MM-dd",cultureProvider), Open=263.16m, High=263.85m, Low=262.61m, Close=263.16m, Volume = (long)58299660 },</v>
       </c>
       <c r="D353" s="3">
         <v>43245</v>
@@ -11950,7 +11951,7 @@
       </c>
       <c r="C354" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-29"), Open=(decimal)261.39, High=(decimal)262.22, Low=(decimal)258.92, Close=(decimal)260.14, Volume = (long)119866288 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-29","yyyy-MM-dd",cultureProvider), Open=261.39m, High=262.22m, Low=258.92m, Close=260.14m, Volume = (long)119866288 },</v>
       </c>
       <c r="D354" s="3">
         <v>43249</v>
@@ -11980,7 +11981,7 @@
       </c>
       <c r="C355" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-30"), Open=(decimal)261.57, High=(decimal)264.09, Low=(decimal)261.49, Close=(decimal)263.61, Volume = (long)72057608 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-30","yyyy-MM-dd",cultureProvider), Open=261.57m, High=264.09m, Low=261.49m, Close=263.61m, Volume = (long)72057608 },</v>
       </c>
       <c r="D355" s="3">
         <v>43250</v>
@@ -12010,7 +12011,7 @@
       </c>
       <c r="C356" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-31"), Open=(decimal)263.16, High=(decimal)263.49, Low=(decimal)261.33, Close=(decimal)261.99, Volume = (long)96713160 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-31","yyyy-MM-dd",cultureProvider), Open=263.16m, High=263.49m, Low=261.33m, Close=261.99m, Volume = (long)96713160 },</v>
       </c>
       <c r="D356" s="3">
         <v>43251</v>
@@ -12040,7 +12041,7 @@
       </c>
       <c r="C357" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-01"), Open=(decimal)263.42, High=(decimal)264.9, Low=(decimal)263.34, Close=(decimal)264.57, Volume = (long)73691520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-01","yyyy-MM-dd",cultureProvider), Open=263.42m, High=264.9m, Low=263.34m, Close=264.57m, Volume = (long)73691520 },</v>
       </c>
       <c r="D357" s="3">
         <v>43252</v>
@@ -12070,7 +12071,7 @@
       </c>
       <c r="C358" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-04"), Open=(decimal)265.47, High=(decimal)266.1, Low=(decimal)265.2, Close=(decimal)265.82, Volume = (long)46934832 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-04","yyyy-MM-dd",cultureProvider), Open=265.47m, High=266.1m, Low=265.2m, Close=265.82m, Volume = (long)46934832 },</v>
       </c>
       <c r="D358" s="3">
         <v>43255</v>
@@ -12100,7 +12101,7 @@
       </c>
       <c r="C359" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-05"), Open=(decimal)265.97, High=(decimal)266.43, Low=(decimal)265.13, Close=(decimal)266.02, Volume = (long)52881036 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-05","yyyy-MM-dd",cultureProvider), Open=265.97m, High=266.43m, Low=265.13m, Close=266.02m, Volume = (long)52881036 },</v>
       </c>
       <c r="D359" s="3">
         <v>43256</v>
@@ -12130,7 +12131,7 @@
       </c>
       <c r="C360" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-06"), Open=(decimal)266.68, High=(decimal)268.36, Low=(decimal)266.01, Close=(decimal)268.24, Volume = (long)64874192 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-06","yyyy-MM-dd",cultureProvider), Open=266.68m, High=268.36m, Low=266.01m, Close=268.24m, Volume = (long)64874192 },</v>
       </c>
       <c r="D360" s="3">
         <v>43257</v>
@@ -12160,7 +12161,7 @@
       </c>
       <c r="C361" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-07"), Open=(decimal)268.77, High=(decimal)269.09, Low=(decimal)267.22, Close=(decimal)268.21, Volume = (long)75460928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-07","yyyy-MM-dd",cultureProvider), Open=268.77m, High=269.09m, Low=267.22m, Close=268.21m, Volume = (long)75460928 },</v>
       </c>
       <c r="D361" s="3">
         <v>43258</v>
@@ -12190,7 +12191,7 @@
       </c>
       <c r="C362" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-08"), Open=(decimal)267.71, High=(decimal)269.06, Low=(decimal)267.53, Close=(decimal)269, Volume = (long)74602920 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-08","yyyy-MM-dd",cultureProvider), Open=267.71m, High=269.06m, Low=267.53m, Close=269m, Volume = (long)74602920 },</v>
       </c>
       <c r="D362" s="3">
         <v>43259</v>
@@ -12220,7 +12221,7 @@
       </c>
       <c r="C363" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-11"), Open=(decimal)269.25, High=(decimal)270.15, Low=(decimal)269.12, Close=(decimal)269.36, Volume = (long)60903392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-11","yyyy-MM-dd",cultureProvider), Open=269.25m, High=270.15m, Low=269.12m, Close=269.36m, Volume = (long)60903392 },</v>
       </c>
       <c r="D363" s="3">
         <v>43262</v>
@@ -12250,7 +12251,7 @@
       </c>
       <c r="C364" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-12"), Open=(decimal)269.82, High=(decimal)270.11, Low=(decimal)269, Close=(decimal)269.71, Volume = (long)74798688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-12","yyyy-MM-dd",cultureProvider), Open=269.82m, High=270.11m, Low=269m, Close=269.71m, Volume = (long)74798688 },</v>
       </c>
       <c r="D364" s="3">
         <v>43263</v>
@@ -12280,7 +12281,7 @@
       </c>
       <c r="C365" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-13"), Open=(decimal)269.97, High=(decimal)270.25, Low=(decimal)268.63, Close=(decimal)268.85, Volume = (long)81770464 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-13","yyyy-MM-dd",cultureProvider), Open=269.97m, High=270.25m, Low=268.63m, Close=268.85m, Volume = (long)81770464 },</v>
       </c>
       <c r="D365" s="3">
         <v>43264</v>
@@ -12310,7 +12311,7 @@
       </c>
       <c r="C366" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-14"), Open=(decimal)269.8, High=(decimal)270.11, Low=(decimal)268.88, Close=(decimal)269.53, Volume = (long)79730104 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-14","yyyy-MM-dd",cultureProvider), Open=269.8m, High=270.11m, Low=268.88m, Close=269.53m, Volume = (long)79730104 },</v>
       </c>
       <c r="D366" s="3">
         <v>43265</v>
@@ -12340,7 +12341,7 @@
       </c>
       <c r="C367" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-15"), Open=(decimal)268.67, High=(decimal)269.55, Low=(decimal)267.45, Close=(decimal)269.18, Volume = (long)123585600 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-15","yyyy-MM-dd",cultureProvider), Open=268.67m, High=269.55m, Low=267.45m, Close=269.18m, Volume = (long)123585600 },</v>
       </c>
       <c r="D367" s="3">
         <v>43266</v>
@@ -12370,7 +12371,7 @@
       </c>
       <c r="C368" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-18"), Open=(decimal)267.59, High=(decimal)268.77, Low=(decimal)267.07, Close=(decimal)268.63, Volume = (long)54479888 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-18","yyyy-MM-dd",cultureProvider), Open=267.59m, High=268.77m, Low=267.07m, Close=268.63m, Volume = (long)54479888 },</v>
       </c>
       <c r="D368" s="3">
         <v>43269</v>
@@ -12400,7 +12401,7 @@
       </c>
       <c r="C369" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-19"), Open=(decimal)266.14, High=(decimal)267.84, Low=(decimal)265.69, Close=(decimal)267.6, Volume = (long)100410976 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-19","yyyy-MM-dd",cultureProvider), Open=266.14m, High=267.84m, Low=265.69m, Close=267.6m, Volume = (long)100410976 },</v>
       </c>
       <c r="D369" s="3">
         <v>43270</v>
@@ -12430,7 +12431,7 @@
       </c>
       <c r="C370" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-20"), Open=(decimal)268.35, High=(decimal)268.78, Low=(decimal)267.69, Close=(decimal)268.06, Volume = (long)55373416 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-20","yyyy-MM-dd",cultureProvider), Open=268.35m, High=268.78m, Low=267.69m, Close=268.06m, Volume = (long)55373416 },</v>
       </c>
       <c r="D370" s="3">
         <v>43271</v>
@@ -12460,7 +12461,7 @@
       </c>
       <c r="C371" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-21"), Open=(decimal)268.05, High=(decimal)268.07, Low=(decimal)265.83, Close=(decimal)266.38, Volume = (long)73159376 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-21","yyyy-MM-dd",cultureProvider), Open=268.05m, High=268.07m, Low=265.83m, Close=266.38m, Volume = (long)73159376 },</v>
       </c>
       <c r="D371" s="3">
         <v>43272</v>
@@ -12490,7 +12491,7 @@
       </c>
       <c r="C372" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-22"), Open=(decimal)267.76, High=(decimal)267.88, Low=(decimal)266.62, Close=(decimal)266.86, Volume = (long)58283384 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-22","yyyy-MM-dd",cultureProvider), Open=267.76m, High=267.88m, Low=266.62m, Close=266.86m, Volume = (long)58283384 },</v>
       </c>
       <c r="D372" s="3">
         <v>43273</v>
@@ -12520,7 +12521,7 @@
       </c>
       <c r="C373" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-25"), Open=(decimal)265.6, High=(decimal)265.77, Low=(decimal)261.38, Close=(decimal)263.23, Volume = (long)141924096 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-25","yyyy-MM-dd",cultureProvider), Open=265.6m, High=265.77m, Low=261.38m, Close=263.23m, Volume = (long)141924096 },</v>
       </c>
       <c r="D373" s="3">
         <v>43276</v>
@@ -12550,7 +12551,7 @@
       </c>
       <c r="C374" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-26"), Open=(decimal)263.85, High=(decimal)264.74, Low=(decimal)263.02, Close=(decimal)263.81, Volume = (long)70710976 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-26","yyyy-MM-dd",cultureProvider), Open=263.85m, High=264.74m, Low=263.02m, Close=263.81m, Volume = (long)70710976 },</v>
       </c>
       <c r="D374" s="3">
         <v>43277</v>
@@ -12580,7 +12581,7 @@
       </c>
       <c r="C375" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-27"), Open=(decimal)264.45, High=(decimal)266.01, Low=(decimal)261.46, Close=(decimal)261.63, Volume = (long)108213904 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-27","yyyy-MM-dd",cultureProvider), Open=264.45m, High=266.01m, Low=261.46m, Close=261.63m, Volume = (long)108213904 },</v>
       </c>
       <c r="D375" s="3">
         <v>43278</v>
@@ -12610,7 +12611,7 @@
       </c>
       <c r="C376" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-28"), Open=(decimal)261.57, High=(decimal)263.96, Low=(decimal)260.79, Close=(decimal)263.12, Volume = (long)78913504 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-28","yyyy-MM-dd",cultureProvider), Open=261.57m, High=263.96m, Low=260.79m, Close=263.12m, Volume = (long)78913504 },</v>
       </c>
       <c r="D376" s="3">
         <v>43279</v>
@@ -12640,7 +12641,7 @@
       </c>
       <c r="C377" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-29"), Open=(decimal)264.32, High=(decimal)265.81, Low=(decimal)263.37, Close=(decimal)263.5, Volume = (long)100473760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-29","yyyy-MM-dd",cultureProvider), Open=264.32m, High=265.81m, Low=263.37m, Close=263.5m, Volume = (long)100473760 },</v>
       </c>
       <c r="D377" s="3">
         <v>43280</v>
@@ -12670,7 +12671,7 @@
       </c>
       <c r="C378" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-02"), Open=(decimal)261.78, High=(decimal)264.24, Low=(decimal)261.52, Close=(decimal)264.06, Volume = (long)65431128 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-02","yyyy-MM-dd",cultureProvider), Open=261.78m, High=264.24m, Low=261.52m, Close=264.06m, Volume = (long)65431128 },</v>
       </c>
       <c r="D378" s="3">
         <v>43283</v>
@@ -12700,7 +12701,7 @@
       </c>
       <c r="C379" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-03"), Open=(decimal)265.05, High=(decimal)265.15, Low=(decimal)262.67, Close=(decimal)263.13, Volume = (long)43432576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-03","yyyy-MM-dd",cultureProvider), Open=265.05m, High=265.15m, Low=262.67m, Close=263.13m, Volume = (long)43432576 },</v>
       </c>
       <c r="D379" s="3">
         <v>43284</v>
@@ -12730,7 +12731,7 @@
       </c>
       <c r="C380" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-05"), Open=(decimal)264.36, High=(decimal)265.35, Low=(decimal)263.19, Close=(decimal)265.28, Volume = (long)58606568 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-05","yyyy-MM-dd",cultureProvider), Open=264.36m, High=265.35m, Low=263.19m, Close=265.28m, Volume = (long)58606568 },</v>
       </c>
       <c r="D380" s="3">
         <v>43286</v>
@@ -12760,7 +12761,7 @@
       </c>
       <c r="C381" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-06"), Open=(decimal)265.31, High=(decimal)267.93, Low=(decimal)264.89, Close=(decimal)267.52, Volume = (long)68456816 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-06","yyyy-MM-dd",cultureProvider), Open=265.31m, High=267.93m, Low=264.89m, Close=267.52m, Volume = (long)68456816 },</v>
       </c>
       <c r="D381" s="3">
         <v>43287</v>
@@ -12790,7 +12791,7 @@
       </c>
       <c r="C382" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-09"), Open=(decimal)268.62, High=(decimal)269.99, Low=(decimal)268.57, Close=(decimal)269.93, Volume = (long)52042820 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-09","yyyy-MM-dd",cultureProvider), Open=268.62m, High=269.99m, Low=268.57m, Close=269.93m, Volume = (long)52042820 },</v>
       </c>
       <c r="D382" s="3">
         <v>43290</v>
@@ -12820,7 +12821,7 @@
       </c>
       <c r="C383" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-10"), Open=(decimal)270.43, High=(decimal)271.01, Low=(decimal)270.11, Close=(decimal)270.9, Volume = (long)53501064 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-10","yyyy-MM-dd",cultureProvider), Open=270.43m, High=271.01m, Low=270.11m, Close=270.9m, Volume = (long)53501064 },</v>
       </c>
       <c r="D383" s="3">
         <v>43291</v>
@@ -12850,7 +12851,7 @@
       </c>
       <c r="C384" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-11"), Open=(decimal)269.2, High=(decimal)270.07, Low=(decimal)268.59, Close=(decimal)268.92, Volume = (long)79329656 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-11","yyyy-MM-dd",cultureProvider), Open=269.2m, High=270.07m, Low=268.59m, Close=268.92m, Volume = (long)79329656 },</v>
       </c>
       <c r="D384" s="3">
         <v>43292</v>
@@ -12880,7 +12881,7 @@
       </c>
       <c r="C385" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-12"), Open=(decimal)270.3, High=(decimal)271.42, Low=(decimal)269.64, Close=(decimal)271.36, Volume = (long)61899772 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-12","yyyy-MM-dd",cultureProvider), Open=270.3m, High=271.42m, Low=269.64m, Close=271.36m, Volume = (long)61899772 },</v>
       </c>
       <c r="D385" s="3">
         <v>43293</v>
@@ -12909,8 +12910,8 @@
         <v>7</v>
       </c>
       <c r="C386" s="5" t="str">
-        <f t="shared" ref="C386:C449" si="6">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D386,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E386&amp;", High=(decimal)"&amp;F386&amp;", Low=(decimal)"&amp;G386&amp;", Close=(decimal)"&amp;H386&amp;", Volume = (long)"&amp;I386&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-07-13"), Open=(decimal)271.16, High=(decimal)271.9, Low=(decimal)270.67, Close=(decimal)271.57, Volume = (long)49659024 },</v>
+        <f t="shared" ref="C386:C449" si="6">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D386,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E386&amp;"m, High="&amp;F386&amp;"m, Low="&amp;G386&amp;"m, Close="&amp;H386&amp;"m, Volume = (long)"&amp;I386&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-13","yyyy-MM-dd",cultureProvider), Open=271.16m, High=271.9m, Low=270.67m, Close=271.57m, Volume = (long)49659024 },</v>
       </c>
       <c r="D386" s="3">
         <v>43294</v>
@@ -12940,7 +12941,7 @@
       </c>
       <c r="C387" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-16"), Open=(decimal)271.62, High=(decimal)271.78, Low=(decimal)270.84, Close=(decimal)271.33, Volume = (long)49624096 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-16","yyyy-MM-dd",cultureProvider), Open=271.62m, High=271.78m, Low=270.84m, Close=271.33m, Volume = (long)49624096 },</v>
       </c>
       <c r="D387" s="3">
         <v>43297</v>
@@ -12970,7 +12971,7 @@
       </c>
       <c r="C388" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-17"), Open=(decimal)270.48, High=(decimal)272.85, Low=(decimal)270.43, Close=(decimal)272.43, Volume = (long)53860032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-17","yyyy-MM-dd",cultureProvider), Open=270.48m, High=272.85m, Low=270.43m, Close=272.43m, Volume = (long)53860032 },</v>
       </c>
       <c r="D388" s="3">
         <v>43298</v>
@@ -13000,7 +13001,7 @@
       </c>
       <c r="C389" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-18"), Open=(decimal)272.51, High=(decimal)273.12, Low=(decimal)272.03, Close=(decimal)273, Volume = (long)45910016 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-18","yyyy-MM-dd",cultureProvider), Open=272.51m, High=273.12m, Low=272.03m, Close=273m, Volume = (long)45910016 },</v>
       </c>
       <c r="D389" s="3">
         <v>43299</v>
@@ -13030,7 +13031,7 @@
       </c>
       <c r="C390" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-19"), Open=(decimal)272.27, High=(decimal)272.69, Low=(decimal)271.45, Close=(decimal)271.97, Volume = (long)63225212 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-19","yyyy-MM-dd",cultureProvider), Open=272.27m, High=272.69m, Low=271.45m, Close=271.97m, Volume = (long)63225212 },</v>
       </c>
       <c r="D390" s="3">
         <v>43300</v>
@@ -13060,7 +13061,7 @@
       </c>
       <c r="C391" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-20"), Open=(decimal)271.75, High=(decimal)272.44, Low=(decimal)271.48, Close=(decimal)271.66, Volume = (long)84804656 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-20","yyyy-MM-dd",cultureProvider), Open=271.75m, High=272.44m, Low=271.48m, Close=271.66m, Volume = (long)84804656 },</v>
       </c>
       <c r="D391" s="3">
         <v>43301</v>
@@ -13090,7 +13091,7 @@
       </c>
       <c r="C392" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-23"), Open=(decimal)271.44, High=(decimal)272.39, Low=(decimal)271.06, Close=(decimal)272.16, Volume = (long)48436568 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-23","yyyy-MM-dd",cultureProvider), Open=271.44m, High=272.39m, Low=271.06m, Close=272.16m, Volume = (long)48436568 },</v>
       </c>
       <c r="D392" s="3">
         <v>43304</v>
@@ -13120,7 +13121,7 @@
       </c>
       <c r="C393" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-24"), Open=(decimal)273.71, High=(decimal)274.46, Low=(decimal)272.58, Close=(decimal)273.53, Volume = (long)70035320 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-24","yyyy-MM-dd",cultureProvider), Open=273.71m, High=274.46m, Low=272.58m, Close=273.53m, Volume = (long)70035320 },</v>
       </c>
       <c r="D393" s="3">
         <v>43305</v>
@@ -13150,7 +13151,7 @@
       </c>
       <c r="C394" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-25"), Open=(decimal)273.26, High=(decimal)276.22, Low=(decimal)273.21, Close=(decimal)275.87, Volume = (long)81211824 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-25","yyyy-MM-dd",cultureProvider), Open=273.26m, High=276.22m, Low=273.21m, Close=275.87m, Volume = (long)81211824 },</v>
       </c>
       <c r="D394" s="3">
         <v>43306</v>
@@ -13180,7 +13181,7 @@
       </c>
       <c r="C395" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-26"), Open=(decimal)275.08, High=(decimal)275.96, Low=(decimal)274.97, Close=(decimal)275.21, Volume = (long)59629476 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-26","yyyy-MM-dd",cultureProvider), Open=275.08m, High=275.96m, Low=274.97m, Close=275.21m, Volume = (long)59629476 },</v>
       </c>
       <c r="D395" s="3">
         <v>43307</v>
@@ -13210,7 +13211,7 @@
       </c>
       <c r="C396" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-27"), Open=(decimal)275.57, High=(decimal)275.68, Low=(decimal)272.34, Close=(decimal)273.35, Volume = (long)79050080 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-27","yyyy-MM-dd",cultureProvider), Open=275.57m, High=275.68m, Low=272.34m, Close=273.35m, Volume = (long)79050080 },</v>
       </c>
       <c r="D396" s="3">
         <v>43308</v>
@@ -13240,7 +13241,7 @@
       </c>
       <c r="C397" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-30"), Open=(decimal)273.44, High=(decimal)273.61, Low=(decimal)271.35, Close=(decimal)271.92, Volume = (long)65624404 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-30","yyyy-MM-dd",cultureProvider), Open=273.44m, High=273.61m, Low=271.35m, Close=271.92m, Volume = (long)65624404 },</v>
       </c>
       <c r="D397" s="3">
         <v>43311</v>
@@ -13270,7 +13271,7 @@
       </c>
       <c r="C398" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-31"), Open=(decimal)272.76, High=(decimal)273.93, Low=(decimal)272.34, Close=(decimal)273.26, Volume = (long)70594928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-31","yyyy-MM-dd",cultureProvider), Open=272.76m, High=273.93m, Low=272.34m, Close=273.26m, Volume = (long)70594928 },</v>
       </c>
       <c r="D398" s="3">
         <v>43312</v>
@@ -13300,7 +13301,7 @@
       </c>
       <c r="C399" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-01"), Open=(decimal)273.49, High=(decimal)274.04, Low=(decimal)272.1, Close=(decimal)272.81, Volume = (long)55443260 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-01","yyyy-MM-dd",cultureProvider), Open=273.49m, High=274.04m, Low=272.1m, Close=272.81m, Volume = (long)55443260 },</v>
       </c>
       <c r="D399" s="3">
         <v>43313</v>
@@ -13330,7 +13331,7 @@
       </c>
       <c r="C400" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-02"), Open=(decimal)271.38, High=(decimal)274.48, Low=(decimal)271.15, Close=(decimal)274.29, Volume = (long)65298924 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-02","yyyy-MM-dd",cultureProvider), Open=271.38m, High=274.48m, Low=271.15m, Close=274.29m, Volume = (long)65298924 },</v>
       </c>
       <c r="D400" s="3">
         <v>43314</v>
@@ -13360,7 +13361,7 @@
       </c>
       <c r="C401" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-03"), Open=(decimal)274.43, High=(decimal)275.52, Low=(decimal)274.23, Close=(decimal)275.47, Volume = (long)55527740 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-03","yyyy-MM-dd",cultureProvider), Open=274.43m, High=275.52m, Low=274.23m, Close=275.47m, Volume = (long)55527740 },</v>
       </c>
       <c r="D401" s="3">
         <v>43315</v>
@@ -13390,7 +13391,7 @@
       </c>
       <c r="C402" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-06"), Open=(decimal)275.51, High=(decimal)276.82, Low=(decimal)275.08, Close=(decimal)276.48, Volume = (long)40564136 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-06","yyyy-MM-dd",cultureProvider), Open=275.51m, High=276.82m, Low=275.08m, Close=276.48m, Volume = (long)40564136 },</v>
       </c>
       <c r="D402" s="3">
         <v>43318</v>
@@ -13420,7 +13421,7 @@
       </c>
       <c r="C403" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-07"), Open=(decimal)277.21, High=(decimal)277.81, Low=(decimal)277.06, Close=(decimal)277.39, Volume = (long)44471960 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-07","yyyy-MM-dd",cultureProvider), Open=277.21m, High=277.81m, Low=277.06m, Close=277.39m, Volume = (long)44471960 },</v>
       </c>
       <c r="D403" s="3">
         <v>43319</v>
@@ -13450,7 +13451,7 @@
       </c>
       <c r="C404" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-08"), Open=(decimal)277.21, High=(decimal)277.71, Low=(decimal)276.77, Close=(decimal)277.27, Volume = (long)43357916 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-08","yyyy-MM-dd",cultureProvider), Open=277.21m, High=277.71m, Low=276.77m, Close=277.27m, Volume = (long)43357916 },</v>
       </c>
       <c r="D404" s="3">
         <v>43320</v>
@@ -13480,7 +13481,7 @@
       </c>
       <c r="C405" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-09"), Open=(decimal)277.34, High=(decimal)277.77, Low=(decimal)276.74, Close=(decimal)276.9, Volume = (long)36771464 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-09","yyyy-MM-dd",cultureProvider), Open=277.34m, High=277.77m, Low=276.74m, Close=276.9m, Volume = (long)36771464 },</v>
       </c>
       <c r="D405" s="3">
         <v>43321</v>
@@ -13510,7 +13511,7 @@
       </c>
       <c r="C406" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-10"), Open=(decimal)275.32, High=(decimal)275.91, Low=(decimal)274.26, Close=(decimal)275.04, Volume = (long)79351592 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-10","yyyy-MM-dd",cultureProvider), Open=275.32m, High=275.91m, Low=274.26m, Close=275.04m, Volume = (long)79351592 },</v>
       </c>
       <c r="D406" s="3">
         <v>43322</v>
@@ -13540,7 +13541,7 @@
       </c>
       <c r="C407" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-13"), Open=(decimal)275.34, High=(decimal)276.01, Low=(decimal)273.69, Close=(decimal)274.01, Volume = (long)67673568 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-13","yyyy-MM-dd",cultureProvider), Open=275.34m, High=276.01m, Low=273.69m, Close=274.01m, Volume = (long)67673568 },</v>
       </c>
       <c r="D407" s="3">
         <v>43325</v>
@@ -13570,7 +13571,7 @@
       </c>
       <c r="C408" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-14"), Open=(decimal)274.81, High=(decimal)276.02, Low=(decimal)274.38, Close=(decimal)275.76, Volume = (long)45136396 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-14","yyyy-MM-dd",cultureProvider), Open=274.81m, High=276.02m, Low=274.38m, Close=275.76m, Volume = (long)45136396 },</v>
       </c>
       <c r="D408" s="3">
         <v>43326</v>
@@ -13600,7 +13601,7 @@
       </c>
       <c r="C409" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-15"), Open=(decimal)274.28, High=(decimal)274.44, Low=(decimal)272.13, Close=(decimal)273.7, Volume = (long)105964064 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-15","yyyy-MM-dd",cultureProvider), Open=274.28m, High=274.44m, Low=272.13m, Close=273.7m, Volume = (long)105964064 },</v>
       </c>
       <c r="D409" s="3">
         <v>43327</v>
@@ -13630,7 +13631,7 @@
       </c>
       <c r="C410" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-16"), Open=(decimal)275.27, High=(decimal)276.87, Low=(decimal)275.23, Close=(decimal)275.91, Volume = (long)72033608 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-16","yyyy-MM-dd",cultureProvider), Open=275.27m, High=276.87m, Low=275.23m, Close=275.91m, Volume = (long)72033608 },</v>
       </c>
       <c r="D410" s="3">
         <v>43328</v>
@@ -13660,7 +13661,7 @@
       </c>
       <c r="C411" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-17"), Open=(decimal)275.69, High=(decimal)277.37, Low=(decimal)275.24, Close=(decimal)276.89, Volume = (long)67555760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-17","yyyy-MM-dd",cultureProvider), Open=275.69m, High=277.37m, Low=275.24m, Close=276.89m, Volume = (long)67555760 },</v>
       </c>
       <c r="D411" s="3">
         <v>43329</v>
@@ -13690,7 +13691,7 @@
       </c>
       <c r="C412" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-20"), Open=(decimal)277.38, High=(decimal)277.77, Low=(decimal)276.89, Close=(decimal)277.48, Volume = (long)40982744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-20","yyyy-MM-dd",cultureProvider), Open=277.38m, High=277.77m, Low=276.89m, Close=277.48m, Volume = (long)40982744 },</v>
       </c>
       <c r="D412" s="3">
         <v>43332</v>
@@ -13720,7 +13721,7 @@
       </c>
       <c r="C413" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-21"), Open=(decimal)278.04, High=(decimal)279.07, Low=(decimal)277.52, Close=(decimal)278.13, Volume = (long)69258080 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-21","yyyy-MM-dd",cultureProvider), Open=278.04m, High=279.07m, Low=277.52m, Close=278.13m, Volume = (long)69258080 },</v>
       </c>
       <c r="D413" s="3">
         <v>43333</v>
@@ -13750,7 +13751,7 @@
       </c>
       <c r="C414" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-22"), Open=(decimal)277.68, High=(decimal)278.54, Low=(decimal)277.39, Close=(decimal)277.96, Volume = (long)46321688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-22","yyyy-MM-dd",cultureProvider), Open=277.68m, High=278.54m, Low=277.39m, Close=277.96m, Volume = (long)46321688 },</v>
       </c>
       <c r="D414" s="3">
         <v>43334</v>
@@ -13780,7 +13781,7 @@
       </c>
       <c r="C415" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-23"), Open=(decimal)277.77, High=(decimal)278.71, Low=(decimal)277.24, Close=(decimal)277.59, Volume = (long)50657548 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-23","yyyy-MM-dd",cultureProvider), Open=277.77m, High=278.71m, Low=277.24m, Close=277.59m, Volume = (long)50657548 },</v>
       </c>
       <c r="D415" s="3">
         <v>43335</v>
@@ -13810,7 +13811,7 @@
       </c>
       <c r="C416" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-24"), Open=(decimal)278.23, High=(decimal)279.42, Low=(decimal)278.17, Close=(decimal)279.27, Volume = (long)59184624 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-24","yyyy-MM-dd",cultureProvider), Open=278.23m, High=279.42m, Low=278.17m, Close=279.27m, Volume = (long)59184624 },</v>
       </c>
       <c r="D416" s="3">
         <v>43336</v>
@@ -13840,7 +13841,7 @@
       </c>
       <c r="C417" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-27"), Open=(decimal)280.58, High=(decimal)281.59, Low=(decimal)280.4, Close=(decimal)281.47, Volume = (long)58757348 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-27","yyyy-MM-dd",cultureProvider), Open=280.58m, High=281.59m, Low=280.4m, Close=281.47m, Volume = (long)58757348 },</v>
       </c>
       <c r="D417" s="3">
         <v>43339</v>
@@ -13870,7 +13871,7 @@
       </c>
       <c r="C418" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-28"), Open=(decimal)281.98, High=(decimal)282.09, Low=(decimal)281.1, Close=(decimal)281.61, Volume = (long)48329404 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-28","yyyy-MM-dd",cultureProvider), Open=281.98m, High=282.09m, Low=281.1m, Close=281.61m, Volume = (long)48329404 },</v>
       </c>
       <c r="D418" s="3">
         <v>43340</v>
@@ -13900,7 +13901,7 @@
       </c>
       <c r="C419" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-29"), Open=(decimal)281.84, High=(decimal)283.37, Low=(decimal)281.57, Close=(decimal)283.12, Volume = (long)63300776 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-29","yyyy-MM-dd",cultureProvider), Open=281.84m, High=283.37m, Low=281.57m, Close=283.12m, Volume = (long)63300776 },</v>
       </c>
       <c r="D419" s="3">
         <v>43341</v>
@@ -13930,7 +13931,7 @@
       </c>
       <c r="C420" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-30"), Open=(decimal)282.6, High=(decimal)283, Low=(decimal)281.32, Close=(decimal)281.98, Volume = (long)63037208 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-30","yyyy-MM-dd",cultureProvider), Open=282.6m, High=283m, Low=281.32m, Close=281.98m, Volume = (long)63037208 },</v>
       </c>
       <c r="D420" s="3">
         <v>43342</v>
@@ -13960,7 +13961,7 @@
       </c>
       <c r="C421" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-31"), Open=(decimal)281.53, High=(decimal)282.47, Low=(decimal)280.99, Close=(decimal)281.98, Volume = (long)68093544 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-31","yyyy-MM-dd",cultureProvider), Open=281.53m, High=282.47m, Low=280.99m, Close=281.98m, Volume = (long)68093544 },</v>
       </c>
       <c r="D421" s="3">
         <v>43343</v>
@@ -13990,7 +13991,7 @@
       </c>
       <c r="C422" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-04"), Open=(decimal)281.53, High=(decimal)281.89, Low=(decimal)280.4, Close=(decimal)281.5, Volume = (long)59294748 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-04","yyyy-MM-dd",cultureProvider), Open=281.53m, High=281.89m, Low=280.4m, Close=281.5m, Volume = (long)59294748 },</v>
       </c>
       <c r="D422" s="3">
         <v>43347</v>
@@ -14020,7 +14021,7 @@
       </c>
       <c r="C423" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-05"), Open=(decimal)281.11, High=(decimal)281.33, Low=(decimal)279.63, Close=(decimal)280.74, Volume = (long)74591480 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-05","yyyy-MM-dd",cultureProvider), Open=281.11m, High=281.33m, Low=279.63m, Close=280.74m, Volume = (long)74591480 },</v>
       </c>
       <c r="D423" s="3">
         <v>43348</v>
@@ -14050,7 +14051,7 @@
       </c>
       <c r="C424" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-06"), Open=(decimal)280.86, High=(decimal)281.19, Low=(decimal)278.77, Close=(decimal)279.9, Volume = (long)67855744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-06","yyyy-MM-dd",cultureProvider), Open=280.86m, High=281.19m, Low=278.77m, Close=279.9m, Volume = (long)67855744 },</v>
       </c>
       <c r="D424" s="3">
         <v>43349</v>
@@ -14080,7 +14081,7 @@
       </c>
       <c r="C425" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-07"), Open=(decimal)278.75, High=(decimal)280.42, Low=(decimal)278.49, Close=(decimal)279.35, Volume = (long)75695528 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-07","yyyy-MM-dd",cultureProvider), Open=278.75m, High=280.42m, Low=278.49m, Close=279.35m, Volume = (long)75695528 },</v>
       </c>
       <c r="D425" s="3">
         <v>43350</v>
@@ -14110,7 +14111,7 @@
       </c>
       <c r="C426" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-10"), Open=(decimal)280.46, High=(decimal)280.75, Low=(decimal)279.62, Close=(decimal)279.84, Volume = (long)51693300 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-10","yyyy-MM-dd",cultureProvider), Open=280.46m, High=280.75m, Low=279.62m, Close=279.84m, Volume = (long)51693300 },</v>
       </c>
       <c r="D426" s="3">
         <v>43353</v>
@@ -14140,7 +14141,7 @@
       </c>
       <c r="C427" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-11"), Open=(decimal)279.13, High=(decimal)281.25, Low=(decimal)278.75, Close=(decimal)280.76, Volume = (long)52022324 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-11","yyyy-MM-dd",cultureProvider), Open=279.13m, High=281.25m, Low=278.75m, Close=280.76m, Volume = (long)52022324 },</v>
       </c>
       <c r="D427" s="3">
         <v>43354</v>
@@ -14170,7 +14171,7 @@
       </c>
       <c r="C428" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-12"), Open=(decimal)280.77, High=(decimal)281.49, Low=(decimal)279.96, Close=(decimal)280.83, Volume = (long)61576576 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-12","yyyy-MM-dd",cultureProvider), Open=280.77m, High=281.49m, Low=279.96m, Close=280.83m, Volume = (long)61576576 },</v>
       </c>
       <c r="D428" s="3">
         <v>43355</v>
@@ -14200,7 +14201,7 @@
       </c>
       <c r="C429" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-13"), Open=(decimal)281.99, High=(decimal)282.69, Low=(decimal)281.68, Close=(decimal)282.49, Volume = (long)52540928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-13","yyyy-MM-dd",cultureProvider), Open=281.99m, High=282.69m, Low=281.68m, Close=282.49m, Volume = (long)52540928 },</v>
       </c>
       <c r="D429" s="3">
         <v>43356</v>
@@ -14230,7 +14231,7 @@
       </c>
       <c r="C430" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-14"), Open=(decimal)282.71, High=(decimal)282.92, Low=(decimal)281.68, Close=(decimal)282.54, Volume = (long)56706020 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-14","yyyy-MM-dd",cultureProvider), Open=282.71m, High=282.92m, Low=281.68m, Close=282.54m, Volume = (long)56706020 },</v>
       </c>
       <c r="D430" s="3">
         <v>43357</v>
@@ -14260,7 +14261,7 @@
       </c>
       <c r="C431" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-17"), Open=(decimal)282.48, High=(decimal)282.52, Low=(decimal)280.74, Close=(decimal)281.04, Volume = (long)70258840 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-17","yyyy-MM-dd",cultureProvider), Open=282.48m, High=282.52m, Low=280.74m, Close=281.04m, Volume = (long)70258840 },</v>
       </c>
       <c r="D431" s="3">
         <v>43360</v>
@@ -14290,7 +14291,7 @@
       </c>
       <c r="C432" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-18"), Open=(decimal)281.28, High=(decimal)283.22, Low=(decimal)281.25, Close=(decimal)282.57, Volume = (long)63758804 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-18","yyyy-MM-dd",cultureProvider), Open=281.28m, High=283.22m, Low=281.25m, Close=282.57m, Volume = (long)63758804 },</v>
       </c>
       <c r="D432" s="3">
         <v>43361</v>
@@ -14320,7 +14321,7 @@
       </c>
       <c r="C433" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-19"), Open=(decimal)282.63, High=(decimal)283.33, Low=(decimal)282.48, Close=(decimal)282.87, Volume = (long)50529584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-19","yyyy-MM-dd",cultureProvider), Open=282.63m, High=283.33m, Low=282.48m, Close=282.87m, Volume = (long)50529584 },</v>
       </c>
       <c r="D433" s="3">
         <v>43362</v>
@@ -14350,7 +14351,7 @@
       </c>
       <c r="C434" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-20"), Open=(decimal)284.25, High=(decimal)285.51, Low=(decimal)282.88, Close=(decimal)285.16, Volume = (long)103323632 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-20","yyyy-MM-dd",cultureProvider), Open=284.25m, High=285.51m, Low=282.88m, Close=285.16m, Volume = (long)103323632 },</v>
       </c>
       <c r="D434" s="3">
         <v>43363</v>
@@ -14380,7 +14381,7 @@
       </c>
       <c r="C435" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-21"), Open=(decimal)285.97, High=(decimal)286.1, Low=(decimal)284.72, Close=(decimal)284.9, Volume = (long)108104552 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-21","yyyy-MM-dd",cultureProvider), Open=285.97m, High=286.1m, Low=284.72m, Close=284.9m, Volume = (long)108104552 },</v>
       </c>
       <c r="D435" s="3">
         <v>43364</v>
@@ -14410,7 +14411,7 @@
       </c>
       <c r="C436" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-24"), Open=(decimal)284.27, High=(decimal)284.42, Low=(decimal)283.32, Close=(decimal)283.95, Volume = (long)54738760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-24","yyyy-MM-dd",cultureProvider), Open=284.27m, High=284.42m, Low=283.32m, Close=283.95m, Volume = (long)54738760 },</v>
       </c>
       <c r="D436" s="3">
         <v>43367</v>
@@ -14440,7 +14441,7 @@
       </c>
       <c r="C437" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-25"), Open=(decimal)284.45, High=(decimal)284.57, Low=(decimal)283.43, Close=(decimal)283.69, Volume = (long)45474200 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-25","yyyy-MM-dd",cultureProvider), Open=284.45m, High=284.57m, Low=283.43m, Close=283.69m, Volume = (long)45474200 },</v>
       </c>
       <c r="D437" s="3">
         <v>43368</v>
@@ -14470,7 +14471,7 @@
       </c>
       <c r="C438" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-26"), Open=(decimal)283.85, High=(decimal)285.14, Low=(decimal)282.38, Close=(decimal)282.84, Volume = (long)81724024 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-26","yyyy-MM-dd",cultureProvider), Open=283.85m, High=285.14m, Low=282.38m, Close=282.84m, Volume = (long)81724024 },</v>
       </c>
       <c r="D438" s="3">
         <v>43369</v>
@@ -14500,7 +14501,7 @@
       </c>
       <c r="C439" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-27"), Open=(decimal)283.36, High=(decimal)284.82, Low=(decimal)283.06, Close=(decimal)283.63, Volume = (long)60723896 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-27","yyyy-MM-dd",cultureProvider), Open=283.36m, High=284.82m, Low=283.06m, Close=283.63m, Volume = (long)60723896 },</v>
       </c>
       <c r="D439" s="3">
         <v>43370</v>
@@ -14530,7 +14531,7 @@
       </c>
       <c r="C440" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-28"), Open=(decimal)282.95, High=(decimal)284.21, Low=(decimal)282.91, Close=(decimal)283.66, Volume = (long)71835632 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-28","yyyy-MM-dd",cultureProvider), Open=282.95m, High=284.21m, Low=282.91m, Close=283.66m, Volume = (long)71835632 },</v>
       </c>
       <c r="D440" s="3">
         <v>43371</v>
@@ -14560,7 +14561,7 @@
       </c>
       <c r="C441" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-01"), Open=(decimal)285.02, High=(decimal)285.82, Low=(decimal)283.91, Close=(decimal)284.65, Volume = (long)63623792 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-01","yyyy-MM-dd",cultureProvider), Open=285.02m, High=285.82m, Low=283.91m, Close=284.65m, Volume = (long)63623792 },</v>
       </c>
       <c r="D441" s="3">
         <v>43374</v>
@@ -14590,7 +14591,7 @@
       </c>
       <c r="C442" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-02"), Open=(decimal)284.48, High=(decimal)285.26, Low=(decimal)284.07, Close=(decimal)284.48, Volume = (long)48434264 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-02","yyyy-MM-dd",cultureProvider), Open=284.48m, High=285.26m, Low=284.07m, Close=284.48m, Volume = (long)48434264 },</v>
       </c>
       <c r="D442" s="3">
         <v>43375</v>
@@ -14620,7 +14621,7 @@
       </c>
       <c r="C443" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-03"), Open=(decimal)285.63, High=(decimal)286.09, Low=(decimal)284.25, Close=(decimal)284.64, Volume = (long)66304540 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-03","yyyy-MM-dd",cultureProvider), Open=285.63m, High=286.09m, Low=284.25m, Close=284.64m, Volume = (long)66304540 },</v>
       </c>
       <c r="D443" s="3">
         <v>43376</v>
@@ -14650,7 +14651,7 @@
       </c>
       <c r="C444" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-04"), Open=(decimal)284.11, High=(decimal)284.17, Low=(decimal)280.68, Close=(decimal)282.41, Volume = (long)114321768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-04","yyyy-MM-dd",cultureProvider), Open=284.11m, High=284.17m, Low=280.68m, Close=282.41m, Volume = (long)114321768 },</v>
       </c>
       <c r="D444" s="3">
         <v>43377</v>
@@ -14680,7 +14681,7 @@
       </c>
       <c r="C445" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-05"), Open=(decimal)282.66, High=(decimal)283.22, Low=(decimal)279.27, Close=(decimal)280.83, Volume = (long)108588344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-05","yyyy-MM-dd",cultureProvider), Open=282.66m, High=283.22m, Low=279.27m, Close=280.83m, Volume = (long)108588344 },</v>
       </c>
       <c r="D445" s="3">
         <v>43378</v>
@@ -14710,7 +14711,7 @@
       </c>
       <c r="C446" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-08"), Open=(decimal)280.08, High=(decimal)281.22, Low=(decimal)278.57, Close=(decimal)280.83, Volume = (long)89925664 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-08","yyyy-MM-dd",cultureProvider), Open=280.08m, High=281.22m, Low=278.57m, Close=280.83m, Volume = (long)89925664 },</v>
       </c>
       <c r="D446" s="3">
         <v>43381</v>
@@ -14740,7 +14741,7 @@
       </c>
       <c r="C447" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-09"), Open=(decimal)280.41, High=(decimal)281.85, Low=(decimal)279.81, Close=(decimal)280.42, Volume = (long)76188928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-09","yyyy-MM-dd",cultureProvider), Open=280.41m, High=281.85m, Low=279.81m, Close=280.42m, Volume = (long)76188928 },</v>
       </c>
       <c r="D447" s="3">
         <v>43382</v>
@@ -14770,7 +14771,7 @@
       </c>
       <c r="C448" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-10"), Open=(decimal)279.87, High=(decimal)279.94, Low=(decimal)271.13, Close=(decimal)271.54, Volume = (long)220074688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-10","yyyy-MM-dd",cultureProvider), Open=279.87m, High=279.94m, Low=271.13m, Close=271.54m, Volume = (long)220074688 },</v>
       </c>
       <c r="D448" s="3">
         <v>43383</v>
@@ -14800,7 +14801,7 @@
       </c>
       <c r="C449" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-11"), Open=(decimal)270.35, High=(decimal)272.13, Low=(decimal)263.8, Close=(decimal)265.56, Volume = (long)281680000 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-11","yyyy-MM-dd",cultureProvider), Open=270.35m, High=272.13m, Low=263.8m, Close=265.56m, Volume = (long)281680000 },</v>
       </c>
       <c r="D449" s="3">
         <v>43384</v>
@@ -14829,8 +14830,8 @@
         <v>7</v>
       </c>
       <c r="C450" s="5" t="str">
-        <f t="shared" ref="C450:C503" si="7">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D450,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E450&amp;", High=(decimal)"&amp;F450&amp;", Low=(decimal)"&amp;G450&amp;", Close=(decimal)"&amp;H450&amp;", Volume = (long)"&amp;I450&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-10-12"), Open=(decimal)270.05, High=(decimal)270.36, Low=(decimal)265.76, Close=(decimal)269.25, Volume = (long)187745152 },</v>
+        <f t="shared" ref="C450:C503" si="7">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D450,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E450&amp;"m, High="&amp;F450&amp;"m, Low="&amp;G450&amp;"m, Close="&amp;H450&amp;"m, Volume = (long)"&amp;I450&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-12","yyyy-MM-dd",cultureProvider), Open=270.05m, High=270.36m, Low=265.76m, Close=269.25m, Volume = (long)187745152 },</v>
       </c>
       <c r="D450" s="3">
         <v>43385</v>
@@ -14860,7 +14861,7 @@
       </c>
       <c r="C451" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-15"), Open=(decimal)268.86, High=(decimal)270.31, Low=(decimal)267.64, Close=(decimal)267.74, Volume = (long)104808584 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-15","yyyy-MM-dd",cultureProvider), Open=268.86m, High=270.31m, Low=267.64m, Close=267.74m, Volume = (long)104808584 },</v>
       </c>
       <c r="D451" s="3">
         <v>43388</v>
@@ -14890,7 +14891,7 @@
       </c>
       <c r="C452" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-16"), Open=(decimal)269.88, High=(decimal)274, Low=(decimal)269.37, Close=(decimal)273.59, Volume = (long)121198672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-16","yyyy-MM-dd",cultureProvider), Open=269.88m, High=274m, Low=269.37m, Close=273.59m, Volume = (long)121198672 },</v>
       </c>
       <c r="D452" s="3">
         <v>43389</v>
@@ -14920,7 +14921,7 @@
       </c>
       <c r="C453" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-17"), Open=(decimal)273.63, High=(decimal)274.32, Low=(decimal)270.82, Close=(decimal)273.64, Volume = (long)113378952 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-17","yyyy-MM-dd",cultureProvider), Open=273.63m, High=274.32m, Low=270.82m, Close=273.64m, Volume = (long)113378952 },</v>
       </c>
       <c r="D453" s="3">
         <v>43390</v>
@@ -14950,7 +14951,7 @@
       </c>
       <c r="C454" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-18"), Open=(decimal)272.62, High=(decimal)273.27, Low=(decimal)268.29, Close=(decimal)269.69, Volume = (long)137906032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-18","yyyy-MM-dd",cultureProvider), Open=272.62m, High=273.27m, Low=268.29m, Close=269.69m, Volume = (long)137906032 },</v>
       </c>
       <c r="D454" s="3">
         <v>43391</v>
@@ -14980,7 +14981,7 @@
       </c>
       <c r="C455" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-19"), Open=(decimal)270.4, High=(decimal)272.52, Low=(decimal)268.78, Close=(decimal)269.54, Volume = (long)143383136 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-19","yyyy-MM-dd",cultureProvider), Open=270.4m, High=272.52m, Low=268.78m, Close=269.54m, Volume = (long)143383136 },</v>
       </c>
       <c r="D455" s="3">
         <v>43392</v>
@@ -15010,7 +15011,7 @@
       </c>
       <c r="C456" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-22"), Open=(decimal)270.27, High=(decimal)270.63, Low=(decimal)267.75, Close=(decimal)268.33, Volume = (long)84466760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-22","yyyy-MM-dd",cultureProvider), Open=270.27m, High=270.63m, Low=267.75m, Close=268.33m, Volume = (long)84466760 },</v>
       </c>
       <c r="D456" s="3">
         <v>43395</v>
@@ -15040,7 +15041,7 @@
       </c>
       <c r="C457" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-23"), Open=(decimal)264.37, High=(decimal)268.2, Low=(decimal)262.09, Close=(decimal)266.97, Volume = (long)149994752 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-23","yyyy-MM-dd",cultureProvider), Open=264.37m, High=268.2m, Low=262.09m, Close=266.97m, Volume = (long)149994752 },</v>
       </c>
       <c r="D457" s="3">
         <v>43396</v>
@@ -15070,7 +15071,7 @@
       </c>
       <c r="C458" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-24"), Open=(decimal)266.69, High=(decimal)267.11, Low=(decimal)258.27, Close=(decimal)258.88, Volume = (long)182231472 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-24","yyyy-MM-dd",cultureProvider), Open=266.69m, High=267.11m, Low=258.27m, Close=258.88m, Volume = (long)182231472 },</v>
       </c>
       <c r="D458" s="3">
         <v>43397</v>
@@ -15100,7 +15101,7 @@
       </c>
       <c r="C459" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-25"), Open=(decimal)260.89, High=(decimal)265.21, Low=(decimal)259.77, Close=(decimal)263.52, Volume = (long)141497248 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-25","yyyy-MM-dd",cultureProvider), Open=260.89m, High=265.21m, Low=259.77m, Close=263.52m, Volume = (long)141497248 },</v>
       </c>
       <c r="D459" s="3">
         <v>43398</v>
@@ -15130,7 +15131,7 @@
       </c>
       <c r="C460" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-26"), Open=(decimal)259.46, High=(decimal)264.42, Low=(decimal)255.92, Close=(decimal)258.89, Volume = (long)206590848 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-26","yyyy-MM-dd",cultureProvider), Open=259.46m, High=264.42m, Low=255.92m, Close=258.89m, Volume = (long)206590848 },</v>
       </c>
       <c r="D460" s="3">
         <v>43399</v>
@@ -15160,7 +15161,7 @@
       </c>
       <c r="C461" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-29"), Open=(decimal)262.27, High=(decimal)263.69, Low=(decimal)253.54, Close=(decimal)257.45, Volume = (long)164749392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-29","yyyy-MM-dd",cultureProvider), Open=262.27m, High=263.69m, Low=253.54m, Close=257.45m, Volume = (long)164749392 },</v>
       </c>
       <c r="D461" s="3">
         <v>43402</v>
@@ -15190,7 +15191,7 @@
       </c>
       <c r="C462" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-30"), Open=(decimal)257.27, High=(decimal)261.61, Low=(decimal)256.73, Close=(decimal)261.27, Volume = (long)161025888 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-30","yyyy-MM-dd",cultureProvider), Open=257.27m, High=261.61m, Low=256.73m, Close=261.27m, Volume = (long)161025888 },</v>
       </c>
       <c r="D462" s="3">
         <v>43403</v>
@@ -15220,7 +15221,7 @@
       </c>
       <c r="C463" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-31"), Open=(decimal)264.08, High=(decimal)266.6, Low=(decimal)263.56, Close=(decimal)264.06, Volume = (long)131489024 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-31","yyyy-MM-dd",cultureProvider), Open=264.08m, High=266.6m, Low=263.56m, Close=264.06m, Volume = (long)131489024 },</v>
       </c>
       <c r="D463" s="3">
         <v>43404</v>
@@ -15250,7 +15251,7 @@
       </c>
       <c r="C464" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-01"), Open=(decimal)265.01, High=(decimal)267.08, Low=(decimal)263.81, Close=(decimal)266.87, Volume = (long)101971008 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-01","yyyy-MM-dd",cultureProvider), Open=265.01m, High=267.08m, Low=263.81m, Close=266.87m, Volume = (long)101971008 },</v>
       </c>
       <c r="D464" s="3">
         <v>43405</v>
@@ -15280,7 +15281,7 @@
       </c>
       <c r="C465" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-02"), Open=(decimal)268.08, High=(decimal)268.55, Low=(decimal)263.04, Close=(decimal)265.29, Volume = (long)125685896 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-02","yyyy-MM-dd",cultureProvider), Open=268.08m, High=268.55m, Low=263.04m, Close=265.29m, Volume = (long)125685896 },</v>
       </c>
       <c r="D465" s="3">
         <v>43406</v>
@@ -15310,7 +15311,7 @@
       </c>
       <c r="C466" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-05"), Open=(decimal)265.82, High=(decimal)267.36, Low=(decimal)264.76, Close=(decimal)266.75, Volume = (long)67255520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-05","yyyy-MM-dd",cultureProvider), Open=265.82m, High=267.36m, Low=264.76m, Close=266.75m, Volume = (long)67255520 },</v>
       </c>
       <c r="D466" s="3">
         <v>43409</v>
@@ -15340,7 +15341,7 @@
       </c>
       <c r="C467" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-06"), Open=(decimal)266.68, High=(decimal)268.62, Low=(decimal)266.62, Close=(decimal)268.44, Volume = (long)61581152 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-06","yyyy-MM-dd",cultureProvider), Open=266.68m, High=268.62m, Low=266.62m, Close=268.44m, Volume = (long)61581152 },</v>
       </c>
       <c r="D467" s="3">
         <v>43410</v>
@@ -15370,7 +15371,7 @@
       </c>
       <c r="C468" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-07"), Open=(decimal)270.82, High=(decimal)274.27, Low=(decimal)270.35, Close=(decimal)274.19, Volume = (long)105309120 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-07","yyyy-MM-dd",cultureProvider), Open=270.82m, High=274.27m, Low=270.35m, Close=274.19m, Volume = (long)105309120 },</v>
       </c>
       <c r="D468" s="3">
         <v>43411</v>
@@ -15400,7 +15401,7 @@
       </c>
       <c r="C469" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-08"), Open=(decimal)273.31, High=(decimal)274.39, Low=(decimal)272.44, Close=(decimal)273.69, Volume = (long)67216992 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-08","yyyy-MM-dd",cultureProvider), Open=273.31m, High=274.39m, Low=272.44m, Close=273.69m, Volume = (long)67216992 },</v>
       </c>
       <c r="D469" s="3">
         <v>43412</v>
@@ -15430,7 +15431,7 @@
       </c>
       <c r="C470" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-09"), Open=(decimal)272.25, High=(decimal)272.46, Low=(decimal)269.47, Close=(decimal)271.02, Volume = (long)101271544 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-09","yyyy-MM-dd",cultureProvider), Open=272.25m, High=272.46m, Low=269.47m, Close=271.02m, Volume = (long)101271544 },</v>
       </c>
       <c r="D470" s="3">
         <v>43413</v>
@@ -15460,7 +15461,7 @@
       </c>
       <c r="C471" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-12"), Open=(decimal)270.46, High=(decimal)270.72, Low=(decimal)265.39, Close=(decimal)265.95, Volume = (long)102153984 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-12","yyyy-MM-dd",cultureProvider), Open=270.46m, High=270.72m, Low=265.39m, Close=265.95m, Volume = (long)102153984 },</v>
       </c>
       <c r="D471" s="3">
         <v>43416</v>
@@ -15490,7 +15491,7 @@
       </c>
       <c r="C472" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-13"), Open=(decimal)266.46, High=(decimal)268.64, Low=(decimal)264.66, Close=(decimal)265.45, Volume = (long)100619768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-13","yyyy-MM-dd",cultureProvider), Open=266.46m, High=268.64m, Low=264.66m, Close=265.45m, Volume = (long)100619768 },</v>
       </c>
       <c r="D472" s="3">
         <v>43417</v>
@@ -15520,7 +15521,7 @@
       </c>
       <c r="C473" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-14"), Open=(decimal)267.5, High=(decimal)267.94, Low=(decimal)261.93, Close=(decimal)263.64, Volume = (long)128454960 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-14","yyyy-MM-dd",cultureProvider), Open=267.5m, High=267.94m, Low=261.93m, Close=263.64m, Volume = (long)128454960 },</v>
       </c>
       <c r="D473" s="3">
         <v>43418</v>
@@ -15550,7 +15551,7 @@
       </c>
       <c r="C474" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-15"), Open=(decimal)262.25, High=(decimal)266.9, Low=(decimal)260.53, Close=(decimal)266.39, Volume = (long)138463488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-15","yyyy-MM-dd",cultureProvider), Open=262.25m, High=266.9m, Low=260.53m, Close=266.39m, Volume = (long)138463488 },</v>
       </c>
       <c r="D474" s="3">
         <v>43419</v>
@@ -15580,7 +15581,7 @@
       </c>
       <c r="C475" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-16"), Open=(decimal)265.19, High=(decimal)268.08, Low=(decimal)264.62, Close=(decimal)267.08, Volume = (long)129820216 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-16","yyyy-MM-dd",cultureProvider), Open=265.19m, High=268.08m, Low=264.62m, Close=267.08m, Volume = (long)129820216 },</v>
       </c>
       <c r="D475" s="3">
         <v>43420</v>
@@ -15610,7 +15611,7 @@
       </c>
       <c r="C476" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-19"), Open=(decimal)266.42, High=(decimal)266.74, Low=(decimal)261.56, Close=(decimal)262.57, Volume = (long)105626432 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-19","yyyy-MM-dd",cultureProvider), Open=266.42m, High=266.74m, Low=261.56m, Close=262.57m, Volume = (long)105626432 },</v>
       </c>
       <c r="D476" s="3">
         <v>43423</v>
@@ -15640,7 +15641,7 @@
       </c>
       <c r="C477" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-20"), Open=(decimal)258.92, High=(decimal)260.52, Low=(decimal)256.76, Close=(decimal)257.71, Volume = (long)139406240 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-20","yyyy-MM-dd",cultureProvider), Open=258.92m, High=260.52m, Low=256.76m, Close=257.71m, Volume = (long)139406240 },</v>
       </c>
       <c r="D477" s="3">
         <v>43424</v>
@@ -15670,7 +15671,7 @@
       </c>
       <c r="C478" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-21"), Open=(decimal)259.4, High=(decimal)260.66, Low=(decimal)258.58, Close=(decimal)258.58, Volume = (long)77444168 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-21","yyyy-MM-dd",cultureProvider), Open=259.4m, High=260.66m, Low=258.58m, Close=258.58m, Volume = (long)77444168 },</v>
       </c>
       <c r="D478" s="3">
         <v>43425</v>
@@ -15700,7 +15701,7 @@
       </c>
       <c r="C479" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-23"), Open=(decimal)256.79, High=(decimal)258.39, Low=(decimal)256.68, Close=(decimal)256.86, Volume = (long)43873168 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-23","yyyy-MM-dd",cultureProvider), Open=256.79m, High=258.39m, Low=256.68m, Close=256.86m, Volume = (long)43873168 },</v>
       </c>
       <c r="D479" s="3">
         <v>43427</v>
@@ -15730,7 +15731,7 @@
       </c>
       <c r="C480" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-26"), Open=(decimal)259.33, High=(decimal)261.25, Low=(decimal)258.9, Close=(decimal)261, Volume = (long)81971728 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-26","yyyy-MM-dd",cultureProvider), Open=259.33m, High=261.25m, Low=258.9m, Close=261m, Volume = (long)81971728 },</v>
       </c>
       <c r="D480" s="3">
         <v>43430</v>
@@ -15760,7 +15761,7 @@
       </c>
       <c r="C481" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-27"), Open=(decimal)259.87, High=(decimal)261.88, Low=(decimal)259.21, Close=(decimal)261.88, Volume = (long)77381344 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-27","yyyy-MM-dd",cultureProvider), Open=259.87m, High=261.88m, Low=259.21m, Close=261.88m, Volume = (long)77381344 },</v>
       </c>
       <c r="D481" s="3">
         <v>43431</v>
@@ -15790,7 +15791,7 @@
       </c>
       <c r="C482" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-28"), Open=(decimal)263.05, High=(decimal)267.91, Low=(decimal)261.81, Close=(decimal)267.91, Volume = (long)130805744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-28","yyyy-MM-dd",cultureProvider), Open=263.05m, High=267.91m, Low=261.81m, Close=267.91m, Volume = (long)130805744 },</v>
       </c>
       <c r="D482" s="3">
         <v>43432</v>
@@ -15820,7 +15821,7 @@
       </c>
       <c r="C483" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-29"), Open=(decimal)267.06, High=(decimal)268.86, Low=(decimal)265.82, Close=(decimal)267.33, Volume = (long)84395640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-29","yyyy-MM-dd",cultureProvider), Open=267.06m, High=268.86m, Low=265.82m, Close=267.33m, Volume = (long)84395640 },</v>
       </c>
       <c r="D483" s="3">
         <v>43433</v>
@@ -15850,7 +15851,7 @@
       </c>
       <c r="C484" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-30"), Open=(decimal)267.16, High=(decimal)269.57, Low=(decimal)266.81, Close=(decimal)268.96, Volume = (long)100648032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-30","yyyy-MM-dd",cultureProvider), Open=267.16m, High=269.57m, Low=266.81m, Close=268.96m, Volume = (long)100648032 },</v>
       </c>
       <c r="D484" s="3">
         <v>43434</v>
@@ -15880,7 +15881,7 @@
       </c>
       <c r="C485" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-03"), Open=(decimal)273.47, High=(decimal)273.59, Low=(decimal)270.77, Close=(decimal)272.52, Volume = (long)105581352 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-03","yyyy-MM-dd",cultureProvider), Open=273.47m, High=273.59m, Low=270.77m, Close=272.52m, Volume = (long)105581352 },</v>
       </c>
       <c r="D485" s="3">
         <v>43437</v>
@@ -15910,7 +15911,7 @@
       </c>
       <c r="C486" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-04"), Open=(decimal)271.61, High=(decimal)272.08, Low=(decimal)263.35, Close=(decimal)263.69, Volume = (long)182415248 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-04","yyyy-MM-dd",cultureProvider), Open=271.61m, High=272.08m, Low=263.35m, Close=263.69m, Volume = (long)182415248 },</v>
       </c>
       <c r="D486" s="3">
         <v>43438</v>
@@ -15940,7 +15941,7 @@
       </c>
       <c r="C487" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-06"), Open=(decimal)259.46, High=(decimal)263.41, Low=(decimal)256.07, Close=(decimal)263.29, Volume = (long)209266640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-06","yyyy-MM-dd",cultureProvider), Open=259.46m, High=263.41m, Low=256.07m, Close=263.29m, Volume = (long)209266640 },</v>
       </c>
       <c r="D487" s="3">
         <v>43440</v>
@@ -15970,7 +15971,7 @@
       </c>
       <c r="C488" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-07"), Open=(decimal)262.92, High=(decimal)264.63, Low=(decimal)256.25, Close=(decimal)257.17, Volume = (long)165025936 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-07","yyyy-MM-dd",cultureProvider), Open=262.92m, High=264.63m, Low=256.25m, Close=257.17m, Volume = (long)165025936 },</v>
       </c>
       <c r="D488" s="3">
         <v>43441</v>
@@ -16000,7 +16001,7 @@
       </c>
       <c r="C489" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-10"), Open=(decimal)256.98, High=(decimal)258.72, Low=(decimal)252.34, Close=(decimal)257.66, Volume = (long)155214672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-10","yyyy-MM-dd",cultureProvider), Open=256.98m, High=258.72m, Low=252.34m, Close=257.66m, Volume = (long)155214672 },</v>
       </c>
       <c r="D489" s="3">
         <v>43444</v>
@@ -16030,7 +16031,7 @@
       </c>
       <c r="C490" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-11"), Open=(decimal)261.16, High=(decimal)261.37, Low=(decimal)256.11, Close=(decimal)257.72, Volume = (long)124528112 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-11","yyyy-MM-dd",cultureProvider), Open=261.16m, High=261.37m, Low=256.11m, Close=257.72m, Volume = (long)124528112 },</v>
       </c>
       <c r="D490" s="3">
         <v>43445</v>
@@ -16060,7 +16061,7 @@
       </c>
       <c r="C491" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-12"), Open=(decimal)260.98, High=(decimal)262.47, Low=(decimal)258.93, Close=(decimal)259.01, Volume = (long)100414888 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-12","yyyy-MM-dd",cultureProvider), Open=260.98m, High=262.47m, Low=258.93m, Close=259.01m, Volume = (long)100414888 },</v>
       </c>
       <c r="D491" s="3">
         <v>43446</v>
@@ -16090,7 +16091,7 @@
       </c>
       <c r="C492" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-13"), Open=(decimal)260.05, High=(decimal)260.99, Low=(decimal)257.71, Close=(decimal)258.93, Volume = (long)99068200 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-13","yyyy-MM-dd",cultureProvider), Open=260.05m, High=260.99m, Low=257.71m, Close=258.93m, Volume = (long)99068200 },</v>
       </c>
       <c r="D492" s="3">
         <v>43447</v>
@@ -16120,7 +16121,7 @@
       </c>
       <c r="C493" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-14"), Open=(decimal)256.58, High=(decimal)257.62, Low=(decimal)253.54, Close=(decimal)254.15, Volume = (long)119871688 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-14","yyyy-MM-dd",cultureProvider), Open=256.58m, High=257.62m, Low=253.54m, Close=254.15m, Volume = (long)119871688 },</v>
       </c>
       <c r="D493" s="3">
         <v>43448</v>
@@ -16150,7 +16151,7 @@
       </c>
       <c r="C494" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-17"), Open=(decimal)253.1, High=(decimal)254.32, Low=(decimal)247.37, Close=(decimal)249.16, Volume = (long)169610592 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-17","yyyy-MM-dd",cultureProvider), Open=253.1m, High=254.32m, Low=247.37m, Close=249.16m, Volume = (long)169610592 },</v>
       </c>
       <c r="D494" s="3">
         <v>43451</v>
@@ -16180,7 +16181,7 @@
       </c>
       <c r="C495" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-18"), Open=(decimal)250.95, High=(decimal)251.69, Low=(decimal)247.13, Close=(decimal)248.89, Volume = (long)137862544 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-18","yyyy-MM-dd",cultureProvider), Open=250.95m, High=251.69m, Low=247.13m, Close=248.89m, Volume = (long)137862544 },</v>
       </c>
       <c r="D495" s="3">
         <v>43452</v>
@@ -16210,7 +16211,7 @@
       </c>
       <c r="C496" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-19"), Open=(decimal)248.97, High=(decimal)253.1, Low=(decimal)243.3, Close=(decimal)245.16, Volume = (long)220342928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-19","yyyy-MM-dd",cultureProvider), Open=248.97m, High=253.1m, Low=243.3m, Close=245.16m, Volume = (long)220342928 },</v>
       </c>
       <c r="D496" s="3">
         <v>43453</v>
@@ -16240,7 +16241,7 @@
       </c>
       <c r="C497" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-20"), Open=(decimal)243.79, High=(decimal)245.51, Low=(decimal)238.71, Close=(decimal)241.17, Volume = (long)258325808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-20","yyyy-MM-dd",cultureProvider), Open=243.79m, High=245.51m, Low=238.71m, Close=241.17m, Volume = (long)258325808 },</v>
       </c>
       <c r="D497" s="3">
         <v>43454</v>
@@ -16270,7 +16271,7 @@
       </c>
       <c r="C498" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-21"), Open=(decimal)242.16, High=(decimal)245.07, Low=(decimal)235.52, Close=(decimal)236.23, Volume = (long)260180208 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-21","yyyy-MM-dd",cultureProvider), Open=242.16m, High=245.07m, Low=235.52m, Close=236.23m, Volume = (long)260180208 },</v>
       </c>
       <c r="D498" s="3">
         <v>43455</v>
@@ -16300,7 +16301,7 @@
       </c>
       <c r="C499" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-24"), Open=(decimal)234.6, High=(decimal)236.36, Low=(decimal)229.92, Close=(decimal)229.99, Volume = (long)150100704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-24","yyyy-MM-dd",cultureProvider), Open=234.6m, High=236.36m, Low=229.92m, Close=229.99m, Volume = (long)150100704 },</v>
       </c>
       <c r="D499" s="3">
         <v>43458</v>
@@ -16330,7 +16331,7 @@
       </c>
       <c r="C500" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-26"), Open=(decimal)231.59, High=(decimal)241.61, Low=(decimal)229.42, Close=(decimal)241.61, Volume = (long)222622048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-26","yyyy-MM-dd",cultureProvider), Open=231.59m, High=241.61m, Low=229.42m, Close=241.61m, Volume = (long)222622048 },</v>
       </c>
       <c r="D500" s="3">
         <v>43460</v>
@@ -16360,7 +16361,7 @@
       </c>
       <c r="C501" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-27"), Open=(decimal)238.06, High=(decimal)243.68, Low=(decimal)234.52, Close=(decimal)243.46, Volume = (long)189794032 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-27","yyyy-MM-dd",cultureProvider), Open=238.06m, High=243.68m, Low=234.52m, Close=243.46m, Volume = (long)189794032 },</v>
       </c>
       <c r="D501" s="3">
         <v>43461</v>
@@ -16390,7 +16391,7 @@
       </c>
       <c r="C502" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-28"), Open=(decimal)244.94, High=(decimal)246.73, Low=(decimal)241.87, Close=(decimal)243.15, Volume = (long)155998912 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-28","yyyy-MM-dd",cultureProvider), Open=244.94m, High=246.73m, Low=241.87m, Close=243.15m, Volume = (long)155998912 },</v>
       </c>
       <c r="D502" s="3">
         <v>43462</v>
@@ -16420,7 +16421,7 @@
       </c>
       <c r="C503" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-31"), Open=(decimal)244.92, High=(decimal)245.54, Low=(decimal)242.87, Close=(decimal)245.28, Volume = (long)147031456 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-31","yyyy-MM-dd",cultureProvider), Open=244.92m, High=245.54m, Low=242.87m, Close=245.28m, Volume = (long)147031456 },</v>
       </c>
       <c r="D503" s="3">
         <v>43465</v>
@@ -16454,15 +16455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7630873F-3BDF-4DA1-B97F-C7D7B8DB4198}">
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="157.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
     <col min="5" max="8" width="10.7109375" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
@@ -16508,8 +16507,8 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f t="shared" ref="C2:C65" si="0">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E2&amp;", High=(decimal)"&amp;F2&amp;", Low=(decimal)"&amp;G2&amp;", Close=(decimal)"&amp;H2&amp;", Volume = (long)"&amp;I2&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-01-03"), Open=(decimal)214.86, High=(decimal)220.33, Low=(decimal)210.96, Close=(decimal)216.99, Volume = (long)5923254 },</v>
+        <f t="shared" ref="C2:C65" si="0">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D2,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E2&amp;"m, High="&amp;F2&amp;"m, Low="&amp;G2&amp;"m, Close="&amp;H2&amp;"m, Volume = (long)"&amp;I2&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-03","yyyy-MM-dd",cultureProvider), Open=214.86m, High=220.33m, Low=210.96m, Close=216.99m, Volume = (long)5923254 },</v>
       </c>
       <c r="D2" s="3">
         <v>42738</v>
@@ -16542,7 +16541,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-04"), Open=(decimal)214.75, High=(decimal)228, Low=(decimal)214.31, Close=(decimal)226.99, Volume = (long)11213471 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-04","yyyy-MM-dd",cultureProvider), Open=214.75m, High=228m, Low=214.31m, Close=226.99m, Volume = (long)11213471 },</v>
       </c>
       <c r="D3" s="3">
         <v>42739</v>
@@ -16572,7 +16571,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-05"), Open=(decimal)226.42, High=(decimal)227.48, Low=(decimal)221.95, Close=(decimal)226.75, Volume = (long)5911695 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-05","yyyy-MM-dd",cultureProvider), Open=226.42m, High=227.48m, Low=221.95m, Close=226.75m, Volume = (long)5911695 },</v>
       </c>
       <c r="D4" s="3">
         <v>42740</v>
@@ -16602,7 +16601,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-06"), Open=(decimal)226.93, High=(decimal)230.31, Low=(decimal)225.45, Close=(decimal)229.01, Volume = (long)5527893 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-06","yyyy-MM-dd",cultureProvider), Open=226.93m, High=230.31m, Low=225.45m, Close=229.01m, Volume = (long)5527893 },</v>
       </c>
       <c r="D5" s="3">
         <v>42741</v>
@@ -16632,7 +16631,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-09"), Open=(decimal)228.97, High=(decimal)231.92, Low=(decimal)228, Close=(decimal)231.28, Volume = (long)3979484 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-09","yyyy-MM-dd",cultureProvider), Open=228.97m, High=231.92m, Low=228m, Close=231.28m, Volume = (long)3979484 },</v>
       </c>
       <c r="D6" s="3">
         <v>42744</v>
@@ -16662,7 +16661,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-10"), Open=(decimal)232, High=(decimal)232, Low=(decimal)226.89, Close=(decimal)229.87, Volume = (long)3659955 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-10","yyyy-MM-dd",cultureProvider), Open=232m, High=232m, Low=226.89m, Close=229.87m, Volume = (long)3659955 },</v>
       </c>
       <c r="D7" s="3">
         <v>42745</v>
@@ -16692,7 +16691,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-11"), Open=(decimal)229.07, High=(decimal)229.98, Low=(decimal)226.68, Close=(decimal)229.73, Volume = (long)3650825 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-11","yyyy-MM-dd",cultureProvider), Open=229.07m, High=229.98m, Low=226.68m, Close=229.73m, Volume = (long)3650825 },</v>
       </c>
       <c r="D8" s="3">
         <v>42746</v>
@@ -16722,7 +16721,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-12"), Open=(decimal)229.06, High=(decimal)230.7, Low=(decimal)225.58, Close=(decimal)229.59, Volume = (long)3790229 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-12","yyyy-MM-dd",cultureProvider), Open=229.06m, High=230.7m, Low=225.58m, Close=229.59m, Volume = (long)3790229 },</v>
       </c>
       <c r="D9" s="3">
         <v>42747</v>
@@ -16752,7 +16751,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-13"), Open=(decimal)230, High=(decimal)237.85, Low=(decimal)229.59, Close=(decimal)237.75, Volume = (long)6092960 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-13","yyyy-MM-dd",cultureProvider), Open=230m, High=237.85m, Low=229.59m, Close=237.75m, Volume = (long)6092960 },</v>
       </c>
       <c r="D10" s="3">
         <v>42748</v>
@@ -16782,7 +16781,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-17"), Open=(decimal)236.7, High=(decimal)239.96, Low=(decimal)234.37, Close=(decimal)235.58, Volume = (long)4617522 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-17","yyyy-MM-dd",cultureProvider), Open=236.7m, High=239.96m, Low=234.37m, Close=235.58m, Volume = (long)4617522 },</v>
       </c>
       <c r="D11" s="3">
         <v>42752</v>
@@ -16812,7 +16811,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-18"), Open=(decimal)236.65, High=(decimal)239.71, Low=(decimal)235.58, Close=(decimal)238.36, Volume = (long)3768967 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-18","yyyy-MM-dd",cultureProvider), Open=236.65m, High=239.71m, Low=235.58m, Close=238.36m, Volume = (long)3768967 },</v>
       </c>
       <c r="D12" s="3">
         <v>42753</v>
@@ -16842,7 +16841,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-19"), Open=(decimal)247.25, High=(decimal)248.68, Low=(decimal)240.75, Close=(decimal)243.76, Volume = (long)7732303 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-19","yyyy-MM-dd",cultureProvider), Open=247.25m, High=248.68m, Low=240.75m, Close=243.76m, Volume = (long)7732303 },</v>
       </c>
       <c r="D13" s="3">
         <v>42754</v>
@@ -16872,7 +16871,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-20"), Open=(decimal)245.46, High=(decimal)246, Low=(decimal)243.01, Close=(decimal)244.73, Volume = (long)4204275 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-20","yyyy-MM-dd",cultureProvider), Open=245.46m, High=246m, Low=243.01m, Close=244.73m, Volume = (long)4204275 },</v>
       </c>
       <c r="D14" s="3">
         <v>42755</v>
@@ -16902,7 +16901,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-23"), Open=(decimal)245.85, High=(decimal)250.89, Low=(decimal)245.5, Close=(decimal)248.92, Volume = (long)6262938 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-23","yyyy-MM-dd",cultureProvider), Open=245.85m, High=250.89m, Low=245.5m, Close=248.92m, Volume = (long)6262938 },</v>
       </c>
       <c r="D15" s="3">
         <v>42758</v>
@@ -16932,7 +16931,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-24"), Open=(decimal)250, High=(decimal)254.8, Low=(decimal)249.65, Close=(decimal)254.61, Volume = (long)4965451 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-24","yyyy-MM-dd",cultureProvider), Open=250m, High=254.8m, Low=249.65m, Close=254.61m, Volume = (long)4965451 },</v>
       </c>
       <c r="D16" s="3">
         <v>42759</v>
@@ -16962,7 +16961,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-25"), Open=(decimal)257.31, High=(decimal)258.46, Low=(decimal)251.8, Close=(decimal)254.47, Volume = (long)5146361 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-25","yyyy-MM-dd",cultureProvider), Open=257.31m, High=258.46m, Low=251.8m, Close=254.47m, Volume = (long)5146361 },</v>
       </c>
       <c r="D17" s="3">
         <v>42760</v>
@@ -16992,7 +16991,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-26"), Open=(decimal)254.29, High=(decimal)255.74, Low=(decimal)250.75, Close=(decimal)252.51, Volume = (long)3152123 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-26","yyyy-MM-dd",cultureProvider), Open=254.29m, High=255.74m, Low=250.75m, Close=252.51m, Volume = (long)3152123 },</v>
       </c>
       <c r="D18" s="3">
         <v>42761</v>
@@ -17022,7 +17021,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-27"), Open=(decimal)251.38, High=(decimal)253, Low=(decimal)248.52, Close=(decimal)252.95, Volume = (long)3166336 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-27","yyyy-MM-dd",cultureProvider), Open=251.38m, High=253m, Low=248.52m, Close=252.95m, Volume = (long)3166336 },</v>
       </c>
       <c r="D19" s="3">
         <v>42762</v>
@@ -17052,7 +17051,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-30"), Open=(decimal)252.53, High=(decimal)255.29, Low=(decimal)247.1, Close=(decimal)250.63, Volume = (long)3801074 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-30","yyyy-MM-dd",cultureProvider), Open=252.53m, High=255.29m, Low=247.1m, Close=250.63m, Volume = (long)3801074 },</v>
       </c>
       <c r="D20" s="3">
         <v>42765</v>
@@ -17082,7 +17081,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-01-31"), Open=(decimal)249.24, High=(decimal)255.89, Low=(decimal)247.7, Close=(decimal)251.93, Volume = (long)4116104 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-01-31","yyyy-MM-dd",cultureProvider), Open=249.24m, High=255.89m, Low=247.7m, Close=251.93m, Volume = (long)4116104 },</v>
       </c>
       <c r="D21" s="3">
         <v>42766</v>
@@ -17112,7 +17111,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-01"), Open=(decimal)253.05, High=(decimal)253.2, Low=(decimal)249.05, Close=(decimal)249.24, Volume = (long)3958829 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-01","yyyy-MM-dd",cultureProvider), Open=253.05m, High=253.2m, Low=249.05m, Close=249.24m, Volume = (long)3958829 },</v>
       </c>
       <c r="D22" s="3">
         <v>42767</v>
@@ -17142,7 +17141,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-02"), Open=(decimal)248.34, High=(decimal)252.42, Low=(decimal)247.71, Close=(decimal)251.55, Volume = (long)2499775 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-02","yyyy-MM-dd",cultureProvider), Open=248.34m, High=252.42m, Low=247.71m, Close=251.55m, Volume = (long)2499775 },</v>
       </c>
       <c r="D23" s="3">
         <v>42768</v>
@@ -17172,7 +17171,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-03"), Open=(decimal)251.91, High=(decimal)252.18, Low=(decimal)249.68, Close=(decimal)251.33, Volume = (long)2186723 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-03","yyyy-MM-dd",cultureProvider), Open=251.91m, High=252.18m, Low=249.68m, Close=251.33m, Volume = (long)2186723 },</v>
       </c>
       <c r="D24" s="3">
         <v>42769</v>
@@ -17202,7 +17201,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-06"), Open=(decimal)251, High=(decimal)257.82, Low=(decimal)250.63, Close=(decimal)257.77, Volume = (long)3562517 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-06","yyyy-MM-dd",cultureProvider), Open=251m, High=257.82m, Low=250.63m, Close=257.77m, Volume = (long)3562517 },</v>
       </c>
       <c r="D25" s="3">
         <v>42772</v>
@@ -17232,7 +17231,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-07"), Open=(decimal)258.19, High=(decimal)260, Low=(decimal)256.42, Close=(decimal)257.48, Volume = (long)4244775 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-07","yyyy-MM-dd",cultureProvider), Open=258.19m, High=260m, Low=256.42m, Close=257.48m, Volume = (long)4244775 },</v>
       </c>
       <c r="D26" s="3">
         <v>42773</v>
@@ -17262,7 +17261,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-08"), Open=(decimal)257.35, High=(decimal)263.36, Low=(decimal)256.2, Close=(decimal)262.08, Volume = (long)3933014 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-08","yyyy-MM-dd",cultureProvider), Open=257.35m, High=263.36m, Low=256.2m, Close=262.08m, Volume = (long)3933014 },</v>
       </c>
       <c r="D27" s="3">
         <v>42774</v>
@@ -17292,7 +17291,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-09"), Open=(decimal)266.25, High=(decimal)271.18, Low=(decimal)266.15, Close=(decimal)269.2, Volume = (long)7820222 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-09","yyyy-MM-dd",cultureProvider), Open=266.25m, High=271.18m, Low=266.15m, Close=269.2m, Volume = (long)7820222 },</v>
       </c>
       <c r="D28" s="3">
         <v>42775</v>
@@ -17322,7 +17321,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-10"), Open=(decimal)269.79, High=(decimal)270.95, Low=(decimal)266.11, Close=(decimal)269.23, Volume = (long)3619739 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-10","yyyy-MM-dd",cultureProvider), Open=269.79m, High=270.95m, Low=266.11m, Close=269.23m, Volume = (long)3619739 },</v>
       </c>
       <c r="D29" s="3">
         <v>42776</v>
@@ -17352,7 +17351,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-13"), Open=(decimal)270.74, High=(decimal)280.79, Low=(decimal)270.51, Close=(decimal)280.6, Volume = (long)7029605 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-13","yyyy-MM-dd",cultureProvider), Open=270.74m, High=280.79m, Low=270.51m, Close=280.6m, Volume = (long)7029605 },</v>
       </c>
       <c r="D30" s="3">
         <v>42779</v>
@@ -17382,7 +17381,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-14"), Open=(decimal)279.03, High=(decimal)287.39, Low=(decimal)278.61, Close=(decimal)280.98, Volume = (long)7345224 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-14","yyyy-MM-dd",cultureProvider), Open=279.03m, High=287.39m, Low=278.61m, Close=280.98m, Volume = (long)7345224 },</v>
       </c>
       <c r="D31" s="3">
         <v>42780</v>
@@ -17412,7 +17411,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-15"), Open=(decimal)280, High=(decimal)282.24, Low=(decimal)276.44, Close=(decimal)279.76, Volume = (long)4947856 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-15","yyyy-MM-dd",cultureProvider), Open=280m, High=282.24m, Low=276.44m, Close=279.76m, Volume = (long)4947856 },</v>
       </c>
       <c r="D32" s="3">
         <v>42781</v>
@@ -17442,7 +17441,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-16"), Open=(decimal)277.6, High=(decimal)280, Low=(decimal)268.5, Close=(decimal)268.95, Volume = (long)7077322 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-16","yyyy-MM-dd",cultureProvider), Open=277.6m, High=280m, Low=268.5m, Close=268.95m, Volume = (long)7077322 },</v>
       </c>
       <c r="D33" s="3">
         <v>42782</v>
@@ -17472,7 +17471,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-17"), Open=(decimal)265.8, High=(decimal)272.89, Low=(decimal)264.15, Close=(decimal)272.23, Volume = (long)6257149 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-17","yyyy-MM-dd",cultureProvider), Open=265.8m, High=272.89m, Low=264.15m, Close=272.23m, Volume = (long)6257149 },</v>
       </c>
       <c r="D34" s="3">
         <v>42783</v>
@@ -17502,7 +17501,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-21"), Open=(decimal)275.45, High=(decimal)281.4, Low=(decimal)274.01, Close=(decimal)277.39, Volume = (long)5676747 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-21","yyyy-MM-dd",cultureProvider), Open=275.45m, High=281.4m, Low=274.01m, Close=277.39m, Volume = (long)5676747 },</v>
       </c>
       <c r="D35" s="3">
         <v>42787</v>
@@ -17532,7 +17531,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-22"), Open=(decimal)280.31, High=(decimal)283.45, Low=(decimal)272.6, Close=(decimal)273.51, Volume = (long)8754975 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-22","yyyy-MM-dd",cultureProvider), Open=280.31m, High=283.45m, Low=272.6m, Close=273.51m, Volume = (long)8754975 },</v>
       </c>
       <c r="D36" s="3">
         <v>42788</v>
@@ -17562,7 +17561,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-23"), Open=(decimal)264, High=(decimal)264.66, Low=(decimal)255.56, Close=(decimal)255.99, Volume = (long)14915249 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-23","yyyy-MM-dd",cultureProvider), Open=264m, High=264.66m, Low=255.56m, Close=255.99m, Volume = (long)14915249 },</v>
       </c>
       <c r="D37" s="3">
         <v>42789</v>
@@ -17592,7 +17591,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-24"), Open=(decimal)252.66, High=(decimal)258.25, Low=(decimal)250.2, Close=(decimal)257, Volume = (long)8171626 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-24","yyyy-MM-dd",cultureProvider), Open=252.66m, High=258.25m, Low=250.2m, Close=257m, Volume = (long)8171626 },</v>
       </c>
       <c r="D38" s="3">
         <v>42790</v>
@@ -17622,7 +17621,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-27"), Open=(decimal)248.17, High=(decimal)248.36, Low=(decimal)242.01, Close=(decimal)246.23, Volume = (long)11460810 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-27","yyyy-MM-dd",cultureProvider), Open=248.17m, High=248.36m, Low=242.01m, Close=246.23m, Volume = (long)11460810 },</v>
       </c>
       <c r="D39" s="3">
         <v>42793</v>
@@ -17652,7 +17651,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-02-28"), Open=(decimal)244.19, High=(decimal)251, Low=(decimal)243.9, Close=(decimal)249.99, Volume = (long)6078145 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-02-28","yyyy-MM-dd",cultureProvider), Open=244.19m, High=251m, Low=243.9m, Close=249.99m, Volume = (long)6078145 },</v>
       </c>
       <c r="D40" s="3">
         <v>42794</v>
@@ -17682,7 +17681,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-01"), Open=(decimal)254.18, High=(decimal)254.85, Low=(decimal)249.11, Close=(decimal)250.02, Volume = (long)4809488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-01","yyyy-MM-dd",cultureProvider), Open=254.18m, High=254.85m, Low=249.11m, Close=250.02m, Volume = (long)4809488 },</v>
       </c>
       <c r="D41" s="3">
         <v>42795</v>
@@ -17712,7 +17711,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-02"), Open=(decimal)249.71, High=(decimal)253.28, Low=(decimal)248.27, Close=(decimal)250.48, Volume = (long)3351833 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-02","yyyy-MM-dd",cultureProvider), Open=249.71m, High=253.28m, Low=248.27m, Close=250.48m, Volume = (long)3351833 },</v>
       </c>
       <c r="D42" s="3">
         <v>42796</v>
@@ -17742,7 +17741,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-03"), Open=(decimal)250.74, High=(decimal)251.9, Low=(decimal)249, Close=(decimal)251.57, Volume = (long)2929234 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-03","yyyy-MM-dd",cultureProvider), Open=250.74m, High=251.9m, Low=249m, Close=251.57m, Volume = (long)2929234 },</v>
       </c>
       <c r="D43" s="3">
         <v>42797</v>
@@ -17772,7 +17771,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-06"), Open=(decimal)247.91, High=(decimal)251.7, Low=(decimal)247.51, Close=(decimal)251.21, Volume = (long)3355500 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-06","yyyy-MM-dd",cultureProvider), Open=247.91m, High=251.7m, Low=247.51m, Close=251.21m, Volume = (long)3355500 },</v>
       </c>
       <c r="D44" s="3">
         <v>42800</v>
@@ -17802,7 +17801,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-07"), Open=(decimal)251.92, High=(decimal)253.89, Low=(decimal)248.32, Close=(decimal)248.59, Volume = (long)3459470 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-07","yyyy-MM-dd",cultureProvider), Open=251.92m, High=253.89m, Low=248.32m, Close=248.59m, Volume = (long)3459470 },</v>
       </c>
       <c r="D45" s="3">
         <v>42801</v>
@@ -17832,7 +17831,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-08"), Open=(decimal)247, High=(decimal)250.07, Low=(decimal)245.32, Close=(decimal)246.87, Volume = (long)3728649 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-08","yyyy-MM-dd",cultureProvider), Open=247m, High=250.07m, Low=245.32m, Close=246.87m, Volume = (long)3728649 },</v>
       </c>
       <c r="D46" s="3">
         <v>42802</v>
@@ -17862,7 +17861,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-09"), Open=(decimal)247.63, High=(decimal)248.66, Low=(decimal)243, Close=(decimal)244.9, Volume = (long)3879293 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-09","yyyy-MM-dd",cultureProvider), Open=247.63m, High=248.66m, Low=243m, Close=244.9m, Volume = (long)3879293 },</v>
       </c>
       <c r="D47" s="3">
         <v>42803</v>
@@ -17892,7 +17891,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-10"), Open=(decimal)246.21, High=(decimal)246.5, Low=(decimal)243, Close=(decimal)243.69, Volume = (long)3066272 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-10","yyyy-MM-dd",cultureProvider), Open=246.21m, High=246.5m, Low=243m, Close=243.69m, Volume = (long)3066272 },</v>
       </c>
       <c r="D48" s="3">
         <v>42804</v>
@@ -17922,7 +17921,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-13"), Open=(decimal)244.82, High=(decimal)246.85, Low=(decimal)242.78, Close=(decimal)246.17, Volume = (long)3022625 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-13","yyyy-MM-dd",cultureProvider), Open=244.82m, High=246.85m, Low=242.78m, Close=246.17m, Volume = (long)3022625 },</v>
       </c>
       <c r="D49" s="3">
         <v>42807</v>
@@ -17952,7 +17951,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-14"), Open=(decimal)246.11, High=(decimal)258.12, Low=(decimal)246.02, Close=(decimal)258, Volume = (long)7598446 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-14","yyyy-MM-dd",cultureProvider), Open=246.11m, High=258.12m, Low=246.02m, Close=258m, Volume = (long)7598446 },</v>
       </c>
       <c r="D50" s="3">
         <v>42808</v>
@@ -17982,7 +17981,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-15"), Open=(decimal)257, High=(decimal)261, Low=(decimal)254.27, Close=(decimal)255.73, Volume = (long)5330806 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-15","yyyy-MM-dd",cultureProvider), Open=257m, High=261m, Low=254.27m, Close=255.73m, Volume = (long)5330806 },</v>
       </c>
       <c r="D51" s="3">
         <v>42809</v>
@@ -18012,7 +18011,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-16"), Open=(decimal)262.4, High=(decimal)265.75, Low=(decimal)259.06, Close=(decimal)262.05, Volume = (long)7132153 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-16","yyyy-MM-dd",cultureProvider), Open=262.4m, High=265.75m, Low=259.06m, Close=262.05m, Volume = (long)7132153 },</v>
       </c>
       <c r="D52" s="3">
         <v>42810</v>
@@ -18042,7 +18041,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-17"), Open=(decimal)264, High=(decimal)265.33, Low=(decimal)261.2, Close=(decimal)261.5, Volume = (long)6497496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-17","yyyy-MM-dd",cultureProvider), Open=264m, High=265.33m, Low=261.2m, Close=261.5m, Volume = (long)6497496 },</v>
       </c>
       <c r="D53" s="3">
         <v>42811</v>
@@ -18072,7 +18071,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-20"), Open=(decimal)260.6, High=(decimal)264.55, Low=(decimal)258.82, Close=(decimal)261.92, Volume = (long)3614294 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-20","yyyy-MM-dd",cultureProvider), Open=260.6m, High=264.55m, Low=258.82m, Close=261.92m, Volume = (long)3614294 },</v>
       </c>
       <c r="D54" s="3">
         <v>42814</v>
@@ -18102,7 +18101,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-21"), Open=(decimal)262.83, High=(decimal)264.8, Low=(decimal)250.24, Close=(decimal)250.68, Volume = (long)6908554 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-21","yyyy-MM-dd",cultureProvider), Open=262.83m, High=264.8m, Low=250.24m, Close=250.68m, Volume = (long)6908554 },</v>
       </c>
       <c r="D55" s="3">
         <v>42815</v>
@@ -18132,7 +18131,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-22"), Open=(decimal)251.56, High=(decimal)255.07, Low=(decimal)250.51, Close=(decimal)255.01, Volume = (long)4059297 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-22","yyyy-MM-dd",cultureProvider), Open=251.56m, High=255.07m, Low=250.51m, Close=255.01m, Volume = (long)4059297 },</v>
       </c>
       <c r="D56" s="3">
         <v>42816</v>
@@ -18162,7 +18161,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-23"), Open=(decimal)255.39, High=(decimal)257.67, Low=(decimal)253.3, Close=(decimal)254.78, Volume = (long)3320245 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-23","yyyy-MM-dd",cultureProvider), Open=255.39m, High=257.67m, Low=253.3m, Close=254.78m, Volume = (long)3320245 },</v>
       </c>
       <c r="D57" s="3">
         <v>42817</v>
@@ -18192,7 +18191,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-24"), Open=(decimal)255.7, High=(decimal)263.89, Low=(decimal)255.01, Close=(decimal)263.16, Volume = (long)5647253 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-24","yyyy-MM-dd",cultureProvider), Open=255.7m, High=263.89m, Low=255.01m, Close=263.16m, Volume = (long)5647253 },</v>
       </c>
       <c r="D58" s="3">
         <v>42818</v>
@@ -18222,7 +18221,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-27"), Open=(decimal)260.6, High=(decimal)270.57, Low=(decimal)259.75, Close=(decimal)270.22, Volume = (long)6230795 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-27","yyyy-MM-dd",cultureProvider), Open=260.6m, High=270.57m, Low=259.75m, Close=270.22m, Volume = (long)6230795 },</v>
       </c>
       <c r="D59" s="3">
         <v>42821</v>
@@ -18252,7 +18251,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-28"), Open=(decimal)277.02, High=(decimal)280.68, Low=(decimal)275, Close=(decimal)277.45, Volume = (long)7987604 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-28","yyyy-MM-dd",cultureProvider), Open=277.02m, High=280.68m, Low=275m, Close=277.45m, Volume = (long)7987604 },</v>
       </c>
       <c r="D60" s="3">
         <v>42822</v>
@@ -18282,7 +18281,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-29"), Open=(decimal)278.34, High=(decimal)279.6, Low=(decimal)275.54, Close=(decimal)277.38, Volume = (long)3676157 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-29","yyyy-MM-dd",cultureProvider), Open=278.34m, High=279.6m, Low=275.54m, Close=277.38m, Volume = (long)3676157 },</v>
       </c>
       <c r="D61" s="3">
         <v>42823</v>
@@ -18312,7 +18311,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-30"), Open=(decimal)278.04, High=(decimal)282, Low=(decimal)277.21, Close=(decimal)277.92, Volume = (long)4148426 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-30","yyyy-MM-dd",cultureProvider), Open=278.04m, High=282m, Low=277.21m, Close=277.92m, Volume = (long)4148426 },</v>
       </c>
       <c r="D62" s="3">
         <v>42824</v>
@@ -18342,7 +18341,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-03-31"), Open=(decimal)278.73, High=(decimal)279.68, Low=(decimal)276.32, Close=(decimal)278.3, Volume = (long)3294640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-03-31","yyyy-MM-dd",cultureProvider), Open=278.73m, High=279.68m, Low=276.32m, Close=278.3m, Volume = (long)3294640 },</v>
       </c>
       <c r="D63" s="3">
         <v>42825</v>
@@ -18372,7 +18371,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-03"), Open=(decimal)286.9, High=(decimal)299, Low=(decimal)284.58, Close=(decimal)298.52, Volume = (long)13888618 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-03","yyyy-MM-dd",cultureProvider), Open=286.9m, High=299m, Low=284.58m, Close=298.52m, Volume = (long)13888618 },</v>
       </c>
       <c r="D64" s="3">
         <v>42828</v>
@@ -18402,7 +18401,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-04"), Open=(decimal)296.89, High=(decimal)304.81, Low=(decimal)294.53, Close=(decimal)303.7, Volume = (long)10134556 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-04","yyyy-MM-dd",cultureProvider), Open=296.89m, High=304.81m, Low=294.53m, Close=303.7m, Volume = (long)10134556 },</v>
       </c>
       <c r="D65" s="3">
         <v>42829</v>
@@ -18431,8 +18430,8 @@
         <v>9</v>
       </c>
       <c r="C66" s="5" t="str">
-        <f t="shared" ref="C66:C129" si="1">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D66,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E66&amp;", High=(decimal)"&amp;F66&amp;", Low=(decimal)"&amp;G66&amp;", Close=(decimal)"&amp;H66&amp;", Volume = (long)"&amp;I66&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-04-05"), Open=(decimal)302.04, High=(decimal)304.88, Low=(decimal)294.2, Close=(decimal)295, Volume = (long)7880938 },</v>
+        <f t="shared" ref="C66:C129" si="1">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D66,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E66&amp;"m, High="&amp;F66&amp;"m, Low="&amp;G66&amp;"m, Close="&amp;H66&amp;"m, Volume = (long)"&amp;I66&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-05","yyyy-MM-dd",cultureProvider), Open=302.04m, High=304.88m, Low=294.2m, Close=295m, Volume = (long)7880938 },</v>
       </c>
       <c r="D66" s="3">
         <v>42830</v>
@@ -18462,7 +18461,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-06"), Open=(decimal)296.88, High=(decimal)301.94, Low=(decimal)294.1, Close=(decimal)298.7, Volume = (long)5520588 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-06","yyyy-MM-dd",cultureProvider), Open=296.88m, High=301.94m, Low=294.1m, Close=298.7m, Volume = (long)5520588 },</v>
       </c>
       <c r="D67" s="3">
         <v>42831</v>
@@ -18492,7 +18491,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-07"), Open=(decimal)297.5, High=(decimal)302.69, Low=(decimal)297.15, Close=(decimal)302.54, Volume = (long)4579613 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-07","yyyy-MM-dd",cultureProvider), Open=297.5m, High=302.69m, Low=297.15m, Close=302.54m, Volume = (long)4579613 },</v>
       </c>
       <c r="D68" s="3">
         <v>42832</v>
@@ -18522,7 +18521,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-10"), Open=(decimal)309.15, High=(decimal)313.73, Low=(decimal)308.71, Close=(decimal)312.39, Volume = (long)7664458 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-10","yyyy-MM-dd",cultureProvider), Open=309.15m, High=313.73m, Low=308.71m, Close=312.39m, Volume = (long)7664458 },</v>
       </c>
       <c r="D69" s="3">
         <v>42835</v>
@@ -18552,7 +18551,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-11"), Open=(decimal)313.38, High=(decimal)313.47, Low=(decimal)305.5, Close=(decimal)308.71, Volume = (long)5724577 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-11","yyyy-MM-dd",cultureProvider), Open=313.38m, High=313.47m, Low=305.5m, Close=308.71m, Volume = (long)5724577 },</v>
       </c>
       <c r="D70" s="3">
         <v>42836</v>
@@ -18582,7 +18581,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-12"), Open=(decimal)306.34, High=(decimal)308.45, Low=(decimal)296.32, Close=(decimal)296.84, Volume = (long)6050682 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-12","yyyy-MM-dd",cultureProvider), Open=306.34m, High=308.45m, Low=296.32m, Close=296.84m, Volume = (long)6050682 },</v>
       </c>
       <c r="D71" s="3">
         <v>42837</v>
@@ -18612,7 +18611,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-13"), Open=(decimal)296.7, High=(decimal)307.39, Low=(decimal)295.3, Close=(decimal)304, Volume = (long)9284634 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-13","yyyy-MM-dd",cultureProvider), Open=296.7m, High=307.39m, Low=295.3m, Close=304m, Volume = (long)9284634 },</v>
       </c>
       <c r="D72" s="3">
         <v>42838</v>
@@ -18642,7 +18641,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-17"), Open=(decimal)302.7, High=(decimal)304, Low=(decimal)298.68, Close=(decimal)301.44, Volume = (long)4138736 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-17","yyyy-MM-dd",cultureProvider), Open=302.7m, High=304m, Low=298.68m, Close=301.44m, Volume = (long)4138736 },</v>
       </c>
       <c r="D73" s="3">
         <v>42842</v>
@@ -18672,7 +18671,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-18"), Open=(decimal)299.7, High=(decimal)300.84, Low=(decimal)297.9, Close=(decimal)300.25, Volume = (long)3035698 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-18","yyyy-MM-dd",cultureProvider), Open=299.7m, High=300.84m, Low=297.9m, Close=300.25m, Volume = (long)3035698 },</v>
       </c>
       <c r="D74" s="3">
         <v>42843</v>
@@ -18702,7 +18701,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-19"), Open=(decimal)302.46, High=(decimal)306.62, Low=(decimal)302.11, Close=(decimal)305.52, Volume = (long)3898024 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-19","yyyy-MM-dd",cultureProvider), Open=302.46m, High=306.62m, Low=302.11m, Close=305.52m, Volume = (long)3898024 },</v>
       </c>
       <c r="D75" s="3">
         <v>42844</v>
@@ -18732,7 +18731,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-20"), Open=(decimal)306.51, High=(decimal)309.15, Low=(decimal)300.23, Close=(decimal)302.51, Volume = (long)6149352 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-20","yyyy-MM-dd",cultureProvider), Open=306.51m, High=309.15m, Low=300.23m, Close=302.51m, Volume = (long)6149352 },</v>
       </c>
       <c r="D76" s="3">
         <v>42845</v>
@@ -18762,7 +18761,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-21"), Open=(decimal)302, High=(decimal)306.4, Low=(decimal)300.42, Close=(decimal)305.6, Volume = (long)4509756 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-21","yyyy-MM-dd",cultureProvider), Open=302m, High=306.4m, Low=300.42m, Close=305.6m, Volume = (long)4509756 },</v>
       </c>
       <c r="D77" s="3">
         <v>42846</v>
@@ -18792,7 +18791,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-24"), Open=(decimal)309.22, High=(decimal)310.55, Low=(decimal)306.02, Close=(decimal)308.03, Volume = (long)5083505 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-24","yyyy-MM-dd",cultureProvider), Open=309.22m, High=310.55m, Low=306.02m, Close=308.03m, Volume = (long)5083505 },</v>
       </c>
       <c r="D78" s="3">
         <v>42849</v>
@@ -18822,7 +18821,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-25"), Open=(decimal)308, High=(decimal)313.98, Low=(decimal)305.86, Close=(decimal)313.79, Volume = (long)6737708 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-25","yyyy-MM-dd",cultureProvider), Open=308m, High=313.98m, Low=305.86m, Close=313.79m, Volume = (long)6737708 },</v>
       </c>
       <c r="D79" s="3">
         <v>42850</v>
@@ -18852,7 +18851,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-26"), Open=(decimal)312.37, High=(decimal)314.5, Low=(decimal)309, Close=(decimal)310.17, Volume = (long)4695044 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-26","yyyy-MM-dd",cultureProvider), Open=312.37m, High=314.5m, Low=309m, Close=310.17m, Volume = (long)4695044 },</v>
       </c>
       <c r="D80" s="3">
         <v>42851</v>
@@ -18882,7 +18881,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-27"), Open=(decimal)311.69, High=(decimal)313.09, Low=(decimal)307.5, Close=(decimal)308.63, Volume = (long)3468569 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-27","yyyy-MM-dd",cultureProvider), Open=311.69m, High=313.09m, Low=307.5m, Close=308.63m, Volume = (long)3468569 },</v>
       </c>
       <c r="D81" s="3">
         <v>42852</v>
@@ -18912,7 +18911,7 @@
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-04-28"), Open=(decimal)309.83, High=(decimal)314.8, Low=(decimal)308, Close=(decimal)314.07, Volume = (long)4505478 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-04-28","yyyy-MM-dd",cultureProvider), Open=309.83m, High=314.8m, Low=308m, Close=314.07m, Volume = (long)4505478 },</v>
       </c>
       <c r="D82" s="3">
         <v>42853</v>
@@ -18942,7 +18941,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-01"), Open=(decimal)314.88, High=(decimal)327.25, Low=(decimal)314.81, Close=(decimal)322.83, Volume = (long)8829565 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-01","yyyy-MM-dd",cultureProvider), Open=314.88m, High=327.25m, Low=314.81m, Close=322.83m, Volume = (long)8829565 },</v>
       </c>
       <c r="D83" s="3">
         <v>42856</v>
@@ -18972,7 +18971,7 @@
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-02"), Open=(decimal)324, High=(decimal)327.66, Low=(decimal)316.56, Close=(decimal)318.89, Volume = (long)5382777 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-02","yyyy-MM-dd",cultureProvider), Open=324m, High=327.66m, Low=316.56m, Close=318.89m, Volume = (long)5382777 },</v>
       </c>
       <c r="D84" s="3">
         <v>42857</v>
@@ -19002,7 +19001,7 @@
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-03"), Open=(decimal)317.67, High=(decimal)321.53, Low=(decimal)310.45, Close=(decimal)311.02, Volume = (long)7133365 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-03","yyyy-MM-dd",cultureProvider), Open=317.67m, High=321.53m, Low=310.45m, Close=311.02m, Volume = (long)7133365 },</v>
       </c>
       <c r="D85" s="3">
         <v>42858</v>
@@ -19032,7 +19031,7 @@
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-04"), Open=(decimal)307.43, High=(decimal)307.77, Low=(decimal)290.76, Close=(decimal)295.46, Volume = (long)14152008 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-04","yyyy-MM-dd",cultureProvider), Open=307.43m, High=307.77m, Low=290.76m, Close=295.46m, Volume = (long)14152008 },</v>
       </c>
       <c r="D86" s="3">
         <v>42859</v>
@@ -19062,7 +19061,7 @@
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-05"), Open=(decimal)298, High=(decimal)308.55, Low=(decimal)296.8, Close=(decimal)308.35, Volume = (long)8177347 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-05","yyyy-MM-dd",cultureProvider), Open=298m, High=308.55m, Low=296.8m, Close=308.35m, Volume = (long)8177347 },</v>
       </c>
       <c r="D87" s="3">
         <v>42860</v>
@@ -19092,7 +19091,7 @@
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-08"), Open=(decimal)310.9, High=(decimal)313.79, Low=(decimal)305.82, Close=(decimal)307.19, Volume = (long)7006471 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-08","yyyy-MM-dd",cultureProvider), Open=310.9m, High=313.79m, Low=305.82m, Close=307.19m, Volume = (long)7006471 },</v>
       </c>
       <c r="D88" s="3">
         <v>42863</v>
@@ -19122,7 +19121,7 @@
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-09"), Open=(decimal)309.38, High=(decimal)321.99, Low=(decimal)309.1, Close=(decimal)321.26, Volume = (long)9676537 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-09","yyyy-MM-dd",cultureProvider), Open=309.38m, High=321.99m, Low=309.1m, Close=321.26m, Volume = (long)9676537 },</v>
       </c>
       <c r="D89" s="3">
         <v>42864</v>
@@ -19152,7 +19151,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-10"), Open=(decimal)321.56, High=(decimal)325.5, Low=(decimal)318.12, Close=(decimal)325.22, Volume = (long)5741607 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-10","yyyy-MM-dd",cultureProvider), Open=321.56m, High=325.5m, Low=318.12m, Close=325.22m, Volume = (long)5741607 },</v>
       </c>
       <c r="D90" s="3">
         <v>42865</v>
@@ -19182,7 +19181,7 @@
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-11"), Open=(decimal)323.4, High=(decimal)326, Low=(decimal)319.6, Close=(decimal)323.1, Volume = (long)4753819 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-11","yyyy-MM-dd",cultureProvider), Open=323.4m, High=326m, Low=319.6m, Close=323.1m, Volume = (long)4753819 },</v>
       </c>
       <c r="D91" s="3">
         <v>42866</v>
@@ -19212,7 +19211,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-12"), Open=(decimal)325.48, High=(decimal)327, Low=(decimal)321.53, Close=(decimal)324.81, Volume = (long)4121612 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-12","yyyy-MM-dd",cultureProvider), Open=325.48m, High=327m, Low=321.53m, Close=324.81m, Volume = (long)4121612 },</v>
       </c>
       <c r="D92" s="3">
         <v>42867</v>
@@ -19242,7 +19241,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-15"), Open=(decimal)318.38, High=(decimal)320.2, Low=(decimal)312.53, Close=(decimal)315.88, Volume = (long)7622004 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-15","yyyy-MM-dd",cultureProvider), Open=318.38m, High=320.2m, Low=312.53m, Close=315.88m, Volume = (long)7622004 },</v>
       </c>
       <c r="D93" s="3">
         <v>42870</v>
@@ -19272,7 +19271,7 @@
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-16"), Open=(decimal)317.59, High=(decimal)320.06, Low=(decimal)315.14, Close=(decimal)317.01, Volume = (long)4152484 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-16","yyyy-MM-dd",cultureProvider), Open=317.59m, High=320.06m, Low=315.14m, Close=317.01m, Volume = (long)4152484 },</v>
       </c>
       <c r="D94" s="3">
         <v>42871</v>
@@ -19302,7 +19301,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-17"), Open=(decimal)314.39, High=(decimal)314.63, Low=(decimal)305.5, Close=(decimal)306.11, Volume = (long)6711940 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-17","yyyy-MM-dd",cultureProvider), Open=314.39m, High=314.63m, Low=305.5m, Close=306.11m, Volume = (long)6711940 },</v>
       </c>
       <c r="D95" s="3">
         <v>42872</v>
@@ -19332,7 +19331,7 @@
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-18"), Open=(decimal)307, High=(decimal)313.94, Low=(decimal)305.31, Close=(decimal)313.06, Volume = (long)5653801 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-18","yyyy-MM-dd",cultureProvider), Open=307m, High=313.94m, Low=305.31m, Close=313.06m, Volume = (long)5653801 },</v>
       </c>
       <c r="D96" s="3">
         <v>42873</v>
@@ -19362,7 +19361,7 @@
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-19"), Open=(decimal)315.5, High=(decimal)316.5, Low=(decimal)310.2, Close=(decimal)310.83, Volume = (long)4687572 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-19","yyyy-MM-dd",cultureProvider), Open=315.5m, High=316.5m, Low=310.2m, Close=310.83m, Volume = (long)4687572 },</v>
       </c>
       <c r="D97" s="3">
         <v>42874</v>
@@ -19392,7 +19391,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-22"), Open=(decimal)312.8, High=(decimal)314.37, Low=(decimal)306.8, Close=(decimal)310.35, Volume = (long)4329178 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-22","yyyy-MM-dd",cultureProvider), Open=312.8m, High=314.37m, Low=306.8m, Close=310.35m, Volume = (long)4329178 },</v>
       </c>
       <c r="D98" s="3">
         <v>42877</v>
@@ -19422,7 +19421,7 @@
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-23"), Open=(decimal)310.46, High=(decimal)310.73, Low=(decimal)303.48, Close=(decimal)303.86, Volume = (long)4318354 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-23","yyyy-MM-dd",cultureProvider), Open=310.46m, High=310.73m, Low=303.48m, Close=303.86m, Volume = (long)4318354 },</v>
       </c>
       <c r="D99" s="3">
         <v>42878</v>
@@ -19452,7 +19451,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-24"), Open=(decimal)306.51, High=(decimal)311, Low=(decimal)305.4, Close=(decimal)310.22, Volume = (long)5041692 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-24","yyyy-MM-dd",cultureProvider), Open=306.51m, High=311m, Low=305.4m, Close=310.22m, Volume = (long)5041692 },</v>
       </c>
       <c r="D100" s="3">
         <v>42879</v>
@@ -19482,7 +19481,7 @@
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-25"), Open=(decimal)311.02, High=(decimal)316.97, Low=(decimal)307.81, Close=(decimal)316.83, Volume = (long)5013963 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-25","yyyy-MM-dd",cultureProvider), Open=311.02m, High=316.97m, Low=307.81m, Close=316.83m, Volume = (long)5013963 },</v>
       </c>
       <c r="D101" s="3">
         <v>42880</v>
@@ -19512,7 +19511,7 @@
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-26"), Open=(decimal)317.28, High=(decimal)325.49, Low=(decimal)316.31, Close=(decimal)325.14, Volume = (long)7802199 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-26","yyyy-MM-dd",cultureProvider), Open=317.28m, High=325.49m, Low=316.31m, Close=325.14m, Volume = (long)7802199 },</v>
       </c>
       <c r="D102" s="3">
         <v>42881</v>
@@ -19542,7 +19541,7 @@
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-30"), Open=(decimal)326, High=(decimal)336.28, Low=(decimal)325.76, Close=(decimal)335.1, Volume = (long)7782916 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-30","yyyy-MM-dd",cultureProvider), Open=326m, High=336.28m, Low=325.76m, Close=335.1m, Volume = (long)7782916 },</v>
       </c>
       <c r="D103" s="3">
         <v>42885</v>
@@ -19572,7 +19571,7 @@
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-05-31"), Open=(decimal)337.69, High=(decimal)342.89, Low=(decimal)335.16, Close=(decimal)341.01, Volume = (long)9963444 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-05-31","yyyy-MM-dd",cultureProvider), Open=337.69m, High=342.89m, Low=335.16m, Close=341.01m, Volume = (long)9963444 },</v>
       </c>
       <c r="D104" s="3">
         <v>42886</v>
@@ -19602,7 +19601,7 @@
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-01"), Open=(decimal)344, High=(decimal)344.88, Low=(decimal)337.29, Close=(decimal)340.37, Volume = (long)7607996 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-01","yyyy-MM-dd",cultureProvider), Open=344m, High=344.88m, Low=337.29m, Close=340.37m, Volume = (long)7607996 },</v>
       </c>
       <c r="D105" s="3">
         <v>42887</v>
@@ -19632,7 +19631,7 @@
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-02"), Open=(decimal)339.77, High=(decimal)342.88, Low=(decimal)335.93, Close=(decimal)339.85, Volume = (long)5590239 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-02","yyyy-MM-dd",cultureProvider), Open=339.77m, High=342.88m, Low=335.93m, Close=339.85m, Volume = (long)5590239 },</v>
       </c>
       <c r="D106" s="3">
         <v>42888</v>
@@ -19662,7 +19661,7 @@
       </c>
       <c r="C107" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-05"), Open=(decimal)338.5, High=(decimal)348.44, Low=(decimal)334.21, Close=(decimal)347.32, Volume = (long)6784368 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-05","yyyy-MM-dd",cultureProvider), Open=338.5m, High=348.44m, Low=334.21m, Close=347.32m, Volume = (long)6784368 },</v>
       </c>
       <c r="D107" s="3">
         <v>42891</v>
@@ -19692,7 +19691,7 @@
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-06"), Open=(decimal)344.7, High=(decimal)359.49, Low=(decimal)339.97, Close=(decimal)352.85, Volume = (long)11086798 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-06","yyyy-MM-dd",cultureProvider), Open=344.7m, High=359.49m, Low=339.97m, Close=352.85m, Volume = (long)11086798 },</v>
       </c>
       <c r="D108" s="3">
         <v>42892</v>
@@ -19722,7 +19721,7 @@
       </c>
       <c r="C109" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-07"), Open=(decimal)356.34, High=(decimal)360.5, Low=(decimal)355.14, Close=(decimal)359.65, Volume = (long)9397959 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-07","yyyy-MM-dd",cultureProvider), Open=356.34m, High=360.5m, Low=355.14m, Close=359.65m, Volume = (long)9397959 },</v>
       </c>
       <c r="D109" s="3">
         <v>42893</v>
@@ -19752,7 +19751,7 @@
       </c>
       <c r="C110" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-08"), Open=(decimal)363.75, High=(decimal)371.9, Low=(decimal)360.22, Close=(decimal)370, Volume = (long)9061496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-08","yyyy-MM-dd",cultureProvider), Open=363.75m, High=371.9m, Low=360.22m, Close=370m, Volume = (long)9061496 },</v>
       </c>
       <c r="D110" s="3">
         <v>42894</v>
@@ -19782,7 +19781,7 @@
       </c>
       <c r="C111" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-09"), Open=(decimal)374.42, High=(decimal)376.87, Low=(decimal)354.8, Close=(decimal)357.32, Volume = (long)17261436 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-09","yyyy-MM-dd",cultureProvider), Open=374.42m, High=376.87m, Low=354.8m, Close=357.32m, Volume = (long)17261436 },</v>
       </c>
       <c r="D111" s="3">
         <v>42895</v>
@@ -19812,7 +19811,7 @@
       </c>
       <c r="C112" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-12"), Open=(decimal)357.99, High=(decimal)364.5, Low=(decimal)350.62, Close=(decimal)359.01, Volume = (long)10517660 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-12","yyyy-MM-dd",cultureProvider), Open=357.99m, High=364.5m, Low=350.62m, Close=359.01m, Volume = (long)10517660 },</v>
       </c>
       <c r="D112" s="3">
         <v>42898</v>
@@ -19842,7 +19841,7 @@
       </c>
       <c r="C113" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-13"), Open=(decimal)367.62, High=(decimal)376, Low=(decimal)366.61, Close=(decimal)375.95, Volume = (long)11807920 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-13","yyyy-MM-dd",cultureProvider), Open=367.62m, High=376m, Low=366.61m, Close=375.95m, Volume = (long)11807920 },</v>
       </c>
       <c r="D113" s="3">
         <v>42899</v>
@@ -19872,7 +19871,7 @@
       </c>
       <c r="C114" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-14"), Open=(decimal)381.08, High=(decimal)384.25, Low=(decimal)376.31, Close=(decimal)380.66, Volume = (long)12818429 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-14","yyyy-MM-dd",cultureProvider), Open=381.08m, High=384.25m, Low=376.31m, Close=380.66m, Volume = (long)12818429 },</v>
       </c>
       <c r="D114" s="3">
         <v>42900</v>
@@ -19902,7 +19901,7 @@
       </c>
       <c r="C115" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-15"), Open=(decimal)372.5, High=(decimal)375.46, Low=(decimal)366.49, Close=(decimal)375.34, Volume = (long)10426469 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-15","yyyy-MM-dd",cultureProvider), Open=372.5m, High=375.46m, Low=366.49m, Close=375.34m, Volume = (long)10426469 },</v>
       </c>
       <c r="D115" s="3">
         <v>42901</v>
@@ -19932,7 +19931,7 @@
       </c>
       <c r="C116" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-16"), Open=(decimal)377.98, High=(decimal)378.01, Low=(decimal)370.1, Close=(decimal)371.4, Volume = (long)6730973 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-16","yyyy-MM-dd",cultureProvider), Open=377.98m, High=378.01m, Low=370.1m, Close=371.4m, Volume = (long)6730973 },</v>
       </c>
       <c r="D116" s="3">
         <v>42902</v>
@@ -19962,7 +19961,7 @@
       </c>
       <c r="C117" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-19"), Open=(decimal)375, High=(decimal)376.7, Low=(decimal)367.8, Close=(decimal)369.8, Volume = (long)6549332 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-19","yyyy-MM-dd",cultureProvider), Open=375m, High=376.7m, Low=367.8m, Close=369.8m, Volume = (long)6549332 },</v>
       </c>
       <c r="D117" s="3">
         <v>42905</v>
@@ -19992,7 +19991,7 @@
       </c>
       <c r="C118" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-20"), Open=(decimal)376.67, High=(decimal)378.88, Low=(decimal)369.73, Close=(decimal)372.24, Volume = (long)7438701 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-20","yyyy-MM-dd",cultureProvider), Open=376.67m, High=378.88m, Low=369.73m, Close=372.24m, Volume = (long)7438701 },</v>
       </c>
       <c r="D118" s="3">
         <v>42906</v>
@@ -20022,7 +20021,7 @@
       </c>
       <c r="C119" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-21"), Open=(decimal)374.35, High=(decimal)376.99, Low=(decimal)368.02, Close=(decimal)376.4, Volume = (long)4923210 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-21","yyyy-MM-dd",cultureProvider), Open=374.35m, High=376.99m, Low=368.02m, Close=376.4m, Volume = (long)4923210 },</v>
       </c>
       <c r="D119" s="3">
         <v>42907</v>
@@ -20052,7 +20051,7 @@
       </c>
       <c r="C120" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-22"), Open=(decimal)377.99, High=(decimal)385, Low=(decimal)373.57, Close=(decimal)382.61, Volume = (long)7529778 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-22","yyyy-MM-dd",cultureProvider), Open=377.99m, High=385m, Low=373.57m, Close=382.61m, Volume = (long)7529778 },</v>
       </c>
       <c r="D120" s="3">
         <v>42908</v>
@@ -20082,7 +20081,7 @@
       </c>
       <c r="C121" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-23"), Open=(decimal)382.45, High=(decimal)386.99, Low=(decimal)379.35, Close=(decimal)383.45, Volume = (long)6445758 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-23","yyyy-MM-dd",cultureProvider), Open=382.45m, High=386.99m, Low=379.35m, Close=383.45m, Volume = (long)6445758 },</v>
       </c>
       <c r="D121" s="3">
         <v>42909</v>
@@ -20112,7 +20111,7 @@
       </c>
       <c r="C122" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-26"), Open=(decimal)386.69, High=(decimal)386.95, Low=(decimal)373.1, Close=(decimal)377.49, Volume = (long)6604099 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-26","yyyy-MM-dd",cultureProvider), Open=386.69m, High=386.95m, Low=373.1m, Close=377.49m, Volume = (long)6604099 },</v>
       </c>
       <c r="D122" s="3">
         <v>42912</v>
@@ -20142,7 +20141,7 @@
       </c>
       <c r="C123" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-27"), Open=(decimal)376.4, High=(decimal)376.4, Low=(decimal)362.02, Close=(decimal)362.37, Volume = (long)6996399 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-27","yyyy-MM-dd",cultureProvider), Open=376.4m, High=376.4m, Low=362.02m, Close=362.37m, Volume = (long)6996399 },</v>
       </c>
       <c r="D123" s="3">
         <v>42913</v>
@@ -20172,7 +20171,7 @@
       </c>
       <c r="C124" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-28"), Open=(decimal)366.68, High=(decimal)371.74, Low=(decimal)362.52, Close=(decimal)371.24, Volume = (long)6302463 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-28","yyyy-MM-dd",cultureProvider), Open=366.68m, High=371.74m, Low=362.52m, Close=371.24m, Volume = (long)6302463 },</v>
       </c>
       <c r="D124" s="3">
         <v>42914</v>
@@ -20202,7 +20201,7 @@
       </c>
       <c r="C125" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-29"), Open=(decimal)370.61, High=(decimal)371, Low=(decimal)354.1, Close=(decimal)360.75, Volume = (long)8221038 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-29","yyyy-MM-dd",cultureProvider), Open=370.61m, High=371m, Low=354.1m, Close=360.75m, Volume = (long)8221038 },</v>
       </c>
       <c r="D125" s="3">
         <v>42915</v>
@@ -20232,7 +20231,7 @@
       </c>
       <c r="C126" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-06-30"), Open=(decimal)363.71, High=(decimal)366.77, Low=(decimal)359.62, Close=(decimal)361.61, Volume = (long)5848521 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-06-30","yyyy-MM-dd",cultureProvider), Open=363.71m, High=366.77m, Low=359.62m, Close=361.61m, Volume = (long)5848521 },</v>
       </c>
       <c r="D126" s="3">
         <v>42916</v>
@@ -20262,7 +20261,7 @@
       </c>
       <c r="C127" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-03"), Open=(decimal)370.24, High=(decimal)371.35, Low=(decimal)351.5, Close=(decimal)352.62, Volume = (long)6305401 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-03","yyyy-MM-dd",cultureProvider), Open=370.24m, High=371.35m, Low=351.5m, Close=352.62m, Volume = (long)6305401 },</v>
       </c>
       <c r="D127" s="3">
         <v>42919</v>
@@ -20292,7 +20291,7 @@
       </c>
       <c r="C128" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-05"), Open=(decimal)347.2, High=(decimal)347.24, Low=(decimal)326.33, Close=(decimal)327.09, Volume = (long)17046700 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-05","yyyy-MM-dd",cultureProvider), Open=347.2m, High=347.24m, Low=326.33m, Close=327.09m, Volume = (long)17046700 },</v>
       </c>
       <c r="D128" s="3">
         <v>42921</v>
@@ -20322,7 +20321,7 @@
       </c>
       <c r="C129" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-06"), Open=(decimal)317.26, High=(decimal)320.79, Low=(decimal)306.3, Close=(decimal)308.83, Volume = (long)19324496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-06","yyyy-MM-dd",cultureProvider), Open=317.26m, High=320.79m, Low=306.3m, Close=308.83m, Volume = (long)19324496 },</v>
       </c>
       <c r="D129" s="3">
         <v>42922</v>
@@ -20351,8 +20350,8 @@
         <v>9</v>
       </c>
       <c r="C130" s="5" t="str">
-        <f t="shared" ref="C130:C193" si="2">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D130,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E130&amp;", High=(decimal)"&amp;F130&amp;", Low=(decimal)"&amp;G130&amp;", Close=(decimal)"&amp;H130&amp;", Volume = (long)"&amp;I130&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-07-07"), Open=(decimal)313.5, High=(decimal)317, Low=(decimal)307.38, Close=(decimal)313.22, Volume = (long)14176915 },</v>
+        <f t="shared" ref="C130:C193" si="2">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D130,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E130&amp;"m, High="&amp;F130&amp;"m, Low="&amp;G130&amp;"m, Close="&amp;H130&amp;"m, Volume = (long)"&amp;I130&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-07","yyyy-MM-dd",cultureProvider), Open=313.5m, High=317m, Low=307.38m, Close=313.22m, Volume = (long)14176915 },</v>
       </c>
       <c r="D130" s="3">
         <v>42923</v>
@@ -20382,7 +20381,7 @@
       </c>
       <c r="C131" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-10"), Open=(decimal)312.9, High=(decimal)317.94, Low=(decimal)303.13, Close=(decimal)316.05, Volume = (long)13820889 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-10","yyyy-MM-dd",cultureProvider), Open=312.9m, High=317.94m, Low=303.13m, Close=316.05m, Volume = (long)13820889 },</v>
       </c>
       <c r="D131" s="3">
         <v>42926</v>
@@ -20412,7 +20411,7 @@
       </c>
       <c r="C132" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-11"), Open=(decimal)316, High=(decimal)327.28, Low=(decimal)314.3, Close=(decimal)327.22, Volume = (long)11559402 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-11","yyyy-MM-dd",cultureProvider), Open=316m, High=327.28m, Low=314.3m, Close=327.22m, Volume = (long)11559402 },</v>
       </c>
       <c r="D132" s="3">
         <v>42927</v>
@@ -20442,7 +20441,7 @@
       </c>
       <c r="C133" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-12"), Open=(decimal)330.4, High=(decimal)333.1, Low=(decimal)324.5, Close=(decimal)329.52, Volume = (long)10346127 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-12","yyyy-MM-dd",cultureProvider), Open=330.4m, High=333.1m, Low=324.5m, Close=329.52m, Volume = (long)10346127 },</v>
       </c>
       <c r="D133" s="3">
         <v>42928</v>
@@ -20472,7 +20471,7 @@
       </c>
       <c r="C134" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-13"), Open=(decimal)330.11, High=(decimal)331.6, Low=(decimal)319.97, Close=(decimal)323.41, Volume = (long)8594466 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-13","yyyy-MM-dd",cultureProvider), Open=330.11m, High=331.6m, Low=319.97m, Close=323.41m, Volume = (long)8594466 },</v>
       </c>
       <c r="D134" s="3">
         <v>42929</v>
@@ -20502,7 +20501,7 @@
       </c>
       <c r="C135" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-14"), Open=(decimal)323.19, High=(decimal)328.42, Low=(decimal)321.22, Close=(decimal)327.78, Volume = (long)5625211 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-14","yyyy-MM-dd",cultureProvider), Open=323.19m, High=328.42m, Low=321.22m, Close=327.78m, Volume = (long)5625211 },</v>
       </c>
       <c r="D135" s="3">
         <v>42930</v>
@@ -20532,7 +20531,7 @@
       </c>
       <c r="C136" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-17"), Open=(decimal)325.54, High=(decimal)327.1, Low=(decimal)313.45, Close=(decimal)319.57, Volume = (long)9876912 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-17","yyyy-MM-dd",cultureProvider), Open=325.54m, High=327.1m, Low=313.45m, Close=319.57m, Volume = (long)9876912 },</v>
       </c>
       <c r="D136" s="3">
         <v>42933</v>
@@ -20562,7 +20561,7 @@
       </c>
       <c r="C137" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-18"), Open=(decimal)317.5, High=(decimal)329.13, Low=(decimal)315.66, Close=(decimal)328.24, Volume = (long)6373720 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-18","yyyy-MM-dd",cultureProvider), Open=317.5m, High=329.13m, Low=315.66m, Close=328.24m, Volume = (long)6373720 },</v>
       </c>
       <c r="D137" s="3">
         <v>42934</v>
@@ -20592,7 +20591,7 @@
       </c>
       <c r="C138" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-19"), Open=(decimal)328.23, High=(decimal)331.65, Low=(decimal)323.22, Close=(decimal)325.26, Volume = (long)6357014 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-19","yyyy-MM-dd",cultureProvider), Open=328.23m, High=331.65m, Low=323.22m, Close=325.26m, Volume = (long)6357014 },</v>
       </c>
       <c r="D138" s="3">
         <v>42935</v>
@@ -20622,7 +20621,7 @@
       </c>
       <c r="C139" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-20"), Open=(decimal)326.9, High=(decimal)330.22, Low=(decimal)324.2, Close=(decimal)329.92, Volume = (long)5166188 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-20","yyyy-MM-dd",cultureProvider), Open=326.9m, High=330.22m, Low=324.2m, Close=329.92m, Volume = (long)5166188 },</v>
       </c>
       <c r="D139" s="3">
         <v>42936</v>
@@ -20652,7 +20651,7 @@
       </c>
       <c r="C140" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-21"), Open=(decimal)329.46, High=(decimal)331.26, Low=(decimal)325.8, Close=(decimal)328.4, Volume = (long)4901606 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-21","yyyy-MM-dd",cultureProvider), Open=329.46m, High=331.26m, Low=325.8m, Close=328.4m, Volume = (long)4901606 },</v>
       </c>
       <c r="D140" s="3">
         <v>42937</v>
@@ -20682,7 +20681,7 @@
       </c>
       <c r="C141" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-24"), Open=(decimal)330.24, High=(decimal)343.4, Low=(decimal)330.01, Close=(decimal)342.52, Volume = (long)8637082 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-24","yyyy-MM-dd",cultureProvider), Open=330.24m, High=343.4m, Low=330.01m, Close=342.52m, Volume = (long)8637082 },</v>
       </c>
       <c r="D141" s="3">
         <v>42940</v>
@@ -20712,7 +20711,7 @@
       </c>
       <c r="C142" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-25"), Open=(decimal)345, High=(decimal)345.6, Low=(decimal)334.15, Close=(decimal)339.6, Volume = (long)6989197 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-25","yyyy-MM-dd",cultureProvider), Open=345m, High=345.6m, Low=334.15m, Close=339.6m, Volume = (long)6989197 },</v>
       </c>
       <c r="D142" s="3">
         <v>42941</v>
@@ -20742,7 +20741,7 @@
       </c>
       <c r="C143" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-26"), Open=(decimal)340.36, High=(decimal)345.5, Low=(decimal)338.12, Close=(decimal)343.85, Volume = (long)4820790 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-26","yyyy-MM-dd",cultureProvider), Open=340.36m, High=345.5m, Low=338.12m, Close=343.85m, Volume = (long)4820790 },</v>
       </c>
       <c r="D143" s="3">
         <v>42942</v>
@@ -20772,7 +20771,7 @@
       </c>
       <c r="C144" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-27"), Open=(decimal)346, High=(decimal)347.5, Low=(decimal)326.29, Close=(decimal)334.46, Volume = (long)8302405 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-27","yyyy-MM-dd",cultureProvider), Open=346m, High=347.5m, Low=326.29m, Close=334.46m, Volume = (long)8302405 },</v>
       </c>
       <c r="D144" s="3">
         <v>42943</v>
@@ -20802,7 +20801,7 @@
       </c>
       <c r="C145" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-28"), Open=(decimal)336.89, High=(decimal)339.6, Low=(decimal)332.51, Close=(decimal)335.07, Volume = (long)4880414 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-28","yyyy-MM-dd",cultureProvider), Open=336.89m, High=339.6m, Low=332.51m, Close=335.07m, Volume = (long)4880414 },</v>
       </c>
       <c r="D145" s="3">
         <v>42944</v>
@@ -20832,7 +20831,7 @@
       </c>
       <c r="C146" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-07-31"), Open=(decimal)335.5, High=(decimal)341.49, Low=(decimal)321.04, Close=(decimal)323.47, Volume = (long)8535136 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-07-31","yyyy-MM-dd",cultureProvider), Open=335.5m, High=341.49m, Low=321.04m, Close=323.47m, Volume = (long)8535136 },</v>
       </c>
       <c r="D146" s="3">
         <v>42947</v>
@@ -20862,7 +20861,7 @@
       </c>
       <c r="C147" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-01"), Open=(decimal)323, High=(decimal)324.45, Low=(decimal)316.13, Close=(decimal)319.57, Volume = (long)8303102 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-01","yyyy-MM-dd",cultureProvider), Open=323m, High=324.45m, Low=316.13m, Close=319.57m, Volume = (long)8303102 },</v>
       </c>
       <c r="D147" s="3">
         <v>42948</v>
@@ -20892,7 +20891,7 @@
       </c>
       <c r="C148" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-02"), Open=(decimal)318.94, High=(decimal)327.12, Low=(decimal)311.22, Close=(decimal)325.89, Volume = (long)13091462 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-02","yyyy-MM-dd",cultureProvider), Open=318.94m, High=327.12m, Low=311.22m, Close=325.89m, Volume = (long)13091462 },</v>
       </c>
       <c r="D148" s="3">
         <v>42949</v>
@@ -20922,7 +20921,7 @@
       </c>
       <c r="C149" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-03"), Open=(decimal)345.33, High=(decimal)350, Low=(decimal)343.15, Close=(decimal)347.09, Volume = (long)13535033 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-03","yyyy-MM-dd",cultureProvider), Open=345.33m, High=350m, Low=343.15m, Close=347.09m, Volume = (long)13535033 },</v>
       </c>
       <c r="D149" s="3">
         <v>42950</v>
@@ -20952,7 +20951,7 @@
       </c>
       <c r="C150" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-04"), Open=(decimal)347, High=(decimal)357.27, Low=(decimal)343.3, Close=(decimal)356.91, Volume = (long)9268909 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-04","yyyy-MM-dd",cultureProvider), Open=347m, High=357.27m, Low=343.3m, Close=356.91m, Volume = (long)9268909 },</v>
       </c>
       <c r="D150" s="3">
         <v>42951</v>
@@ -20982,7 +20981,7 @@
       </c>
       <c r="C151" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-07"), Open=(decimal)357.35, High=(decimal)359.48, Low=(decimal)352.75, Close=(decimal)355.17, Volume = (long)6324480 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-07","yyyy-MM-dd",cultureProvider), Open=357.35m, High=359.48m, Low=352.75m, Close=355.17m, Volume = (long)6324480 },</v>
       </c>
       <c r="D151" s="3">
         <v>42954</v>
@@ -21012,7 +21011,7 @@
       </c>
       <c r="C152" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-08"), Open=(decimal)357.53, High=(decimal)368.58, Low=(decimal)357.4, Close=(decimal)365.22, Volume = (long)7449837 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-08","yyyy-MM-dd",cultureProvider), Open=357.53m, High=368.58m, Low=357.4m, Close=365.22m, Volume = (long)7449837 },</v>
       </c>
       <c r="D152" s="3">
         <v>42955</v>
@@ -21042,7 +21041,7 @@
       </c>
       <c r="C153" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-09"), Open=(decimal)361, High=(decimal)370, Low=(decimal)358.95, Close=(decimal)363.53, Volume = (long)6892096 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-09","yyyy-MM-dd",cultureProvider), Open=361m, High=370m, Low=358.95m, Close=363.53m, Volume = (long)6892096 },</v>
       </c>
       <c r="D153" s="3">
         <v>42956</v>
@@ -21072,7 +21071,7 @@
       </c>
       <c r="C154" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-10"), Open=(decimal)361.6, High=(decimal)366.65, Low=(decimal)354.66, Close=(decimal)355.4, Volume = (long)7092858 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-10","yyyy-MM-dd",cultureProvider), Open=361.6m, High=366.65m, Low=354.66m, Close=355.4m, Volume = (long)7092858 },</v>
       </c>
       <c r="D154" s="3">
         <v>42957</v>
@@ -21102,7 +21101,7 @@
       </c>
       <c r="C155" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-11"), Open=(decimal)356.97, High=(decimal)361.26, Low=(decimal)353.62, Close=(decimal)357.87, Volume = (long)4365783 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-11","yyyy-MM-dd",cultureProvider), Open=356.97m, High=361.26m, Low=353.62m, Close=357.87m, Volume = (long)4365783 },</v>
       </c>
       <c r="D155" s="3">
         <v>42958</v>
@@ -21132,7 +21131,7 @@
       </c>
       <c r="C156" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-14"), Open=(decimal)364.63, High=(decimal)367.66, Low=(decimal)362.6, Close=(decimal)363.8, Volume = (long)4519186 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-14","yyyy-MM-dd",cultureProvider), Open=364.63m, High=367.66m, Low=362.6m, Close=363.8m, Volume = (long)4519186 },</v>
       </c>
       <c r="D156" s="3">
         <v>42961</v>
@@ -21162,7 +21161,7 @@
       </c>
       <c r="C157" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-15"), Open=(decimal)365.2, High=(decimal)365.49, Low=(decimal)359.37, Close=(decimal)362.33, Volume = (long)3085088 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-15","yyyy-MM-dd",cultureProvider), Open=365.2m, High=365.49m, Low=359.37m, Close=362.33m, Volume = (long)3085088 },</v>
       </c>
       <c r="D157" s="3">
         <v>42962</v>
@@ -21192,7 +21191,7 @@
       </c>
       <c r="C158" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-16"), Open=(decimal)363, High=(decimal)366.5, Low=(decimal)362.52, Close=(decimal)362.91, Volume = (long)3413773 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-16","yyyy-MM-dd",cultureProvider), Open=363m, High=366.5m, Low=362.52m, Close=362.91m, Volume = (long)3413773 },</v>
       </c>
       <c r="D158" s="3">
         <v>42963</v>
@@ -21222,7 +21221,7 @@
       </c>
       <c r="C159" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-17"), Open=(decimal)361.21, High=(decimal)363.3, Low=(decimal)351.59, Close=(decimal)351.92, Volume = (long)5027660 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-17","yyyy-MM-dd",cultureProvider), Open=361.21m, High=363.3m, Low=351.59m, Close=351.92m, Volume = (long)5027660 },</v>
       </c>
       <c r="D159" s="3">
         <v>42964</v>
@@ -21252,7 +21251,7 @@
       </c>
       <c r="C160" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-18"), Open=(decimal)352.91, High=(decimal)354, Low=(decimal)345.8, Close=(decimal)347.46, Volume = (long)5408183 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-18","yyyy-MM-dd",cultureProvider), Open=352.91m, High=354m, Low=345.8m, Close=347.46m, Volume = (long)5408183 },</v>
       </c>
       <c r="D160" s="3">
         <v>42965</v>
@@ -21282,7 +21281,7 @@
       </c>
       <c r="C161" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-21"), Open=(decimal)345.82, High=(decimal)345.82, Low=(decimal)331.85, Close=(decimal)337.86, Volume = (long)6495424 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-21","yyyy-MM-dd",cultureProvider), Open=345.82m, High=345.82m, Low=331.85m, Close=337.86m, Volume = (long)6495424 },</v>
       </c>
       <c r="D161" s="3">
         <v>42968</v>
@@ -21312,7 +21311,7 @@
       </c>
       <c r="C162" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-22"), Open=(decimal)341.13, High=(decimal)342.24, Low=(decimal)337.37, Close=(decimal)341.35, Volume = (long)4321966 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-22","yyyy-MM-dd",cultureProvider), Open=341.13m, High=342.24m, Low=337.37m, Close=341.35m, Volume = (long)4321966 },</v>
       </c>
       <c r="D162" s="3">
         <v>42969</v>
@@ -21342,7 +21341,7 @@
       </c>
       <c r="C163" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-23"), Open=(decimal)338.99, High=(decimal)353.49, Low=(decimal)338.3, Close=(decimal)352.77, Volume = (long)4954504 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-23","yyyy-MM-dd",cultureProvider), Open=338.99m, High=353.49m, Low=338.3m, Close=352.77m, Volume = (long)4954504 },</v>
       </c>
       <c r="D163" s="3">
         <v>42970</v>
@@ -21372,7 +21371,7 @@
       </c>
       <c r="C164" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-24"), Open=(decimal)352.52, High=(decimal)356.66, Low=(decimal)349.74, Close=(decimal)352.93, Volume = (long)4584687 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-24","yyyy-MM-dd",cultureProvider), Open=352.52m, High=356.66m, Low=349.74m, Close=352.93m, Volume = (long)4584687 },</v>
       </c>
       <c r="D164" s="3">
         <v>42971</v>
@@ -21402,7 +21401,7 @@
       </c>
       <c r="C165" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-25"), Open=(decimal)354.24, High=(decimal)355.69, Low=(decimal)347.3, Close=(decimal)348.05, Volume = (long)3483956 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-25","yyyy-MM-dd",cultureProvider), Open=354.24m, High=355.69m, Low=347.3m, Close=348.05m, Volume = (long)3483956 },</v>
       </c>
       <c r="D165" s="3">
         <v>42972</v>
@@ -21432,7 +21431,7 @@
       </c>
       <c r="C166" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-28"), Open=(decimal)347.28, High=(decimal)347.35, Low=(decimal)339.72, Close=(decimal)345.66, Volume = (long)3763956 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-28","yyyy-MM-dd",cultureProvider), Open=347.28m, High=347.35m, Low=339.72m, Close=345.66m, Volume = (long)3763956 },</v>
       </c>
       <c r="D166" s="3">
         <v>42975</v>
@@ -21462,7 +21461,7 @@
       </c>
       <c r="C167" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-29"), Open=(decimal)339.48, High=(decimal)349.05, Low=(decimal)338.75, Close=(decimal)347.36, Volume = (long)4073675 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-29","yyyy-MM-dd",cultureProvider), Open=339.48m, High=349.05m, Low=338.75m, Close=347.36m, Volume = (long)4073675 },</v>
       </c>
       <c r="D167" s="3">
         <v>42976</v>
@@ -21492,7 +21491,7 @@
       </c>
       <c r="C168" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-30"), Open=(decimal)349.67, High=(decimal)353.47, Low=(decimal)347, Close=(decimal)353.18, Volume = (long)3412943 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-30","yyyy-MM-dd",cultureProvider), Open=349.67m, High=353.47m, Low=347m, Close=353.18m, Volume = (long)3412943 },</v>
       </c>
       <c r="D168" s="3">
         <v>42977</v>
@@ -21522,7 +21521,7 @@
       </c>
       <c r="C169" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-08-31"), Open=(decimal)353.55, High=(decimal)358.44, Low=(decimal)352.82, Close=(decimal)355.9, Volume = (long)4072795 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-08-31","yyyy-MM-dd",cultureProvider), Open=353.55m, High=358.44m, Low=352.82m, Close=355.9m, Volume = (long)4072795 },</v>
       </c>
       <c r="D169" s="3">
         <v>42978</v>
@@ -21552,7 +21551,7 @@
       </c>
       <c r="C170" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-01"), Open=(decimal)356.12, High=(decimal)357.59, Low=(decimal)353.69, Close=(decimal)355.4, Volume = (long)3049546 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-01","yyyy-MM-dd",cultureProvider), Open=356.12m, High=357.59m, Low=353.69m, Close=355.4m, Volume = (long)3049546 },</v>
       </c>
       <c r="D170" s="3">
         <v>42979</v>
@@ -21582,7 +21581,7 @@
       </c>
       <c r="C171" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-05"), Open=(decimal)353.8, High=(decimal)355.49, Low=(decimal)345.89, Close=(decimal)349.59, Volume = (long)3848382 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-05","yyyy-MM-dd",cultureProvider), Open=353.8m, High=355.49m, Low=345.89m, Close=349.59m, Volume = (long)3848382 },</v>
       </c>
       <c r="D171" s="3">
         <v>42983</v>
@@ -21612,7 +21611,7 @@
       </c>
       <c r="C172" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-06"), Open=(decimal)349.5, High=(decimal)350.98, Low=(decimal)341.56, Close=(decimal)344.53, Volume = (long)4091351 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-06","yyyy-MM-dd",cultureProvider), Open=349.5m, High=350.98m, Low=341.56m, Close=344.53m, Volume = (long)4091351 },</v>
       </c>
       <c r="D172" s="3">
         <v>42984</v>
@@ -21642,7 +21641,7 @@
       </c>
       <c r="C173" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-07"), Open=(decimal)345.98, High=(decimal)352.48, Low=(decimal)343.45, Close=(decimal)350.61, Volume = (long)4239213 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-07","yyyy-MM-dd",cultureProvider), Open=345.98m, High=352.48m, Low=343.45m, Close=350.61m, Volume = (long)4239213 },</v>
       </c>
       <c r="D173" s="3">
         <v>42985</v>
@@ -21672,7 +21671,7 @@
       </c>
       <c r="C174" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-08"), Open=(decimal)348.99, High=(decimal)349.78, Low=(decimal)342.3, Close=(decimal)343.4, Volume = (long)3263508 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-08","yyyy-MM-dd",cultureProvider), Open=348.99m, High=349.78m, Low=342.3m, Close=343.4m, Volume = (long)3263508 },</v>
       </c>
       <c r="D174" s="3">
         <v>42986</v>
@@ -21702,7 +21701,7 @@
       </c>
       <c r="C175" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-11"), Open=(decimal)351.35, High=(decimal)363.71, Low=(decimal)350, Close=(decimal)363.69, Volume = (long)7667055 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-11","yyyy-MM-dd",cultureProvider), Open=351.35m, High=363.71m, Low=350m, Close=363.69m, Volume = (long)7667055 },</v>
       </c>
       <c r="D175" s="3">
         <v>42989</v>
@@ -21732,7 +21731,7 @@
       </c>
       <c r="C176" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-12"), Open=(decimal)364.49, High=(decimal)368.76, Low=(decimal)360.4, Close=(decimal)362.75, Volume = (long)5972907 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-12","yyyy-MM-dd",cultureProvider), Open=364.49m, High=368.76m, Low=360.4m, Close=362.75m, Volume = (long)5972907 },</v>
       </c>
       <c r="D176" s="3">
         <v>42990</v>
@@ -21762,7 +21761,7 @@
       </c>
       <c r="C177" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-13"), Open=(decimal)363.82, High=(decimal)368.07, Low=(decimal)359.59, Close=(decimal)366.23, Volume = (long)4185231 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-13","yyyy-MM-dd",cultureProvider), Open=363.82m, High=368.07m, Low=359.59m, Close=366.23m, Volume = (long)4185231 },</v>
       </c>
       <c r="D177" s="3">
         <v>42991</v>
@@ -21792,7 +21791,7 @@
       </c>
       <c r="C178" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-14"), Open=(decimal)364.33, High=(decimal)377.96, Low=(decimal)362.63, Close=(decimal)377.64, Volume = (long)7202524 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-14","yyyy-MM-dd",cultureProvider), Open=364.33m, High=377.96m, Low=362.63m, Close=377.64m, Volume = (long)7202524 },</v>
       </c>
       <c r="D178" s="3">
         <v>42992</v>
@@ -21822,7 +21821,7 @@
       </c>
       <c r="C179" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-15"), Open=(decimal)374.51, High=(decimal)380, Low=(decimal)372.7, Close=(decimal)379.81, Volume = (long)5420496 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-15","yyyy-MM-dd",cultureProvider), Open=374.51m, High=380m, Low=372.7m, Close=379.81m, Volume = (long)5420496 },</v>
       </c>
       <c r="D179" s="3">
         <v>42993</v>
@@ -21852,7 +21851,7 @@
       </c>
       <c r="C180" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-18"), Open=(decimal)380.25, High=(decimal)389.61, Low=(decimal)377.68, Close=(decimal)385, Volume = (long)7187980 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-18","yyyy-MM-dd",cultureProvider), Open=380.25m, High=389.61m, Low=377.68m, Close=385m, Volume = (long)7187980 },</v>
       </c>
       <c r="D180" s="3">
         <v>42996</v>
@@ -21882,7 +21881,7 @@
       </c>
       <c r="C181" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-19"), Open=(decimal)380, High=(decimal)382.39, Low=(decimal)373.57, Close=(decimal)375.1, Volume = (long)6451886 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-19","yyyy-MM-dd",cultureProvider), Open=380m, High=382.39m, Low=373.57m, Close=375.1m, Volume = (long)6451886 },</v>
       </c>
       <c r="D181" s="3">
         <v>42997</v>
@@ -21912,7 +21911,7 @@
       </c>
       <c r="C182" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-20"), Open=(decimal)373, High=(decimal)378.25, Low=(decimal)371.07, Close=(decimal)373.91, Volume = (long)4919052 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-20","yyyy-MM-dd",cultureProvider), Open=373m, High=378.25m, Low=371.07m, Close=373.91m, Volume = (long)4919052 },</v>
       </c>
       <c r="D182" s="3">
         <v>42998</v>
@@ -21942,7 +21941,7 @@
       </c>
       <c r="C183" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-21"), Open=(decimal)374.9, High=(decimal)376.83, Low=(decimal)364.51, Close=(decimal)366.48, Volume = (long)4618190 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-21","yyyy-MM-dd",cultureProvider), Open=374.9m, High=376.83m, Low=364.51m, Close=366.48m, Volume = (long)4618190 },</v>
       </c>
       <c r="D183" s="3">
         <v>42999</v>
@@ -21972,7 +21971,7 @@
       </c>
       <c r="C184" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-22"), Open=(decimal)366.49, High=(decimal)369.9, Low=(decimal)350.88, Close=(decimal)351.09, Volume = (long)8159418 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-22","yyyy-MM-dd",cultureProvider), Open=366.49m, High=369.9m, Low=350.88m, Close=351.09m, Volume = (long)8159418 },</v>
       </c>
       <c r="D184" s="3">
         <v>43000</v>
@@ -22002,7 +22001,7 @@
       </c>
       <c r="C185" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-25"), Open=(decimal)353.15, High=(decimal)357.47, Low=(decimal)342.88, Close=(decimal)344.99, Volume = (long)7605946 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-25","yyyy-MM-dd",cultureProvider), Open=353.15m, High=357.47m, Low=342.88m, Close=344.99m, Volume = (long)7605946 },</v>
       </c>
       <c r="D185" s="3">
         <v>43003</v>
@@ -22032,7 +22031,7 @@
       </c>
       <c r="C186" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-26"), Open=(decimal)350.93, High=(decimal)351.24, Low=(decimal)340.9, Close=(decimal)345.25, Volume = (long)7156274 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-26","yyyy-MM-dd",cultureProvider), Open=350.93m, High=351.24m, Low=340.9m, Close=345.25m, Volume = (long)7156274 },</v>
       </c>
       <c r="D186" s="3">
         <v>43004</v>
@@ -22062,7 +22061,7 @@
       </c>
       <c r="C187" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-27"), Open=(decimal)349.9, High=(decimal)351.49, Low=(decimal)340.5, Close=(decimal)340.97, Volume = (long)6060330 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-27","yyyy-MM-dd",cultureProvider), Open=349.9m, High=351.49m, Low=340.5m, Close=340.97m, Volume = (long)6060330 },</v>
       </c>
       <c r="D187" s="3">
         <v>43005</v>
@@ -22092,7 +22091,7 @@
       </c>
       <c r="C188" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-28"), Open=(decimal)339.88, High=(decimal)342.75, Low=(decimal)335.4, Close=(decimal)339.6, Volume = (long)5319617 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-28","yyyy-MM-dd",cultureProvider), Open=339.88m, High=342.75m, Low=335.4m, Close=339.6m, Volume = (long)5319617 },</v>
       </c>
       <c r="D188" s="3">
         <v>43006</v>
@@ -22122,7 +22121,7 @@
       </c>
       <c r="C189" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-09-29"), Open=(decimal)341.86, High=(decimal)344.68, Low=(decimal)338.6, Close=(decimal)341.1, Volume = (long)5107082 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-09-29","yyyy-MM-dd",cultureProvider), Open=341.86m, High=344.68m, Low=338.6m, Close=341.1m, Volume = (long)5107082 },</v>
       </c>
       <c r="D189" s="3">
         <v>43007</v>
@@ -22152,7 +22151,7 @@
       </c>
       <c r="C190" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-02"), Open=(decimal)342.52, High=(decimal)343.7, Low=(decimal)335.51, Close=(decimal)341.53, Volume = (long)5286774 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-02","yyyy-MM-dd",cultureProvider), Open=342.52m, High=343.7m, Low=335.51m, Close=341.53m, Volume = (long)5286774 },</v>
       </c>
       <c r="D190" s="3">
         <v>43010</v>
@@ -22182,7 +22181,7 @@
       </c>
       <c r="C191" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-03"), Open=(decimal)335.9, High=(decimal)348.55, Low=(decimal)331.28, Close=(decimal)348.14, Volume = (long)10153596 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-03","yyyy-MM-dd",cultureProvider), Open=335.9m, High=348.55m, Low=331.28m, Close=348.14m, Volume = (long)10153596 },</v>
       </c>
       <c r="D191" s="3">
         <v>43011</v>
@@ -22212,7 +22211,7 @@
       </c>
       <c r="C192" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-04"), Open=(decimal)351.25, High=(decimal)358.62, Low=(decimal)349.6, Close=(decimal)355.01, Volume = (long)8163543 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-04","yyyy-MM-dd",cultureProvider), Open=351.25m, High=358.62m, Low=349.6m, Close=355.01m, Volume = (long)8163543 },</v>
       </c>
       <c r="D192" s="3">
         <v>43012</v>
@@ -22242,7 +22241,7 @@
       </c>
       <c r="C193" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-05"), Open=(decimal)356, High=(decimal)357.43, Low=(decimal)351.35, Close=(decimal)355.33, Volume = (long)4171675 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-05","yyyy-MM-dd",cultureProvider), Open=356m, High=357.43m, Low=351.35m, Close=355.33m, Volume = (long)4171675 },</v>
       </c>
       <c r="D193" s="3">
         <v>43013</v>
@@ -22271,8 +22270,8 @@
         <v>9</v>
       </c>
       <c r="C194" s="5" t="str">
-        <f t="shared" ref="C194:C257" si="3">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D194,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E194&amp;", High=(decimal)"&amp;F194&amp;", Low=(decimal)"&amp;G194&amp;", Close=(decimal)"&amp;H194&amp;", Volume = (long)"&amp;I194&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2017-10-06"), Open=(decimal)353.1, High=(decimal)360.1, Low=(decimal)352.25, Close=(decimal)356.88, Volume = (long)4297474 },</v>
+        <f t="shared" ref="C194:C257" si="3">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D194,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E194&amp;"m, High="&amp;F194&amp;"m, Low="&amp;G194&amp;"m, Close="&amp;H194&amp;"m, Volume = (long)"&amp;I194&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-06","yyyy-MM-dd",cultureProvider), Open=353.1m, High=360.1m, Low=352.25m, Close=356.88m, Volume = (long)4297474 },</v>
       </c>
       <c r="D194" s="3">
         <v>43014</v>
@@ -22302,7 +22301,7 @@
       </c>
       <c r="C195" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-09"), Open=(decimal)349.65, High=(decimal)351.75, Low=(decimal)342.67, Close=(decimal)342.94, Volume = (long)7493654 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-09","yyyy-MM-dd",cultureProvider), Open=349.65m, High=351.75m, Low=342.67m, Close=342.94m, Volume = (long)7493654 },</v>
       </c>
       <c r="D195" s="3">
         <v>43017</v>
@@ -22332,7 +22331,7 @@
       </c>
       <c r="C196" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-10"), Open=(decimal)346.8, High=(decimal)355.63, Low=(decimal)345.53, Close=(decimal)355.59, Volume = (long)6978495 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-10","yyyy-MM-dd",cultureProvider), Open=346.8m, High=355.63m, Low=345.53m, Close=355.59m, Volume = (long)6978495 },</v>
       </c>
       <c r="D196" s="3">
         <v>43018</v>
@@ -22362,7 +22361,7 @@
       </c>
       <c r="C197" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-11"), Open=(decimal)353.89, High=(decimal)357.6, Low=(decimal)351.15, Close=(decimal)354.6, Volume = (long)4500831 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-11","yyyy-MM-dd",cultureProvider), Open=353.89m, High=357.6m, Low=351.15m, Close=354.6m, Volume = (long)4500831 },</v>
       </c>
       <c r="D197" s="3">
         <v>43019</v>
@@ -22392,7 +22391,7 @@
       </c>
       <c r="C198" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-12"), Open=(decimal)352.95, High=(decimal)359.78, Low=(decimal)352.64, Close=(decimal)355.68, Volume = (long)4087048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-12","yyyy-MM-dd",cultureProvider), Open=352.95m, High=359.78m, Low=352.64m, Close=355.68m, Volume = (long)4087048 },</v>
       </c>
       <c r="D198" s="3">
         <v>43020</v>
@@ -22422,7 +22421,7 @@
       </c>
       <c r="C199" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-13"), Open=(decimal)356.98, High=(decimal)358.49, Low=(decimal)353.68, Close=(decimal)355.57, Volume = (long)3540533 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-13","yyyy-MM-dd",cultureProvider), Open=356.98m, High=358.49m, Low=353.68m, Close=355.57m, Volume = (long)3540533 },</v>
       </c>
       <c r="D199" s="3">
         <v>43021</v>
@@ -22452,7 +22451,7 @@
       </c>
       <c r="C200" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-16"), Open=(decimal)353.76, High=(decimal)354.48, Low=(decimal)347.16, Close=(decimal)350.6, Volume = (long)5375486 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-16","yyyy-MM-dd",cultureProvider), Open=353.76m, High=354.48m, Low=347.16m, Close=350.6m, Volume = (long)5375486 },</v>
       </c>
       <c r="D200" s="3">
         <v>43024</v>
@@ -22482,7 +22481,7 @@
       </c>
       <c r="C201" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-17"), Open=(decimal)350.91, High=(decimal)356.22, Low=(decimal)350.07, Close=(decimal)355.75, Volume = (long)3293345 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-17","yyyy-MM-dd",cultureProvider), Open=350.91m, High=356.22m, Low=350.07m, Close=355.75m, Volume = (long)3293345 },</v>
       </c>
       <c r="D201" s="3">
         <v>43025</v>
@@ -22512,7 +22511,7 @@
       </c>
       <c r="C202" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-18"), Open=(decimal)355.97, High=(decimal)363, Low=(decimal)354.13, Close=(decimal)359.65, Volume = (long)4939074 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-18","yyyy-MM-dd",cultureProvider), Open=355.97m, High=363m, Low=354.13m, Close=359.65m, Volume = (long)4939074 },</v>
       </c>
       <c r="D202" s="3">
         <v>43026</v>
@@ -22542,7 +22541,7 @@
       </c>
       <c r="C203" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-19"), Open=(decimal)355.56, High=(decimal)357.15, Low=(decimal)348.2, Close=(decimal)351.81, Volume = (long)5061843 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-19","yyyy-MM-dd",cultureProvider), Open=355.56m, High=357.15m, Low=348.2m, Close=351.81m, Volume = (long)5061843 },</v>
       </c>
       <c r="D203" s="3">
         <v>43027</v>
@@ -22572,7 +22571,7 @@
       </c>
       <c r="C204" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-20"), Open=(decimal)352.69, High=(decimal)354.55, Low=(decimal)344.34, Close=(decimal)345.1, Volume = (long)4930395 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-20","yyyy-MM-dd",cultureProvider), Open=352.69m, High=354.55m, Low=344.34m, Close=345.1m, Volume = (long)4930395 },</v>
       </c>
       <c r="D204" s="3">
         <v>43028</v>
@@ -22602,7 +22601,7 @@
       </c>
       <c r="C205" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-23"), Open=(decimal)349.88, High=(decimal)349.95, Low=(decimal)336.25, Close=(decimal)337.02, Volume = (long)5747346 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-23","yyyy-MM-dd",cultureProvider), Open=349.88m, High=349.95m, Low=336.25m, Close=337.02m, Volume = (long)5747346 },</v>
       </c>
       <c r="D205" s="3">
         <v>43031</v>
@@ -22632,7 +22631,7 @@
       </c>
       <c r="C206" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-24"), Open=(decimal)338.8, High=(decimal)342.8, Low=(decimal)336.16, Close=(decimal)337.34, Volume = (long)4491672 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-24","yyyy-MM-dd",cultureProvider), Open=338.8m, High=342.8m, Low=336.16m, Close=337.34m, Volume = (long)4491672 },</v>
       </c>
       <c r="D206" s="3">
         <v>43032</v>
@@ -22662,7 +22661,7 @@
       </c>
       <c r="C207" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-25"), Open=(decimal)336.7, High=(decimal)337.5, Low=(decimal)323.56, Close=(decimal)325.84, Volume = (long)8594073 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-25","yyyy-MM-dd",cultureProvider), Open=336.7m, High=337.5m, Low=323.56m, Close=325.84m, Volume = (long)8594073 },</v>
       </c>
       <c r="D207" s="3">
         <v>43033</v>
@@ -22692,7 +22691,7 @@
       </c>
       <c r="C208" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-26"), Open=(decimal)327.78, High=(decimal)330.23, Low=(decimal)323.2, Close=(decimal)326.17, Volume = (long)5023500 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-26","yyyy-MM-dd",cultureProvider), Open=327.78m, High=330.23m, Low=323.2m, Close=326.17m, Volume = (long)5023500 },</v>
       </c>
       <c r="D208" s="3">
         <v>43034</v>
@@ -22722,7 +22721,7 @@
       </c>
       <c r="C209" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-27"), Open=(decimal)319.75, High=(decimal)324.59, Low=(decimal)316.66, Close=(decimal)320.87, Volume = (long)6979704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-27","yyyy-MM-dd",cultureProvider), Open=319.75m, High=324.59m, Low=316.66m, Close=320.87m, Volume = (long)6979704 },</v>
       </c>
       <c r="D209" s="3">
         <v>43035</v>
@@ -22752,7 +22751,7 @@
       </c>
       <c r="C210" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-30"), Open=(decimal)319.18, High=(decimal)323.78, Low=(decimal)317.25, Close=(decimal)320.08, Volume = (long)4254378 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-30","yyyy-MM-dd",cultureProvider), Open=319.18m, High=323.78m, Low=317.25m, Close=320.08m, Volume = (long)4254378 },</v>
       </c>
       <c r="D210" s="3">
         <v>43038</v>
@@ -22782,7 +22781,7 @@
       </c>
       <c r="C211" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-10-31"), Open=(decimal)320.23, High=(decimal)331.95, Low=(decimal)320.18, Close=(decimal)331.53, Volume = (long)5672347 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-10-31","yyyy-MM-dd",cultureProvider), Open=320.23m, High=331.95m, Low=320.18m, Close=331.53m, Volume = (long)5672347 },</v>
       </c>
       <c r="D211" s="3">
         <v>43039</v>
@@ -22812,7 +22811,7 @@
       </c>
       <c r="C212" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-01"), Open=(decimal)332.25, High=(decimal)332.61, Low=(decimal)320.26, Close=(decimal)321.08, Volume = (long)8457336 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-01","yyyy-MM-dd",cultureProvider), Open=332.25m, High=332.61m, Low=320.26m, Close=321.08m, Volume = (long)8457336 },</v>
       </c>
       <c r="D212" s="3">
         <v>43040</v>
@@ -22842,7 +22841,7 @@
       </c>
       <c r="C213" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-02"), Open=(decimal)300.13, High=(decimal)308.69, Low=(decimal)292.63, Close=(decimal)299.26, Volume = (long)19791416 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-02","yyyy-MM-dd",cultureProvider), Open=300.13m, High=308.69m, Low=292.63m, Close=299.26m, Volume = (long)19791416 },</v>
       </c>
       <c r="D213" s="3">
         <v>43041</v>
@@ -22872,7 +22871,7 @@
       </c>
       <c r="C214" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-03"), Open=(decimal)299.5, High=(decimal)306.25, Low=(decimal)295.13, Close=(decimal)306.09, Volume = (long)8893974 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-03","yyyy-MM-dd",cultureProvider), Open=299.5m, High=306.25m, Low=295.13m, Close=306.09m, Volume = (long)8893974 },</v>
       </c>
       <c r="D214" s="3">
         <v>43042</v>
@@ -22902,7 +22901,7 @@
       </c>
       <c r="C215" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-06"), Open=(decimal)307, High=(decimal)307.5, Low=(decimal)299.01, Close=(decimal)302.78, Volume = (long)6486009 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-06","yyyy-MM-dd",cultureProvider), Open=307m, High=307.5m, Low=299.01m, Close=302.78m, Volume = (long)6486009 },</v>
       </c>
       <c r="D215" s="3">
         <v>43045</v>
@@ -22932,7 +22931,7 @@
       </c>
       <c r="C216" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-07"), Open=(decimal)301.02, High=(decimal)306.5, Low=(decimal)300.03, Close=(decimal)306.05, Volume = (long)5294274 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-07","yyyy-MM-dd",cultureProvider), Open=301.02m, High=306.5m, Low=300.03m, Close=306.05m, Volume = (long)5294274 },</v>
       </c>
       <c r="D216" s="3">
         <v>43046</v>
@@ -22962,7 +22961,7 @@
       </c>
       <c r="C217" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-08"), Open=(decimal)305.5, High=(decimal)306.89, Low=(decimal)301.3, Close=(decimal)304.39, Volume = (long)4725271 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-08","yyyy-MM-dd",cultureProvider), Open=305.5m, High=306.89m, Low=301.3m, Close=304.39m, Volume = (long)4725271 },</v>
       </c>
       <c r="D217" s="3">
         <v>43047</v>
@@ -22992,7 +22991,7 @@
       </c>
       <c r="C218" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-09"), Open=(decimal)302.5, High=(decimal)304.46, Low=(decimal)296.3, Close=(decimal)302.99, Volume = (long)5447147 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-09","yyyy-MM-dd",cultureProvider), Open=302.5m, High=304.46m, Low=296.3m, Close=302.99m, Volume = (long)5447147 },</v>
       </c>
       <c r="D218" s="3">
         <v>43048</v>
@@ -23022,7 +23021,7 @@
       </c>
       <c r="C219" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-10"), Open=(decimal)302.5, High=(decimal)308.36, Low=(decimal)301.85, Close=(decimal)302.99, Volume = (long)4625429 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-10","yyyy-MM-dd",cultureProvider), Open=302.5m, High=308.36m, Low=301.85m, Close=302.99m, Volume = (long)4625429 },</v>
       </c>
       <c r="D219" s="3">
         <v>43049</v>
@@ -23052,7 +23051,7 @@
       </c>
       <c r="C220" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-13"), Open=(decimal)300.13, High=(decimal)316.8, Low=(decimal)299.11, Close=(decimal)315.4, Volume = (long)7584944 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-13","yyyy-MM-dd",cultureProvider), Open=300.13m, High=316.8m, Low=299.11m, Close=315.4m, Volume = (long)7584944 },</v>
       </c>
       <c r="D220" s="3">
         <v>43052</v>
@@ -23082,7 +23081,7 @@
       </c>
       <c r="C221" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-14"), Open=(decimal)315, High=(decimal)316.35, Low=(decimal)306.9, Close=(decimal)308.7, Volume = (long)5676076 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-14","yyyy-MM-dd",cultureProvider), Open=315m, High=316.35m, Low=306.9m, Close=308.7m, Volume = (long)5676076 },</v>
       </c>
       <c r="D221" s="3">
         <v>43053</v>
@@ -23112,7 +23111,7 @@
       </c>
       <c r="C222" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-15"), Open=(decimal)306.01, High=(decimal)312.49, Low=(decimal)301.5, Close=(decimal)311.3, Volume = (long)5978665 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-15","yyyy-MM-dd",cultureProvider), Open=306.01m, High=312.49m, Low=301.5m, Close=311.3m, Volume = (long)5978665 },</v>
       </c>
       <c r="D222" s="3">
         <v>43054</v>
@@ -23142,7 +23141,7 @@
       </c>
       <c r="C223" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-16"), Open=(decimal)313.99, High=(decimal)318.14, Low=(decimal)311.3, Close=(decimal)312.5, Volume = (long)5822073 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-16","yyyy-MM-dd",cultureProvider), Open=313.99m, High=318.14m, Low=311.3m, Close=312.5m, Volume = (long)5822073 },</v>
       </c>
       <c r="D223" s="3">
         <v>43055</v>
@@ -23172,7 +23171,7 @@
       </c>
       <c r="C224" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-17"), Open=(decimal)325.67, High=(decimal)326.67, Low=(decimal)313.15, Close=(decimal)315.05, Volume = (long)13735139 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-17","yyyy-MM-dd",cultureProvider), Open=325.67m, High=326.67m, Low=313.15m, Close=315.05m, Volume = (long)13735139 },</v>
       </c>
       <c r="D224" s="3">
         <v>43056</v>
@@ -23202,7 +23201,7 @@
       </c>
       <c r="C225" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-20"), Open=(decimal)313.79, High=(decimal)315.5, Low=(decimal)304.75, Close=(decimal)308.74, Volume = (long)8247650 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-20","yyyy-MM-dd",cultureProvider), Open=313.79m, High=315.5m, Low=304.75m, Close=308.74m, Volume = (long)8247650 },</v>
       </c>
       <c r="D225" s="3">
         <v>43059</v>
@@ -23232,7 +23231,7 @@
       </c>
       <c r="C226" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-21"), Open=(decimal)310.86, High=(decimal)318.23, Low=(decimal)308.71, Close=(decimal)317.81, Volume = (long)7261273 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-21","yyyy-MM-dd",cultureProvider), Open=310.86m, High=318.23m, Low=308.71m, Close=317.81m, Volume = (long)7261273 },</v>
       </c>
       <c r="D226" s="3">
         <v>43060</v>
@@ -23262,7 +23261,7 @@
       </c>
       <c r="C227" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-22"), Open=(decimal)316.77, High=(decimal)317.42, Low=(decimal)311.84, Close=(decimal)312.6, Volume = (long)4917636 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-22","yyyy-MM-dd",cultureProvider), Open=316.77m, High=317.42m, Low=311.84m, Close=312.6m, Volume = (long)4917636 },</v>
       </c>
       <c r="D227" s="3">
         <v>43061</v>
@@ -23292,7 +23291,7 @@
       </c>
       <c r="C228" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-24"), Open=(decimal)313.79, High=(decimal)316.41, Low=(decimal)311, Close=(decimal)315.55, Volume = (long)3244065 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-24","yyyy-MM-dd",cultureProvider), Open=313.79m, High=316.41m, Low=311m, Close=315.55m, Volume = (long)3244065 },</v>
       </c>
       <c r="D228" s="3">
         <v>43063</v>
@@ -23322,7 +23321,7 @@
       </c>
       <c r="C229" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-27"), Open=(decimal)313.25, High=(decimal)317.34, Low=(decimal)309.51, Close=(decimal)316.81, Volume = (long)4555894 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-27","yyyy-MM-dd",cultureProvider), Open=313.25m, High=317.34m, Low=309.51m, Close=316.81m, Volume = (long)4555894 },</v>
       </c>
       <c r="D229" s="3">
         <v>43066</v>
@@ -23352,7 +23351,7 @@
       </c>
       <c r="C230" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-28"), Open=(decimal)316.36, High=(decimal)320, Low=(decimal)313.92, Close=(decimal)317.55, Volume = (long)4949491 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-28","yyyy-MM-dd",cultureProvider), Open=316.36m, High=320m, Low=313.92m, Close=317.55m, Volume = (long)4949491 },</v>
       </c>
       <c r="D230" s="3">
         <v>43067</v>
@@ -23382,7 +23381,7 @@
       </c>
       <c r="C231" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-29"), Open=(decimal)317.3, High=(decimal)318, Low=(decimal)301.23, Close=(decimal)307.54, Volume = (long)8767398 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-29","yyyy-MM-dd",cultureProvider), Open=317.3m, High=318m, Low=301.23m, Close=307.54m, Volume = (long)8767398 },</v>
       </c>
       <c r="D231" s="3">
         <v>43068</v>
@@ -23412,7 +23411,7 @@
       </c>
       <c r="C232" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-11-30"), Open=(decimal)308.56, High=(decimal)310.7, Low=(decimal)304.54, Close=(decimal)308.85, Volume = (long)4351587 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-11-30","yyyy-MM-dd",cultureProvider), Open=308.56m, High=310.7m, Low=304.54m, Close=308.85m, Volume = (long)4351587 },</v>
       </c>
       <c r="D232" s="3">
         <v>43069</v>
@@ -23442,7 +23441,7 @@
       </c>
       <c r="C233" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-01"), Open=(decimal)305.44, High=(decimal)310.32, Low=(decimal)305.05, Close=(decimal)306.53, Volume = (long)4292868 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-01","yyyy-MM-dd",cultureProvider), Open=305.44m, High=310.32m, Low=305.05m, Close=306.53m, Volume = (long)4292868 },</v>
       </c>
       <c r="D233" s="3">
         <v>43070</v>
@@ -23472,7 +23471,7 @@
       </c>
       <c r="C234" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-04"), Open=(decimal)306.5, High=(decimal)308.27, Low=(decimal)300.61, Close=(decimal)305.2, Volume = (long)5835140 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-04","yyyy-MM-dd",cultureProvider), Open=306.5m, High=308.27m, Low=300.61m, Close=305.2m, Volume = (long)5835140 },</v>
       </c>
       <c r="D234" s="3">
         <v>43073</v>
@@ -23502,7 +23501,7 @@
       </c>
       <c r="C235" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-05"), Open=(decimal)302, High=(decimal)308, Low=(decimal)301, Close=(decimal)303.7, Volume = (long)4646520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-05","yyyy-MM-dd",cultureProvider), Open=302m, High=308m, Low=301m, Close=303.7m, Volume = (long)4646520 },</v>
       </c>
       <c r="D235" s="3">
         <v>43074</v>
@@ -23532,7 +23531,7 @@
       </c>
       <c r="C236" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-06"), Open=(decimal)300.1, High=(decimal)313.39, Low=(decimal)300, Close=(decimal)313.26, Volume = (long)7195341 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-06","yyyy-MM-dd",cultureProvider), Open=300.1m, High=313.39m, Low=300m, Close=313.26m, Volume = (long)7195341 },</v>
       </c>
       <c r="D236" s="3">
         <v>43075</v>
@@ -23562,7 +23561,7 @@
       </c>
       <c r="C237" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-07"), Open=(decimal)312, High=(decimal)318.63, Low=(decimal)311.05, Close=(decimal)311.24, Volume = (long)4780597 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-07","yyyy-MM-dd",cultureProvider), Open=312m, High=318.63m, Low=311.05m, Close=311.24m, Volume = (long)4780597 },</v>
       </c>
       <c r="D237" s="3">
         <v>43076</v>
@@ -23592,7 +23591,7 @@
       </c>
       <c r="C238" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-08"), Open=(decimal)314.6, High=(decimal)316.98, Low=(decimal)311.26, Close=(decimal)315.13, Volume = (long)3468458 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-08","yyyy-MM-dd",cultureProvider), Open=314.6m, High=316.98m, Low=311.26m, Close=315.13m, Volume = (long)3468458 },</v>
       </c>
       <c r="D238" s="3">
         <v>43077</v>
@@ -23622,7 +23621,7 @@
       </c>
       <c r="C239" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-11"), Open=(decimal)314.63, High=(decimal)329.01, Low=(decimal)313.75, Close=(decimal)328.91, Volume = (long)7937981 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-11","yyyy-MM-dd",cultureProvider), Open=314.63m, High=329.01m, Low=313.75m, Close=328.91m, Volume = (long)7937981 },</v>
       </c>
       <c r="D239" s="3">
         <v>43080</v>
@@ -23652,7 +23651,7 @@
       </c>
       <c r="C240" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-12"), Open=(decimal)330.45, High=(decimal)341.44, Low=(decimal)330.03, Close=(decimal)341.03, Volume = (long)8733199 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-12","yyyy-MM-dd",cultureProvider), Open=330.45m, High=341.44m, Low=330.03m, Close=341.03m, Volume = (long)8733199 },</v>
       </c>
       <c r="D240" s="3">
         <v>43081</v>
@@ -23682,7 +23681,7 @@
       </c>
       <c r="C241" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-13"), Open=(decimal)340.93, High=(decimal)344.22, Low=(decimal)336.5, Close=(decimal)339.03, Volume = (long)6221461 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-13","yyyy-MM-dd",cultureProvider), Open=340.93m, High=344.22m, Low=336.5m, Close=339.03m, Volume = (long)6221461 },</v>
       </c>
       <c r="D241" s="3">
         <v>43082</v>
@@ -23712,7 +23711,7 @@
       </c>
       <c r="C242" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-14"), Open=(decimal)341.01, High=(decimal)347.44, Low=(decimal)336.9, Close=(decimal)337.89, Volume = (long)5799916 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-14","yyyy-MM-dd",cultureProvider), Open=341.01m, High=347.44m, Low=336.9m, Close=337.89m, Volume = (long)5799916 },</v>
       </c>
       <c r="D242" s="3">
         <v>43083</v>
@@ -23742,7 +23741,7 @@
       </c>
       <c r="C243" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-15"), Open=(decimal)342.04, High=(decimal)343.9, Low=(decimal)335.76, Close=(decimal)343.45, Volume = (long)6933199 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-15","yyyy-MM-dd",cultureProvider), Open=342.04m, High=343.9m, Low=335.76m, Close=343.45m, Volume = (long)6933199 },</v>
       </c>
       <c r="D243" s="3">
         <v>43084</v>
@@ -23772,7 +23771,7 @@
       </c>
       <c r="C244" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-18"), Open=(decimal)344.9, High=(decimal)346.73, Low=(decimal)337.58, Close=(decimal)338.87, Volume = (long)5476166 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-18","yyyy-MM-dd",cultureProvider), Open=344.9m, High=346.73m, Low=337.58m, Close=338.87m, Volume = (long)5476166 },</v>
       </c>
       <c r="D244" s="3">
         <v>43087</v>
@@ -23802,7 +23801,7 @@
       </c>
       <c r="C245" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-19"), Open=(decimal)340.26, High=(decimal)341.49, Low=(decimal)330.3, Close=(decimal)331.1, Volume = (long)6824971 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-19","yyyy-MM-dd",cultureProvider), Open=340.26m, High=341.49m, Low=330.3m, Close=331.1m, Volume = (long)6824971 },</v>
       </c>
       <c r="D245" s="3">
         <v>43088</v>
@@ -23832,7 +23831,7 @@
       </c>
       <c r="C246" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-20"), Open=(decimal)332.69, High=(decimal)333.1, Low=(decimal)325.04, Close=(decimal)328.98, Volume = (long)5953800 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-20","yyyy-MM-dd",cultureProvider), Open=332.69m, High=333.1m, Low=325.04m, Close=328.98m, Volume = (long)5953800 },</v>
       </c>
       <c r="D246" s="3">
         <v>43089</v>
@@ -23862,7 +23861,7 @@
       </c>
       <c r="C247" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-21"), Open=(decimal)329.59, High=(decimal)333.74, Low=(decimal)327.21, Close=(decimal)331.66, Volume = (long)4385222 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-21","yyyy-MM-dd",cultureProvider), Open=329.59m, High=333.74m, Low=327.21m, Close=331.66m, Volume = (long)4385222 },</v>
       </c>
       <c r="D247" s="3">
         <v>43090</v>
@@ -23892,7 +23891,7 @@
       </c>
       <c r="C248" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-22"), Open=(decimal)329.51, High=(decimal)330.92, Low=(decimal)324.82, Close=(decimal)325.2, Volume = (long)4215807 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-22","yyyy-MM-dd",cultureProvider), Open=329.51m, High=330.92m, Low=324.82m, Close=325.2m, Volume = (long)4215807 },</v>
       </c>
       <c r="D248" s="3">
         <v>43091</v>
@@ -23922,7 +23921,7 @@
       </c>
       <c r="C249" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-26"), Open=(decimal)323.83, High=(decimal)323.94, Low=(decimal)316.58, Close=(decimal)317.29, Volume = (long)4378413 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-26","yyyy-MM-dd",cultureProvider), Open=323.83m, High=323.94m, Low=316.58m, Close=317.29m, Volume = (long)4378413 },</v>
       </c>
       <c r="D249" s="3">
         <v>43095</v>
@@ -23952,7 +23951,7 @@
       </c>
       <c r="C250" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-27"), Open=(decimal)316, High=(decimal)317.68, Low=(decimal)310.75, Close=(decimal)311.64, Volume = (long)4712111 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-27","yyyy-MM-dd",cultureProvider), Open=316m, High=317.68m, Low=310.75m, Close=311.64m, Volume = (long)4712111 },</v>
       </c>
       <c r="D250" s="3">
         <v>43096</v>
@@ -23982,7 +23981,7 @@
       </c>
       <c r="C251" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-28"), Open=(decimal)311.75, High=(decimal)315.82, Low=(decimal)309.54, Close=(decimal)315.36, Volume = (long)4316347 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-28","yyyy-MM-dd",cultureProvider), Open=311.75m, High=315.82m, Low=309.54m, Close=315.36m, Volume = (long)4316347 },</v>
       </c>
       <c r="D251" s="3">
         <v>43097</v>
@@ -24012,7 +24011,7 @@
       </c>
       <c r="C252" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2017-12-29"), Open=(decimal)316.18, High=(decimal)316.41, Low=(decimal)310, Close=(decimal)311.35, Volume = (long)3777155 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2017-12-29","yyyy-MM-dd",cultureProvider), Open=316.18m, High=316.41m, Low=310m, Close=311.35m, Volume = (long)3777155 },</v>
       </c>
       <c r="D252" s="3">
         <v>43098</v>
@@ -24042,7 +24041,7 @@
       </c>
       <c r="C253" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-02"), Open=(decimal)312, High=(decimal)322.11, Low=(decimal)311, Close=(decimal)320.53, Volume = (long)4352241 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-02","yyyy-MM-dd",cultureProvider), Open=312m, High=322.11m, Low=311m, Close=320.53m, Volume = (long)4352241 },</v>
       </c>
       <c r="D253" s="3">
         <v>43102</v>
@@ -24072,7 +24071,7 @@
       </c>
       <c r="C254" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-03"), Open=(decimal)321, High=(decimal)325.25, Low=(decimal)315.55, Close=(decimal)317.25, Volume = (long)4521527 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-03","yyyy-MM-dd",cultureProvider), Open=321m, High=325.25m, Low=315.55m, Close=317.25m, Volume = (long)4521527 },</v>
       </c>
       <c r="D254" s="3">
         <v>43103</v>
@@ -24102,7 +24101,7 @@
       </c>
       <c r="C255" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-04"), Open=(decimal)312.87, High=(decimal)318.55, Low=(decimal)305.68, Close=(decimal)314.62, Volume = (long)9946304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-04","yyyy-MM-dd",cultureProvider), Open=312.87m, High=318.55m, Low=305.68m, Close=314.62m, Volume = (long)9946304 },</v>
       </c>
       <c r="D255" s="3">
         <v>43104</v>
@@ -24132,7 +24131,7 @@
       </c>
       <c r="C256" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-05"), Open=(decimal)316.62, High=(decimal)317.24, Low=(decimal)312, Close=(decimal)316.58, Volume = (long)4591180 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-05","yyyy-MM-dd",cultureProvider), Open=316.62m, High=317.24m, Low=312m, Close=316.58m, Volume = (long)4591180 },</v>
       </c>
       <c r="D256" s="3">
         <v>43105</v>
@@ -24162,7 +24161,7 @@
       </c>
       <c r="C257" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-08"), Open=(decimal)316, High=(decimal)337.02, Low=(decimal)315.5, Close=(decimal)336.41, Volume = (long)9859435 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-08","yyyy-MM-dd",cultureProvider), Open=316m, High=337.02m, Low=315.5m, Close=336.41m, Volume = (long)9859435 },</v>
       </c>
       <c r="D257" s="3">
         <v>43108</v>
@@ -24191,8 +24190,8 @@
         <v>9</v>
       </c>
       <c r="C258" s="5" t="str">
-        <f t="shared" ref="C258:C321" si="4">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D258,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E258&amp;", High=(decimal)"&amp;F258&amp;", Low=(decimal)"&amp;G258&amp;", Close=(decimal)"&amp;H258&amp;", Volume = (long)"&amp;I258&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-01-09"), Open=(decimal)335.16, High=(decimal)338.8, Low=(decimal)327.4, Close=(decimal)333.69, Volume = (long)7146631 },</v>
+        <f t="shared" ref="C258:C321" si="4">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D258,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E258&amp;"m, High="&amp;F258&amp;"m, Low="&amp;G258&amp;"m, Close="&amp;H258&amp;"m, Volume = (long)"&amp;I258&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-09","yyyy-MM-dd",cultureProvider), Open=335.16m, High=338.8m, Low=327.4m, Close=333.69m, Volume = (long)7146631 },</v>
       </c>
       <c r="D258" s="3">
         <v>43109</v>
@@ -24222,7 +24221,7 @@
       </c>
       <c r="C259" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-10"), Open=(decimal)332.2, High=(decimal)337, Low=(decimal)330, Close=(decimal)334.8, Volume = (long)4309926 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-10","yyyy-MM-dd",cultureProvider), Open=332.2m, High=337m, Low=330m, Close=334.8m, Volume = (long)4309926 },</v>
       </c>
       <c r="D259" s="3">
         <v>43110</v>
@@ -24252,7 +24251,7 @@
       </c>
       <c r="C260" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-11"), Open=(decimal)335.24, High=(decimal)344.81, Low=(decimal)333.26, Close=(decimal)337.95, Volume = (long)6645484 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-11","yyyy-MM-dd",cultureProvider), Open=335.24m, High=344.81m, Low=333.26m, Close=337.95m, Volume = (long)6645484 },</v>
       </c>
       <c r="D260" s="3">
         <v>43111</v>
@@ -24282,7 +24281,7 @@
       </c>
       <c r="C261" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-12"), Open=(decimal)338.63, High=(decimal)340.41, Low=(decimal)333.67, Close=(decimal)336.22, Volume = (long)4825059 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-12","yyyy-MM-dd",cultureProvider), Open=338.63m, High=340.41m, Low=333.67m, Close=336.22m, Volume = (long)4825059 },</v>
       </c>
       <c r="D261" s="3">
         <v>43112</v>
@@ -24312,7 +24311,7 @@
       </c>
       <c r="C262" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-16"), Open=(decimal)337.54, High=(decimal)345, Low=(decimal)334.8, Close=(decimal)340.06, Volume = (long)6474251 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-16","yyyy-MM-dd",cultureProvider), Open=337.54m, High=345m, Low=334.8m, Close=340.06m, Volume = (long)6474251 },</v>
       </c>
       <c r="D262" s="3">
         <v>43116</v>
@@ -24342,7 +24341,7 @@
       </c>
       <c r="C263" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-17"), Open=(decimal)340.47, High=(decimal)349, Low=(decimal)339.75, Close=(decimal)347.16, Volume = (long)7103505 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-17","yyyy-MM-dd",cultureProvider), Open=340.47m, High=349m, Low=339.75m, Close=347.16m, Volume = (long)7103505 },</v>
       </c>
       <c r="D263" s="3">
         <v>43117</v>
@@ -24372,7 +24371,7 @@
       </c>
       <c r="C264" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-18"), Open=(decimal)345.67, High=(decimal)352.3, Low=(decimal)343.74, Close=(decimal)344.57, Volume = (long)5685845 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-18","yyyy-MM-dd",cultureProvider), Open=345.67m, High=352.3m, Low=343.74m, Close=344.57m, Volume = (long)5685845 },</v>
       </c>
       <c r="D264" s="3">
         <v>43118</v>
@@ -24402,7 +24401,7 @@
       </c>
       <c r="C265" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-19"), Open=(decimal)345, High=(decimal)350.59, Low=(decimal)342.6, Close=(decimal)350.02, Volume = (long)4888303 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-19","yyyy-MM-dd",cultureProvider), Open=345m, High=350.59m, Low=342.6m, Close=350.02m, Volume = (long)4888303 },</v>
       </c>
       <c r="D265" s="3">
         <v>43119</v>
@@ -24432,7 +24431,7 @@
       </c>
       <c r="C266" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-22"), Open=(decimal)349.4, High=(decimal)357.83, Low=(decimal)349.2, Close=(decimal)351.56, Volume = (long)6210360 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-22","yyyy-MM-dd",cultureProvider), Open=349.4m, High=357.83m, Low=349.2m, Close=351.56m, Volume = (long)6210360 },</v>
       </c>
       <c r="D266" s="3">
         <v>43122</v>
@@ -24462,7 +24461,7 @@
       </c>
       <c r="C267" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-23"), Open=(decimal)360, High=(decimal)360.5, Low=(decimal)351, Close=(decimal)352.79, Volume = (long)5465414 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-23","yyyy-MM-dd",cultureProvider), Open=360m, High=360.5m, Low=351m, Close=352.79m, Volume = (long)5465414 },</v>
       </c>
       <c r="D267" s="3">
         <v>43123</v>
@@ -24492,7 +24491,7 @@
       </c>
       <c r="C268" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-24"), Open=(decimal)354.58, High=(decimal)354.75, Low=(decimal)343.52, Close=(decimal)345.89, Volume = (long)5287478 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-24","yyyy-MM-dd",cultureProvider), Open=354.58m, High=354.75m, Low=343.52m, Close=345.89m, Volume = (long)5287478 },</v>
       </c>
       <c r="D268" s="3">
         <v>43124</v>
@@ -24522,7 +24521,7 @@
       </c>
       <c r="C269" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-25"), Open=(decimal)348.27, High=(decimal)349.2, Low=(decimal)336.4, Close=(decimal)337.64, Volume = (long)6740303 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-25","yyyy-MM-dd",cultureProvider), Open=348.27m, High=349.2m, Low=336.4m, Close=337.64m, Volume = (long)6740303 },</v>
       </c>
       <c r="D269" s="3">
         <v>43125</v>
@@ -24552,7 +24551,7 @@
       </c>
       <c r="C270" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-26"), Open=(decimal)341.5, High=(decimal)344, Low=(decimal)335.71, Close=(decimal)342.85, Volume = (long)4539356 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-26","yyyy-MM-dd",cultureProvider), Open=341.5m, High=344m, Low=335.71m, Close=342.85m, Volume = (long)4539356 },</v>
       </c>
       <c r="D270" s="3">
         <v>43126</v>
@@ -24582,7 +24581,7 @@
       </c>
       <c r="C271" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-29"), Open=(decimal)339.85, High=(decimal)350.85, Low=(decimal)338.28, Close=(decimal)349.53, Volume = (long)4747149 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-29","yyyy-MM-dd",cultureProvider), Open=339.85m, High=350.85m, Low=338.28m, Close=349.53m, Volume = (long)4747149 },</v>
       </c>
       <c r="D271" s="3">
         <v>43129</v>
@@ -24612,7 +24611,7 @@
       </c>
       <c r="C272" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-30"), Open=(decimal)345.14, High=(decimal)348.27, Low=(decimal)342.17, Close=(decimal)345.82, Volume = (long)4717700 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-30","yyyy-MM-dd",cultureProvider), Open=345.14m, High=348.27m, Low=342.17m, Close=345.82m, Volume = (long)4717700 },</v>
       </c>
       <c r="D272" s="3">
         <v>43130</v>
@@ -24642,7 +24641,7 @@
       </c>
       <c r="C273" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-01-31"), Open=(decimal)347.51, High=(decimal)356.19, Low=(decimal)345.19, Close=(decimal)354.31, Volume = (long)6214069 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-01-31","yyyy-MM-dd",cultureProvider), Open=347.51m, High=356.19m, Low=345.19m, Close=354.31m, Volume = (long)6214069 },</v>
       </c>
       <c r="D273" s="3">
         <v>43131</v>
@@ -24672,7 +24671,7 @@
       </c>
       <c r="C274" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-01"), Open=(decimal)351, High=(decimal)359.66, Low=(decimal)348.63, Close=(decimal)349.25, Volume = (long)4197687 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-01","yyyy-MM-dd",cultureProvider), Open=351m, High=359.66m, Low=348.63m, Close=349.25m, Volume = (long)4197687 },</v>
       </c>
       <c r="D274" s="3">
         <v>43132</v>
@@ -24702,7 +24701,7 @@
       </c>
       <c r="C275" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-02"), Open=(decimal)348.44, High=(decimal)351.95, Low=(decimal)340.51, Close=(decimal)343.75, Volume = (long)3704836 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-02","yyyy-MM-dd",cultureProvider), Open=348.44m, High=351.95m, Low=340.51m, Close=343.75m, Volume = (long)3704836 },</v>
       </c>
       <c r="D275" s="3">
         <v>43133</v>
@@ -24732,7 +24731,7 @@
       </c>
       <c r="C276" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-05"), Open=(decimal)337.97, High=(decimal)344.47, Low=(decimal)333, Close=(decimal)333.13, Volume = (long)4464147 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-05","yyyy-MM-dd",cultureProvider), Open=337.97m, High=344.47m, Low=333m, Close=333.13m, Volume = (long)4464147 },</v>
       </c>
       <c r="D276" s="3">
         <v>43136</v>
@@ -24762,7 +24761,7 @@
       </c>
       <c r="C277" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-06"), Open=(decimal)325.21, High=(decimal)336.22, Low=(decimal)323.5, Close=(decimal)333.97, Volume = (long)5088438 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-06","yyyy-MM-dd",cultureProvider), Open=325.21m, High=336.22m, Low=323.5m, Close=333.97m, Volume = (long)5088438 },</v>
       </c>
       <c r="D277" s="3">
         <v>43137</v>
@@ -24792,7 +24791,7 @@
       </c>
       <c r="C278" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-07"), Open=(decimal)338.99, High=(decimal)346, Low=(decimal)335.66, Close=(decimal)345, Volume = (long)6969239 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-07","yyyy-MM-dd",cultureProvider), Open=338.99m, High=346m, Low=335.66m, Close=345m, Volume = (long)6969239 },</v>
       </c>
       <c r="D278" s="3">
         <v>43138</v>
@@ -24822,7 +24821,7 @@
       </c>
       <c r="C279" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-08"), Open=(decimal)343.31, High=(decimal)348.62, Low=(decimal)314.6, Close=(decimal)315.23, Volume = (long)10314573 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-08","yyyy-MM-dd",cultureProvider), Open=343.31m, High=348.62m, Low=314.6m, Close=315.23m, Volume = (long)10314573 },</v>
       </c>
       <c r="D279" s="3">
         <v>43139</v>
@@ -24852,7 +24851,7 @@
       </c>
       <c r="C280" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-09"), Open=(decimal)319.93, High=(decimal)320.98, Low=(decimal)294.76, Close=(decimal)310.42, Volume = (long)12933721 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-09","yyyy-MM-dd",cultureProvider), Open=319.93m, High=320.98m, Low=294.76m, Close=310.42m, Volume = (long)12933721 },</v>
       </c>
       <c r="D280" s="3">
         <v>43140</v>
@@ -24882,7 +24881,7 @@
       </c>
       <c r="C281" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-12"), Open=(decimal)316.13, High=(decimal)318.08, Low=(decimal)306.25, Close=(decimal)315.73, Volume = (long)6227822 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-12","yyyy-MM-dd",cultureProvider), Open=316.13m, High=318.08m, Low=306.25m, Close=315.73m, Volume = (long)6227822 },</v>
       </c>
       <c r="D281" s="3">
         <v>43143</v>
@@ -24912,7 +24911,7 @@
       </c>
       <c r="C282" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-13"), Open=(decimal)315.02, High=(decimal)324.19, Low=(decimal)312.51, Close=(decimal)323.66, Volume = (long)4560231 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-13","yyyy-MM-dd",cultureProvider), Open=315.02m, High=324.19m, Low=312.51m, Close=323.66m, Volume = (long)4560231 },</v>
       </c>
       <c r="D282" s="3">
         <v>43144</v>
@@ -24942,7 +24941,7 @@
       </c>
       <c r="C283" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-14"), Open=(decimal)320.84, High=(decimal)326.17, Low=(decimal)318.52, Close=(decimal)322.31, Volume = (long)3950743 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-14","yyyy-MM-dd",cultureProvider), Open=320.84m, High=326.17m, Low=318.52m, Close=322.31m, Volume = (long)3950743 },</v>
       </c>
       <c r="D283" s="3">
         <v>43145</v>
@@ -24972,7 +24971,7 @@
       </c>
       <c r="C284" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-15"), Open=(decimal)324.5, High=(decimal)334.12, Low=(decimal)322.4, Close=(decimal)334.07, Volume = (long)5912917 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-15","yyyy-MM-dd",cultureProvider), Open=324.5m, High=334.12m, Low=322.4m, Close=334.07m, Volume = (long)5912917 },</v>
       </c>
       <c r="D284" s="3">
         <v>43146</v>
@@ -25002,7 +25001,7 @@
       </c>
       <c r="C285" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-16"), Open=(decimal)332.5, High=(decimal)343.12, Low=(decimal)331.64, Close=(decimal)335.49, Volume = (long)5642637 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-16","yyyy-MM-dd",cultureProvider), Open=332.5m, High=343.12m, Low=331.64m, Close=335.49m, Volume = (long)5642637 },</v>
       </c>
       <c r="D285" s="3">
         <v>43147</v>
@@ -25032,7 +25031,7 @@
       </c>
       <c r="C286" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-20"), Open=(decimal)334.47, High=(decimal)340.84, Low=(decimal)331.5, Close=(decimal)334.77, Volume = (long)4009435 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-20","yyyy-MM-dd",cultureProvider), Open=334.47m, High=340.84m, Low=331.5m, Close=334.77m, Volume = (long)4009435 },</v>
       </c>
       <c r="D286" s="3">
         <v>43151</v>
@@ -25062,7 +25061,7 @@
       </c>
       <c r="C287" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-21"), Open=(decimal)336.03, High=(decimal)339.69, Low=(decimal)333.17, Close=(decimal)333.3, Volume = (long)3219649 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-21","yyyy-MM-dd",cultureProvider), Open=336.03m, High=339.69m, Low=333.17m, Close=333.3m, Volume = (long)3219649 },</v>
       </c>
       <c r="D287" s="3">
         <v>43152</v>
@@ -25092,7 +25091,7 @@
       </c>
       <c r="C288" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-22"), Open=(decimal)335.53, High=(decimal)347.44, Low=(decimal)334.75, Close=(decimal)346.17, Volume = (long)6969808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-22","yyyy-MM-dd",cultureProvider), Open=335.53m, High=347.44m, Low=334.75m, Close=346.17m, Volume = (long)6969808 },</v>
       </c>
       <c r="D288" s="3">
         <v>43153</v>
@@ -25122,7 +25121,7 @@
       </c>
       <c r="C289" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-23"), Open=(decimal)347.83, High=(decimal)354.99, Low=(decimal)347.1, Close=(decimal)352.05, Volume = (long)5817387 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-23","yyyy-MM-dd",cultureProvider), Open=347.83m, High=354.99m, Low=347.1m, Close=352.05m, Volume = (long)5817387 },</v>
       </c>
       <c r="D289" s="3">
         <v>43154</v>
@@ -25152,7 +25151,7 @@
       </c>
       <c r="C290" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-26"), Open=(decimal)353.5, High=(decimal)359, Low=(decimal)352.36, Close=(decimal)357.42, Volume = (long)4339985 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-26","yyyy-MM-dd",cultureProvider), Open=353.5m, High=359m, Low=352.36m, Close=357.42m, Volume = (long)4339985 },</v>
       </c>
       <c r="D290" s="3">
         <v>43157</v>
@@ -25182,7 +25181,7 @@
       </c>
       <c r="C291" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-27"), Open=(decimal)356.25, High=(decimal)359.99, Low=(decimal)350.01, Close=(decimal)350.99, Volume = (long)4797419 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-27","yyyy-MM-dd",cultureProvider), Open=356.25m, High=359.99m, Low=350.01m, Close=350.99m, Volume = (long)4797419 },</v>
       </c>
       <c r="D291" s="3">
         <v>43158</v>
@@ -25212,7 +25211,7 @@
       </c>
       <c r="C292" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-02-28"), Open=(decimal)352.57, High=(decimal)355.24, Low=(decimal)342.22, Close=(decimal)343.06, Volume = (long)6069658 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-02-28","yyyy-MM-dd",cultureProvider), Open=352.57m, High=355.24m, Low=342.22m, Close=343.06m, Volume = (long)6069658 },</v>
       </c>
       <c r="D292" s="3">
         <v>43159</v>
@@ -25242,7 +25241,7 @@
       </c>
       <c r="C293" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-01"), Open=(decimal)345.01, High=(decimal)348.67, Low=(decimal)330.07, Close=(decimal)330.93, Volume = (long)6885601 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-01","yyyy-MM-dd",cultureProvider), Open=345.01m, High=348.67m, Low=330.07m, Close=330.93m, Volume = (long)6885601 },</v>
       </c>
       <c r="D293" s="3">
         <v>43160</v>
@@ -25272,7 +25271,7 @@
       </c>
       <c r="C294" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-02"), Open=(decimal)326.98, High=(decimal)335.22, Low=(decimal)322.97, Close=(decimal)335.12, Volume = (long)5092829 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-02","yyyy-MM-dd",cultureProvider), Open=326.98m, High=335.22m, Low=322.97m, Close=335.12m, Volume = (long)5092829 },</v>
       </c>
       <c r="D294" s="3">
         <v>43161</v>
@@ -25302,7 +25301,7 @@
       </c>
       <c r="C295" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-05"), Open=(decimal)332.39, High=(decimal)337.75, Low=(decimal)329.29, Close=(decimal)333.35, Volume = (long)3823769 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-05","yyyy-MM-dd",cultureProvider), Open=332.39m, High=337.75m, Low=329.29m, Close=333.35m, Volume = (long)3823769 },</v>
       </c>
       <c r="D295" s="3">
         <v>43164</v>
@@ -25332,7 +25331,7 @@
       </c>
       <c r="C296" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-06"), Open=(decimal)333.75, High=(decimal)336.37, Low=(decimal)327.03, Close=(decimal)328.2, Volume = (long)4285744 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-06","yyyy-MM-dd",cultureProvider), Open=333.75m, High=336.37m, Low=327.03m, Close=328.2m, Volume = (long)4285744 },</v>
       </c>
       <c r="D296" s="3">
         <v>43165</v>
@@ -25362,7 +25361,7 @@
       </c>
       <c r="C297" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-07"), Open=(decimal)325.44, High=(decimal)332.5, Low=(decimal)321.74, Close=(decimal)332.3, Volume = (long)5007297 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-07","yyyy-MM-dd",cultureProvider), Open=325.44m, High=332.5m, Low=321.74m, Close=332.3m, Volume = (long)5007297 },</v>
       </c>
       <c r="D297" s="3">
         <v>43166</v>
@@ -25392,7 +25391,7 @@
       </c>
       <c r="C298" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-08"), Open=(decimal)332.86, High=(decimal)333.3, Low=(decimal)326.27, Close=(decimal)329.1, Volume = (long)3566244 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-08","yyyy-MM-dd",cultureProvider), Open=332.86m, High=333.3m, Low=326.27m, Close=329.1m, Volume = (long)3566244 },</v>
       </c>
       <c r="D298" s="3">
         <v>43167</v>
@@ -25422,7 +25421,7 @@
       </c>
       <c r="C299" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-09"), Open=(decimal)324.1, High=(decimal)328.49, Low=(decimal)322.37, Close=(decimal)327.17, Volume = (long)5506764 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-09","yyyy-MM-dd",cultureProvider), Open=324.1m, High=328.49m, Low=322.37m, Close=327.17m, Volume = (long)5506764 },</v>
       </c>
       <c r="D299" s="3">
         <v>43168</v>
@@ -25452,7 +25451,7 @@
       </c>
       <c r="C300" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-12"), Open=(decimal)328.61, High=(decimal)347.21, Low=(decimal)326.5, Close=(decimal)345.51, Volume = (long)8264035 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-12","yyyy-MM-dd",cultureProvider), Open=328.61m, High=347.21m, Low=326.5m, Close=345.51m, Volume = (long)8264035 },</v>
       </c>
       <c r="D300" s="3">
         <v>43171</v>
@@ -25482,7 +25481,7 @@
       </c>
       <c r="C301" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-13"), Open=(decimal)344.92, High=(decimal)345.12, Low=(decimal)336.26, Close=(decimal)341.84, Volume = (long)5965805 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-13","yyyy-MM-dd",cultureProvider), Open=344.92m, High=345.12m, Low=336.26m, Close=341.84m, Volume = (long)5965805 },</v>
       </c>
       <c r="D301" s="3">
         <v>43172</v>
@@ -25512,7 +25511,7 @@
       </c>
       <c r="C302" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-14"), Open=(decimal)336.76, High=(decimal)339.81, Low=(decimal)323.93, Close=(decimal)326.63, Volume = (long)7967370 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-14","yyyy-MM-dd",cultureProvider), Open=336.76m, High=339.81m, Low=323.93m, Close=326.63m, Volume = (long)7967370 },</v>
       </c>
       <c r="D302" s="3">
         <v>43173</v>
@@ -25542,7 +25541,7 @@
       </c>
       <c r="C303" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-15"), Open=(decimal)329.38, High=(decimal)332.85, Low=(decimal)321.1, Close=(decimal)325.6, Volume = (long)6564801 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-15","yyyy-MM-dd",cultureProvider), Open=329.38m, High=332.85m, Low=321.1m, Close=325.6m, Volume = (long)6564801 },</v>
       </c>
       <c r="D303" s="3">
         <v>43174</v>
@@ -25572,7 +25571,7 @@
       </c>
       <c r="C304" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-16"), Open=(decimal)325.96, High=(decimal)327.4, Low=(decimal)319.07, Close=(decimal)321.35, Volume = (long)6117279 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-16","yyyy-MM-dd",cultureProvider), Open=325.96m, High=327.4m, Low=319.07m, Close=321.35m, Volume = (long)6117279 },</v>
       </c>
       <c r="D304" s="3">
         <v>43175</v>
@@ -25602,7 +25601,7 @@
       </c>
       <c r="C305" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-19"), Open=(decimal)316.5, High=(decimal)320.75, Low=(decimal)309.67, Close=(decimal)313.56, Volume = (long)7484294 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-19","yyyy-MM-dd",cultureProvider), Open=316.5m, High=320.75m, Low=309.67m, Close=313.56m, Volume = (long)7484294 },</v>
       </c>
       <c r="D305" s="3">
         <v>43178</v>
@@ -25632,7 +25631,7 @@
       </c>
       <c r="C306" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-20"), Open=(decimal)314.87, High=(decimal)316.25, Low=(decimal)308.76, Close=(decimal)310.55, Volume = (long)4764293 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-20","yyyy-MM-dd",cultureProvider), Open=314.87m, High=316.25m, Low=308.76m, Close=310.55m, Volume = (long)4764293 },</v>
       </c>
       <c r="D306" s="3">
         <v>43179</v>
@@ -25662,7 +25661,7 @@
       </c>
       <c r="C307" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-21"), Open=(decimal)310.25, High=(decimal)322.44, Low=(decimal)310.19, Close=(decimal)316.53, Volume = (long)5958411 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-21","yyyy-MM-dd",cultureProvider), Open=310.25m, High=322.44m, Low=310.19m, Close=316.53m, Volume = (long)5958411 },</v>
       </c>
       <c r="D307" s="3">
         <v>43180</v>
@@ -25692,7 +25691,7 @@
       </c>
       <c r="C308" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-22"), Open=(decimal)313.89, High=(decimal)318.82, Low=(decimal)308.18, Close=(decimal)309.1, Volume = (long)4939771 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-22","yyyy-MM-dd",cultureProvider), Open=313.89m, High=318.82m, Low=308.18m, Close=309.1m, Volume = (long)4939771 },</v>
       </c>
       <c r="D308" s="3">
         <v>43181</v>
@@ -25722,7 +25721,7 @@
       </c>
       <c r="C309" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-23"), Open=(decimal)311.25, High=(decimal)311.61, Low=(decimal)300.45, Close=(decimal)301.54, Volume = (long)6654899 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-23","yyyy-MM-dd",cultureProvider), Open=311.25m, High=311.61m, Low=300.45m, Close=301.54m, Volume = (long)6654899 },</v>
       </c>
       <c r="D309" s="3">
         <v>43182</v>
@@ -25752,7 +25751,7 @@
       </c>
       <c r="C310" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-26"), Open=(decimal)307.34, High=(decimal)307.59, Low=(decimal)291.36, Close=(decimal)304.18, Volume = (long)8375175 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-26","yyyy-MM-dd",cultureProvider), Open=307.34m, High=307.59m, Low=291.36m, Close=304.18m, Volume = (long)8375175 },</v>
       </c>
       <c r="D310" s="3">
         <v>43185</v>
@@ -25782,7 +25781,7 @@
       </c>
       <c r="C311" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-27"), Open=(decimal)304, High=(decimal)304.27, Low=(decimal)277.18, Close=(decimal)279.18, Volume = (long)13872029 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-27","yyyy-MM-dd",cultureProvider), Open=304m, High=304.27m, Low=277.18m, Close=279.18m, Volume = (long)13872029 },</v>
       </c>
       <c r="D311" s="3">
         <v>43186</v>
@@ -25812,7 +25811,7 @@
       </c>
       <c r="C312" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-28"), Open=(decimal)264.58, High=(decimal)268.68, Low=(decimal)252.1, Close=(decimal)257.78, Volume = (long)21001436 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-28","yyyy-MM-dd",cultureProvider), Open=264.58m, High=268.68m, Low=252.1m, Close=257.78m, Volume = (long)21001436 },</v>
       </c>
       <c r="D312" s="3">
         <v>43187</v>
@@ -25842,7 +25841,7 @@
       </c>
       <c r="C313" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-03-29"), Open=(decimal)256.49, High=(decimal)270.96, Low=(decimal)248.21, Close=(decimal)266.13, Volume = (long)15170749 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-03-29","yyyy-MM-dd",cultureProvider), Open=256.49m, High=270.96m, Low=248.21m, Close=266.13m, Volume = (long)15170749 },</v>
       </c>
       <c r="D313" s="3">
         <v>43188</v>
@@ -25872,7 +25871,7 @@
       </c>
       <c r="C314" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-02"), Open=(decimal)256.26, High=(decimal)260.33, Low=(decimal)244.59, Close=(decimal)252.48, Volume = (long)16113968 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-02","yyyy-MM-dd",cultureProvider), Open=256.26m, High=260.33m, Low=244.59m, Close=252.48m, Volume = (long)16113968 },</v>
       </c>
       <c r="D314" s="3">
         <v>43192</v>
@@ -25902,7 +25901,7 @@
       </c>
       <c r="C315" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-03"), Open=(decimal)269.82, High=(decimal)273.35, Low=(decimal)254.49, Close=(decimal)267.53, Volume = (long)18844384 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-03","yyyy-MM-dd",cultureProvider), Open=269.82m, High=273.35m, Low=254.49m, Close=267.53m, Volume = (long)18844384 },</v>
       </c>
       <c r="D315" s="3">
         <v>43193</v>
@@ -25932,7 +25931,7 @@
       </c>
       <c r="C316" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-04"), Open=(decimal)252.78, High=(decimal)288.37, Low=(decimal)252, Close=(decimal)286.94, Volume = (long)19896746 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-04","yyyy-MM-dd",cultureProvider), Open=252.78m, High=288.37m, Low=252m, Close=286.94m, Volume = (long)19896746 },</v>
       </c>
       <c r="D316" s="3">
         <v>43194</v>
@@ -25962,7 +25961,7 @@
       </c>
       <c r="C317" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-05"), Open=(decimal)289.34, High=(decimal)306.26, Low=(decimal)288.2, Close=(decimal)305.72, Volume = (long)19121100 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-05","yyyy-MM-dd",cultureProvider), Open=289.34m, High=306.26m, Low=288.2m, Close=305.72m, Volume = (long)19121100 },</v>
       </c>
       <c r="D317" s="3">
         <v>43195</v>
@@ -25992,7 +25991,7 @@
       </c>
       <c r="C318" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-06"), Open=(decimal)301, High=(decimal)309.28, Low=(decimal)295.5, Close=(decimal)299.3, Volume = (long)13520286 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-06","yyyy-MM-dd",cultureProvider), Open=301m, High=309.28m, Low=295.5m, Close=299.3m, Volume = (long)13520286 },</v>
       </c>
       <c r="D318" s="3">
         <v>43196</v>
@@ -26022,7 +26021,7 @@
       </c>
       <c r="C319" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-09"), Open=(decimal)300.37, High=(decimal)309.5, Low=(decimal)289.21, Close=(decimal)289.66, Volume = (long)10249805 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-09","yyyy-MM-dd",cultureProvider), Open=300.37m, High=309.5m, Low=289.21m, Close=289.66m, Volume = (long)10249805 },</v>
       </c>
       <c r="D319" s="3">
         <v>43199</v>
@@ -26052,7 +26051,7 @@
       </c>
       <c r="C320" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-10"), Open=(decimal)298.97, High=(decimal)307.1, Low=(decimal)293.68, Close=(decimal)304.7, Volume = (long)11024259 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-10","yyyy-MM-dd",cultureProvider), Open=298.97m, High=307.1m, Low=293.68m, Close=304.7m, Volume = (long)11024259 },</v>
       </c>
       <c r="D320" s="3">
         <v>43200</v>
@@ -26082,7 +26081,7 @@
       </c>
       <c r="C321" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-11"), Open=(decimal)300.74, High=(decimal)308.98, Low=(decimal)299.66, Close=(decimal)300.93, Volume = (long)7482945 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-11","yyyy-MM-dd",cultureProvider), Open=300.74m, High=308.98m, Low=299.66m, Close=300.93m, Volume = (long)7482945 },</v>
       </c>
       <c r="D321" s="3">
         <v>43201</v>
@@ -26111,8 +26110,8 @@
         <v>9</v>
       </c>
       <c r="C322" s="5" t="str">
-        <f t="shared" ref="C322:C385" si="5">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D322,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E322&amp;", High=(decimal)"&amp;F322&amp;", Low=(decimal)"&amp;G322&amp;", Close=(decimal)"&amp;H322&amp;", Volume = (long)"&amp;I322&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-04-12"), Open=(decimal)302.32, High=(decimal)303.95, Low=(decimal)293.68, Close=(decimal)294.08, Volume = (long)7608769 },</v>
+        <f t="shared" ref="C322:C385" si="5">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D322,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E322&amp;"m, High="&amp;F322&amp;"m, Low="&amp;G322&amp;"m, Close="&amp;H322&amp;"m, Volume = (long)"&amp;I322&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-12","yyyy-MM-dd",cultureProvider), Open=302.32m, High=303.95m, Low=293.68m, Close=294.08m, Volume = (long)7608769 },</v>
       </c>
       <c r="D322" s="3">
         <v>43202</v>
@@ -26142,7 +26141,7 @@
       </c>
       <c r="C323" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-13"), Open=(decimal)303.6, High=(decimal)303.95, Low=(decimal)295.98, Close=(decimal)300.34, Volume = (long)7327223 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-13","yyyy-MM-dd",cultureProvider), Open=303.6m, High=303.95m, Low=295.98m, Close=300.34m, Volume = (long)7327223 },</v>
       </c>
       <c r="D323" s="3">
         <v>43203</v>
@@ -26172,7 +26171,7 @@
       </c>
       <c r="C324" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-16"), Open=(decimal)299, High=(decimal)299.66, Low=(decimal)289.01, Close=(decimal)291.21, Volume = (long)6338488 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-16","yyyy-MM-dd",cultureProvider), Open=299m, High=299.66m, Low=289.01m, Close=291.21m, Volume = (long)6338488 },</v>
       </c>
       <c r="D324" s="3">
         <v>43206</v>
@@ -26202,7 +26201,7 @@
       </c>
       <c r="C325" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-17"), Open=(decimal)288.87, High=(decimal)292.17, Low=(decimal)282.51, Close=(decimal)287.69, Volume = (long)7000023 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-17","yyyy-MM-dd",cultureProvider), Open=288.87m, High=292.17m, Low=282.51m, Close=287.69m, Volume = (long)7000023 },</v>
       </c>
       <c r="D325" s="3">
         <v>43207</v>
@@ -26232,7 +26231,7 @@
       </c>
       <c r="C326" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-18"), Open=(decimal)291.08, High=(decimal)300.24, Low=(decimal)288.16, Close=(decimal)293.35, Volume = (long)6557700 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-18","yyyy-MM-dd",cultureProvider), Open=291.08m, High=300.24m, Low=288.16m, Close=293.35m, Volume = (long)6557700 },</v>
       </c>
       <c r="D326" s="3">
         <v>43208</v>
@@ -26262,7 +26261,7 @@
       </c>
       <c r="C327" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-19"), Open=(decimal)291.08, High=(decimal)301.01, Low=(decimal)288.55, Close=(decimal)300.08, Volume = (long)6090599 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-19","yyyy-MM-dd",cultureProvider), Open=291.08m, High=301.01m, Low=288.55m, Close=300.08m, Volume = (long)6090599 },</v>
       </c>
       <c r="D327" s="3">
         <v>43209</v>
@@ -26292,7 +26291,7 @@
       </c>
       <c r="C328" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-20"), Open=(decimal)295.17, High=(decimal)299.98, Low=(decimal)289.75, Close=(decimal)290.24, Volume = (long)5627928 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-20","yyyy-MM-dd",cultureProvider), Open=295.17m, High=299.98m, Low=289.75m, Close=290.24m, Volume = (long)5627928 },</v>
       </c>
       <c r="D328" s="3">
         <v>43210</v>
@@ -26322,7 +26321,7 @@
       </c>
       <c r="C329" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-23"), Open=(decimal)291.29, High=(decimal)291.62, Low=(decimal)282.33, Close=(decimal)283.37, Volume = (long)4893378 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-23","yyyy-MM-dd",cultureProvider), Open=291.29m, High=291.62m, Low=282.33m, Close=283.37m, Volume = (long)4893378 },</v>
       </c>
       <c r="D329" s="3">
         <v>43213</v>
@@ -26352,7 +26351,7 @@
       </c>
       <c r="C330" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-24"), Open=(decimal)285, High=(decimal)287.09, Low=(decimal)278.46, Close=(decimal)283.46, Volume = (long)5685308 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-24","yyyy-MM-dd",cultureProvider), Open=285m, High=287.09m, Low=278.46m, Close=283.46m, Volume = (long)5685308 },</v>
       </c>
       <c r="D330" s="3">
         <v>43214</v>
@@ -26382,7 +26381,7 @@
       </c>
       <c r="C331" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-25"), Open=(decimal)283.5, High=(decimal)285.16, Low=(decimal)277.25, Close=(decimal)280.69, Volume = (long)4013574 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-25","yyyy-MM-dd",cultureProvider), Open=283.5m, High=285.16m, Low=277.25m, Close=280.69m, Volume = (long)4013574 },</v>
       </c>
       <c r="D331" s="3">
         <v>43215</v>
@@ -26412,7 +26411,7 @@
       </c>
       <c r="C332" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-26"), Open=(decimal)278.75, High=(decimal)285.79, Low=(decimal)276.5, Close=(decimal)285.48, Volume = (long)4356013 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-26","yyyy-MM-dd",cultureProvider), Open=278.75m, High=285.79m, Low=276.5m, Close=285.48m, Volume = (long)4356013 },</v>
       </c>
       <c r="D332" s="3">
         <v>43216</v>
@@ -26442,7 +26441,7 @@
       </c>
       <c r="C333" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-27"), Open=(decimal)285.37, High=(decimal)294.47, Low=(decimal)283.83, Close=(decimal)294.08, Volume = (long)4364626 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-27","yyyy-MM-dd",cultureProvider), Open=285.37m, High=294.47m, Low=283.83m, Close=294.08m, Volume = (long)4364626 },</v>
       </c>
       <c r="D333" s="3">
         <v>43217</v>
@@ -26472,7 +26471,7 @@
       </c>
       <c r="C334" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-04-30"), Open=(decimal)293.61, High=(decimal)298.73, Low=(decimal)292.5, Close=(decimal)293.9, Volume = (long)4228172 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-04-30","yyyy-MM-dd",cultureProvider), Open=293.61m, High=298.73m, Low=292.5m, Close=293.9m, Volume = (long)4228172 },</v>
       </c>
       <c r="D334" s="3">
         <v>43220</v>
@@ -26502,7 +26501,7 @@
       </c>
       <c r="C335" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-01"), Open=(decimal)293.51, High=(decimal)300.82, Low=(decimal)293.22, Close=(decimal)299.92, Volume = (long)4625603 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-01","yyyy-MM-dd",cultureProvider), Open=293.51m, High=300.82m, Low=293.22m, Close=299.92m, Volume = (long)4625603 },</v>
       </c>
       <c r="D335" s="3">
         <v>43221</v>
@@ -26532,7 +26531,7 @@
       </c>
       <c r="C336" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-02"), Open=(decimal)298.57, High=(decimal)306.85, Low=(decimal)297.78, Close=(decimal)301.15, Volume = (long)8970370 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-02","yyyy-MM-dd",cultureProvider), Open=298.57m, High=306.85m, Low=297.78m, Close=301.15m, Volume = (long)8970370 },</v>
       </c>
       <c r="D336" s="3">
         <v>43222</v>
@@ -26562,7 +26561,7 @@
       </c>
       <c r="C337" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-03"), Open=(decimal)278.79, High=(decimal)288.04, Low=(decimal)275.23, Close=(decimal)284.45, Volume = (long)17352130 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-03","yyyy-MM-dd",cultureProvider), Open=278.79m, High=288.04m, Low=275.23m, Close=284.45m, Volume = (long)17352130 },</v>
       </c>
       <c r="D337" s="3">
         <v>43223</v>
@@ -26592,7 +26591,7 @@
       </c>
       <c r="C338" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-04"), Open=(decimal)283, High=(decimal)296.86, Low=(decimal)279.52, Close=(decimal)294.09, Volume = (long)8569354 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-04","yyyy-MM-dd",cultureProvider), Open=283m, High=296.86m, Low=279.52m, Close=294.09m, Volume = (long)8569354 },</v>
       </c>
       <c r="D338" s="3">
         <v>43224</v>
@@ -26622,7 +26621,7 @@
       </c>
       <c r="C339" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-07"), Open=(decimal)297.5, High=(decimal)305.96, Low=(decimal)295.17, Close=(decimal)302.77, Volume = (long)8678224 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-07","yyyy-MM-dd",cultureProvider), Open=297.5m, High=305.96m, Low=295.17m, Close=302.77m, Volume = (long)8678224 },</v>
       </c>
       <c r="D339" s="3">
         <v>43227</v>
@@ -26652,7 +26651,7 @@
       </c>
       <c r="C340" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-08"), Open=(decimal)300.8, High=(decimal)307.75, Low=(decimal)299, Close=(decimal)301.97, Volume = (long)5930000 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-08","yyyy-MM-dd",cultureProvider), Open=300.8m, High=307.75m, Low=299m, Close=301.97m, Volume = (long)5930000 },</v>
       </c>
       <c r="D340" s="3">
         <v>43228</v>
@@ -26682,7 +26681,7 @@
       </c>
       <c r="C341" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-09"), Open=(decimal)300.41, High=(decimal)307.01, Low=(decimal)300.05, Close=(decimal)306.85, Volume = (long)5727365 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-09","yyyy-MM-dd",cultureProvider), Open=300.41m, High=307.01m, Low=300.05m, Close=306.85m, Volume = (long)5727365 },</v>
       </c>
       <c r="D341" s="3">
         <v>43229</v>
@@ -26712,7 +26711,7 @@
       </c>
       <c r="C342" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-10"), Open=(decimal)307.5, High=(decimal)312.99, Low=(decimal)304.11, Close=(decimal)305.02, Volume = (long)5651561 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-10","yyyy-MM-dd",cultureProvider), Open=307.5m, High=312.99m, Low=304.11m, Close=305.02m, Volume = (long)5651561 },</v>
       </c>
       <c r="D342" s="3">
         <v>43230</v>
@@ -26742,7 +26741,7 @@
       </c>
       <c r="C343" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-11"), Open=(decimal)307.7, High=(decimal)308.88, Low=(decimal)299.08, Close=(decimal)301.06, Volume = (long)4679649 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-11","yyyy-MM-dd",cultureProvider), Open=307.7m, High=308.88m, Low=299.08m, Close=301.06m, Volume = (long)4679649 },</v>
       </c>
       <c r="D343" s="3">
         <v>43231</v>
@@ -26772,7 +26771,7 @@
       </c>
       <c r="C344" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-14"), Open=(decimal)303.32, High=(decimal)304.94, Low=(decimal)291.62, Close=(decimal)291.97, Volume = (long)7286804 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-14","yyyy-MM-dd",cultureProvider), Open=303.32m, High=304.94m, Low=291.62m, Close=291.97m, Volume = (long)7286804 },</v>
       </c>
       <c r="D344" s="3">
         <v>43234</v>
@@ -26802,7 +26801,7 @@
       </c>
       <c r="C345" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-15"), Open=(decimal)285.01, High=(decimal)286.96, Low=(decimal)280.5, Close=(decimal)284.18, Volume = (long)9519173 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-15","yyyy-MM-dd",cultureProvider), Open=285.01m, High=286.96m, Low=280.5m, Close=284.18m, Volume = (long)9519173 },</v>
       </c>
       <c r="D345" s="3">
         <v>43235</v>
@@ -26832,7 +26831,7 @@
       </c>
       <c r="C346" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-16"), Open=(decimal)283.83, High=(decimal)288.81, Low=(decimal)281.56, Close=(decimal)286.48, Volume = (long)5674019 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-16","yyyy-MM-dd",cultureProvider), Open=283.83m, High=288.81m, Low=281.56m, Close=286.48m, Volume = (long)5674019 },</v>
       </c>
       <c r="D346" s="3">
         <v>43236</v>
@@ -26862,7 +26861,7 @@
       </c>
       <c r="C347" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-17"), Open=(decimal)285.9, High=(decimal)289.19, Low=(decimal)283.97, Close=(decimal)284.54, Volume = (long)4420612 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-17","yyyy-MM-dd",cultureProvider), Open=285.9m, High=289.19m, Low=283.97m, Close=284.54m, Volume = (long)4420612 },</v>
       </c>
       <c r="D347" s="3">
         <v>43237</v>
@@ -26892,7 +26891,7 @@
       </c>
       <c r="C348" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-18"), Open=(decimal)284.65, High=(decimal)284.65, Low=(decimal)274, Close=(decimal)276.82, Volume = (long)7251887 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-18","yyyy-MM-dd",cultureProvider), Open=284.65m, High=284.65m, Low=274m, Close=276.82m, Volume = (long)7251887 },</v>
       </c>
       <c r="D348" s="3">
         <v>43238</v>
@@ -26922,7 +26921,7 @@
       </c>
       <c r="C349" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-21"), Open=(decimal)281.33, High=(decimal)291.49, Low=(decimal)281.3, Close=(decimal)284.49, Volume = (long)9182571 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-21","yyyy-MM-dd",cultureProvider), Open=281.33m, High=291.49m, Low=281.3m, Close=284.49m, Volume = (long)9182571 },</v>
       </c>
       <c r="D349" s="3">
         <v>43241</v>
@@ -26952,7 +26951,7 @@
       </c>
       <c r="C350" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-22"), Open=(decimal)287.76, High=(decimal)288, Low=(decimal)273.42, Close=(decimal)275.01, Volume = (long)8945756 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-22","yyyy-MM-dd",cultureProvider), Open=287.76m, High=288m, Low=273.42m, Close=275.01m, Volume = (long)8945756 },</v>
       </c>
       <c r="D350" s="3">
         <v>43242</v>
@@ -26982,7 +26981,7 @@
       </c>
       <c r="C351" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-23"), Open=(decimal)277.76, High=(decimal)279.91, Low=(decimal)274, Close=(decimal)279.07, Volume = (long)5985053 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-23","yyyy-MM-dd",cultureProvider), Open=277.76m, High=279.91m, Low=274m, Close=279.07m, Volume = (long)5985053 },</v>
       </c>
       <c r="D351" s="3">
         <v>43243</v>
@@ -27012,7 +27011,7 @@
       </c>
       <c r="C352" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-24"), Open=(decimal)278.4, High=(decimal)281.11, Low=(decimal)274.89, Close=(decimal)277.85, Volume = (long)4176708 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-24","yyyy-MM-dd",cultureProvider), Open=278.4m, High=281.11m, Low=274.89m, Close=277.85m, Volume = (long)4176708 },</v>
       </c>
       <c r="D352" s="3">
         <v>43244</v>
@@ -27042,7 +27041,7 @@
       </c>
       <c r="C353" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-25"), Open=(decimal)277.63, High=(decimal)279.64, Low=(decimal)275.61, Close=(decimal)278.85, Volume = (long)3875082 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-25","yyyy-MM-dd",cultureProvider), Open=277.63m, High=279.64m, Low=275.61m, Close=278.85m, Volume = (long)3875082 },</v>
       </c>
       <c r="D353" s="3">
         <v>43245</v>
@@ -27072,7 +27071,7 @@
       </c>
       <c r="C354" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-29"), Open=(decimal)278.51, High=(decimal)286.5, Low=(decimal)276.15, Close=(decimal)283.76, Volume = (long)5666640 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-29","yyyy-MM-dd",cultureProvider), Open=278.51m, High=286.5m, Low=276.15m, Close=283.76m, Volume = (long)5666640 },</v>
       </c>
       <c r="D354" s="3">
         <v>43249</v>
@@ -27102,7 +27101,7 @@
       </c>
       <c r="C355" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-30"), Open=(decimal)283.29, High=(decimal)295.01, Low=(decimal)281.6, Close=(decimal)291.72, Volume = (long)7489686 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-30","yyyy-MM-dd",cultureProvider), Open=283.29m, High=295.01m, Low=281.6m, Close=291.72m, Volume = (long)7489686 },</v>
       </c>
       <c r="D355" s="3">
         <v>43250</v>
@@ -27132,7 +27131,7 @@
       </c>
       <c r="C356" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-05-31"), Open=(decimal)287.21, High=(decimal)290.37, Low=(decimal)282.93, Close=(decimal)284.73, Volume = (long)5919721 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-05-31","yyyy-MM-dd",cultureProvider), Open=287.21m, High=290.37m, Low=282.93m, Close=284.73m, Volume = (long)5919721 },</v>
       </c>
       <c r="D356" s="3">
         <v>43251</v>
@@ -27162,7 +27161,7 @@
       </c>
       <c r="C357" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-01"), Open=(decimal)285.86, High=(decimal)291.95, Low=(decimal)283.84, Close=(decimal)291.82, Volume = (long)5424386 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-01","yyyy-MM-dd",cultureProvider), Open=285.86m, High=291.95m, Low=283.84m, Close=291.82m, Volume = (long)5424386 },</v>
       </c>
       <c r="D357" s="3">
         <v>43252</v>
@@ -27192,7 +27191,7 @@
       </c>
       <c r="C358" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-04"), Open=(decimal)294.34, High=(decimal)299, Low=(decimal)293.55, Close=(decimal)296.74, Volume = (long)4797810 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-04","yyyy-MM-dd",cultureProvider), Open=294.34m, High=299m, Low=293.55m, Close=296.74m, Volume = (long)4797810 },</v>
       </c>
       <c r="D358" s="3">
         <v>43255</v>
@@ -27222,7 +27221,7 @@
       </c>
       <c r="C359" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-05"), Open=(decimal)297.7, High=(decimal)297.8, Low=(decimal)286.74, Close=(decimal)291.13, Volume = (long)5995157 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-05","yyyy-MM-dd",cultureProvider), Open=297.7m, High=297.8m, Low=286.74m, Close=291.13m, Volume = (long)5995157 },</v>
       </c>
       <c r="D359" s="3">
         <v>43256</v>
@@ -27252,7 +27251,7 @@
       </c>
       <c r="C360" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-06"), Open=(decimal)300.5, High=(decimal)322.17, Low=(decimal)297.48, Close=(decimal)319.5, Volume = (long)18767268 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-06","yyyy-MM-dd",cultureProvider), Open=300.5m, High=322.17m, Low=297.48m, Close=319.5m, Volume = (long)18767268 },</v>
       </c>
       <c r="D360" s="3">
         <v>43257</v>
@@ -27282,7 +27281,7 @@
       </c>
       <c r="C361" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-07"), Open=(decimal)316.15, High=(decimal)330, Low=(decimal)313.58, Close=(decimal)316.09, Volume = (long)14345271 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-07","yyyy-MM-dd",cultureProvider), Open=316.15m, High=330m, Low=313.58m, Close=316.09m, Volume = (long)14345271 },</v>
       </c>
       <c r="D361" s="3">
         <v>43258</v>
@@ -27312,7 +27311,7 @@
       </c>
       <c r="C362" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-08"), Open=(decimal)319, High=(decimal)324.48, Low=(decimal)317.15, Close=(decimal)317.66, Volume = (long)8205202 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-08","yyyy-MM-dd",cultureProvider), Open=319m, High=324.48m, Low=317.15m, Close=317.66m, Volume = (long)8205202 },</v>
       </c>
       <c r="D362" s="3">
         <v>43259</v>
@@ -27342,7 +27341,7 @@
       </c>
       <c r="C363" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-11"), Open=(decimal)322.51, High=(decimal)334.66, Low=(decimal)322.5, Close=(decimal)332.1, Volume = (long)13183473 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-11","yyyy-MM-dd",cultureProvider), Open=322.51m, High=334.66m, Low=322.5m, Close=332.1m, Volume = (long)13183473 },</v>
       </c>
       <c r="D363" s="3">
         <v>43262</v>
@@ -27372,7 +27371,7 @@
       </c>
       <c r="C364" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-12"), Open=(decimal)344.7, High=(decimal)354.97, Low=(decimal)338, Close=(decimal)342.77, Volume = (long)22347404 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-12","yyyy-MM-dd",cultureProvider), Open=344.7m, High=354.97m, Low=338m, Close=342.77m, Volume = (long)22347404 },</v>
       </c>
       <c r="D364" s="3">
         <v>43263</v>
@@ -27402,7 +27401,7 @@
       </c>
       <c r="C365" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-13"), Open=(decimal)346.71, High=(decimal)347.2, Low=(decimal)339.8, Close=(decimal)344.78, Volume = (long)9469804 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-13","yyyy-MM-dd",cultureProvider), Open=346.71m, High=347.2m, Low=339.8m, Close=344.78m, Volume = (long)9469804 },</v>
       </c>
       <c r="D365" s="3">
         <v>43264</v>
@@ -27432,7 +27431,7 @@
       </c>
       <c r="C366" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-14"), Open=(decimal)347.63, High=(decimal)358.75, Low=(decimal)346.6, Close=(decimal)357.72, Volume = (long)10981023 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-14","yyyy-MM-dd",cultureProvider), Open=347.63m, High=358.75m, Low=346.6m, Close=357.72m, Volume = (long)10981023 },</v>
       </c>
       <c r="D366" s="3">
         <v>43265</v>
@@ -27462,7 +27461,7 @@
       </c>
       <c r="C367" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-15"), Open=(decimal)353.84, High=(decimal)364.67, Low=(decimal)351.25, Close=(decimal)358.17, Volume = (long)10848254 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-15","yyyy-MM-dd",cultureProvider), Open=353.84m, High=364.67m, Low=351.25m, Close=358.17m, Volume = (long)10848254 },</v>
       </c>
       <c r="D367" s="3">
         <v>43266</v>
@@ -27492,7 +27491,7 @@
       </c>
       <c r="C368" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-18"), Open=(decimal)355.4, High=(decimal)373.73, Low=(decimal)354.5, Close=(decimal)370.83, Volume = (long)12073226 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-18","yyyy-MM-dd",cultureProvider), Open=355.4m, High=373.73m, Low=354.5m, Close=370.83m, Volume = (long)12073226 },</v>
       </c>
       <c r="D368" s="3">
         <v>43269</v>
@@ -27522,7 +27521,7 @@
       </c>
       <c r="C369" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-19"), Open=(decimal)365.16, High=(decimal)370, Low=(decimal)346.25, Close=(decimal)352.55, Volume = (long)12761903 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-19","yyyy-MM-dd",cultureProvider), Open=365.16m, High=370m, Low=346.25m, Close=352.55m, Volume = (long)12761903 },</v>
       </c>
       <c r="D369" s="3">
         <v>43270</v>
@@ -27552,7 +27551,7 @@
       </c>
       <c r="C370" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-20"), Open=(decimal)358.04, High=(decimal)364.38, Low=(decimal)352, Close=(decimal)362.22, Volume = (long)8383656 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-20","yyyy-MM-dd",cultureProvider), Open=358.04m, High=364.38m, Low=352m, Close=362.22m, Volume = (long)8383656 },</v>
       </c>
       <c r="D370" s="3">
         <v>43271</v>
@@ -27582,7 +27581,7 @@
       </c>
       <c r="C371" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-21"), Open=(decimal)362, High=(decimal)366.21, Low=(decimal)346.27, Close=(decimal)347.51, Volume = (long)7967145 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-21","yyyy-MM-dd",cultureProvider), Open=362m, High=366.21m, Low=346.27m, Close=347.51m, Volume = (long)7967145 },</v>
       </c>
       <c r="D371" s="3">
         <v>43272</v>
@@ -27612,7 +27611,7 @@
       </c>
       <c r="C372" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-22"), Open=(decimal)351.54, High=(decimal)352.25, Low=(decimal)332, Close=(decimal)333.63, Volume = (long)10266059 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-22","yyyy-MM-dd",cultureProvider), Open=351.54m, High=352.25m, Low=332m, Close=333.63m, Volume = (long)10266059 },</v>
       </c>
       <c r="D372" s="3">
         <v>43273</v>
@@ -27642,7 +27641,7 @@
       </c>
       <c r="C373" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-25"), Open=(decimal)330.12, High=(decimal)338.47, Low=(decimal)327.5, Close=(decimal)333.01, Volume = (long)6931304 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-25","yyyy-MM-dd",cultureProvider), Open=330.12m, High=338.47m, Low=327.5m, Close=333.01m, Volume = (long)6931304 },</v>
       </c>
       <c r="D373" s="3">
         <v>43276</v>
@@ -27672,7 +27671,7 @@
       </c>
       <c r="C374" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-26"), Open=(decimal)336.05, High=(decimal)343.55, Low=(decimal)325.8, Close=(decimal)342, Volume = (long)7452487 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-26","yyyy-MM-dd",cultureProvider), Open=336.05m, High=343.55m, Low=325.8m, Close=342m, Volume = (long)7452487 },</v>
       </c>
       <c r="D374" s="3">
         <v>43277</v>
@@ -27702,7 +27701,7 @@
       </c>
       <c r="C375" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-27"), Open=(decimal)345, High=(decimal)350.79, Low=(decimal)339.5, Close=(decimal)344.5, Volume = (long)8333727 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-27","yyyy-MM-dd",cultureProvider), Open=345m, High=350.79m, Low=339.5m, Close=344.5m, Volume = (long)8333727 },</v>
       </c>
       <c r="D375" s="3">
         <v>43278</v>
@@ -27732,7 +27731,7 @@
       </c>
       <c r="C376" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-28"), Open=(decimal)348.66, High=(decimal)357.02, Low=(decimal)346.11, Close=(decimal)349.93, Volume = (long)8398005 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-28","yyyy-MM-dd",cultureProvider), Open=348.66m, High=357.02m, Low=346.11m, Close=349.93m, Volume = (long)8398005 },</v>
       </c>
       <c r="D376" s="3">
         <v>43279</v>
@@ -27762,7 +27761,7 @@
       </c>
       <c r="C377" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-06-29"), Open=(decimal)353.33, High=(decimal)353.86, Low=(decimal)342.41, Close=(decimal)342.95, Volume = (long)6492396 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-06-29","yyyy-MM-dd",cultureProvider), Open=353.33m, High=353.86m, Low=342.41m, Close=342.95m, Volume = (long)6492396 },</v>
       </c>
       <c r="D377" s="3">
         <v>43280</v>
@@ -27792,7 +27791,7 @@
       </c>
       <c r="C378" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-02"), Open=(decimal)360.07, High=(decimal)364.78, Low=(decimal)329.85, Close=(decimal)335.07, Volume = (long)18759764 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-02","yyyy-MM-dd",cultureProvider), Open=360.07m, High=364.78m, Low=329.85m, Close=335.07m, Volume = (long)18759764 },</v>
       </c>
       <c r="D378" s="3">
         <v>43283</v>
@@ -27822,7 +27821,7 @@
       </c>
       <c r="C379" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-03"), Open=(decimal)331.75, High=(decimal)332.49, Low=(decimal)309.69, Close=(decimal)310.86, Volume = (long)12282638 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-03","yyyy-MM-dd",cultureProvider), Open=331.75m, High=332.49m, Low=309.69m, Close=310.86m, Volume = (long)12282638 },</v>
       </c>
       <c r="D379" s="3">
         <v>43284</v>
@@ -27852,7 +27851,7 @@
       </c>
       <c r="C380" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-05"), Open=(decimal)313.76, High=(decimal)314.39, Low=(decimal)296.22, Close=(decimal)309.16, Volume = (long)17476374 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-05","yyyy-MM-dd",cultureProvider), Open=313.76m, High=314.39m, Low=296.22m, Close=309.16m, Volume = (long)17476374 },</v>
       </c>
       <c r="D380" s="3">
         <v>43286</v>
@@ -27882,7 +27881,7 @@
       </c>
       <c r="C381" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-06"), Open=(decimal)304.95, High=(decimal)312.07, Low=(decimal)302, Close=(decimal)308.9, Volume = (long)8865451 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-06","yyyy-MM-dd",cultureProvider), Open=304.95m, High=312.07m, Low=302m, Close=308.9m, Volume = (long)8865451 },</v>
       </c>
       <c r="D381" s="3">
         <v>43287</v>
@@ -27912,7 +27911,7 @@
       </c>
       <c r="C382" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-09"), Open=(decimal)311.99, High=(decimal)318.52, Low=(decimal)308, Close=(decimal)318.51, Volume = (long)7596753 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-09","yyyy-MM-dd",cultureProvider), Open=311.99m, High=318.52m, Low=308m, Close=318.51m, Volume = (long)7596753 },</v>
       </c>
       <c r="D382" s="3">
         <v>43290</v>
@@ -27942,7 +27941,7 @@
       </c>
       <c r="C383" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-10"), Open=(decimal)324.56, High=(decimal)327.68, Low=(decimal)319.2, Close=(decimal)322.47, Volume = (long)9471498 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-10","yyyy-MM-dd",cultureProvider), Open=324.56m, High=327.68m, Low=319.2m, Close=322.47m, Volume = (long)9471498 },</v>
       </c>
       <c r="D383" s="3">
         <v>43291</v>
@@ -27972,7 +27971,7 @@
       </c>
       <c r="C384" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-11"), Open=(decimal)315.8, High=(decimal)321.94, Low=(decimal)315.07, Close=(decimal)318.96, Volume = (long)4884076 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-11","yyyy-MM-dd",cultureProvider), Open=315.8m, High=321.94m, Low=315.07m, Close=318.96m, Volume = (long)4884076 },</v>
       </c>
       <c r="D384" s="3">
         <v>43292</v>
@@ -28002,7 +28001,7 @@
       </c>
       <c r="C385" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-12"), Open=(decimal)321.43, High=(decimal)323.23, Low=(decimal)312.77, Close=(decimal)316.71, Volume = (long)5721166 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-12","yyyy-MM-dd",cultureProvider), Open=321.43m, High=323.23m, Low=312.77m, Close=316.71m, Volume = (long)5721166 },</v>
       </c>
       <c r="D385" s="3">
         <v>43293</v>
@@ -28031,8 +28030,8 @@
         <v>9</v>
       </c>
       <c r="C386" s="5" t="str">
-        <f t="shared" ref="C386:C449" si="6">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D386,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E386&amp;", High=(decimal)"&amp;F386&amp;", Low=(decimal)"&amp;G386&amp;", Close=(decimal)"&amp;H386&amp;", Volume = (long)"&amp;I386&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-07-13"), Open=(decimal)315.58, High=(decimal)319.58, Low=(decimal)309.25, Close=(decimal)318.87, Volume = (long)5875770 },</v>
+        <f t="shared" ref="C386:C449" si="6">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D386,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E386&amp;"m, High="&amp;F386&amp;"m, Low="&amp;G386&amp;"m, Close="&amp;H386&amp;"m, Volume = (long)"&amp;I386&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-13","yyyy-MM-dd",cultureProvider), Open=315.58m, High=319.58m, Low=309.25m, Close=318.87m, Volume = (long)5875770 },</v>
       </c>
       <c r="D386" s="3">
         <v>43294</v>
@@ -28062,7 +28061,7 @@
       </c>
       <c r="C387" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-16"), Open=(decimal)311.71, High=(decimal)315.16, Low=(decimal)306.25, Close=(decimal)310.1, Volume = (long)7818655 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-16","yyyy-MM-dd",cultureProvider), Open=311.71m, High=315.16m, Low=306.25m, Close=310.1m, Volume = (long)7818655 },</v>
       </c>
       <c r="D387" s="3">
         <v>43297</v>
@@ -28092,7 +28091,7 @@
       </c>
       <c r="C388" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-17"), Open=(decimal)308.81, High=(decimal)324.74, Low=(decimal)308.5, Close=(decimal)322.69, Volume = (long)6996232 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-17","yyyy-MM-dd",cultureProvider), Open=308.81m, High=324.74m, Low=308.5m, Close=322.69m, Volume = (long)6996232 },</v>
       </c>
       <c r="D388" s="3">
         <v>43298</v>
@@ -28122,7 +28121,7 @@
       </c>
       <c r="C389" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-18"), Open=(decimal)325, High=(decimal)325.5, Low=(decimal)316.25, Close=(decimal)323.85, Volume = (long)5624211 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-18","yyyy-MM-dd",cultureProvider), Open=325m, High=325.5m, Low=316.25m, Close=323.85m, Volume = (long)5624211 },</v>
       </c>
       <c r="D389" s="3">
         <v>43299</v>
@@ -28152,7 +28151,7 @@
       </c>
       <c r="C390" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-19"), Open=(decimal)316.33, High=(decimal)323.54, Low=(decimal)314.01, Close=(decimal)320.23, Volume = (long)5915345 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-19","yyyy-MM-dd",cultureProvider), Open=316.33m, High=323.54m, Low=314.01m, Close=320.23m, Volume = (long)5915345 },</v>
       </c>
       <c r="D390" s="3">
         <v>43300</v>
@@ -28182,7 +28181,7 @@
       </c>
       <c r="C391" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-20"), Open=(decimal)321.23, High=(decimal)323.24, Low=(decimal)311.71, Close=(decimal)313.58, Volume = (long)5166547 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-20","yyyy-MM-dd",cultureProvider), Open=321.23m, High=323.24m, Low=311.71m, Close=313.58m, Volume = (long)5166547 },</v>
       </c>
       <c r="D391" s="3">
         <v>43301</v>
@@ -28212,7 +28211,7 @@
       </c>
       <c r="C392" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-23"), Open=(decimal)301.84, High=(decimal)305.5, Low=(decimal)292.86, Close=(decimal)303.2, Volume = (long)10992947 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-23","yyyy-MM-dd",cultureProvider), Open=301.84m, High=305.5m, Low=292.86m, Close=303.2m, Volume = (long)10992947 },</v>
       </c>
       <c r="D392" s="3">
         <v>43304</v>
@@ -28242,7 +28241,7 @@
       </c>
       <c r="C393" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-24"), Open=(decimal)304.42, High=(decimal)307.72, Low=(decimal)292.55, Close=(decimal)297.43, Volume = (long)9590784 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-24","yyyy-MM-dd",cultureProvider), Open=304.42m, High=307.72m, Low=292.55m, Close=297.43m, Volume = (long)9590784 },</v>
       </c>
       <c r="D393" s="3">
         <v>43305</v>
@@ -28272,7 +28271,7 @@
       </c>
       <c r="C394" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-25"), Open=(decimal)296.74, High=(decimal)309.62, Low=(decimal)294.5, Close=(decimal)308.74, Volume = (long)7094180 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-25","yyyy-MM-dd",cultureProvider), Open=296.74m, High=309.62m, Low=294.5m, Close=308.74m, Volume = (long)7094180 },</v>
       </c>
       <c r="D394" s="3">
         <v>43306</v>
@@ -28302,7 +28301,7 @@
       </c>
       <c r="C395" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-26"), Open=(decimal)304.85, High=(decimal)310.7, Low=(decimal)303.64, Close=(decimal)306.65, Volume = (long)4630522 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-26","yyyy-MM-dd",cultureProvider), Open=304.85m, High=310.7m, Low=303.64m, Close=306.65m, Volume = (long)4630522 },</v>
       </c>
       <c r="D395" s="3">
         <v>43307</v>
@@ -28332,7 +28331,7 @@
       </c>
       <c r="C396" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-27"), Open=(decimal)307.25, High=(decimal)307.69, Low=(decimal)295.34, Close=(decimal)297.18, Volume = (long)5703326 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-27","yyyy-MM-dd",cultureProvider), Open=307.25m, High=307.69m, Low=295.34m, Close=297.18m, Volume = (long)5703326 },</v>
       </c>
       <c r="D396" s="3">
         <v>43308</v>
@@ -28362,7 +28361,7 @@
       </c>
       <c r="C397" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-30"), Open=(decimal)295.9, High=(decimal)296.1, Low=(decimal)286.13, Close=(decimal)290.17, Volume = (long)6814072 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-30","yyyy-MM-dd",cultureProvider), Open=295.9m, High=296.1m, Low=286.13m, Close=290.17m, Volume = (long)6814072 },</v>
       </c>
       <c r="D397" s="3">
         <v>43311</v>
@@ -28392,7 +28391,7 @@
       </c>
       <c r="C398" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-07-31"), Open=(decimal)292.25, High=(decimal)298.32, Low=(decimal)289.07, Close=(decimal)298.14, Volume = (long)5076916 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-07-31","yyyy-MM-dd",cultureProvider), Open=292.25m, High=298.32m, Low=289.07m, Close=298.14m, Volume = (long)5076916 },</v>
       </c>
       <c r="D398" s="3">
         <v>43312</v>
@@ -28422,7 +28421,7 @@
       </c>
       <c r="C399" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-01"), Open=(decimal)297.99, High=(decimal)303, Low=(decimal)293, Close=(decimal)300.84, Volume = (long)10129430 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-01","yyyy-MM-dd",cultureProvider), Open=297.99m, High=303m, Low=293m, Close=300.84m, Volume = (long)10129430 },</v>
       </c>
       <c r="D399" s="3">
         <v>43313</v>
@@ -28452,7 +28451,7 @@
       </c>
       <c r="C400" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-02"), Open=(decimal)328.44, High=(decimal)349.99, Low=(decimal)323.16, Close=(decimal)349.54, Volume = (long)23214962 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-02","yyyy-MM-dd",cultureProvider), Open=328.44m, High=349.99m, Low=323.16m, Close=349.54m, Volume = (long)23214962 },</v>
       </c>
       <c r="D400" s="3">
         <v>43314</v>
@@ -28482,7 +28481,7 @@
       </c>
       <c r="C401" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-03"), Open=(decimal)347.81, High=(decimal)355, Low=(decimal)342.53, Close=(decimal)348.17, Volume = (long)13656486 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-03","yyyy-MM-dd",cultureProvider), Open=347.81m, High=355m, Low=342.53m, Close=348.17m, Volume = (long)13656486 },</v>
       </c>
       <c r="D401" s="3">
         <v>43315</v>
@@ -28512,7 +28511,7 @@
       </c>
       <c r="C402" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-06"), Open=(decimal)345.46, High=(decimal)354.98, Low=(decimal)341.82, Close=(decimal)341.99, Volume = (long)8564331 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-06","yyyy-MM-dd",cultureProvider), Open=345.46m, High=354.98m, Low=341.82m, Close=341.99m, Volume = (long)8564331 },</v>
       </c>
       <c r="D402" s="3">
         <v>43318</v>
@@ -28542,7 +28541,7 @@
       </c>
       <c r="C403" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-07"), Open=(decimal)343.84, High=(decimal)387.46, Low=(decimal)339.15, Close=(decimal)379.57, Volume = (long)30875768 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-07","yyyy-MM-dd",cultureProvider), Open=343.84m, High=387.46m, Low=339.15m, Close=379.57m, Volume = (long)30875768 },</v>
       </c>
       <c r="D403" s="3">
         <v>43319</v>
@@ -28572,7 +28571,7 @@
       </c>
       <c r="C404" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-08"), Open=(decimal)369.09, High=(decimal)382.64, Low=(decimal)367.12, Close=(decimal)370.34, Volume = (long)24571164 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-08","yyyy-MM-dd",cultureProvider), Open=369.09m, High=382.64m, Low=367.12m, Close=370.34m, Volume = (long)24571164 },</v>
       </c>
       <c r="D404" s="3">
         <v>43320</v>
@@ -28602,7 +28601,7 @@
       </c>
       <c r="C405" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-09"), Open=(decimal)365.55, High=(decimal)367.01, Low=(decimal)345.73, Close=(decimal)352.45, Volume = (long)17183812 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-09","yyyy-MM-dd",cultureProvider), Open=365.55m, High=367.01m, Low=345.73m, Close=352.45m, Volume = (long)17183812 },</v>
       </c>
       <c r="D405" s="3">
         <v>43321</v>
@@ -28632,7 +28631,7 @@
       </c>
       <c r="C406" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-10"), Open=(decimal)354, High=(decimal)360, Low=(decimal)346, Close=(decimal)355.49, Volume = (long)11552044 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-10","yyyy-MM-dd",cultureProvider), Open=354m, High=360m, Low=346m, Close=355.49m, Volume = (long)11552044 },</v>
       </c>
       <c r="D406" s="3">
         <v>43322</v>
@@ -28662,7 +28661,7 @@
       </c>
       <c r="C407" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-13"), Open=(decimal)361.13, High=(decimal)363.19, Low=(decimal)349.02, Close=(decimal)356.41, Volume = (long)10463881 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-13","yyyy-MM-dd",cultureProvider), Open=361.13m, High=363.19m, Low=349.02m, Close=356.41m, Volume = (long)10463881 },</v>
       </c>
       <c r="D407" s="3">
         <v>43325</v>
@@ -28692,7 +28691,7 @@
       </c>
       <c r="C408" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-14"), Open=(decimal)358.45, High=(decimal)359.2, Low=(decimal)347.1, Close=(decimal)347.64, Volume = (long)6986427 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-14","yyyy-MM-dd",cultureProvider), Open=358.45m, High=359.2m, Low=347.1m, Close=347.64m, Volume = (long)6986427 },</v>
       </c>
       <c r="D408" s="3">
         <v>43326</v>
@@ -28722,7 +28721,7 @@
       </c>
       <c r="C409" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-15"), Open=(decimal)341.91, High=(decimal)344.49, Low=(decimal)332.14, Close=(decimal)338.69, Volume = (long)9101258 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-15","yyyy-MM-dd",cultureProvider), Open=341.91m, High=344.49m, Low=332.14m, Close=338.69m, Volume = (long)9101258 },</v>
       </c>
       <c r="D409" s="3">
         <v>43327</v>
@@ -28752,7 +28751,7 @@
       </c>
       <c r="C410" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-16"), Open=(decimal)339.91, High=(decimal)342.28, Low=(decimal)333.82, Close=(decimal)335.45, Volume = (long)6064033 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-16","yyyy-MM-dd",cultureProvider), Open=339.91m, High=342.28m, Low=333.82m, Close=335.45m, Volume = (long)6064033 },</v>
       </c>
       <c r="D410" s="3">
         <v>43328</v>
@@ -28782,7 +28781,7 @@
       </c>
       <c r="C411" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-17"), Open=(decimal)323.5, High=(decimal)326.77, Low=(decimal)303.53, Close=(decimal)305.5, Volume = (long)18958612 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-17","yyyy-MM-dd",cultureProvider), Open=323.5m, High=326.77m, Low=303.53m, Close=305.5m, Volume = (long)18958612 },</v>
       </c>
       <c r="D411" s="3">
         <v>43329</v>
@@ -28812,7 +28811,7 @@
       </c>
       <c r="C412" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-20"), Open=(decimal)291.7, High=(decimal)308.5, Low=(decimal)288.2, Close=(decimal)308.44, Volume = (long)17402336 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-20","yyyy-MM-dd",cultureProvider), Open=291.7m, High=308.5m, Low=288.2m, Close=308.44m, Volume = (long)17402336 },</v>
       </c>
       <c r="D412" s="3">
         <v>43332</v>
@@ -28842,7 +28841,7 @@
       </c>
       <c r="C413" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-21"), Open=(decimal)310.61, High=(decimal)324.79, Low=(decimal)309, Close=(decimal)321.9, Volume = (long)13172230 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-21","yyyy-MM-dd",cultureProvider), Open=310.61m, High=324.79m, Low=309m, Close=321.9m, Volume = (long)13172230 },</v>
       </c>
       <c r="D413" s="3">
         <v>43333</v>
@@ -28872,7 +28871,7 @@
       </c>
       <c r="C414" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-22"), Open=(decimal)320.87, High=(decimal)323.88, Low=(decimal)314.67, Close=(decimal)321.64, Volume = (long)5945955 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-22","yyyy-MM-dd",cultureProvider), Open=320.87m, High=323.88m, Low=314.67m, Close=321.64m, Volume = (long)5945955 },</v>
       </c>
       <c r="D414" s="3">
         <v>43334</v>
@@ -28902,7 +28901,7 @@
       </c>
       <c r="C415" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-23"), Open=(decimal)319.14, High=(decimal)327.32, Low=(decimal)318.1, Close=(decimal)320.1, Volume = (long)5147286 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-23","yyyy-MM-dd",cultureProvider), Open=319.14m, High=327.32m, Low=318.1m, Close=320.1m, Volume = (long)5147286 },</v>
       </c>
       <c r="D415" s="3">
         <v>43335</v>
@@ -28932,7 +28931,7 @@
       </c>
       <c r="C416" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-24"), Open=(decimal)320.7, High=(decimal)323.85, Low=(decimal)319.4, Close=(decimal)322.82, Volume = (long)3602564 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-24","yyyy-MM-dd",cultureProvider), Open=320.7m, High=323.85m, Low=319.4m, Close=322.82m, Volume = (long)3602564 },</v>
       </c>
       <c r="D416" s="3">
         <v>43336</v>
@@ -28962,7 +28961,7 @@
       </c>
       <c r="C417" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-27"), Open=(decimal)318, High=(decimal)322.43, Low=(decimal)308.81, Close=(decimal)319.27, Volume = (long)13079288 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-27","yyyy-MM-dd",cultureProvider), Open=318m, High=322.43m, Low=308.81m, Close=319.27m, Volume = (long)13079288 },</v>
       </c>
       <c r="D417" s="3">
         <v>43339</v>
@@ -28992,7 +28991,7 @@
       </c>
       <c r="C418" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-28"), Open=(decimal)318.41, High=(decimal)318.88, Low=(decimal)311.19, Close=(decimal)311.86, Volume = (long)7649091 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-28","yyyy-MM-dd",cultureProvider), Open=318.41m, High=318.88m, Low=311.19m, Close=311.86m, Volume = (long)7649091 },</v>
       </c>
       <c r="D418" s="3">
         <v>43340</v>
@@ -29022,7 +29021,7 @@
       </c>
       <c r="C419" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-29"), Open=(decimal)310.27, High=(decimal)311.85, Low=(decimal)303.69, Close=(decimal)305.01, Volume = (long)7447392 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-29","yyyy-MM-dd",cultureProvider), Open=310.27m, High=311.85m, Low=303.69m, Close=305.01m, Volume = (long)7447392 },</v>
       </c>
       <c r="D419" s="3">
         <v>43341</v>
@@ -29052,7 +29051,7 @@
       </c>
       <c r="C420" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-30"), Open=(decimal)302.26, High=(decimal)304.6, Low=(decimal)297.72, Close=(decimal)303.15, Volume = (long)7216706 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-30","yyyy-MM-dd",cultureProvider), Open=302.26m, High=304.6m, Low=297.72m, Close=303.15m, Volume = (long)7216706 },</v>
       </c>
       <c r="D420" s="3">
         <v>43342</v>
@@ -29082,7 +29081,7 @@
       </c>
       <c r="C421" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-08-31"), Open=(decimal)302, High=(decimal)305.31, Low=(decimal)298.6, Close=(decimal)301.66, Volume = (long)5375104 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-08-31","yyyy-MM-dd",cultureProvider), Open=302m, High=305.31m, Low=298.6m, Close=301.66m, Volume = (long)5375104 },</v>
       </c>
       <c r="D421" s="3">
         <v>43343</v>
@@ -29112,7 +29111,7 @@
       </c>
       <c r="C422" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-04"), Open=(decimal)296.94, High=(decimal)298.19, Low=(decimal)288, Close=(decimal)288.95, Volume = (long)8350469 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-04","yyyy-MM-dd",cultureProvider), Open=296.94m, High=298.19m, Low=288m, Close=288.95m, Volume = (long)8350469 },</v>
       </c>
       <c r="D422" s="3">
         <v>43347</v>
@@ -29142,7 +29141,7 @@
       </c>
       <c r="C423" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-05"), Open=(decimal)285.05, High=(decimal)286.78, Low=(decimal)277.18, Close=(decimal)280.74, Volume = (long)7720821 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-05","yyyy-MM-dd",cultureProvider), Open=285.05m, High=286.78m, Low=277.18m, Close=280.74m, Volume = (long)7720821 },</v>
       </c>
       <c r="D423" s="3">
         <v>43348</v>
@@ -29172,7 +29171,7 @@
       </c>
       <c r="C424" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-06"), Open=(decimal)284.8, High=(decimal)291.17, Low=(decimal)278.88, Close=(decimal)280.95, Volume = (long)7480760 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-06","yyyy-MM-dd",cultureProvider), Open=284.8m, High=291.17m, Low=278.88m, Close=280.95m, Volume = (long)7480760 },</v>
       </c>
       <c r="D424" s="3">
         <v>43349</v>
@@ -29202,7 +29201,7 @@
       </c>
       <c r="C425" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-07"), Open=(decimal)260.1, High=(decimal)268.35, Low=(decimal)252.25, Close=(decimal)263.24, Volume = (long)22491932 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-07","yyyy-MM-dd",cultureProvider), Open=260.1m, High=268.35m, Low=252.25m, Close=263.24m, Volume = (long)22491932 },</v>
       </c>
       <c r="D425" s="3">
         <v>43350</v>
@@ -29232,7 +29231,7 @@
       </c>
       <c r="C426" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-10"), Open=(decimal)273.26, High=(decimal)286.03, Low=(decimal)271, Close=(decimal)285.5, Volume = (long)14283528 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-10","yyyy-MM-dd",cultureProvider), Open=273.26m, High=286.03m, Low=271m, Close=285.5m, Volume = (long)14283528 },</v>
       </c>
       <c r="D426" s="3">
         <v>43353</v>
@@ -29262,7 +29261,7 @@
       </c>
       <c r="C427" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-11"), Open=(decimal)279.47, High=(decimal)282, Low=(decimal)273.55, Close=(decimal)279.44, Volume = (long)9169989 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-11","yyyy-MM-dd",cultureProvider), Open=279.47m, High=282m, Low=273.55m, Close=279.44m, Volume = (long)9169989 },</v>
       </c>
       <c r="D427" s="3">
         <v>43354</v>
@@ -29292,7 +29291,7 @@
       </c>
       <c r="C428" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-12"), Open=(decimal)281.44, High=(decimal)292.5, Low=(decimal)278.65, Close=(decimal)290.54, Volume = (long)10015427 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-12","yyyy-MM-dd",cultureProvider), Open=281.44m, High=292.5m, Low=278.65m, Close=290.54m, Volume = (long)10015427 },</v>
       </c>
       <c r="D428" s="3">
         <v>43355</v>
@@ -29322,7 +29321,7 @@
       </c>
       <c r="C429" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-13"), Open=(decimal)288.02, High=(decimal)295, Low=(decimal)285.18, Close=(decimal)289.46, Volume = (long)6340336 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-13","yyyy-MM-dd",cultureProvider), Open=288.02m, High=295m, Low=285.18m, Close=289.46m, Volume = (long)6340336 },</v>
       </c>
       <c r="D429" s="3">
         <v>43356</v>
@@ -29352,7 +29351,7 @@
       </c>
       <c r="C430" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-14"), Open=(decimal)288.76, High=(decimal)297.33, Low=(decimal)286.52, Close=(decimal)295.2, Volume = (long)6765612 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-14","yyyy-MM-dd",cultureProvider), Open=288.76m, High=297.33m, Low=286.52m, Close=295.2m, Volume = (long)6765612 },</v>
       </c>
       <c r="D430" s="3">
         <v>43357</v>
@@ -29382,7 +29381,7 @@
       </c>
       <c r="C431" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-17"), Open=(decimal)290.04, High=(decimal)300.87, Low=(decimal)288.13, Close=(decimal)294.84, Volume = (long)6887577 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-17","yyyy-MM-dd",cultureProvider), Open=290.04m, High=300.87m, Low=288.13m, Close=294.84m, Volume = (long)6887577 },</v>
       </c>
       <c r="D431" s="3">
         <v>43360</v>
@@ -29412,7 +29411,7 @@
       </c>
       <c r="C432" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-18"), Open=(decimal)296.69, High=(decimal)302.64, Low=(decimal)275.5, Close=(decimal)284.96, Volume = (long)16547522 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-18","yyyy-MM-dd",cultureProvider), Open=296.69m, High=302.64m, Low=275.5m, Close=284.96m, Volume = (long)16547522 },</v>
       </c>
       <c r="D432" s="3">
         <v>43361</v>
@@ -29442,7 +29441,7 @@
       </c>
       <c r="C433" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-19"), Open=(decimal)280.51, High=(decimal)300, Low=(decimal)280.5, Close=(decimal)299.02, Volume = (long)8294917 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-19","yyyy-MM-dd",cultureProvider), Open=280.51m, High=300m, Low=280.5m, Close=299.02m, Volume = (long)8294917 },</v>
       </c>
       <c r="D433" s="3">
         <v>43362</v>
@@ -29472,7 +29471,7 @@
       </c>
       <c r="C434" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-20"), Open=(decimal)303.56, High=(decimal)305.98, Low=(decimal)293.33, Close=(decimal)298.33, Volume = (long)7349422 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-20","yyyy-MM-dd",cultureProvider), Open=303.56m, High=305.98m, Low=293.33m, Close=298.33m, Volume = (long)7349422 },</v>
       </c>
       <c r="D434" s="3">
         <v>43363</v>
@@ -29502,7 +29501,7 @@
       </c>
       <c r="C435" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-21"), Open=(decimal)297.7, High=(decimal)300.58, Low=(decimal)295.37, Close=(decimal)299.1, Volume = (long)5050478 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-21","yyyy-MM-dd",cultureProvider), Open=297.7m, High=300.58m, Low=295.37m, Close=299.1m, Volume = (long)5050478 },</v>
       </c>
       <c r="D435" s="3">
         <v>43364</v>
@@ -29532,7 +29531,7 @@
       </c>
       <c r="C436" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-24"), Open=(decimal)298.48, High=(decimal)303, Low=(decimal)293.58, Close=(decimal)299.68, Volume = (long)4842961 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-24","yyyy-MM-dd",cultureProvider), Open=298.48m, High=303m, Low=293.58m, Close=299.68m, Volume = (long)4842961 },</v>
       </c>
       <c r="D436" s="3">
         <v>43367</v>
@@ -29562,7 +29561,7 @@
       </c>
       <c r="C437" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-25"), Open=(decimal)300, High=(decimal)304.6, Low=(decimal)296.5, Close=(decimal)300.99, Volume = (long)4481729 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-25","yyyy-MM-dd",cultureProvider), Open=300m, High=304.6m, Low=296.5m, Close=300.99m, Volume = (long)4481729 },</v>
       </c>
       <c r="D437" s="3">
         <v>43368</v>
@@ -29592,7 +29591,7 @@
       </c>
       <c r="C438" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-26"), Open=(decimal)301.91, High=(decimal)313.89, Low=(decimal)301.11, Close=(decimal)309.58, Volume = (long)7843216 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-26","yyyy-MM-dd",cultureProvider), Open=301.91m, High=313.89m, Low=301.11m, Close=309.58m, Volume = (long)7843216 },</v>
       </c>
       <c r="D438" s="3">
         <v>43369</v>
@@ -29622,7 +29621,7 @@
       </c>
       <c r="C439" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-27"), Open=(decimal)312.9, High=(decimal)314.96, Low=(decimal)306.91, Close=(decimal)307.52, Volume = (long)8509084 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-27","yyyy-MM-dd",cultureProvider), Open=312.9m, High=314.96m, Low=306.91m, Close=307.52m, Volume = (long)8509084 },</v>
       </c>
       <c r="D439" s="3">
         <v>43370</v>
@@ -29652,7 +29651,7 @@
       </c>
       <c r="C440" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-09-28"), Open=(decimal)270.26, High=(decimal)278, Low=(decimal)260.55, Close=(decimal)264.77, Volume = (long)33649696 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-09-28","yyyy-MM-dd",cultureProvider), Open=270.26m, High=278m, Low=260.55m, Close=264.77m, Volume = (long)33649696 },</v>
       </c>
       <c r="D440" s="3">
         <v>43371</v>
@@ -29682,7 +29681,7 @@
       </c>
       <c r="C441" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-01"), Open=(decimal)305.77, High=(decimal)311.44, Low=(decimal)301.05, Close=(decimal)310.7, Volume = (long)21777596 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-01","yyyy-MM-dd",cultureProvider), Open=305.77m, High=311.44m, Low=301.05m, Close=310.7m, Volume = (long)21777596 },</v>
       </c>
       <c r="D441" s="3">
         <v>43374</v>
@@ -29712,7 +29711,7 @@
       </c>
       <c r="C442" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-02"), Open=(decimal)313.95, High=(decimal)316.84, Low=(decimal)299.15, Close=(decimal)301.02, Volume = (long)11743511 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-02","yyyy-MM-dd",cultureProvider), Open=313.95m, High=316.84m, Low=299.15m, Close=301.02m, Volume = (long)11743511 },</v>
       </c>
       <c r="D442" s="3">
         <v>43375</v>
@@ -29742,7 +29741,7 @@
       </c>
       <c r="C443" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-03"), Open=(decimal)303.33, High=(decimal)304.6, Low=(decimal)291.57, Close=(decimal)294.8, Volume = (long)7994988 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-03","yyyy-MM-dd",cultureProvider), Open=303.33m, High=304.6m, Low=291.57m, Close=294.8m, Volume = (long)7994988 },</v>
       </c>
       <c r="D443" s="3">
         <v>43376</v>
@@ -29772,7 +29771,7 @@
       </c>
       <c r="C444" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-04"), Open=(decimal)293.95, High=(decimal)294, Low=(decimal)277.67, Close=(decimal)281.83, Volume = (long)9814212 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-04","yyyy-MM-dd",cultureProvider), Open=293.95m, High=294m, Low=277.67m, Close=281.83m, Volume = (long)9814212 },</v>
       </c>
       <c r="D444" s="3">
         <v>43377</v>
@@ -29802,7 +29801,7 @@
       </c>
       <c r="C445" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-05"), Open=(decimal)274.65, High=(decimal)274.88, Low=(decimal)260, Close=(decimal)261.95, Volume = (long)17944536 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-05","yyyy-MM-dd",cultureProvider), Open=274.65m, High=274.88m, Low=260m, Close=261.95m, Volume = (long)17944536 },</v>
       </c>
       <c r="D445" s="3">
         <v>43378</v>
@@ -29832,7 +29831,7 @@
       </c>
       <c r="C446" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-08"), Open=(decimal)264.52, High=(decimal)267.76, Low=(decimal)249, Close=(decimal)250.56, Volume = (long)13472653 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-08","yyyy-MM-dd",cultureProvider), Open=264.52m, High=267.76m, Low=249m, Close=250.56m, Volume = (long)13472653 },</v>
       </c>
       <c r="D446" s="3">
         <v>43381</v>
@@ -29862,7 +29861,7 @@
       </c>
       <c r="C447" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-09"), Open=(decimal)255.25, High=(decimal)266.77, Low=(decimal)253.3, Close=(decimal)262.8, Volume = (long)12060574 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-09","yyyy-MM-dd",cultureProvider), Open=255.25m, High=266.77m, Low=253.3m, Close=262.8m, Volume = (long)12060574 },</v>
       </c>
       <c r="D447" s="3">
         <v>43382</v>
@@ -29892,7 +29891,7 @@
       </c>
       <c r="C448" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-10"), Open=(decimal)264.61, High=(decimal)265.51, Low=(decimal)247.77, Close=(decimal)256.88, Volume = (long)12815278 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-10","yyyy-MM-dd",cultureProvider), Open=264.61m, High=265.51m, Low=247.77m, Close=256.88m, Volume = (long)12815278 },</v>
       </c>
       <c r="D448" s="3">
         <v>43383</v>
@@ -29922,7 +29921,7 @@
       </c>
       <c r="C449" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-11"), Open=(decimal)257.53, High=(decimal)262.25, Low=(decimal)249.03, Close=(decimal)252.23, Volume = (long)8167738 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-11","yyyy-MM-dd",cultureProvider), Open=257.53m, High=262.25m, Low=249.03m, Close=252.23m, Volume = (long)8167738 },</v>
       </c>
       <c r="D449" s="3">
         <v>43384</v>
@@ -29951,8 +29950,8 @@
         <v>9</v>
       </c>
       <c r="C450" s="5" t="str">
-        <f t="shared" ref="C450:C503" si="7">"new Quote { Date = DateTime.Parse("""&amp;TEXT(D450,"yyyy-mm-dd")&amp;"""), Open=(decimal)"&amp;E450&amp;", High=(decimal)"&amp;F450&amp;", Low=(decimal)"&amp;G450&amp;", Close=(decimal)"&amp;H450&amp;", Volume = (long)"&amp;I450&amp;" },"</f>
-        <v>new Quote { Date = DateTime.Parse("2018-10-12"), Open=(decimal)261, High=(decimal)261.99, Low=(decimal)252.01, Close=(decimal)258.78, Volume = (long)7201404 },</v>
+        <f t="shared" ref="C450:C503" si="7">"new Quote { Date = DateTime.ParseExact("""&amp;TEXT(D450,"yyyy-mm-dd")&amp;""",""yyyy-MM-dd"",cultureProvider), Open="&amp;E450&amp;"m, High="&amp;F450&amp;"m, Low="&amp;G450&amp;"m, Close="&amp;H450&amp;"m, Volume = (long)"&amp;I450&amp;" },"</f>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-12","yyyy-MM-dd",cultureProvider), Open=261m, High=261.99m, Low=252.01m, Close=258.78m, Volume = (long)7201404 },</v>
       </c>
       <c r="D450" s="3">
         <v>43385</v>
@@ -29982,7 +29981,7 @@
       </c>
       <c r="C451" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-15"), Open=(decimal)259.06, High=(decimal)263.28, Low=(decimal)254.54, Close=(decimal)259.59, Volume = (long)6199965 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-15","yyyy-MM-dd",cultureProvider), Open=259.06m, High=263.28m, Low=254.54m, Close=259.59m, Volume = (long)6199965 },</v>
       </c>
       <c r="D451" s="3">
         <v>43388</v>
@@ -30012,7 +30011,7 @@
       </c>
       <c r="C452" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-16"), Open=(decimal)265.7, High=(decimal)277.38, Low=(decimal)262.24, Close=(decimal)276.59, Volume = (long)9526401 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-16","yyyy-MM-dd",cultureProvider), Open=265.7m, High=277.38m, Low=262.24m, Close=276.59m, Volume = (long)9526401 },</v>
       </c>
       <c r="D452" s="3">
         <v>43389</v>
@@ -30042,7 +30041,7 @@
       </c>
       <c r="C453" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-17"), Open=(decimal)282.4, High=(decimal)282.7, Low=(decimal)265.8, Close=(decimal)271.78, Volume = (long)8655542 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-17","yyyy-MM-dd",cultureProvider), Open=282.4m, High=282.7m, Low=265.8m, Close=271.78m, Volume = (long)8655542 },</v>
       </c>
       <c r="D453" s="3">
         <v>43390</v>
@@ -30072,7 +30071,7 @@
       </c>
       <c r="C454" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-18"), Open=(decimal)269.29, High=(decimal)271, Low=(decimal)263, Close=(decimal)263.91, Volume = (long)5421184 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-18","yyyy-MM-dd",cultureProvider), Open=269.29m, High=271m, Low=263m, Close=263.91m, Volume = (long)5421184 },</v>
       </c>
       <c r="D454" s="3">
         <v>43391</v>
@@ -30102,7 +30101,7 @@
       </c>
       <c r="C455" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-19"), Open=(decimal)267.39, High=(decimal)269.66, Low=(decimal)253.5, Close=(decimal)260, Volume = (long)9375549 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-19","yyyy-MM-dd",cultureProvider), Open=267.39m, High=269.66m, Low=253.5m, Close=260m, Volume = (long)9375549 },</v>
       </c>
       <c r="D455" s="3">
         <v>43392</v>
@@ -30132,7 +30131,7 @@
       </c>
       <c r="C456" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-22"), Open=(decimal)260.68, High=(decimal)261.86, Low=(decimal)252.59, Close=(decimal)260.95, Volume = (long)5600260 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-22","yyyy-MM-dd",cultureProvider), Open=260.68m, High=261.86m, Low=252.59m, Close=260.95m, Volume = (long)5600260 },</v>
       </c>
       <c r="D456" s="3">
         <v>43395</v>
@@ -30162,7 +30161,7 @@
       </c>
       <c r="C457" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-23"), Open=(decimal)263.87, High=(decimal)297.93, Low=(decimal)262.1, Close=(decimal)294.14, Volume = (long)19027752 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-23","yyyy-MM-dd",cultureProvider), Open=263.87m, High=297.93m, Low=262.1m, Close=294.14m, Volume = (long)19027752 },</v>
       </c>
       <c r="D457" s="3">
         <v>43396</v>
@@ -30192,7 +30191,7 @@
       </c>
       <c r="C458" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-24"), Open=(decimal)301.05, High=(decimal)304.44, Low=(decimal)285.73, Close=(decimal)288.5, Volume = (long)20058258 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-24","yyyy-MM-dd",cultureProvider), Open=301.05m, High=304.44m, Low=285.73m, Close=288.5m, Volume = (long)20058258 },</v>
       </c>
       <c r="D458" s="3">
         <v>43397</v>
@@ -30222,7 +30221,7 @@
       </c>
       <c r="C459" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-25"), Open=(decimal)317.22, High=(decimal)321, Low=(decimal)301.01, Close=(decimal)314.86, Volume = (long)20840724 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-25","yyyy-MM-dd",cultureProvider), Open=317.22m, High=321m, Low=301.01m, Close=314.86m, Volume = (long)20840724 },</v>
       </c>
       <c r="D459" s="3">
         <v>43398</v>
@@ -30252,7 +30251,7 @@
       </c>
       <c r="C460" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-26"), Open=(decimal)308.25, High=(decimal)339.9, Low=(decimal)306.65, Close=(decimal)330.9, Volume = (long)27425520 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-26","yyyy-MM-dd",cultureProvider), Open=308.25m, High=339.9m, Low=306.65m, Close=330.9m, Volume = (long)27425520 },</v>
       </c>
       <c r="D460" s="3">
         <v>43399</v>
@@ -30282,7 +30281,7 @@
       </c>
       <c r="C461" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-29"), Open=(decimal)337.47, High=(decimal)347.16, Low=(decimal)326.5, Close=(decimal)334.85, Volume = (long)14486027 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-29","yyyy-MM-dd",cultureProvider), Open=337.47m, High=347.16m, Low=326.5m, Close=334.85m, Volume = (long)14486027 },</v>
       </c>
       <c r="D461" s="3">
         <v>43402</v>
@@ -30312,7 +30311,7 @@
       </c>
       <c r="C462" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-30"), Open=(decimal)328.39, High=(decimal)337.9, Low=(decimal)322.26, Close=(decimal)329.9, Volume = (long)9126704 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-30","yyyy-MM-dd",cultureProvider), Open=328.39m, High=337.9m, Low=322.26m, Close=329.9m, Volume = (long)9126704 },</v>
       </c>
       <c r="D462" s="3">
         <v>43403</v>
@@ -30342,7 +30341,7 @@
       </c>
       <c r="C463" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-10-31"), Open=(decimal)332.54, High=(decimal)342, Low=(decimal)329.1, Close=(decimal)337.32, Volume = (long)7624348 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-10-31","yyyy-MM-dd",cultureProvider), Open=332.54m, High=342m, Low=329.1m, Close=337.32m, Volume = (long)7624348 },</v>
       </c>
       <c r="D463" s="3">
         <v>43404</v>
@@ -30372,7 +30371,7 @@
       </c>
       <c r="C464" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-01"), Open=(decimal)338.26, High=(decimal)347.84, Low=(decimal)334.73, Close=(decimal)344.28, Volume = (long)8000132 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-01","yyyy-MM-dd",cultureProvider), Open=338.26m, High=347.84m, Low=334.73m, Close=344.28m, Volume = (long)8000132 },</v>
       </c>
       <c r="D464" s="3">
         <v>43405</v>
@@ -30402,7 +30401,7 @@
       </c>
       <c r="C465" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-02"), Open=(decimal)343.74, High=(decimal)349.2, Low=(decimal)340.91, Close=(decimal)346.41, Volume = (long)7807971 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-02","yyyy-MM-dd",cultureProvider), Open=343.74m, High=349.2m, Low=340.91m, Close=346.41m, Volume = (long)7807971 },</v>
       </c>
       <c r="D465" s="3">
         <v>43406</v>
@@ -30432,7 +30431,7 @@
       </c>
       <c r="C466" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-05"), Open=(decimal)340.5, High=(decimal)343.95, Low=(decimal)330.14, Close=(decimal)341.4, Volume = (long)7831048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-05","yyyy-MM-dd",cultureProvider), Open=340.5m, High=343.95m, Low=330.14m, Close=341.4m, Volume = (long)7831048 },</v>
       </c>
       <c r="D466" s="3">
         <v>43409</v>
@@ -30462,7 +30461,7 @@
       </c>
       <c r="C467" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-06"), Open=(decimal)339.07, High=(decimal)348.8, Low=(decimal)336.09, Close=(decimal)341.06, Volume = (long)6762889 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-06","yyyy-MM-dd",cultureProvider), Open=339.07m, High=348.8m, Low=336.09m, Close=341.06m, Volume = (long)6762889 },</v>
       </c>
       <c r="D467" s="3">
         <v>43410</v>
@@ -30492,7 +30491,7 @@
       </c>
       <c r="C468" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-07"), Open=(decimal)343.34, High=(decimal)351.18, Low=(decimal)340.8, Close=(decimal)348.16, Volume = (long)7374522 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-07","yyyy-MM-dd",cultureProvider), Open=343.34m, High=351.18m, Low=340.8m, Close=348.16m, Volume = (long)7374522 },</v>
       </c>
       <c r="D468" s="3">
         <v>43411</v>
@@ -30522,7 +30521,7 @@
       </c>
       <c r="C469" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-08"), Open=(decimal)348.5, High=(decimal)357.58, Low=(decimal)348.44, Close=(decimal)351.4, Volume = (long)7090674 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-08","yyyy-MM-dd",cultureProvider), Open=348.5m, High=357.58m, Low=348.44m, Close=351.4m, Volume = (long)7090674 },</v>
       </c>
       <c r="D469" s="3">
         <v>43412</v>
@@ -30552,7 +30551,7 @@
       </c>
       <c r="C470" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-09"), Open=(decimal)349, High=(decimal)354, Low=(decimal)345.23, Close=(decimal)350.51, Volume = (long)5098846 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-09","yyyy-MM-dd",cultureProvider), Open=349m, High=354m, Low=345.23m, Close=350.51m, Volume = (long)5098846 },</v>
       </c>
       <c r="D470" s="3">
         <v>43413</v>
@@ -30582,7 +30581,7 @@
       </c>
       <c r="C471" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-12"), Open=(decimal)348.37, High=(decimal)349.78, Low=(decimal)330.34, Close=(decimal)331.28, Volume = (long)6941523 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-12","yyyy-MM-dd",cultureProvider), Open=348.37m, High=349.78m, Low=330.34m, Close=331.28m, Volume = (long)6941523 },</v>
       </c>
       <c r="D471" s="3">
         <v>43416</v>
@@ -30612,7 +30611,7 @@
       </c>
       <c r="C472" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-13"), Open=(decimal)333.16, High=(decimal)344.7, Low=(decimal)332.2, Close=(decimal)338.73, Volume = (long)5448597 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-13","yyyy-MM-dd",cultureProvider), Open=333.16m, High=344.7m, Low=332.2m, Close=338.73m, Volume = (long)5448597 },</v>
       </c>
       <c r="D472" s="3">
         <v>43417</v>
@@ -30642,7 +30641,7 @@
       </c>
       <c r="C473" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-14"), Open=(decimal)342.7, High=(decimal)347.11, Low=(decimal)337.15, Close=(decimal)344, Volume = (long)5040287 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-14","yyyy-MM-dd",cultureProvider), Open=342.7m, High=347.11m, Low=337.15m, Close=344m, Volume = (long)5040287 },</v>
       </c>
       <c r="D473" s="3">
         <v>43418</v>
@@ -30672,7 +30671,7 @@
       </c>
       <c r="C474" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-15"), Open=(decimal)342.33, High=(decimal)348.58, Low=(decimal)339.04, Close=(decimal)348.44, Volume = (long)4625719 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-15","yyyy-MM-dd",cultureProvider), Open=342.33m, High=348.58m, Low=339.04m, Close=348.44m, Volume = (long)4625719 },</v>
       </c>
       <c r="D474" s="3">
         <v>43419</v>
@@ -30702,7 +30701,7 @@
       </c>
       <c r="C475" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-16"), Open=(decimal)345.19, High=(decimal)355.7, Low=(decimal)345.12, Close=(decimal)354.31, Volume = (long)7206191 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-16","yyyy-MM-dd",cultureProvider), Open=345.19m, High=355.7m, Low=345.12m, Close=354.31m, Volume = (long)7206191 },</v>
       </c>
       <c r="D475" s="3">
         <v>43420</v>
@@ -30732,7 +30731,7 @@
       </c>
       <c r="C476" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-19"), Open=(decimal)356.34, High=(decimal)366.75, Low=(decimal)352.88, Close=(decimal)353.47, Volume = (long)9708871 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-19","yyyy-MM-dd",cultureProvider), Open=356.34m, High=366.75m, Low=352.88m, Close=353.47m, Volume = (long)9708871 },</v>
       </c>
       <c r="D476" s="3">
         <v>43423</v>
@@ -30762,7 +30761,7 @@
       </c>
       <c r="C477" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-20"), Open=(decimal)341.75, High=(decimal)349.8, Low=(decimal)333.55, Close=(decimal)347.49, Volume = (long)8004709 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-20","yyyy-MM-dd",cultureProvider), Open=341.75m, High=349.8m, Low=333.55m, Close=347.49m, Volume = (long)8004709 },</v>
       </c>
       <c r="D477" s="3">
         <v>43424</v>
@@ -30792,7 +30791,7 @@
       </c>
       <c r="C478" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-21"), Open=(decimal)352, High=(decimal)353.1, Low=(decimal)337.4, Close=(decimal)338.19, Volume = (long)4686808 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-21","yyyy-MM-dd",cultureProvider), Open=352m, High=353.1m, Low=337.4m, Close=338.19m, Volume = (long)4686808 },</v>
       </c>
       <c r="D478" s="3">
         <v>43425</v>
@@ -30822,7 +30821,7 @@
       </c>
       <c r="C479" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-23"), Open=(decimal)334.35, High=(decimal)337.5, Low=(decimal)325.55, Close=(decimal)325.83, Volume = (long)4202642 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-23","yyyy-MM-dd",cultureProvider), Open=334.35m, High=337.5m, Low=325.55m, Close=325.83m, Volume = (long)4202642 },</v>
       </c>
       <c r="D479" s="3">
         <v>43427</v>
@@ -30852,7 +30851,7 @@
       </c>
       <c r="C480" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-26"), Open=(decimal)325, High=(decimal)346.22, Low=(decimal)325, Close=(decimal)346, Volume = (long)7992141 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-26","yyyy-MM-dd",cultureProvider), Open=325m, High=346.22m, Low=325m, Close=346m, Volume = (long)7992141 },</v>
       </c>
       <c r="D480" s="3">
         <v>43430</v>
@@ -30882,7 +30881,7 @@
       </c>
       <c r="C481" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-27"), Open=(decimal)340.05, High=(decimal)346.96, Low=(decimal)335.5, Close=(decimal)343.92, Volume = (long)6358300 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-27","yyyy-MM-dd",cultureProvider), Open=340.05m, High=346.96m, Low=335.5m, Close=343.92m, Volume = (long)6358300 },</v>
       </c>
       <c r="D481" s="3">
         <v>43431</v>
@@ -30912,7 +30911,7 @@
       </c>
       <c r="C482" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-28"), Open=(decimal)345.99, High=(decimal)348.28, Low=(decimal)342.21, Close=(decimal)347.87, Volume = (long)4127578 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-28","yyyy-MM-dd",cultureProvider), Open=345.99m, High=348.28m, Low=342.21m, Close=347.87m, Volume = (long)4127578 },</v>
       </c>
       <c r="D482" s="3">
         <v>43432</v>
@@ -30942,7 +30941,7 @@
       </c>
       <c r="C483" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-29"), Open=(decimal)347, High=(decimal)347.5, Low=(decimal)339.55, Close=(decimal)341.17, Volume = (long)3080724 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-29","yyyy-MM-dd",cultureProvider), Open=347m, High=347.5m, Low=339.55m, Close=341.17m, Volume = (long)3080724 },</v>
       </c>
       <c r="D483" s="3">
         <v>43433</v>
@@ -30972,7 +30971,7 @@
       </c>
       <c r="C484" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-11-30"), Open=(decimal)341.83, High=(decimal)351.6, Low=(decimal)338.26, Close=(decimal)350.48, Volume = (long)5628895 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-11-30","yyyy-MM-dd",cultureProvider), Open=341.83m, High=351.6m, Low=338.26m, Close=350.48m, Volume = (long)5628895 },</v>
       </c>
       <c r="D484" s="3">
         <v>43434</v>
@@ -31002,7 +31001,7 @@
       </c>
       <c r="C485" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-03"), Open=(decimal)360, High=(decimal)366, Low=(decimal)352, Close=(decimal)358.49, Volume = (long)8306511 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-03","yyyy-MM-dd",cultureProvider), Open=360m, High=366m, Low=352m, Close=358.49m, Volume = (long)8306511 },</v>
       </c>
       <c r="D485" s="3">
         <v>43437</v>
@@ -31032,7 +31031,7 @@
       </c>
       <c r="C486" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-04"), Open=(decimal)356.05, High=(decimal)368.68, Low=(decimal)352, Close=(decimal)359.7, Volume = (long)8461945 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-04","yyyy-MM-dd",cultureProvider), Open=356.05m, High=368.68m, Low=352m, Close=359.7m, Volume = (long)8461945 },</v>
       </c>
       <c r="D486" s="3">
         <v>43438</v>
@@ -31062,7 +31061,7 @@
       </c>
       <c r="C487" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-06"), Open=(decimal)356.01, High=(decimal)367.38, Low=(decimal)350.76, Close=(decimal)363.06, Volume = (long)7842508 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-06","yyyy-MM-dd",cultureProvider), Open=356.01m, High=367.38m, Low=350.76m, Close=363.06m, Volume = (long)7842508 },</v>
       </c>
       <c r="D487" s="3">
         <v>43440</v>
@@ -31092,7 +31091,7 @@
       </c>
       <c r="C488" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-07"), Open=(decimal)369, High=(decimal)379.49, Low=(decimal)357.65, Close=(decimal)357.96, Volume = (long)11511177 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-07","yyyy-MM-dd",cultureProvider), Open=369m, High=379.49m, Low=357.65m, Close=357.96m, Volume = (long)11511177 },</v>
       </c>
       <c r="D488" s="3">
         <v>43441</v>
@@ -31122,7 +31121,7 @@
       </c>
       <c r="C489" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-10"), Open=(decimal)360, High=(decimal)365.98, Low=(decimal)353.12, Close=(decimal)365.15, Volume = (long)6613455 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-10","yyyy-MM-dd",cultureProvider), Open=360m, High=365.98m, Low=353.12m, Close=365.15m, Volume = (long)6613455 },</v>
       </c>
       <c r="D489" s="3">
         <v>43444</v>
@@ -31152,7 +31151,7 @@
       </c>
       <c r="C490" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-11"), Open=(decimal)369.91, High=(decimal)372.17, Low=(decimal)360.23, Close=(decimal)366.76, Volume = (long)6308769 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-11","yyyy-MM-dd",cultureProvider), Open=369.91m, High=372.17m, Low=360.23m, Close=366.76m, Volume = (long)6308769 },</v>
       </c>
       <c r="D490" s="3">
         <v>43445</v>
@@ -31182,7 +31181,7 @@
       </c>
       <c r="C491" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-12"), Open=(decimal)369.42, High=(decimal)371.91, Low=(decimal)365.16, Close=(decimal)366.6, Volume = (long)5027048 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-12","yyyy-MM-dd",cultureProvider), Open=369.42m, High=371.91m, Low=365.16m, Close=366.6m, Volume = (long)5027048 },</v>
       </c>
       <c r="D491" s="3">
         <v>43446</v>
@@ -31212,7 +31211,7 @@
       </c>
       <c r="C492" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-13"), Open=(decimal)370.15, High=(decimal)377.44, Low=(decimal)366.75, Close=(decimal)376.79, Volume = (long)7365854 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-13","yyyy-MM-dd",cultureProvider), Open=370.15m, High=377.44m, Low=366.75m, Close=376.79m, Volume = (long)7365854 },</v>
       </c>
       <c r="D492" s="3">
         <v>43447</v>
@@ -31242,7 +31241,7 @@
       </c>
       <c r="C493" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-14"), Open=(decimal)375, High=(decimal)377.87, Low=(decimal)364.33, Close=(decimal)365.71, Volume = (long)6337555 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-14","yyyy-MM-dd",cultureProvider), Open=375m, High=377.87m, Low=364.33m, Close=365.71m, Volume = (long)6337555 },</v>
       </c>
       <c r="D493" s="3">
         <v>43448</v>
@@ -31272,7 +31271,7 @@
       </c>
       <c r="C494" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-17"), Open=(decimal)362, High=(decimal)365.7, Low=(decimal)343.88, Close=(decimal)348.42, Volume = (long)7674008 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-17","yyyy-MM-dd",cultureProvider), Open=362m, High=365.7m, Low=343.88m, Close=348.42m, Volume = (long)7674008 },</v>
       </c>
       <c r="D494" s="3">
         <v>43451</v>
@@ -31302,7 +31301,7 @@
       </c>
       <c r="C495" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-18"), Open=(decimal)350.54, High=(decimal)351.55, Low=(decimal)333.69, Close=(decimal)337.03, Volume = (long)7099999 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-18","yyyy-MM-dd",cultureProvider), Open=350.54m, High=351.55m, Low=333.69m, Close=337.03m, Volume = (long)7099999 },</v>
       </c>
       <c r="D495" s="3">
         <v>43452</v>
@@ -31332,7 +31331,7 @@
       </c>
       <c r="C496" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-19"), Open=(decimal)337.6, High=(decimal)347.01, Low=(decimal)329.74, Close=(decimal)332.97, Volume = (long)8274181 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-19","yyyy-MM-dd",cultureProvider), Open=337.6m, High=347.01m, Low=329.74m, Close=332.97m, Volume = (long)8274181 },</v>
       </c>
       <c r="D496" s="3">
         <v>43453</v>
@@ -31362,7 +31361,7 @@
       </c>
       <c r="C497" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-20"), Open=(decimal)327.05, High=(decimal)330.29, Low=(decimal)311.87, Close=(decimal)315.38, Volume = (long)9071858 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-20","yyyy-MM-dd",cultureProvider), Open=327.05m, High=330.29m, Low=311.87m, Close=315.38m, Volume = (long)9071858 },</v>
       </c>
       <c r="D497" s="3">
         <v>43454</v>
@@ -31392,7 +31391,7 @@
       </c>
       <c r="C498" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-21"), Open=(decimal)317.4, High=(decimal)323.47, Low=(decimal)312.44, Close=(decimal)319.77, Volume = (long)8016801 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-21","yyyy-MM-dd",cultureProvider), Open=317.4m, High=323.47m, Low=312.44m, Close=319.77m, Volume = (long)8016801 },</v>
       </c>
       <c r="D498" s="3">
         <v>43455</v>
@@ -31422,7 +31421,7 @@
       </c>
       <c r="C499" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-24"), Open=(decimal)313.5, High=(decimal)314.5, Low=(decimal)295.2, Close=(decimal)295.39, Volume = (long)5559913 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-24","yyyy-MM-dd",cultureProvider), Open=313.5m, High=314.5m, Low=295.2m, Close=295.39m, Volume = (long)5559913 },</v>
       </c>
       <c r="D499" s="3">
         <v>43458</v>
@@ -31452,7 +31451,7 @@
       </c>
       <c r="C500" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-26"), Open=(decimal)300, High=(decimal)326.97, Low=(decimal)294.09, Close=(decimal)326.09, Volume = (long)8163138 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-26","yyyy-MM-dd",cultureProvider), Open=300m, High=326.97m, Low=294.09m, Close=326.09m, Volume = (long)8163138 },</v>
       </c>
       <c r="D500" s="3">
         <v>43460</v>
@@ -31482,7 +31481,7 @@
       </c>
       <c r="C501" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-27"), Open=(decimal)319.84, High=(decimal)322.17, Low=(decimal)301.5, Close=(decimal)316.13, Volume = (long)8575133 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-27","yyyy-MM-dd",cultureProvider), Open=319.84m, High=322.17m, Low=301.5m, Close=316.13m, Volume = (long)8575133 },</v>
       </c>
       <c r="D501" s="3">
         <v>43461</v>
@@ -31512,7 +31511,7 @@
       </c>
       <c r="C502" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-28"), Open=(decimal)323.1, High=(decimal)336.24, Low=(decimal)318.41, Close=(decimal)333.87, Volume = (long)9938992 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-28","yyyy-MM-dd",cultureProvider), Open=323.1m, High=336.24m, Low=318.41m, Close=333.87m, Volume = (long)9938992 },</v>
       </c>
       <c r="D502" s="3">
         <v>43462</v>
@@ -31542,7 +31541,7 @@
       </c>
       <c r="C503" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>new Quote { Date = DateTime.Parse("2018-12-31"), Open=(decimal)337.79, High=(decimal)339.21, Low=(decimal)325.26, Close=(decimal)332.8, Volume = (long)6302338 },</v>
+        <v>new Quote { Date = DateTime.ParseExact("2018-12-31","yyyy-MM-dd",cultureProvider), Open=337.79m, High=339.21m, Low=325.26m, Close=332.8m, Volume = (long)6302338 },</v>
       </c>
       <c r="D503" s="3">
         <v>43465</v>
